--- a/Oct2020Presentation/CCRAdjustmentSheet_December2021.xlsx
+++ b/Oct2020Presentation/CCRAdjustmentSheet_December2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ehunsing\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68450143-0439-4FD9-A011-4EB3F8F0E197}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08B0E88C-FCEA-4293-A6B8-789CC2DFEF2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CCRAdjustmentSheet_December2021" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="45">
   <si>
     <t>Female</t>
   </si>
@@ -81,22 +81,10 @@
     <t>Added Population</t>
   </si>
   <si>
-    <t>Standard l, 2010 to 2014</t>
-  </si>
-  <si>
-    <t>Adjusted l, 2010 to 2014</t>
-  </si>
-  <si>
     <t>Adjusted l, 2015 to 2019</t>
   </si>
   <si>
-    <t>Adjusted L, 2010 to 2014</t>
-  </si>
-  <si>
     <t>Adjusted L, 2015 to 2019</t>
-  </si>
-  <si>
-    <t>Adjusted S, 2010 to 2014</t>
   </si>
   <si>
     <t>Adjusted S, 2015 to 2019</t>
@@ -127,12 +115,6 @@
     <t>Input Populations (x is age break; n is age interval; 2010 and 2015 are years)</t>
   </si>
   <si>
-    <t>2020 (Projected Population)</t>
-  </si>
-  <si>
-    <t>Y, 2010 to 2014</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Result values are </t>
     </r>
@@ -161,63 +143,7 @@
     <t>Gross Migration Share (for weighting, generic)</t>
   </si>
   <si>
-    <t>Imposed iTFR (for births, youngest age group)</t>
-  </si>
-  <si>
     <t>Fraction female at birth (for births, youngest age group)</t>
-  </si>
-  <si>
-    <t>Effective 2020 Ratios</t>
-  </si>
-  <si>
-    <t>Adjusted 2015 Ratios</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Projection (Adjusted ratios include fertility, </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>gross</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> migration, and mortality adjustments; Effective ratios include </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>all</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> adjustments (net migration adjustment is added))</t>
-    </r>
   </si>
   <si>
     <t>More information is available via: https://applieddemogtoolbox.github.io/#CCRStable and https://github.com/edyhsgr/CCRStable/tree/master/Oct2020Presentation</t>
@@ -300,6 +226,39 @@
       </rPr>
       <t>annual, percent of total population)</t>
     </r>
+  </si>
+  <si>
+    <t>Adjusted l, 2020 to 2024</t>
+  </si>
+  <si>
+    <t>Adjusted l, 2025 to 2029</t>
+  </si>
+  <si>
+    <t>Adjusted L, 2020 to 2024</t>
+  </si>
+  <si>
+    <t>Adjusted L, 2025 to 2029</t>
+  </si>
+  <si>
+    <t>Adjusted S, 2020 to 2024</t>
+  </si>
+  <si>
+    <t>Adjusted S, 2025 to 2029</t>
+  </si>
+  <si>
+    <t>Standard l</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Projected Populations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Effective Birth and Cohort Change Ratios (including all adjustments) </t>
+  </si>
+  <si>
+    <t>Imposed iTFR Option (for births, youngest age group)</t>
   </si>
 </sst>
 </file>
@@ -490,7 +449,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -706,6 +665,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFE1FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="11">
     <border>
@@ -877,7 +842,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -928,9 +893,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -943,6 +905,9 @@
     <xf numFmtId="3" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -958,7 +923,17 @@
     <xf numFmtId="0" fontId="0" fillId="37" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1011,6 +986,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFE1FF"/>
+      <color rgb="FFDDDDDD"/>
+      <color rgb="FFFFFFCC"/>
       <color rgb="FFCCFFFF"/>
       <color rgb="FFD9D9FF"/>
       <color rgb="FFCCCCFF"/>
@@ -1430,11 +1408,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>CCRAdjustmentSheet_December2021!$AW$9</c:f>
+              <c:f>CCRAdjustmentSheet_December2021!$AS$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2020 (Projected Population)</c:v>
+                  <c:v>2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1517,63 +1495,63 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>CCRAdjustmentSheet_December2021!$AW$10:$AW$27</c:f>
+              <c:f>CCRAdjustmentSheet_December2021!$AS$10:$AS$27</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>51235.366470589128</c:v>
+                  <c:v>51227.216525404656</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>49003.153063046149</c:v>
+                  <c:v>48996.035443358058</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>48328.0473508082</c:v>
+                  <c:v>48326.837318715472</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>48391.462001648666</c:v>
+                  <c:v>48389.561332286641</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50530.92215903652</c:v>
+                  <c:v>50527.555308779076</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>66700.375149166575</c:v>
+                  <c:v>66695.24009821513</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>79458.900376011399</c:v>
+                  <c:v>79450.696550040113</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>72253.839720891643</c:v>
+                  <c:v>72242.441723666212</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>63725.537403050716</c:v>
+                  <c:v>63709.68344902424</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>59488.10371849822</c:v>
+                  <c:v>59463.884469629884</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>56351.921372438548</c:v>
+                  <c:v>56315.276478631888</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>57101.500813081955</c:v>
+                  <c:v>57045.728747942187</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>53069.915718534103</c:v>
+                  <c:v>52993.734508611953</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>45132.274744552735</c:v>
+                  <c:v>45037.725089031766</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>36612.947450678228</c:v>
+                  <c:v>36500.36131027696</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>23848.22066491998</c:v>
+                  <c:v>23739.040299008098</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>16246.900685861385</c:v>
+                  <c:v>16139.07032238626</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>20486.459018012716</c:v>
+                  <c:v>20356.17915436285</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1582,6 +1560,184 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-4A30-4B03-B285-98F05C4FBFD4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>2025</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>CCRAdjustmentSheet_December2021!$AT$10:$AT$27</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>54468.699301755441</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>52329.791969983751</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>48856.150985282984</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50617.943732926578</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>52365.236309029911</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64054.031967703013</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>78970.544385360146</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>84581.46105171596</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>73973.148964969732</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>63788.702704928866</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>59320.233790458122</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>55875.426311575276</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>55317.239138444675</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>50136.063337729836</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>41850.594801426807</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>33149.056310668158</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>20556.243126331236</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>22625.095770552165</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-94B8-4F76-89CD-A2C3B4FF5D5A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>2030</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>CCRAdjustmentSheet_December2021!$AU$10:$AU$27</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>57339.085967056664</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>55651.963328716316</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>52182.15611002368</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>51175.069485088679</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>54781.638969375024</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>66390.584317210072</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>75853.819694244201</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>84088.263845844063</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>86636.982517102457</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>74105.833220856424</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>63690.905997178554</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>58935.381514850116</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>54289.07431115795</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>52485.695067352441</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>46788.101107092196</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>38254.866962445332</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>28981.310802160355</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>27026.588070957361</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-94B8-4F76-89CD-A2C3B4FF5D5A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2026,11 +2182,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>CCRAdjustmentSheet_December2021!$AR$9</c:f>
+              <c:f>CCRAdjustmentSheet_December2021!$BA$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Effective 2020 Ratios</c:v>
+                  <c:v>2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2040,7 +2196,7 @@
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
-              <a:prstDash val="sysDot"/>
+              <a:prstDash val="dashDot"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -2110,60 +2266,60 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>CCRAdjustmentSheet_December2021!$AR$11:$AR$27</c:f>
+              <c:f>CCRAdjustmentSheet_December2021!$BA$11:$BA$27</c:f>
               <c:numCache>
                 <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>1.021452308814069</c:v>
+                  <c:v>1.0213039447066756</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.99713304621305632</c:v>
+                  <c:v>0.99710808011049734</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0473889009490642</c:v>
+                  <c:v>1.0473477627004597</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0821252818022211</c:v>
+                  <c:v>1.0820531803319144</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.2676582691747262</c:v>
+                  <c:v>1.2675606761733875</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.1839921976428811</c:v>
+                  <c:v>1.1838699550005232</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0644976091827987</c:v>
+                  <c:v>1.064329685362517</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0238349892845782</c:v>
+                  <c:v>1.0235802745577622</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.0010450597128904</c:v>
+                  <c:v>1.0006375066406941</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.9972732342129782</c:v>
+                  <c:v>0.99662472089038134</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.99172428380773825</c:v>
+                  <c:v>0.99075564882319955</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.96903034215633976</c:v>
+                  <c:v>0.96763931104356637</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.94511914946815356</c:v>
+                  <c:v>0.94313917636654798</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.92784965663148067</c:v>
+                  <c:v>0.92499648530858991</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.90615626814043548</c:v>
+                  <c:v>0.90200776271024008</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.86309502156084705</c:v>
+                  <c:v>0.85736667670985234</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.61797408880615112</c:v>
+                  <c:v>0.6140441963851121</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2172,6 +2328,178 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-D467-4E97-BE85-3768826F176E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>2025</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>CCRAdjustmentSheet_December2021!$BB$11:$BB$27</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>1.0215232354862049</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.99714498414393571</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0474085733999363</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0821597647774213</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2677049498291031</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1840506799146153</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0645779675253615</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0239569316873816</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0012403021271932</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.99758423654201178</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.99218950532501593</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.96969992938235772</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.94607530121475547</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.92923420796000344</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.90818433354342676</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.86592561735489149</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.6199463243830261</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-BEB0-40A6-BC75-1631D77C982A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>2030</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>CCRAdjustmentSheet_December2021!$BC$11:$BC$27</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>1.0217237430327759</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.99717874169947485</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0474642077412981</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0822572971043072</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2678370040270708</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1842161588280784</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0648054220762426</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0243022695497028</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0017936813254973</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.99846686476439728</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.99351229334382851</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.97160912935909549</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.94881262848267578</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.93322247484640197</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.91408179845370119</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.87427257447547535</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.62588582849403018</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-BEB0-40A6-BC75-1631D77C982A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3866,7 +4194,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B2:AW63"/>
+  <dimension ref="B2:BC63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
@@ -3891,62 +4219,90 @@
     <col min="23" max="23" width="4.44140625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="6.5546875" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="8" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="23" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="22.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="22.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="7.109375" style="1" customWidth="1"/>
-    <col min="33" max="33" width="3.77734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="6.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="8" bestFit="1" customWidth="1"/>
-    <col min="36" max="37" width="23" style="1" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="3.77734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="6.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="8" style="3" customWidth="1"/>
-    <col min="42" max="42" width="27.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="27.44140625" style="1" customWidth="1"/>
-    <col min="44" max="44" width="27.44140625" style="14" customWidth="1"/>
-    <col min="45" max="45" width="7.21875" style="14" customWidth="1"/>
-    <col min="46" max="46" width="3.77734375" style="14" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="6.5546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="8" style="3" customWidth="1"/>
-    <col min="49" max="49" width="27.44140625" style="14" customWidth="1"/>
+    <col min="26" max="26" width="10.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="30" width="22.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="33" width="22.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="7.109375" style="1" customWidth="1"/>
+    <col min="35" max="35" width="3.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="6.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="8" bestFit="1" customWidth="1"/>
+    <col min="38" max="40" width="22.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="7.109375" customWidth="1"/>
+    <col min="42" max="42" width="3" style="3" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="5.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="7.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="11.109375" style="3" customWidth="1"/>
+    <col min="46" max="47" width="11.109375" style="14" customWidth="1"/>
+    <col min="48" max="48" width="7.109375" style="14" customWidth="1"/>
+    <col min="49" max="49" width="3" style="14" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="5.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="7.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="28" style="3" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="11.109375" style="3" customWidth="1"/>
+    <col min="54" max="55" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:49" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:55" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="2:55" x14ac:dyDescent="0.3">
+      <c r="B3" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="2:49" x14ac:dyDescent="0.3">
-      <c r="B3" s="13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="2:49" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:55" x14ac:dyDescent="0.3">
       <c r="B4" s="13"/>
       <c r="L4" s="7"/>
     </row>
-    <row r="5" spans="2:49" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:55" x14ac:dyDescent="0.3">
       <c r="B5" s="13" t="s">
-        <v>39</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="AV5" s="36"/>
+      <c r="AW5" s="36"/>
+      <c r="AX5" s="37"/>
+      <c r="AY5" s="37"/>
+      <c r="AZ5" s="37"/>
+      <c r="BA5" s="37"/>
+      <c r="BB5" s="38"/>
+      <c r="BC5" s="38"/>
     </row>
-    <row r="6" spans="2:49" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:55" x14ac:dyDescent="0.3">
       <c r="B6" s="13" t="s">
-        <v>30</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="AV6" s="36"/>
+      <c r="AW6" s="36"/>
+      <c r="AX6" s="37"/>
+      <c r="AY6" s="37"/>
+      <c r="AZ6" s="37"/>
+      <c r="BA6" s="37"/>
+      <c r="BB6" s="38"/>
+      <c r="BC6" s="38"/>
     </row>
-    <row r="8" spans="2:49" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:55" x14ac:dyDescent="0.3">
+      <c r="AV7" s="36"/>
+      <c r="AW7" s="36"/>
+      <c r="AX7" s="37"/>
+      <c r="AY7" s="37"/>
+      <c r="AZ7" s="37"/>
+      <c r="BA7" s="37"/>
+      <c r="BB7" s="38"/>
+      <c r="BC7" s="38"/>
+    </row>
+    <row r="8" spans="2:55" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B8" s="32" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C8" s="32"/>
       <c r="D8" s="32"/>
       <c r="E8" s="32"/>
       <c r="F8" s="32"/>
       <c r="H8" s="33" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I8" s="33"/>
       <c r="J8" s="33"/>
@@ -3964,7 +4320,7 @@
       <c r="T8" s="34"/>
       <c r="U8" s="34"/>
       <c r="W8" s="35" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="X8" s="35"/>
       <c r="Y8" s="35"/>
@@ -3980,21 +4336,29 @@
       <c r="AI8" s="35"/>
       <c r="AJ8" s="35"/>
       <c r="AK8" s="35"/>
-      <c r="AM8" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="AN8" s="36"/>
-      <c r="AO8" s="36"/>
-      <c r="AP8" s="36"/>
-      <c r="AQ8" s="36"/>
-      <c r="AR8" s="36"/>
-      <c r="AS8" s="36"/>
-      <c r="AT8" s="36"/>
-      <c r="AU8" s="36"/>
-      <c r="AV8" s="36"/>
-      <c r="AW8" s="36"/>
+      <c r="AL8" s="35"/>
+      <c r="AM8" s="35"/>
+      <c r="AN8" s="35"/>
+      <c r="AP8" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="AQ8" s="30"/>
+      <c r="AR8" s="30"/>
+      <c r="AS8" s="30"/>
+      <c r="AT8" s="30"/>
+      <c r="AU8" s="30"/>
+      <c r="AV8" s="39"/>
+      <c r="AW8" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="AX8" s="40"/>
+      <c r="AY8" s="40"/>
+      <c r="AZ8" s="40"/>
+      <c r="BA8" s="40"/>
+      <c r="BB8" s="40"/>
+      <c r="BC8" s="40"/>
     </row>
-    <row r="9" spans="2:49" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:55" x14ac:dyDescent="0.3">
       <c r="B9" s="12" t="s">
         <v>5</v>
       </c>
@@ -4041,7 +4405,7 @@
         <v>10</v>
       </c>
       <c r="T9" s="11" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="U9" s="10" t="s">
         <v>15</v>
@@ -4057,72 +4421,89 @@
         <v>10</v>
       </c>
       <c r="Z9" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA9" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB9" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="AA9" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB9" s="10" t="s">
+      <c r="AC9" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD9" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE9" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="AC9" s="10" t="s">
+      <c r="AF9" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG9" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH9" s="10"/>
+      <c r="AI9" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ9" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK9" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="AL9" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="AD9" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="AE9" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="AF9" s="10"/>
-      <c r="AG9" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="AH9" s="12" t="s">
+      <c r="AM9" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN9" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP9" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="AQ9" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="AI9" s="12" t="s">
+      <c r="AR9" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="AJ9" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="AK9" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="AM9" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="AN9" s="12" t="s">
+      <c r="AS9" s="10">
+        <v>2020</v>
+      </c>
+      <c r="AT9" s="10">
+        <v>2025</v>
+      </c>
+      <c r="AU9" s="10">
+        <v>2030</v>
+      </c>
+      <c r="AW9" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="AX9" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="AO9" s="12" t="s">
+      <c r="AY9" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="AP9" s="9" t="s">
+      <c r="AZ9" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="AQ9" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="AR9" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="AS9" s="10"/>
-      <c r="AT9" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="AU9" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="AV9" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="AW9" s="10" t="s">
-        <v>27</v>
+      <c r="BA9" s="10">
+        <v>2020</v>
+      </c>
+      <c r="BB9" s="10">
+        <v>2025</v>
+      </c>
+      <c r="BC9" s="10">
+        <v>2030</v>
       </c>
     </row>
-    <row r="10" spans="2:49" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:55" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
         <v>0</v>
       </c>
@@ -4155,10 +4536,10 @@
         <v>0.81409207804613137</v>
       </c>
       <c r="N10" t="s">
-        <v>34</v>
-      </c>
-      <c r="O10" s="27" t="s">
-        <v>24</v>
+        <v>44</v>
+      </c>
+      <c r="O10" s="26" t="s">
+        <v>20</v>
       </c>
       <c r="Q10" s="3">
         <v>0</v>
@@ -4190,7 +4571,7 @@
         <v>1</v>
       </c>
       <c r="AA10" s="15" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AB10" s="7">
         <v>1</v>
@@ -4199,65 +4580,86 @@
         <v>1</v>
       </c>
       <c r="AD10" s="7">
+        <v>1</v>
+      </c>
+      <c r="AE10" s="7">
         <f>0.5*(AB10+AB11)</f>
         <v>0.99764961447847977</v>
       </c>
-      <c r="AE10" s="7">
-        <f>0.5*(AC10+AC11)</f>
-        <v>0.99778588415784075</v>
-      </c>
-      <c r="AF10" s="7"/>
-      <c r="AG10" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH10" s="3">
-        <v>5</v>
-      </c>
-      <c r="AI10" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ10" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="AK10" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="AM10" s="3">
-        <v>0</v>
-      </c>
-      <c r="AN10" s="3">
-        <v>5</v>
-      </c>
-      <c r="AO10" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AP10" t="s">
+      <c r="AF10" s="7">
+        <f t="shared" ref="AF10:AG10" si="1">0.5*(AC10+AC11)</f>
+        <v>0.99785103992716384</v>
+      </c>
+      <c r="AG10" s="7">
+        <f t="shared" si="1"/>
+        <v>0.99803527158730265</v>
+      </c>
+      <c r="AH10" s="7"/>
+      <c r="AI10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="3">
+        <v>5</v>
+      </c>
+      <c r="AK10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL10" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="AM10" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="AN10" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="AP10" s="13">
+        <v>0</v>
+      </c>
+      <c r="AQ10" s="13">
+        <v>5</v>
+      </c>
+      <c r="AR10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AS10" s="25">
+        <f>(IF(AND(O10&lt;&gt;".",O10&lt;&gt;""),O10*O11,L10))*((SUM(AS13:AS19)/(AP20-AP13))*AQ10)</f>
+        <v>51227.216525404656</v>
+      </c>
+      <c r="AT10" s="25">
+        <f>(IF(AND(O10&lt;&gt;".",O10&lt;&gt;""),O10*O11,L10))*((SUM(AT13:AT19)/(AP20-AP13))*AQ10)</f>
+        <v>54468.699301755441</v>
+      </c>
+      <c r="AU10" s="25">
+        <f>(IF(AND(O10&lt;&gt;".",O10&lt;&gt;""),O10*O11,L10))*((SUM(AU13:AU19)/(AP20-AP13))*AQ10)</f>
+        <v>57339.085967056664</v>
+      </c>
+      <c r="AW10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AX10" s="3">
+        <v>5</v>
+      </c>
+      <c r="AY10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ10" t="s">
         <v>4</v>
       </c>
-      <c r="AQ10" s="24">
-        <f>IF(AND(O10&lt;&gt;".",O10&lt;&gt;""),O10*O11,L10)</f>
+      <c r="BA10" s="24">
+        <f>(AS10)/((SUM(AS13:AS19)/(AP20-AP13))*AQ10)</f>
         <v>0.81409207804613137</v>
       </c>
-      <c r="AR10" s="25">
-        <f>AQ10</f>
+      <c r="BB10" s="24">
+        <f>(AT10)/((SUM(AT13:AT19)/(AP20-AP13))*AQ10)</f>
         <v>0.81409207804613137</v>
       </c>
-      <c r="AS10" s="25"/>
-      <c r="AT10" s="13">
-        <v>0</v>
-      </c>
-      <c r="AU10" s="13">
-        <v>5</v>
-      </c>
-      <c r="AV10" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AW10" s="26">
-        <f>AR10*(SUM(AW13:AW19)/(AT20-AT13))*AU10</f>
-        <v>51235.366470589128</v>
+      <c r="BC10" s="24">
+        <f>(AU10)/((SUM(AU13:AU19)/(AP20-AP13))*AQ10)</f>
+        <v>0.81409207804613137</v>
       </c>
     </row>
-    <row r="11" spans="2:49" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:55" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <v>5</v>
       </c>
@@ -4290,9 +4692,9 @@
         <v>1.0213039447066756</v>
       </c>
       <c r="N11" t="s">
-        <v>35</v>
-      </c>
-      <c r="O11" s="30">
+        <v>28</v>
+      </c>
+      <c r="O11" s="29">
         <v>0.48859999999999998</v>
       </c>
       <c r="Q11" s="3">
@@ -4329,76 +4731,99 @@
         <v>2.6476584387979543</v>
       </c>
       <c r="AB11" s="7">
-        <f t="shared" ref="AB11:AB32" si="1">1/(1+EXP(-2*O$14-2*1*AA11))</f>
+        <f>1/(1+EXP(-2*(O$14*1+O$15*0)-2*1*AA11))</f>
         <v>0.99529922895695955</v>
       </c>
       <c r="AC11" s="7">
-        <f t="shared" ref="AC11:AC32" si="2">1/(1+EXP(-2*O$15-2*1*AA11))</f>
-        <v>0.9955717683156815</v>
+        <f>1/(1+EXP(-2*(O$14*0.5+O$15*0.5)-2*1*AA11))</f>
+        <v>0.99570207985432768</v>
       </c>
       <c r="AD11" s="7">
-        <f t="shared" ref="AD11:AE29" si="3">0.5*(AB11+AB12)</f>
+        <f>1/(1+EXP(-2*(O$14*0+O$15*1)-2*1*AA11))</f>
+        <v>0.99607054317460542</v>
+      </c>
+      <c r="AE11" s="7">
+        <f t="shared" ref="AE11:AE30" si="2">0.5*(AB11+AB12)</f>
         <v>0.99510133857093952</v>
       </c>
-      <c r="AE11" s="7">
-        <f t="shared" si="3"/>
-        <v>0.9953852957915319</v>
-      </c>
-      <c r="AF11" s="7"/>
-      <c r="AG11" s="3">
-        <v>5</v>
-      </c>
-      <c r="AH11" s="3">
-        <v>5</v>
-      </c>
-      <c r="AI11" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ11" s="7">
-        <f>AD11/AD10</f>
+      <c r="AF11" s="7">
+        <f t="shared" ref="AF11:AF31" si="3">0.5*(AC11+AC12)</f>
+        <v>0.99552106905513926</v>
+      </c>
+      <c r="AG11" s="7">
+        <f t="shared" ref="AG11:AG31" si="4">0.5*(AD11+AD12)</f>
+        <v>0.9959049841401364</v>
+      </c>
+      <c r="AH11" s="7"/>
+      <c r="AI11" s="3">
+        <v>5</v>
+      </c>
+      <c r="AJ11" s="3">
+        <v>5</v>
+      </c>
+      <c r="AK11" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL11" s="7">
+        <f>AE11/AE10</f>
         <v>0.99744572055102498</v>
       </c>
-      <c r="AK11" s="7">
-        <f>AE11/AE10</f>
-        <v>0.99759408465841848</v>
-      </c>
-      <c r="AL11" s="4"/>
-      <c r="AM11" s="3">
-        <v>5</v>
-      </c>
-      <c r="AN11" s="3">
-        <v>5</v>
-      </c>
-      <c r="AO11" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AP11" t="s">
+      <c r="AM11" s="7">
+        <f t="shared" ref="AM11:AN11" si="5">AF11/AF10</f>
+        <v>0.9976650113305543</v>
+      </c>
+      <c r="AN11" s="7">
+        <f t="shared" si="5"/>
+        <v>0.99786551887712527</v>
+      </c>
+      <c r="AO11" s="4"/>
+      <c r="AP11" s="13">
+        <v>5</v>
+      </c>
+      <c r="AQ11" s="13">
+        <v>5</v>
+      </c>
+      <c r="AR11" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AS11" s="25">
+        <f>(F10)*((L11-AL11)*O$13+AL11)+(U11)</f>
+        <v>48996.035443358058</v>
+      </c>
+      <c r="AT11" s="25">
+        <f>(AS10)*((L11-AL11)*O$13+AM11)+(U11)</f>
+        <v>52329.791969983751</v>
+      </c>
+      <c r="AU11" s="25">
+        <f>(AT10)*((L11-AL11)*O$13+AN11)+(U11)</f>
+        <v>55651.963328716316</v>
+      </c>
+      <c r="AW11" s="3">
+        <v>5</v>
+      </c>
+      <c r="AX11" s="3">
+        <v>5</v>
+      </c>
+      <c r="AY11" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ11" t="s">
         <v>1</v>
       </c>
-      <c r="AQ11" s="7">
-        <f t="shared" ref="AQ11:AQ27" si="4">(L11-AJ11)*O$13+AK11</f>
-        <v>1.021452308814069</v>
-      </c>
-      <c r="AR11" s="25">
-        <f t="shared" ref="AR11:AR26" si="5">AW11/F10</f>
-        <v>1.021452308814069</v>
-      </c>
-      <c r="AS11" s="25"/>
-      <c r="AT11" s="13">
-        <v>5</v>
-      </c>
-      <c r="AU11" s="13">
-        <v>5</v>
-      </c>
-      <c r="AV11" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AW11" s="26">
-        <f t="shared" ref="AW11:AW26" si="6">F10*AQ11+U11</f>
-        <v>49003.153063046149</v>
+      <c r="BA11" s="24">
+        <f>AS11/F10</f>
+        <v>1.0213039447066756</v>
+      </c>
+      <c r="BB11" s="24">
+        <f>AT11/AS10</f>
+        <v>1.0215232354862049</v>
+      </c>
+      <c r="BC11" s="24">
+        <f>AU11/AT10</f>
+        <v>1.0217237430327759</v>
       </c>
     </row>
-    <row r="12" spans="2:49" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:55" x14ac:dyDescent="0.3">
       <c r="B12" s="3">
         <v>10</v>
       </c>
@@ -4431,7 +4856,7 @@
         <v>0.99710808011049723</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="O12" s="18">
         <v>0</v>
@@ -4466,80 +4891,103 @@
         <v>0.99458999999999997</v>
       </c>
       <c r="AA12" s="7">
-        <f t="shared" ref="AA12:AA55" si="7">0.5*LN(Z12/(1-Z12))</f>
+        <f t="shared" ref="AA12:AA55" si="6">0.5*LN(Z12/(1-Z12))</f>
         <v>2.6070407495392578</v>
       </c>
       <c r="AB12" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="AB12:AB31" si="7">1/(1+EXP(-2*(O$14*1+O$15*0)-2*1*AA12))</f>
         <v>0.99490344818491938</v>
       </c>
       <c r="AC12" s="7">
+        <f t="shared" ref="AC12:AC31" si="8">1/(1+EXP(-2*(O$14*0.5+O$15*0.5)-2*1*AA12))</f>
+        <v>0.99534005825595095</v>
+      </c>
+      <c r="AD12" s="7">
+        <f t="shared" ref="AD12:AD32" si="9">1/(1+EXP(-2*(O$14*0+O$15*1)-2*1*AA12))</f>
+        <v>0.99573942510566738</v>
+      </c>
+      <c r="AE12" s="7">
         <f t="shared" si="2"/>
-        <v>0.99519882326738229</v>
-      </c>
-      <c r="AD12" s="7">
+        <v>0.99467256382879032</v>
+      </c>
+      <c r="AF12" s="7">
         <f t="shared" si="3"/>
-        <v>0.99467256382879032</v>
-      </c>
-      <c r="AE12" s="7">
-        <f t="shared" si="3"/>
-        <v>0.99498124958771306</v>
-      </c>
-      <c r="AF12" s="7"/>
-      <c r="AG12" s="3">
+        <v>0.99512885220002989</v>
+      </c>
+      <c r="AG12" s="7">
+        <f t="shared" si="4"/>
+        <v>0.99554623534741093</v>
+      </c>
+      <c r="AH12" s="7"/>
+      <c r="AI12" s="3">
         <v>10</v>
       </c>
-      <c r="AH12" s="3">
-        <v>5</v>
-      </c>
-      <c r="AI12" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ12" s="7">
-        <f t="shared" ref="AJ12:AK25" si="8">AD12/AD11</f>
+      <c r="AJ12" s="3">
+        <v>5</v>
+      </c>
+      <c r="AK12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL12" s="7">
+        <f t="shared" ref="AL12:AL26" si="10">AE12/AE11</f>
         <v>0.99956911449565033</v>
       </c>
-      <c r="AK12" s="7">
-        <f>AE12/AE11</f>
-        <v>0.99959408059820942</v>
-      </c>
-      <c r="AL12" s="4"/>
-      <c r="AM12" s="3">
+      <c r="AM12" s="7">
+        <f t="shared" ref="AM12:AM26" si="11">AF12/AF11</f>
+        <v>0.99960601852908881</v>
+      </c>
+      <c r="AN12" s="7">
+        <f t="shared" ref="AN12:AN26" si="12">AG12/AG11</f>
+        <v>0.99963977608462795</v>
+      </c>
+      <c r="AO12" s="4"/>
+      <c r="AP12" s="13">
         <v>10</v>
       </c>
-      <c r="AN12" s="3">
-        <v>5</v>
-      </c>
-      <c r="AO12" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AP12" t="s">
+      <c r="AQ12" s="13">
+        <v>5</v>
+      </c>
+      <c r="AR12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AS12" s="25">
+        <f>(F11)*((L12-AL12)*O$13+AL12)+(U12)</f>
+        <v>48326.837318715472</v>
+      </c>
+      <c r="AT12" s="25">
+        <f>(AS11)*((L12-AL12)*O$13+AM12)+(U12)</f>
+        <v>48856.150985282984</v>
+      </c>
+      <c r="AU12" s="25">
+        <f>(AT11)*((L12-AL12)*O$13+AN12)+(U12)</f>
+        <v>52182.15611002368</v>
+      </c>
+      <c r="AW12" s="3">
+        <v>10</v>
+      </c>
+      <c r="AX12" s="3">
+        <v>5</v>
+      </c>
+      <c r="AY12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ12" t="s">
         <v>1</v>
       </c>
-      <c r="AQ12" s="7">
-        <f t="shared" si="4"/>
-        <v>0.99713304621305632</v>
-      </c>
-      <c r="AR12" s="25">
-        <f t="shared" si="5"/>
-        <v>0.99713304621305632</v>
-      </c>
-      <c r="AS12" s="25"/>
-      <c r="AT12" s="13">
-        <v>10</v>
-      </c>
-      <c r="AU12" s="13">
-        <v>5</v>
-      </c>
-      <c r="AV12" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AW12" s="26">
-        <f t="shared" si="6"/>
-        <v>48328.0473508082</v>
+      <c r="BA12" s="24">
+        <f t="shared" ref="BA12:BA26" si="13">AS12/F11</f>
+        <v>0.99710808011049734</v>
+      </c>
+      <c r="BB12" s="24">
+        <f t="shared" ref="BB12:BB26" si="14">AT12/AS11</f>
+        <v>0.99714498414393571</v>
+      </c>
+      <c r="BC12" s="24">
+        <f t="shared" ref="BC12:BC26" si="15">AU12/AT11</f>
+        <v>0.99717874169947485</v>
       </c>
     </row>
-    <row r="13" spans="2:49" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:55" x14ac:dyDescent="0.3">
       <c r="B13" s="3">
         <v>15</v>
       </c>
@@ -4568,11 +5016,11 @@
         <v>1</v>
       </c>
       <c r="L13" s="7">
-        <f t="shared" ref="L13:L25" si="9">F13/E12</f>
+        <f t="shared" ref="L13:L25" si="16">F13/E12</f>
         <v>1.0473477627004597</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="O13" s="18">
         <v>1</v>
@@ -4607,80 +5055,103 @@
         <v>0.99409999999999998</v>
       </c>
       <c r="AA13" s="7">
+        <f t="shared" si="6"/>
+        <v>2.5634427271532116</v>
+      </c>
+      <c r="AB13" s="7">
         <f t="shared" si="7"/>
-        <v>2.5634427271532116</v>
-      </c>
-      <c r="AB13" s="7">
-        <f t="shared" si="1"/>
         <v>0.99444167947266127</v>
       </c>
       <c r="AC13" s="7">
+        <f t="shared" si="8"/>
+        <v>0.99491764614410894</v>
+      </c>
+      <c r="AD13" s="7">
+        <f t="shared" si="9"/>
+        <v>0.99535304558915449</v>
+      </c>
+      <c r="AE13" s="7">
         <f t="shared" si="2"/>
-        <v>0.99476367590804382</v>
-      </c>
-      <c r="AD13" s="7">
+        <v>0.99396573339498207</v>
+      </c>
+      <c r="AF13" s="7">
         <f t="shared" si="3"/>
-        <v>0.99396573339498207</v>
-      </c>
-      <c r="AE13" s="7">
-        <f t="shared" si="3"/>
-        <v>0.99431513158280738</v>
-      </c>
-      <c r="AF13" s="7"/>
-      <c r="AG13" s="3">
+        <v>0.99448221200188658</v>
+      </c>
+      <c r="AG13" s="7">
+        <f t="shared" si="4"/>
+        <v>0.99495471049050277</v>
+      </c>
+      <c r="AH13" s="7"/>
+      <c r="AI13" s="3">
         <v>15</v>
       </c>
-      <c r="AH13" s="3">
-        <v>5</v>
-      </c>
-      <c r="AI13" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ13" s="7">
-        <f t="shared" si="8"/>
+      <c r="AJ13" s="3">
+        <v>5</v>
+      </c>
+      <c r="AK13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL13" s="7">
+        <f t="shared" si="10"/>
         <v>0.99928938380376409</v>
       </c>
-      <c r="AK13" s="7">
-        <f t="shared" si="8"/>
-        <v>0.99933052205236861</v>
-      </c>
-      <c r="AL13" s="4"/>
-      <c r="AM13" s="3">
+      <c r="AM13" s="7">
+        <f t="shared" si="11"/>
+        <v>0.9993501945032407</v>
+      </c>
+      <c r="AN13" s="7">
+        <f t="shared" si="12"/>
+        <v>0.99940582884460238</v>
+      </c>
+      <c r="AO13" s="4"/>
+      <c r="AP13" s="13">
         <v>15</v>
       </c>
-      <c r="AN13" s="3">
-        <v>5</v>
-      </c>
-      <c r="AO13" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AP13" t="s">
+      <c r="AQ13" s="13">
+        <v>5</v>
+      </c>
+      <c r="AR13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AS13" s="25">
+        <f>(F12)*((L13-AL13)*O$13+AL13)+(U13)</f>
+        <v>48389.561332286641</v>
+      </c>
+      <c r="AT13" s="25">
+        <f>(AS12)*((L13-AL13)*O$13+AM13)+(U13)</f>
+        <v>50617.943732926578</v>
+      </c>
+      <c r="AU13" s="25">
+        <f>(AT12)*((L13-AL13)*O$13+AN13)+(U13)</f>
+        <v>51175.069485088679</v>
+      </c>
+      <c r="AW13" s="3">
+        <v>15</v>
+      </c>
+      <c r="AX13" s="3">
+        <v>5</v>
+      </c>
+      <c r="AY13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ13" t="s">
         <v>1</v>
       </c>
-      <c r="AQ13" s="7">
-        <f t="shared" si="4"/>
-        <v>1.0473889009490642</v>
-      </c>
-      <c r="AR13" s="25">
-        <f t="shared" si="5"/>
-        <v>1.0473889009490642</v>
-      </c>
-      <c r="AS13" s="25"/>
-      <c r="AT13" s="13">
-        <v>15</v>
-      </c>
-      <c r="AU13" s="13">
-        <v>5</v>
-      </c>
-      <c r="AV13" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AW13" s="26">
-        <f t="shared" si="6"/>
-        <v>48391.462001648666</v>
+      <c r="BA13" s="24">
+        <f t="shared" si="13"/>
+        <v>1.0473477627004597</v>
+      </c>
+      <c r="BB13" s="24">
+        <f t="shared" si="14"/>
+        <v>1.0474085733999363</v>
+      </c>
+      <c r="BC13" s="24">
+        <f t="shared" si="15"/>
+        <v>1.0474642077412981</v>
       </c>
     </row>
-    <row r="14" spans="2:49" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:55" x14ac:dyDescent="0.3">
       <c r="B14" s="3">
         <v>20</v>
       </c>
@@ -4709,11 +5180,11 @@
         <v>1</v>
       </c>
       <c r="L14" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>1.0820531803319144</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="O14" s="19">
         <v>0.03</v>
@@ -4748,80 +5219,103 @@
         <v>0.99309000000000003</v>
       </c>
       <c r="AA14" s="7">
+        <f t="shared" si="6"/>
+        <v>2.4839258282998165</v>
+      </c>
+      <c r="AB14" s="7">
         <f t="shared" si="7"/>
-        <v>2.4839258282998165</v>
-      </c>
-      <c r="AB14" s="7">
-        <f t="shared" si="1"/>
         <v>0.99348978731730297</v>
       </c>
       <c r="AC14" s="7">
+        <f t="shared" si="8"/>
+        <v>0.99404677785966411</v>
+      </c>
+      <c r="AD14" s="7">
+        <f t="shared" si="9"/>
+        <v>0.99455637539185116</v>
+      </c>
+      <c r="AE14" s="7">
         <f t="shared" si="2"/>
-        <v>0.99386658725757104</v>
-      </c>
-      <c r="AD14" s="7">
+        <v>0.99272627167835925</v>
+      </c>
+      <c r="AF14" s="7">
         <f t="shared" si="3"/>
-        <v>0.99272627167835925</v>
-      </c>
-      <c r="AE14" s="7">
-        <f t="shared" si="3"/>
-        <v>0.99314692575434382</v>
-      </c>
-      <c r="AF14" s="7"/>
-      <c r="AG14" s="3">
+        <v>0.99334810257861583</v>
+      </c>
+      <c r="AG14" s="7">
+        <f t="shared" si="4"/>
+        <v>0.99391710247710907</v>
+      </c>
+      <c r="AH14" s="7"/>
+      <c r="AI14" s="3">
         <v>20</v>
       </c>
-      <c r="AH14" s="3">
-        <v>5</v>
-      </c>
-      <c r="AI14" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ14" s="7">
-        <f t="shared" si="8"/>
+      <c r="AJ14" s="3">
+        <v>5</v>
+      </c>
+      <c r="AK14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL14" s="7">
+        <f t="shared" si="10"/>
         <v>0.99875301363519919</v>
       </c>
-      <c r="AK14" s="7">
-        <f t="shared" si="8"/>
-        <v>0.99882511510550587</v>
-      </c>
-      <c r="AL14" s="4"/>
-      <c r="AM14" s="3">
+      <c r="AM14" s="7">
+        <f t="shared" si="11"/>
+        <v>0.9988595980807059</v>
+      </c>
+      <c r="AN14" s="7">
+        <f t="shared" si="12"/>
+        <v>0.99895713040759193</v>
+      </c>
+      <c r="AO14" s="4"/>
+      <c r="AP14" s="13">
         <v>20</v>
       </c>
-      <c r="AN14" s="3">
-        <v>5</v>
-      </c>
-      <c r="AO14" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AP14" t="s">
+      <c r="AQ14" s="13">
+        <v>5</v>
+      </c>
+      <c r="AR14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AS14" s="25">
+        <f>(F13)*((L14-AL14)*O$13+AL14)+(U14)</f>
+        <v>50527.555308779076</v>
+      </c>
+      <c r="AT14" s="25">
+        <f>(AS13)*((L14-AL14)*O$13+AM14)+(U14)</f>
+        <v>52365.236309029911</v>
+      </c>
+      <c r="AU14" s="25">
+        <f>(AT13)*((L14-AL14)*O$13+AN14)+(U14)</f>
+        <v>54781.638969375024</v>
+      </c>
+      <c r="AW14" s="3">
+        <v>20</v>
+      </c>
+      <c r="AX14" s="3">
+        <v>5</v>
+      </c>
+      <c r="AY14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ14" t="s">
         <v>1</v>
       </c>
-      <c r="AQ14" s="7">
-        <f t="shared" si="4"/>
-        <v>1.0821252818022211</v>
-      </c>
-      <c r="AR14" s="25">
-        <f t="shared" si="5"/>
-        <v>1.0821252818022211</v>
-      </c>
-      <c r="AS14" s="25"/>
-      <c r="AT14" s="13">
-        <v>20</v>
-      </c>
-      <c r="AU14" s="13">
-        <v>5</v>
-      </c>
-      <c r="AV14" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AW14" s="26">
-        <f t="shared" si="6"/>
-        <v>50530.92215903652</v>
+      <c r="BA14" s="24">
+        <f t="shared" si="13"/>
+        <v>1.0820531803319144</v>
+      </c>
+      <c r="BB14" s="24">
+        <f t="shared" si="14"/>
+        <v>1.0821597647774213</v>
+      </c>
+      <c r="BC14" s="24">
+        <f t="shared" si="15"/>
+        <v>1.0822572971043072</v>
       </c>
     </row>
-    <row r="15" spans="2:49" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:55" x14ac:dyDescent="0.3">
       <c r="B15" s="3">
         <v>25</v>
       </c>
@@ -4850,14 +5344,14 @@
         <v>1</v>
       </c>
       <c r="L15" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>1.2675606761733875</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="O15" s="19">
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
       <c r="Q15" s="3">
         <v>25</v>
@@ -4889,80 +5383,103 @@
         <v>0.99146999999999996</v>
       </c>
       <c r="AA15" s="7">
+        <f t="shared" si="6"/>
+        <v>2.3777996644062096</v>
+      </c>
+      <c r="AB15" s="7">
         <f t="shared" si="7"/>
-        <v>2.3777996644062096</v>
-      </c>
-      <c r="AB15" s="7">
-        <f t="shared" si="1"/>
         <v>0.99196275603941553</v>
       </c>
       <c r="AC15" s="7">
+        <f t="shared" si="8"/>
+        <v>0.99264942729756755</v>
+      </c>
+      <c r="AD15" s="7">
+        <f t="shared" si="9"/>
+        <v>0.99327782956236699</v>
+      </c>
+      <c r="AE15" s="7">
         <f t="shared" si="2"/>
-        <v>0.9924272642511166</v>
-      </c>
-      <c r="AD15" s="7">
+        <v>0.99104823282279453</v>
+      </c>
+      <c r="AF15" s="7">
         <f t="shared" si="3"/>
-        <v>0.99104823282279453</v>
-      </c>
-      <c r="AE15" s="7">
-        <f>0.5*(AC15+AC16)</f>
-        <v>0.99156510004219545</v>
-      </c>
-      <c r="AF15" s="7"/>
-      <c r="AG15" s="3">
+        <v>0.99181232658336671</v>
+      </c>
+      <c r="AG15" s="7">
+        <f t="shared" si="4"/>
+        <v>0.99251169769956049</v>
+      </c>
+      <c r="AH15" s="7"/>
+      <c r="AI15" s="3">
         <v>25</v>
       </c>
-      <c r="AH15" s="3">
-        <v>5</v>
-      </c>
-      <c r="AI15" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ15" s="7">
-        <f t="shared" si="8"/>
+      <c r="AJ15" s="3">
+        <v>5</v>
+      </c>
+      <c r="AK15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL15" s="7">
+        <f t="shared" si="10"/>
         <v>0.99830966611498284</v>
       </c>
-      <c r="AK15" s="7">
-        <f t="shared" si="8"/>
-        <v>0.99840725911632167</v>
-      </c>
-      <c r="AL15" s="4"/>
-      <c r="AM15" s="3">
+      <c r="AM15" s="7">
+        <f t="shared" si="11"/>
+        <v>0.9984539397706983</v>
+      </c>
+      <c r="AN15" s="7">
+        <f t="shared" si="12"/>
+        <v>0.9985859939686661</v>
+      </c>
+      <c r="AO15" s="4"/>
+      <c r="AP15" s="13">
         <v>25</v>
       </c>
-      <c r="AN15" s="3">
-        <v>5</v>
-      </c>
-      <c r="AO15" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AP15" t="s">
+      <c r="AQ15" s="13">
+        <v>5</v>
+      </c>
+      <c r="AR15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AS15" s="25">
+        <f>(F14)*((L15-AL15)*O$13+AL15)+(U15)</f>
+        <v>66695.24009821513</v>
+      </c>
+      <c r="AT15" s="25">
+        <f>(AS14)*((L15-AL15)*O$13+AM15)+(U15)</f>
+        <v>64054.031967703013</v>
+      </c>
+      <c r="AU15" s="25">
+        <f>(AT14)*((L15-AL15)*O$13+AN15)+(U15)</f>
+        <v>66390.584317210072</v>
+      </c>
+      <c r="AW15" s="3">
+        <v>25</v>
+      </c>
+      <c r="AX15" s="3">
+        <v>5</v>
+      </c>
+      <c r="AY15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ15" t="s">
         <v>1</v>
       </c>
-      <c r="AQ15" s="7">
-        <f t="shared" si="4"/>
-        <v>1.2676582691747265</v>
-      </c>
-      <c r="AR15" s="25">
-        <f t="shared" si="5"/>
-        <v>1.2676582691747262</v>
-      </c>
-      <c r="AS15" s="25"/>
-      <c r="AT15" s="13">
-        <v>25</v>
-      </c>
-      <c r="AU15" s="13">
-        <v>5</v>
-      </c>
-      <c r="AV15" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AW15" s="26">
-        <f t="shared" si="6"/>
-        <v>66700.375149166575</v>
+      <c r="BA15" s="24">
+        <f t="shared" si="13"/>
+        <v>1.2675606761733875</v>
+      </c>
+      <c r="BB15" s="24">
+        <f t="shared" si="14"/>
+        <v>1.2677049498291031</v>
+      </c>
+      <c r="BC15" s="24">
+        <f t="shared" si="15"/>
+        <v>1.2678370040270708</v>
       </c>
     </row>
-    <row r="16" spans="2:49" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:55" x14ac:dyDescent="0.3">
       <c r="B16" s="3">
         <v>30</v>
       </c>
@@ -4991,7 +5508,7 @@
         <v>1</v>
       </c>
       <c r="L16" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>1.1838699550005232</v>
       </c>
       <c r="N16" s="3"/>
@@ -5026,80 +5543,103 @@
         <v>0.98953000000000002</v>
       </c>
       <c r="AA16" s="7">
+        <f t="shared" si="6"/>
+        <v>2.2743580290215912</v>
+      </c>
+      <c r="AB16" s="7">
         <f t="shared" si="7"/>
-        <v>2.2743580290215912</v>
-      </c>
-      <c r="AB16" s="7">
-        <f t="shared" si="1"/>
         <v>0.99013370960617342</v>
       </c>
       <c r="AC16" s="7">
+        <f t="shared" si="8"/>
+        <v>0.99097522586916587</v>
+      </c>
+      <c r="AD16" s="7">
+        <f t="shared" si="9"/>
+        <v>0.99174556583675388</v>
+      </c>
+      <c r="AE16" s="7">
         <f t="shared" si="2"/>
-        <v>0.99070293583327429</v>
-      </c>
-      <c r="AD16" s="7">
+        <v>0.9889454634552346</v>
+      </c>
+      <c r="AF16" s="7">
         <f t="shared" si="3"/>
-        <v>0.9889454634552346</v>
-      </c>
-      <c r="AE16" s="7">
-        <f t="shared" si="3"/>
-        <v>0.9895824455428468</v>
-      </c>
-      <c r="AF16" s="7"/>
-      <c r="AG16" s="3">
+        <v>0.98988718118753471</v>
+      </c>
+      <c r="AG16" s="7">
+        <f t="shared" si="4"/>
+        <v>0.99074943455516373</v>
+      </c>
+      <c r="AH16" s="7"/>
+      <c r="AI16" s="3">
         <v>30</v>
       </c>
-      <c r="AH16" s="3">
-        <v>5</v>
-      </c>
-      <c r="AI16" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ16" s="7">
-        <f t="shared" si="8"/>
+      <c r="AJ16" s="3">
+        <v>5</v>
+      </c>
+      <c r="AK16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL16" s="7">
+        <f t="shared" si="10"/>
         <v>0.99787823710499879</v>
       </c>
-      <c r="AK16" s="7">
-        <f t="shared" si="8"/>
-        <v>0.99800047974735673</v>
-      </c>
-      <c r="AL16" s="4"/>
-      <c r="AM16" s="3">
+      <c r="AM16" s="7">
+        <f t="shared" si="11"/>
+        <v>0.99805896201909106</v>
+      </c>
+      <c r="AN16" s="7">
+        <f t="shared" si="12"/>
+        <v>0.99822444093255391</v>
+      </c>
+      <c r="AO16" s="4"/>
+      <c r="AP16" s="13">
         <v>30</v>
       </c>
-      <c r="AN16" s="3">
-        <v>5</v>
-      </c>
-      <c r="AO16" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AP16" t="s">
+      <c r="AQ16" s="13">
+        <v>5</v>
+      </c>
+      <c r="AR16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AS16" s="25">
+        <f>(F15)*((L16-AL16)*O$13+AL16)+(U16)</f>
+        <v>79450.696550040113</v>
+      </c>
+      <c r="AT16" s="25">
+        <f>(AS15)*((L16-AL16)*O$13+AM16)+(U16)</f>
+        <v>78970.544385360146</v>
+      </c>
+      <c r="AU16" s="25">
+        <f>(AT15)*((L16-AL16)*O$13+AN16)+(U16)</f>
+        <v>75853.819694244201</v>
+      </c>
+      <c r="AW16" s="3">
+        <v>30</v>
+      </c>
+      <c r="AX16" s="3">
+        <v>5</v>
+      </c>
+      <c r="AY16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ16" t="s">
         <v>1</v>
       </c>
-      <c r="AQ16" s="7">
-        <f t="shared" si="4"/>
-        <v>1.1839921976428811</v>
-      </c>
-      <c r="AR16" s="25">
-        <f t="shared" si="5"/>
-        <v>1.1839921976428811</v>
-      </c>
-      <c r="AS16" s="25"/>
-      <c r="AT16" s="13">
-        <v>30</v>
-      </c>
-      <c r="AU16" s="13">
-        <v>5</v>
-      </c>
-      <c r="AV16" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AW16" s="26">
-        <f t="shared" si="6"/>
-        <v>79458.900376011399</v>
+      <c r="BA16" s="24">
+        <f t="shared" si="13"/>
+        <v>1.1838699550005232</v>
+      </c>
+      <c r="BB16" s="24">
+        <f t="shared" si="14"/>
+        <v>1.1840506799146153</v>
+      </c>
+      <c r="BC16" s="24">
+        <f t="shared" si="15"/>
+        <v>1.1842161588280784</v>
       </c>
     </row>
-    <row r="17" spans="2:49" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:55" x14ac:dyDescent="0.3">
       <c r="B17" s="3">
         <v>35</v>
       </c>
@@ -5128,7 +5668,7 @@
         <v>1</v>
       </c>
       <c r="L17" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>1.064329685362517</v>
       </c>
       <c r="Q17" s="3">
@@ -5161,80 +5701,103 @@
         <v>0.98701000000000005</v>
       </c>
       <c r="AA17" s="7">
+        <f t="shared" si="6"/>
+        <v>2.1652501702059559</v>
+      </c>
+      <c r="AB17" s="7">
         <f t="shared" si="7"/>
-        <v>2.1652501702059559</v>
-      </c>
-      <c r="AB17" s="7">
-        <f t="shared" si="1"/>
         <v>0.98775721730429566</v>
       </c>
       <c r="AC17" s="7">
+        <f t="shared" si="8"/>
+        <v>0.98879913650590356</v>
+      </c>
+      <c r="AD17" s="7">
+        <f t="shared" si="9"/>
+        <v>0.98975330327357369</v>
+      </c>
+      <c r="AE17" s="7">
         <f t="shared" si="2"/>
-        <v>0.98846195525241931</v>
-      </c>
-      <c r="AD17" s="7">
+        <v>0.98605439929180683</v>
+      </c>
+      <c r="AF17" s="7">
         <f t="shared" si="3"/>
-        <v>0.98605439929180683</v>
-      </c>
-      <c r="AE17" s="7">
-        <f t="shared" si="3"/>
-        <v>0.98685569370296411</v>
-      </c>
-      <c r="AF17" s="7"/>
-      <c r="AG17" s="3">
+        <v>0.98723913535490238</v>
+      </c>
+      <c r="AG17" s="7">
+        <f t="shared" si="4"/>
+        <v>0.98832443257740987</v>
+      </c>
+      <c r="AH17" s="7"/>
+      <c r="AI17" s="3">
         <v>35</v>
       </c>
-      <c r="AH17" s="3">
-        <v>5</v>
-      </c>
-      <c r="AI17" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ17" s="7">
-        <f t="shared" si="8"/>
+      <c r="AJ17" s="3">
+        <v>5</v>
+      </c>
+      <c r="AK17" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL17" s="7">
+        <f t="shared" si="10"/>
         <v>0.99707661921687085</v>
       </c>
-      <c r="AK17" s="7">
-        <f t="shared" si="8"/>
-        <v>0.99724454303715249</v>
-      </c>
-      <c r="AL17" s="4"/>
-      <c r="AM17" s="3">
+      <c r="AM17" s="7">
+        <f t="shared" si="11"/>
+        <v>0.99732490137971519</v>
+      </c>
+      <c r="AN17" s="7">
+        <f t="shared" si="12"/>
+        <v>0.99755235593059643</v>
+      </c>
+      <c r="AO17" s="4"/>
+      <c r="AP17" s="13">
         <v>35</v>
       </c>
-      <c r="AN17" s="3">
-        <v>5</v>
-      </c>
-      <c r="AO17" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AP17" t="s">
+      <c r="AQ17" s="13">
+        <v>5</v>
+      </c>
+      <c r="AR17" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AS17" s="25">
+        <f>(F16)*((L17-AL17)*O$13+AL17)+(U17)</f>
+        <v>72242.441723666212</v>
+      </c>
+      <c r="AT17" s="25">
+        <f>(AS16)*((L17-AL17)*O$13+AM17)+(U17)</f>
+        <v>84581.46105171596</v>
+      </c>
+      <c r="AU17" s="25">
+        <f>(AT16)*((L17-AL17)*O$13+AN17)+(U17)</f>
+        <v>84088.263845844063</v>
+      </c>
+      <c r="AW17" s="3">
+        <v>35</v>
+      </c>
+      <c r="AX17" s="3">
+        <v>5</v>
+      </c>
+      <c r="AY17" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ17" t="s">
         <v>1</v>
       </c>
-      <c r="AQ17" s="7">
-        <f t="shared" si="4"/>
-        <v>1.0644976091827987</v>
-      </c>
-      <c r="AR17" s="25">
-        <f t="shared" si="5"/>
-        <v>1.0644976091827987</v>
-      </c>
-      <c r="AS17" s="25"/>
-      <c r="AT17" s="13">
-        <v>35</v>
-      </c>
-      <c r="AU17" s="13">
-        <v>5</v>
-      </c>
-      <c r="AV17" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AW17" s="26">
-        <f t="shared" si="6"/>
-        <v>72253.839720891643</v>
+      <c r="BA17" s="24">
+        <f t="shared" si="13"/>
+        <v>1.064329685362517</v>
+      </c>
+      <c r="BB17" s="24">
+        <f t="shared" si="14"/>
+        <v>1.0645779675253615</v>
+      </c>
+      <c r="BC17" s="24">
+        <f t="shared" si="15"/>
+        <v>1.0648054220762426</v>
       </c>
     </row>
-    <row r="18" spans="2:49" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:55" x14ac:dyDescent="0.3">
       <c r="B18" s="3">
         <v>40</v>
       </c>
@@ -5263,7 +5826,7 @@
         <v>1</v>
       </c>
       <c r="L18" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>1.0235802745577622</v>
       </c>
       <c r="Q18" s="3">
@@ -5296,80 +5859,103 @@
         <v>0.98340000000000005</v>
       </c>
       <c r="AA18" s="7">
+        <f t="shared" si="6"/>
+        <v>2.0408066298076721</v>
+      </c>
+      <c r="AB18" s="7">
         <f t="shared" si="7"/>
-        <v>2.0408066298076721</v>
-      </c>
-      <c r="AB18" s="7">
-        <f t="shared" si="1"/>
         <v>0.98435158127931799</v>
       </c>
       <c r="AC18" s="7">
+        <f t="shared" si="8"/>
+        <v>0.98567913420390108</v>
+      </c>
+      <c r="AD18" s="7">
+        <f t="shared" si="9"/>
+        <v>0.98689556188124605</v>
+      </c>
+      <c r="AE18" s="7">
         <f t="shared" si="2"/>
-        <v>0.98524943215350891</v>
-      </c>
-      <c r="AD18" s="7">
+        <v>0.98166146164737467</v>
+      </c>
+      <c r="AF18" s="7">
         <f t="shared" si="3"/>
-        <v>0.98166146164737467</v>
-      </c>
-      <c r="AE18" s="7">
-        <f t="shared" si="3"/>
-        <v>0.98271055291729748</v>
-      </c>
-      <c r="AF18" s="7"/>
-      <c r="AG18" s="3">
+        <v>0.98321277029182774</v>
+      </c>
+      <c r="AG18" s="7">
+        <f t="shared" si="4"/>
+        <v>0.98463494707510435</v>
+      </c>
+      <c r="AH18" s="7"/>
+      <c r="AI18" s="3">
         <v>40</v>
       </c>
-      <c r="AH18" s="3">
-        <v>5</v>
-      </c>
-      <c r="AI18" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ18" s="7">
-        <f t="shared" si="8"/>
+      <c r="AJ18" s="3">
+        <v>5</v>
+      </c>
+      <c r="AK18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL18" s="7">
+        <f t="shared" si="10"/>
         <v>0.99554493378094844</v>
       </c>
-      <c r="AK18" s="7">
-        <f t="shared" si="8"/>
-        <v>0.99579964850776426</v>
-      </c>
-      <c r="AL18" s="4"/>
-      <c r="AM18" s="3">
+      <c r="AM18" s="7">
+        <f t="shared" si="11"/>
+        <v>0.99592159091056776</v>
+      </c>
+      <c r="AN18" s="7">
+        <f t="shared" si="12"/>
+        <v>0.99626692877288903</v>
+      </c>
+      <c r="AO18" s="4"/>
+      <c r="AP18" s="13">
         <v>40</v>
       </c>
-      <c r="AN18" s="3">
-        <v>5</v>
-      </c>
-      <c r="AO18" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AP18" t="s">
+      <c r="AQ18" s="13">
+        <v>5</v>
+      </c>
+      <c r="AR18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AS18" s="25">
+        <f>(F17)*((L18-AL18)*O$13+AL18)+(U18)</f>
+        <v>63709.68344902424</v>
+      </c>
+      <c r="AT18" s="25">
+        <f>(AS17)*((L18-AL18)*O$13+AM18)+(U18)</f>
+        <v>73973.148964969732</v>
+      </c>
+      <c r="AU18" s="25">
+        <f>(AT17)*((L18-AL18)*O$13+AN18)+(U18)</f>
+        <v>86636.982517102457</v>
+      </c>
+      <c r="AW18" s="3">
+        <v>40</v>
+      </c>
+      <c r="AX18" s="3">
+        <v>5</v>
+      </c>
+      <c r="AY18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ18" t="s">
         <v>1</v>
       </c>
-      <c r="AQ18" s="7">
-        <f t="shared" si="4"/>
-        <v>1.0238349892845782</v>
-      </c>
-      <c r="AR18" s="25">
-        <f t="shared" si="5"/>
-        <v>1.0238349892845782</v>
-      </c>
-      <c r="AS18" s="25"/>
-      <c r="AT18" s="13">
-        <v>40</v>
-      </c>
-      <c r="AU18" s="13">
-        <v>5</v>
-      </c>
-      <c r="AV18" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AW18" s="26">
-        <f t="shared" si="6"/>
-        <v>63725.537403050716</v>
+      <c r="BA18" s="24">
+        <f t="shared" si="13"/>
+        <v>1.0235802745577622</v>
+      </c>
+      <c r="BB18" s="24">
+        <f t="shared" si="14"/>
+        <v>1.0239569316873816</v>
+      </c>
+      <c r="BC18" s="24">
+        <f t="shared" si="15"/>
+        <v>1.0243022695497028</v>
       </c>
     </row>
-    <row r="19" spans="2:49" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:55" x14ac:dyDescent="0.3">
       <c r="B19" s="3">
         <v>45</v>
       </c>
@@ -5398,7 +5984,7 @@
         <v>1</v>
       </c>
       <c r="L19" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>1.0006375066406941</v>
       </c>
       <c r="Q19" s="3">
@@ -5431,80 +6017,103 @@
         <v>0.97770000000000001</v>
       </c>
       <c r="AA19" s="7">
+        <f t="shared" si="6"/>
+        <v>1.8903080980227764</v>
+      </c>
+      <c r="AB19" s="7">
         <f t="shared" si="7"/>
-        <v>1.8903080980227764</v>
-      </c>
-      <c r="AB19" s="7">
-        <f t="shared" si="1"/>
         <v>0.97897134201543135</v>
       </c>
       <c r="AC19" s="7">
+        <f t="shared" si="8"/>
+        <v>0.98074640637975441</v>
+      </c>
+      <c r="AD19" s="7">
+        <f t="shared" si="9"/>
+        <v>0.98237433226896276</v>
+      </c>
+      <c r="AE19" s="7">
         <f t="shared" si="2"/>
-        <v>0.98017167368108615</v>
-      </c>
-      <c r="AD19" s="7">
+        <v>0.97461144160739832</v>
+      </c>
+      <c r="AF19" s="7">
         <f t="shared" si="3"/>
-        <v>0.97461144160739832</v>
-      </c>
-      <c r="AE19" s="7">
-        <f t="shared" si="3"/>
-        <v>0.97605350530004253</v>
-      </c>
-      <c r="AF19" s="7"/>
-      <c r="AG19" s="3">
+        <v>0.9767442854041184</v>
+      </c>
+      <c r="AG19" s="7">
+        <f t="shared" si="4"/>
+        <v>0.97870198228801342</v>
+      </c>
+      <c r="AH19" s="7"/>
+      <c r="AI19" s="3">
         <v>45</v>
       </c>
-      <c r="AH19" s="3">
-        <v>5</v>
-      </c>
-      <c r="AI19" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ19" s="7">
-        <f t="shared" si="8"/>
+      <c r="AJ19" s="3">
+        <v>5</v>
+      </c>
+      <c r="AK19" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL19" s="7">
+        <f t="shared" si="10"/>
         <v>0.99281827766963027</v>
       </c>
-      <c r="AK19" s="7">
-        <f t="shared" si="8"/>
-        <v>0.99322583074182658</v>
-      </c>
-      <c r="AL19" s="4"/>
-      <c r="AM19" s="3">
+      <c r="AM19" s="7">
+        <f t="shared" si="11"/>
+        <v>0.99342107315612938</v>
+      </c>
+      <c r="AN19" s="7">
+        <f t="shared" si="12"/>
+        <v>0.99397445235443349</v>
+      </c>
+      <c r="AO19" s="4"/>
+      <c r="AP19" s="13">
         <v>45</v>
       </c>
-      <c r="AN19" s="3">
-        <v>5</v>
-      </c>
-      <c r="AO19" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AP19" t="s">
+      <c r="AQ19" s="13">
+        <v>5</v>
+      </c>
+      <c r="AR19" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AS19" s="25">
+        <f>(F18)*((L19-AL19)*O$13+AL19)+(U19)</f>
+        <v>59463.884469629884</v>
+      </c>
+      <c r="AT19" s="25">
+        <f>(AS18)*((L19-AL19)*O$13+AM19)+(U19)</f>
+        <v>63788.702704928866</v>
+      </c>
+      <c r="AU19" s="25">
+        <f>(AT18)*((L19-AL19)*O$13+AN19)+(U19)</f>
+        <v>74105.833220856424</v>
+      </c>
+      <c r="AW19" s="3">
+        <v>45</v>
+      </c>
+      <c r="AX19" s="3">
+        <v>5</v>
+      </c>
+      <c r="AY19" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ19" t="s">
         <v>1</v>
       </c>
-      <c r="AQ19" s="7">
-        <f t="shared" si="4"/>
-        <v>1.0010450597128904</v>
-      </c>
-      <c r="AR19" s="25">
-        <f t="shared" si="5"/>
-        <v>1.0010450597128904</v>
-      </c>
-      <c r="AS19" s="25"/>
-      <c r="AT19" s="13">
-        <v>45</v>
-      </c>
-      <c r="AU19" s="13">
-        <v>5</v>
-      </c>
-      <c r="AV19" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AW19" s="26">
-        <f t="shared" si="6"/>
-        <v>59488.10371849822</v>
+      <c r="BA19" s="24">
+        <f t="shared" si="13"/>
+        <v>1.0006375066406941</v>
+      </c>
+      <c r="BB19" s="24">
+        <f t="shared" si="14"/>
+        <v>1.0012403021271932</v>
+      </c>
+      <c r="BC19" s="24">
+        <f t="shared" si="15"/>
+        <v>1.0017936813254973</v>
       </c>
     </row>
-    <row r="20" spans="2:49" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:55" x14ac:dyDescent="0.3">
       <c r="B20" s="3">
         <v>50</v>
       </c>
@@ -5533,7 +6142,7 @@
         <v>1</v>
       </c>
       <c r="L20" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>0.99662472089038134</v>
       </c>
       <c r="Q20" s="3">
@@ -5566,80 +6175,103 @@
         <v>0.96847000000000005</v>
       </c>
       <c r="AA20" s="7">
+        <f t="shared" si="6"/>
+        <v>1.7123890165373254</v>
+      </c>
+      <c r="AB20" s="7">
         <f t="shared" si="7"/>
-        <v>1.7123890165373254</v>
-      </c>
-      <c r="AB20" s="7">
-        <f t="shared" si="1"/>
         <v>0.97025154119936519</v>
       </c>
       <c r="AC20" s="7">
+        <f t="shared" si="8"/>
+        <v>0.97274216442848227</v>
+      </c>
+      <c r="AD20" s="7">
+        <f t="shared" si="9"/>
+        <v>0.97502963230706396</v>
+      </c>
+      <c r="AE20" s="7">
         <f t="shared" si="2"/>
-        <v>0.97193533691899903</v>
-      </c>
-      <c r="AD20" s="7">
+        <v>0.96334072673643534</v>
+      </c>
+      <c r="AF20" s="7">
         <f t="shared" si="3"/>
-        <v>0.96334072673643534</v>
-      </c>
-      <c r="AE20" s="7">
-        <f t="shared" si="3"/>
-        <v>0.96539909765032927</v>
-      </c>
-      <c r="AF20" s="7"/>
-      <c r="AG20" s="3">
+        <v>0.96638610708259687</v>
+      </c>
+      <c r="AG20" s="7">
+        <f t="shared" si="4"/>
+        <v>0.96918687297239992</v>
+      </c>
+      <c r="AH20" s="7"/>
+      <c r="AI20" s="3">
         <v>50</v>
       </c>
-      <c r="AH20" s="3">
-        <v>5</v>
-      </c>
-      <c r="AI20" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ20" s="7">
-        <f t="shared" si="8"/>
+      <c r="AJ20" s="3">
+        <v>5</v>
+      </c>
+      <c r="AK20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL20" s="7">
+        <f t="shared" si="10"/>
         <v>0.98843568381223335</v>
       </c>
-      <c r="AK20" s="7">
-        <f t="shared" si="8"/>
-        <v>0.9890841971348302</v>
-      </c>
-      <c r="AL20" s="4"/>
-      <c r="AM20" s="3">
+      <c r="AM20" s="7">
+        <f t="shared" si="11"/>
+        <v>0.98939519946386378</v>
+      </c>
+      <c r="AN20" s="7">
+        <f t="shared" si="12"/>
+        <v>0.99027782768624928</v>
+      </c>
+      <c r="AO20" s="4"/>
+      <c r="AP20" s="13">
         <v>50</v>
       </c>
-      <c r="AN20" s="3">
-        <v>5</v>
-      </c>
-      <c r="AO20" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AP20" t="s">
+      <c r="AQ20" s="13">
+        <v>5</v>
+      </c>
+      <c r="AR20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AS20" s="25">
+        <f>(F19)*((L20-AL20)*O$13+AL20)+(U20)</f>
+        <v>56315.276478631888</v>
+      </c>
+      <c r="AT20" s="25">
+        <f>(AS19)*((L20-AL20)*O$13+AM20)+(U20)</f>
+        <v>59320.233790458122</v>
+      </c>
+      <c r="AU20" s="25">
+        <f>(AT19)*((L20-AL20)*O$13+AN20)+(U20)</f>
+        <v>63690.905997178554</v>
+      </c>
+      <c r="AW20" s="3">
+        <v>50</v>
+      </c>
+      <c r="AX20" s="3">
+        <v>5</v>
+      </c>
+      <c r="AY20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ20" t="s">
         <v>1</v>
       </c>
-      <c r="AQ20" s="7">
-        <f t="shared" si="4"/>
-        <v>0.9972732342129782</v>
-      </c>
-      <c r="AR20" s="25">
-        <f t="shared" si="5"/>
-        <v>0.9972732342129782</v>
-      </c>
-      <c r="AS20" s="25"/>
-      <c r="AT20" s="13">
-        <v>50</v>
-      </c>
-      <c r="AU20" s="13">
-        <v>5</v>
-      </c>
-      <c r="AV20" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AW20" s="26">
-        <f t="shared" si="6"/>
-        <v>56351.921372438548</v>
+      <c r="BA20" s="24">
+        <f t="shared" si="13"/>
+        <v>0.99662472089038134</v>
+      </c>
+      <c r="BB20" s="24">
+        <f t="shared" si="14"/>
+        <v>0.99758423654201178</v>
+      </c>
+      <c r="BC20" s="24">
+        <f t="shared" si="15"/>
+        <v>0.99846686476439728</v>
       </c>
     </row>
-    <row r="21" spans="2:49" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:55" x14ac:dyDescent="0.3">
       <c r="B21" s="3">
         <v>55</v>
       </c>
@@ -5668,7 +6300,7 @@
         <v>1</v>
       </c>
       <c r="L21" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>0.99075564882319955</v>
       </c>
       <c r="Q21" s="3">
@@ -5701,80 +6333,103 @@
         <v>0.95386000000000004</v>
       </c>
       <c r="AA21" s="7">
+        <f t="shared" si="6"/>
+        <v>1.5144183287048296</v>
+      </c>
+      <c r="AB21" s="7">
         <f t="shared" si="7"/>
-        <v>1.5144183287048296</v>
-      </c>
-      <c r="AB21" s="7">
-        <f t="shared" si="1"/>
         <v>0.95642991227350538</v>
       </c>
       <c r="AC21" s="7">
+        <f t="shared" si="8"/>
+        <v>0.96003004973671147</v>
+      </c>
+      <c r="AD21" s="7">
+        <f t="shared" si="9"/>
+        <v>0.96334411363773587</v>
+      </c>
+      <c r="AE21" s="7">
         <f t="shared" si="2"/>
-        <v>0.95886285838165952</v>
-      </c>
-      <c r="AD21" s="7">
+        <v>0.94640938036731737</v>
+      </c>
+      <c r="AF21" s="7">
         <f t="shared" si="3"/>
-        <v>0.94640938036731737</v>
-      </c>
-      <c r="AE21" s="7">
-        <f t="shared" si="3"/>
-        <v>0.94936669339968749</v>
-      </c>
-      <c r="AF21" s="7"/>
-      <c r="AG21" s="3">
+        <v>0.95078689515541071</v>
+      </c>
+      <c r="AG21" s="7">
+        <f t="shared" si="4"/>
+        <v>0.95482448042400803</v>
+      </c>
+      <c r="AH21" s="7"/>
+      <c r="AI21" s="3">
         <v>55</v>
       </c>
-      <c r="AH21" s="3">
-        <v>5</v>
-      </c>
-      <c r="AI21" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ21" s="7">
-        <f t="shared" si="8"/>
+      <c r="AJ21" s="3">
+        <v>5</v>
+      </c>
+      <c r="AK21" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL21" s="7">
+        <f t="shared" si="10"/>
         <v>0.98242434281121149</v>
       </c>
-      <c r="AK21" s="7">
-        <f t="shared" si="8"/>
-        <v>0.98339297779575019</v>
-      </c>
-      <c r="AL21" s="4"/>
-      <c r="AM21" s="3">
+      <c r="AM21" s="7">
+        <f t="shared" si="11"/>
+        <v>0.98385819931302787</v>
+      </c>
+      <c r="AN21" s="7">
+        <f t="shared" si="12"/>
+        <v>0.98518098733184045</v>
+      </c>
+      <c r="AO21" s="4"/>
+      <c r="AP21" s="13">
         <v>55</v>
       </c>
-      <c r="AN21" s="3">
-        <v>5</v>
-      </c>
-      <c r="AO21" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AP21" t="s">
+      <c r="AQ21" s="13">
+        <v>5</v>
+      </c>
+      <c r="AR21" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AS21" s="25">
+        <f>(F20)*((L21-AL21)*O$13+AL21)+(U21)</f>
+        <v>57045.728747942187</v>
+      </c>
+      <c r="AT21" s="25">
+        <f>(AS20)*((L21-AL21)*O$13+AM21)+(U21)</f>
+        <v>55875.426311575276</v>
+      </c>
+      <c r="AU21" s="25">
+        <f>(AT20)*((L21-AL21)*O$13+AN21)+(U21)</f>
+        <v>58935.381514850116</v>
+      </c>
+      <c r="AW21" s="3">
+        <v>55</v>
+      </c>
+      <c r="AX21" s="3">
+        <v>5</v>
+      </c>
+      <c r="AY21" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ21" t="s">
         <v>1</v>
       </c>
-      <c r="AQ21" s="7">
-        <f t="shared" si="4"/>
-        <v>0.99172428380773825</v>
-      </c>
-      <c r="AR21" s="25">
-        <f t="shared" si="5"/>
-        <v>0.99172428380773825</v>
-      </c>
-      <c r="AS21" s="25"/>
-      <c r="AT21" s="13">
-        <v>55</v>
-      </c>
-      <c r="AU21" s="13">
-        <v>5</v>
-      </c>
-      <c r="AV21" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AW21" s="26">
-        <f t="shared" si="6"/>
-        <v>57101.500813081955</v>
+      <c r="BA21" s="24">
+        <f t="shared" si="13"/>
+        <v>0.99075564882319955</v>
+      </c>
+      <c r="BB21" s="24">
+        <f t="shared" si="14"/>
+        <v>0.99218950532501593</v>
+      </c>
+      <c r="BC21" s="24">
+        <f t="shared" si="15"/>
+        <v>0.99351229334382851</v>
       </c>
     </row>
-    <row r="22" spans="2:49" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:55" x14ac:dyDescent="0.3">
       <c r="B22" s="3">
         <v>60</v>
       </c>
@@ -5803,7 +6458,7 @@
         <v>1</v>
       </c>
       <c r="L22" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>0.96763931104356637</v>
       </c>
       <c r="Q22" s="3">
@@ -5836,80 +6491,103 @@
         <v>0.93271999999999999</v>
       </c>
       <c r="AA22" s="7">
+        <f t="shared" si="6"/>
+        <v>1.3146210164801717</v>
+      </c>
+      <c r="AB22" s="7">
         <f t="shared" si="7"/>
-        <v>1.3146210164801717</v>
-      </c>
-      <c r="AB22" s="7">
-        <f t="shared" si="1"/>
         <v>0.93638884846112935</v>
       </c>
       <c r="AC22" s="7">
+        <f t="shared" si="8"/>
+        <v>0.94154374057410994</v>
+      </c>
+      <c r="AD22" s="7">
+        <f t="shared" si="9"/>
+        <v>0.9463048472102803</v>
+      </c>
+      <c r="AE22" s="7">
         <f t="shared" si="2"/>
-        <v>0.93987052841771546</v>
-      </c>
-      <c r="AD22" s="7">
+        <v>0.92188311155514058</v>
+      </c>
+      <c r="AF22" s="7">
         <f t="shared" si="3"/>
-        <v>0.92188311155514058</v>
-      </c>
-      <c r="AE22" s="7">
-        <f t="shared" si="3"/>
-        <v>0.92608438421036765</v>
-      </c>
-      <c r="AF22" s="7"/>
-      <c r="AG22" s="3">
+        <v>0.92810639163745812</v>
+      </c>
+      <c r="AG22" s="7">
+        <f t="shared" si="4"/>
+        <v>0.93387061338444244</v>
+      </c>
+      <c r="AH22" s="7"/>
+      <c r="AI22" s="3">
         <v>60</v>
       </c>
-      <c r="AH22" s="3">
-        <v>5</v>
-      </c>
-      <c r="AI22" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ22" s="7">
-        <f t="shared" si="8"/>
+      <c r="AJ22" s="3">
+        <v>5</v>
+      </c>
+      <c r="AK22" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL22" s="7">
+        <f t="shared" si="10"/>
         <v>0.97408492633213573</v>
       </c>
-      <c r="AK22" s="7">
-        <f t="shared" si="8"/>
-        <v>0.97547595744490911</v>
-      </c>
-      <c r="AL22" s="4"/>
-      <c r="AM22" s="3">
+      <c r="AM22" s="7">
+        <f t="shared" si="11"/>
+        <v>0.97614554467092718</v>
+      </c>
+      <c r="AN22" s="7">
+        <f t="shared" si="12"/>
+        <v>0.97805474464766484</v>
+      </c>
+      <c r="AO22" s="4"/>
+      <c r="AP22" s="13">
         <v>60</v>
       </c>
-      <c r="AN22" s="3">
-        <v>5</v>
-      </c>
-      <c r="AO22" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AP22" t="s">
+      <c r="AQ22" s="13">
+        <v>5</v>
+      </c>
+      <c r="AR22" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AS22" s="25">
+        <f>(F21)*((L22-AL22)*O$13+AL22)+(U22)</f>
+        <v>52993.734508611953</v>
+      </c>
+      <c r="AT22" s="25">
+        <f>(AS21)*((L22-AL22)*O$13+AM22)+(U22)</f>
+        <v>55317.239138444675</v>
+      </c>
+      <c r="AU22" s="25">
+        <f>(AT21)*((L22-AL22)*O$13+AN22)+(U22)</f>
+        <v>54289.07431115795</v>
+      </c>
+      <c r="AW22" s="3">
+        <v>60</v>
+      </c>
+      <c r="AX22" s="3">
+        <v>5</v>
+      </c>
+      <c r="AY22" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ22" t="s">
         <v>1</v>
       </c>
-      <c r="AQ22" s="7">
-        <f t="shared" si="4"/>
-        <v>0.96903034215633976</v>
-      </c>
-      <c r="AR22" s="25">
-        <f t="shared" si="5"/>
-        <v>0.96903034215633976</v>
-      </c>
-      <c r="AS22" s="25"/>
-      <c r="AT22" s="13">
-        <v>60</v>
-      </c>
-      <c r="AU22" s="13">
-        <v>5</v>
-      </c>
-      <c r="AV22" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AW22" s="26">
-        <f t="shared" si="6"/>
-        <v>53069.915718534103</v>
+      <c r="BA22" s="24">
+        <f t="shared" si="13"/>
+        <v>0.96763931104356637</v>
+      </c>
+      <c r="BB22" s="24">
+        <f t="shared" si="14"/>
+        <v>0.96969992938235772</v>
+      </c>
+      <c r="BC22" s="24">
+        <f t="shared" si="15"/>
+        <v>0.97160912935909549</v>
       </c>
     </row>
-    <row r="23" spans="2:49" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:55" x14ac:dyDescent="0.3">
       <c r="B23" s="3">
         <v>65</v>
       </c>
@@ -5938,7 +6616,7 @@
         <v>1</v>
       </c>
       <c r="L23" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>0.94313917636654798</v>
       </c>
       <c r="Q23" s="3">
@@ -5971,80 +6649,103 @@
         <v>0.90220999999999996</v>
       </c>
       <c r="AA23" s="7">
+        <f t="shared" si="6"/>
+        <v>1.1110124933027659</v>
+      </c>
+      <c r="AB23" s="7">
         <f t="shared" si="7"/>
-        <v>1.1110124933027659</v>
-      </c>
-      <c r="AB23" s="7">
-        <f t="shared" si="1"/>
         <v>0.9073773746491518</v>
       </c>
       <c r="AC23" s="7">
+        <f t="shared" si="8"/>
+        <v>0.91466904270080629</v>
+      </c>
+      <c r="AD23" s="7">
+        <f t="shared" si="9"/>
+        <v>0.92143637955860458</v>
+      </c>
+      <c r="AE23" s="7">
         <f t="shared" si="2"/>
-        <v>0.91229824000301996</v>
-      </c>
-      <c r="AD23" s="7">
+        <v>0.88651002091045616</v>
+      </c>
+      <c r="AF23" s="7">
         <f t="shared" si="3"/>
-        <v>0.88651002091045616</v>
-      </c>
-      <c r="AE23" s="7">
-        <f t="shared" si="3"/>
-        <v>0.8923837109190601</v>
-      </c>
-      <c r="AF23" s="7"/>
-      <c r="AG23" s="3">
+        <v>0.89521954703334661</v>
+      </c>
+      <c r="AG23" s="7">
+        <f t="shared" si="4"/>
+        <v>0.90333582683732938</v>
+      </c>
+      <c r="AH23" s="7"/>
+      <c r="AI23" s="3">
         <v>65</v>
       </c>
-      <c r="AH23" s="3">
-        <v>5</v>
-      </c>
-      <c r="AI23" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ23" s="7">
-        <f t="shared" si="8"/>
+      <c r="AJ23" s="3">
+        <v>5</v>
+      </c>
+      <c r="AK23" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL23" s="7">
+        <f t="shared" si="10"/>
         <v>0.96162952742998742</v>
       </c>
-      <c r="AK23" s="7">
-        <f t="shared" si="8"/>
-        <v>0.96360950053159289</v>
-      </c>
-      <c r="AL23" s="4"/>
-      <c r="AM23" s="3">
+      <c r="AM23" s="7">
+        <f t="shared" si="11"/>
+        <v>0.96456565227819491</v>
+      </c>
+      <c r="AN23" s="7">
+        <f t="shared" si="12"/>
+        <v>0.96730297954611522</v>
+      </c>
+      <c r="AO23" s="4"/>
+      <c r="AP23" s="13">
         <v>65</v>
       </c>
-      <c r="AN23" s="3">
-        <v>5</v>
-      </c>
-      <c r="AO23" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AP23" t="s">
+      <c r="AQ23" s="13">
+        <v>5</v>
+      </c>
+      <c r="AR23" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AS23" s="25">
+        <f>(F22)*((L23-AL23)*O$13+AL23)+(U23)</f>
+        <v>45037.725089031766</v>
+      </c>
+      <c r="AT23" s="25">
+        <f>(AS22)*((L23-AL23)*O$13+AM23)+(U23)</f>
+        <v>50136.063337729836</v>
+      </c>
+      <c r="AU23" s="25">
+        <f>(AT22)*((L23-AL23)*O$13+AN23)+(U23)</f>
+        <v>52485.695067352441</v>
+      </c>
+      <c r="AW23" s="3">
+        <v>65</v>
+      </c>
+      <c r="AX23" s="3">
+        <v>5</v>
+      </c>
+      <c r="AY23" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ23" t="s">
         <v>1</v>
       </c>
-      <c r="AQ23" s="7">
-        <f t="shared" si="4"/>
-        <v>0.94511914946815345</v>
-      </c>
-      <c r="AR23" s="25">
-        <f t="shared" si="5"/>
-        <v>0.94511914946815356</v>
-      </c>
-      <c r="AS23" s="25"/>
-      <c r="AT23" s="13">
-        <v>65</v>
-      </c>
-      <c r="AU23" s="13">
-        <v>5</v>
-      </c>
-      <c r="AV23" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AW23" s="26">
-        <f t="shared" si="6"/>
-        <v>45132.274744552735</v>
+      <c r="BA23" s="24">
+        <f t="shared" si="13"/>
+        <v>0.94313917636654798</v>
+      </c>
+      <c r="BB23" s="24">
+        <f t="shared" si="14"/>
+        <v>0.94607530121475547</v>
+      </c>
+      <c r="BC23" s="24">
+        <f t="shared" si="15"/>
+        <v>0.94881262848267578</v>
       </c>
     </row>
-    <row r="24" spans="2:49" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:55" x14ac:dyDescent="0.3">
       <c r="B24" s="3">
         <v>70</v>
       </c>
@@ -6073,7 +6774,7 @@
         <v>1</v>
       </c>
       <c r="L24" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>0.92499648530858991</v>
       </c>
       <c r="Q24" s="3">
@@ -6106,80 +6807,103 @@
         <v>0.85851</v>
       </c>
       <c r="AA24" s="7">
+        <f t="shared" si="6"/>
+        <v>0.90148464264273753</v>
+      </c>
+      <c r="AB24" s="7">
         <f t="shared" si="7"/>
-        <v>0.90148464264273753</v>
-      </c>
-      <c r="AB24" s="7">
-        <f t="shared" si="1"/>
         <v>0.86564266717176064</v>
       </c>
       <c r="AC24" s="7">
+        <f t="shared" si="8"/>
+        <v>0.87577005136588704</v>
+      </c>
+      <c r="AD24" s="7">
+        <f t="shared" si="9"/>
+        <v>0.88523527411605418</v>
+      </c>
+      <c r="AE24" s="7">
         <f t="shared" si="2"/>
-        <v>0.87246918183510025</v>
-      </c>
-      <c r="AD24" s="7">
+        <v>0.83429444175066525</v>
+      </c>
+      <c r="AF24" s="7">
         <f t="shared" si="3"/>
-        <v>0.83429444175066525</v>
-      </c>
-      <c r="AE24" s="7">
-        <f t="shared" si="3"/>
-        <v>0.84236829411028447</v>
-      </c>
-      <c r="AF24" s="7"/>
-      <c r="AG24" s="3">
+        <v>0.84628466757246779</v>
+      </c>
+      <c r="AG24" s="7">
+        <f t="shared" si="4"/>
+        <v>0.8575600361323078</v>
+      </c>
+      <c r="AH24" s="7"/>
+      <c r="AI24" s="3">
         <v>70</v>
       </c>
-      <c r="AH24" s="3">
-        <v>5</v>
-      </c>
-      <c r="AI24" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ24" s="7">
-        <f t="shared" si="8"/>
+      <c r="AJ24" s="3">
+        <v>5</v>
+      </c>
+      <c r="AK24" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL24" s="7">
+        <f t="shared" si="10"/>
         <v>0.94109984328641327</v>
       </c>
-      <c r="AK24" s="7">
-        <f t="shared" si="8"/>
-        <v>0.94395301460930403</v>
-      </c>
-      <c r="AL24" s="4"/>
-      <c r="AM24" s="3">
+      <c r="AM24" s="7">
+        <f t="shared" si="11"/>
+        <v>0.94533756593782681</v>
+      </c>
+      <c r="AN24" s="7">
+        <f t="shared" si="12"/>
+        <v>0.94932583282422522</v>
+      </c>
+      <c r="AO24" s="4"/>
+      <c r="AP24" s="13">
         <v>70</v>
       </c>
-      <c r="AN24" s="3">
-        <v>5</v>
-      </c>
-      <c r="AO24" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AP24" t="s">
+      <c r="AQ24" s="13">
+        <v>5</v>
+      </c>
+      <c r="AR24" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AS24" s="25">
+        <f>(F23)*((L24-AL24)*O$13+AL24)+(U24)</f>
+        <v>36500.36131027696</v>
+      </c>
+      <c r="AT24" s="25">
+        <f>(AS23)*((L24-AL24)*O$13+AM24)+(U24)</f>
+        <v>41850.594801426807</v>
+      </c>
+      <c r="AU24" s="25">
+        <f>(AT23)*((L24-AL24)*O$13+AN24)+(U24)</f>
+        <v>46788.101107092196</v>
+      </c>
+      <c r="AW24" s="3">
+        <v>70</v>
+      </c>
+      <c r="AX24" s="3">
+        <v>5</v>
+      </c>
+      <c r="AY24" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ24" t="s">
         <v>1</v>
       </c>
-      <c r="AQ24" s="7">
-        <f t="shared" si="4"/>
-        <v>0.92784965663148067</v>
-      </c>
-      <c r="AR24" s="25">
-        <f t="shared" si="5"/>
-        <v>0.92784965663148067</v>
-      </c>
-      <c r="AS24" s="25"/>
-      <c r="AT24" s="13">
-        <v>70</v>
-      </c>
-      <c r="AU24" s="13">
-        <v>5</v>
-      </c>
-      <c r="AV24" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AW24" s="26">
-        <f t="shared" si="6"/>
-        <v>36612.947450678228</v>
+      <c r="BA24" s="24">
+        <f t="shared" si="13"/>
+        <v>0.92499648530858991</v>
+      </c>
+      <c r="BB24" s="24">
+        <f t="shared" si="14"/>
+        <v>0.92923420796000344</v>
+      </c>
+      <c r="BC24" s="24">
+        <f t="shared" si="15"/>
+        <v>0.93322247484640197</v>
       </c>
     </row>
-    <row r="25" spans="2:49" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:55" x14ac:dyDescent="0.3">
       <c r="B25" s="3">
         <v>75</v>
       </c>
@@ -6208,7 +6932,7 @@
         <v>1</v>
       </c>
       <c r="L25" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>0.90200776271024008</v>
       </c>
       <c r="Q25" s="3">
@@ -6241,80 +6965,103 @@
         <v>0.79327999999999999</v>
       </c>
       <c r="AA25" s="7">
+        <f t="shared" si="6"/>
+        <v>0.67240551412629423</v>
+      </c>
+      <c r="AB25" s="7">
         <f t="shared" si="7"/>
-        <v>0.67240551412629423</v>
-      </c>
-      <c r="AB25" s="7">
-        <f t="shared" si="1"/>
         <v>0.80294621632956986</v>
       </c>
       <c r="AC25" s="7">
+        <f t="shared" si="8"/>
+        <v>0.81679928377904865</v>
+      </c>
+      <c r="AD25" s="7">
+        <f t="shared" si="9"/>
+        <v>0.82988479814856142</v>
+      </c>
+      <c r="AE25" s="7">
         <f t="shared" si="2"/>
-        <v>0.81226740638546868</v>
-      </c>
-      <c r="AD25" s="7">
+        <v>0.75486648068963891</v>
+      </c>
+      <c r="AF25" s="7">
         <f t="shared" si="3"/>
-        <v>0.75486648068963891</v>
-      </c>
-      <c r="AE25" s="7">
-        <f t="shared" si="3"/>
-        <v>0.76566624145451168</v>
-      </c>
-      <c r="AF25" s="7"/>
-      <c r="AG25" s="3">
+        <v>0.7709423292211337</v>
+      </c>
+      <c r="AG25" s="7">
+        <f t="shared" si="4"/>
+        <v>0.78627131372391545</v>
+      </c>
+      <c r="AH25" s="7"/>
+      <c r="AI25" s="3">
         <v>75</v>
       </c>
-      <c r="AH25" s="3">
-        <v>5</v>
-      </c>
-      <c r="AI25" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ25" s="7">
-        <f t="shared" si="8"/>
+      <c r="AJ25" s="3">
+        <v>5</v>
+      </c>
+      <c r="AK25" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL25" s="7">
+        <f t="shared" si="10"/>
         <v>0.90479624807956716</v>
       </c>
-      <c r="AK25" s="7">
-        <f t="shared" si="8"/>
-        <v>0.90894475350976256</v>
-      </c>
-      <c r="AL25" s="4"/>
-      <c r="AM25" s="3">
+      <c r="AM25" s="7">
+        <f t="shared" si="11"/>
+        <v>0.91097281891275372</v>
+      </c>
+      <c r="AN25" s="7">
+        <f t="shared" si="12"/>
+        <v>0.91687028382302826</v>
+      </c>
+      <c r="AO25" s="4"/>
+      <c r="AP25" s="13">
         <v>75</v>
       </c>
-      <c r="AN25" s="3">
-        <v>5</v>
-      </c>
-      <c r="AO25" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AP25" t="s">
+      <c r="AQ25" s="13">
+        <v>5</v>
+      </c>
+      <c r="AR25" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AS25" s="25">
+        <f>(F24)*((L25-AL25)*O$13+AL25)+(U25)</f>
+        <v>23739.040299008098</v>
+      </c>
+      <c r="AT25" s="25">
+        <f>(AS24)*((L25-AL25)*O$13+AM25)+(U25)</f>
+        <v>33149.056310668158</v>
+      </c>
+      <c r="AU25" s="25">
+        <f>(AT24)*((L25-AL25)*O$13+AN25)+(U25)</f>
+        <v>38254.866962445332</v>
+      </c>
+      <c r="AW25" s="3">
+        <v>75</v>
+      </c>
+      <c r="AX25" s="3">
+        <v>5</v>
+      </c>
+      <c r="AY25" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ25" t="s">
         <v>1</v>
       </c>
-      <c r="AQ25" s="7">
-        <f t="shared" si="4"/>
-        <v>0.90615626814043548</v>
-      </c>
-      <c r="AR25" s="25">
-        <f t="shared" si="5"/>
-        <v>0.90615626814043548</v>
-      </c>
-      <c r="AS25" s="25"/>
-      <c r="AT25" s="13">
-        <v>75</v>
-      </c>
-      <c r="AU25" s="13">
-        <v>5</v>
-      </c>
-      <c r="AV25" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AW25" s="26">
-        <f t="shared" si="6"/>
-        <v>23848.22066491998</v>
+      <c r="BA25" s="24">
+        <f t="shared" si="13"/>
+        <v>0.90200776271024008</v>
+      </c>
+      <c r="BB25" s="24">
+        <f t="shared" si="14"/>
+        <v>0.90818433354342676</v>
+      </c>
+      <c r="BC25" s="24">
+        <f t="shared" si="15"/>
+        <v>0.91408179845370119</v>
       </c>
     </row>
-    <row r="26" spans="2:49" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:55" x14ac:dyDescent="0.3">
       <c r="B26" s="3">
         <v>80</v>
       </c>
@@ -6376,80 +7123,103 @@
         <v>0.69420000000000004</v>
       </c>
       <c r="AA26" s="7">
+        <f t="shared" si="6"/>
+        <v>0.40991440496636206</v>
+      </c>
+      <c r="AB26" s="7">
         <f t="shared" si="7"/>
-        <v>0.40991440496636206</v>
-      </c>
-      <c r="AB26" s="7">
-        <f t="shared" si="1"/>
         <v>0.70678674504970795</v>
       </c>
       <c r="AC26" s="7">
+        <f t="shared" si="8"/>
+        <v>0.72508537466321887</v>
+      </c>
+      <c r="AD26" s="7">
+        <f t="shared" si="9"/>
+        <v>0.7426578292992696</v>
+      </c>
+      <c r="AE26" s="7">
         <f t="shared" si="2"/>
-        <v>0.71906507652355456</v>
-      </c>
-      <c r="AD26" s="7">
+        <v>0.63580388208389538</v>
+      </c>
+      <c r="AF26" s="7">
         <f t="shared" si="3"/>
-        <v>0.63580388208389538</v>
-      </c>
-      <c r="AE26" s="7">
-        <f>0.5*(AC26+AC27)</f>
-        <v>0.64928623249913087</v>
-      </c>
-      <c r="AF26" s="7"/>
-      <c r="AG26" s="3">
+        <v>0.65594258972048358</v>
+      </c>
+      <c r="AG26" s="7">
+        <f t="shared" si="4"/>
+        <v>0.67554795689938052</v>
+      </c>
+      <c r="AH26" s="7"/>
+      <c r="AI26" s="3">
         <v>80</v>
       </c>
-      <c r="AH26" s="3">
-        <v>5</v>
-      </c>
-      <c r="AI26" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ26" s="7">
-        <f>AD26/AD25</f>
+      <c r="AJ26" s="3">
+        <v>5</v>
+      </c>
+      <c r="AK26" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL26" s="7">
+        <f t="shared" si="10"/>
         <v>0.84227330044252458</v>
       </c>
-      <c r="AK26" s="7">
-        <f>AE26/AE25</f>
-        <v>0.84800164529351929</v>
-      </c>
-      <c r="AL26" s="4"/>
-      <c r="AM26" s="3">
+      <c r="AM26" s="7">
+        <f t="shared" si="11"/>
+        <v>0.85083224108756372</v>
+      </c>
+      <c r="AN26" s="7">
+        <f t="shared" si="12"/>
+        <v>0.85917919820814759</v>
+      </c>
+      <c r="AO26" s="4"/>
+      <c r="AP26" s="13">
         <v>80</v>
       </c>
-      <c r="AN26" s="3">
-        <v>5</v>
-      </c>
-      <c r="AO26" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AP26" t="s">
+      <c r="AQ26" s="13">
+        <v>5</v>
+      </c>
+      <c r="AR26" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AS26" s="25">
+        <f>(F25)*((L26-AL26)*O$13+AL26)+(U26)</f>
+        <v>16139.07032238626</v>
+      </c>
+      <c r="AT26" s="25">
+        <f>(AS25)*((L26-AL26)*O$13+AM26)+(U26)</f>
+        <v>20556.243126331236</v>
+      </c>
+      <c r="AU26" s="25">
+        <f>(AT25)*((L26-AL26)*O$13+AN26)+(U26)</f>
+        <v>28981.310802160355</v>
+      </c>
+      <c r="AW26" s="3">
+        <v>80</v>
+      </c>
+      <c r="AX26" s="3">
+        <v>5</v>
+      </c>
+      <c r="AY26" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ26" t="s">
         <v>1</v>
       </c>
-      <c r="AQ26" s="7">
-        <f t="shared" si="4"/>
-        <v>0.86309502156084705</v>
-      </c>
-      <c r="AR26" s="25">
-        <f t="shared" si="5"/>
-        <v>0.86309502156084705</v>
-      </c>
-      <c r="AS26" s="25"/>
-      <c r="AT26" s="13">
-        <v>80</v>
-      </c>
-      <c r="AU26" s="13">
-        <v>5</v>
-      </c>
-      <c r="AV26" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AW26" s="26">
-        <f t="shared" si="6"/>
-        <v>16246.900685861385</v>
+      <c r="BA26" s="24">
+        <f t="shared" si="13"/>
+        <v>0.85736667670985234</v>
+      </c>
+      <c r="BB26" s="24">
+        <f t="shared" si="14"/>
+        <v>0.86592561735489149</v>
+      </c>
+      <c r="BC26" s="24">
+        <f t="shared" si="15"/>
+        <v>0.87427257447547535</v>
       </c>
     </row>
-    <row r="27" spans="2:49" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:55" x14ac:dyDescent="0.3">
       <c r="B27" s="3">
         <v>85</v>
       </c>
@@ -6511,80 +7281,103 @@
         <v>0.55001999999999995</v>
       </c>
       <c r="AA27" s="7">
+        <f t="shared" si="6"/>
+        <v>0.10037575193475086</v>
+      </c>
+      <c r="AB27" s="7">
         <f t="shared" si="7"/>
-        <v>0.10037575193475086</v>
-      </c>
-      <c r="AB27" s="7">
-        <f t="shared" si="1"/>
         <v>0.56482101911808291</v>
       </c>
       <c r="AC27" s="7">
+        <f t="shared" si="8"/>
+        <v>0.58679980477774829</v>
+      </c>
+      <c r="AD27" s="7">
+        <f t="shared" si="9"/>
+        <v>0.60843808449949155</v>
+      </c>
+      <c r="AE27" s="7">
         <f t="shared" si="2"/>
-        <v>0.57950738847470706</v>
-      </c>
-      <c r="AD27" s="7">
+        <v>0.46775288869176207</v>
+      </c>
+      <c r="AF27" s="7">
         <f t="shared" si="3"/>
-        <v>0.46775288869176207</v>
-      </c>
-      <c r="AE27" s="7">
-        <f t="shared" si="3"/>
-        <v>0.48214699274945971</v>
-      </c>
-      <c r="AF27" s="7"/>
-      <c r="AG27" s="3">
+        <v>0.48935613670016498</v>
+      </c>
+      <c r="AG27" s="7">
+        <f t="shared" si="4"/>
+        <v>0.51099751883433797</v>
+      </c>
+      <c r="AH27" s="7"/>
+      <c r="AI27" s="3">
         <v>85</v>
       </c>
-      <c r="AH27" s="3" t="s">
+      <c r="AJ27" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="AI27" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ27" s="7">
-        <f>(SUM(AD27:AD31)/SUM(AD26:AD31))</f>
+      <c r="AK27" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL27" s="7">
+        <f>(SUM(AE27:AE31)/SUM(AE26:AE31))</f>
         <v>0.57788150927644621</v>
       </c>
-      <c r="AK27" s="7">
-        <f>(SUM(AE27:AE31)/SUM(AE26:AE31))</f>
-        <v>0.58181140169748524</v>
-      </c>
-      <c r="AL27" s="4"/>
-      <c r="AM27" s="3">
+      <c r="AM27" s="7">
+        <f t="shared" ref="AM27:AN27" si="17">(SUM(AF27:AF31)/SUM(AF26:AF31))</f>
+        <v>0.58378363727436022</v>
+      </c>
+      <c r="AN27" s="7">
+        <f t="shared" si="17"/>
+        <v>0.5897231413853643</v>
+      </c>
+      <c r="AO27" s="4"/>
+      <c r="AP27" s="13">
         <v>85</v>
       </c>
-      <c r="AN27" s="3" t="s">
+      <c r="AQ27" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="AO27" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AP27" t="s">
+      <c r="AR27" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AS27" s="25">
+        <f>(F26+F27)*((L27-AL27)*O$13+AL27)+(U27)</f>
+        <v>20356.17915436285</v>
+      </c>
+      <c r="AT27" s="25">
+        <f>(AS26+AS27)*((L27-AL27)*O$13+AM27)+(U27)</f>
+        <v>22625.095770552165</v>
+      </c>
+      <c r="AU27" s="25">
+        <f>(AT26+AT27)*((L27-AL27)*O$13+AN27)+(U27)</f>
+        <v>27026.588070957361</v>
+      </c>
+      <c r="AW27" s="3">
+        <v>85</v>
+      </c>
+      <c r="AX27" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AY27" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ27" t="s">
         <v>2</v>
       </c>
-      <c r="AQ27" s="7">
-        <f t="shared" si="4"/>
-        <v>0.61797408880615112</v>
-      </c>
-      <c r="AR27" s="25">
-        <f>AW27/(F26+F27)</f>
-        <v>0.61797408880615112</v>
-      </c>
-      <c r="AS27" s="25"/>
-      <c r="AT27" s="13">
-        <v>85</v>
-      </c>
-      <c r="AU27" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AV27" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AW27" s="26">
-        <f>(F26+F27)*AQ27+U27</f>
-        <v>20486.459018012716</v>
+      <c r="BA27" s="24">
+        <f>AS27/(F26+F27)</f>
+        <v>0.6140441963851121</v>
+      </c>
+      <c r="BB27" s="24">
+        <f>AT27/(AS26+AS27)</f>
+        <v>0.6199463243830261</v>
+      </c>
+      <c r="BC27" s="24">
+        <f>AU27/(AT26+AT27)</f>
+        <v>0.62588582849403018</v>
       </c>
     </row>
-    <row r="28" spans="2:49" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:55" x14ac:dyDescent="0.3">
       <c r="B28" s="3">
         <v>0</v>
       </c>
@@ -6645,77 +7438,99 @@
         <v>0.35680000000000001</v>
       </c>
       <c r="AA28" s="7">
+        <f t="shared" si="6"/>
+        <v>-0.29464015857945119</v>
+      </c>
+      <c r="AB28" s="7">
         <f t="shared" si="7"/>
-        <v>-0.29464015857945119</v>
-      </c>
-      <c r="AB28" s="7">
-        <f t="shared" si="1"/>
         <v>0.37068475826544123</v>
       </c>
       <c r="AC28" s="7">
+        <f t="shared" si="8"/>
+        <v>0.39191246862258167</v>
+      </c>
+      <c r="AD28" s="7">
+        <f t="shared" si="9"/>
+        <v>0.41355695316918434</v>
+      </c>
+      <c r="AE28" s="7">
         <f t="shared" si="2"/>
-        <v>0.38478659702421242</v>
-      </c>
-      <c r="AD28" s="7">
+        <v>0.26960284091290643</v>
+      </c>
+      <c r="AF28" s="7">
         <f t="shared" si="3"/>
-        <v>0.26960284091290643</v>
-      </c>
-      <c r="AE28" s="7">
-        <f>0.5*(AC28+AC29)</f>
-        <v>0.2809413984751884</v>
-      </c>
-      <c r="AF28" s="7"/>
-      <c r="AG28" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="AH28" s="16" t="s">
-        <v>24</v>
-      </c>
+        <v>0.28671154729853965</v>
+      </c>
+      <c r="AG28" s="7">
+        <f t="shared" si="4"/>
+        <v>0.30441169966278853</v>
+      </c>
+      <c r="AH28" s="7"/>
       <c r="AI28" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="AJ28" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="AK28" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="AM28" s="3">
-        <v>0</v>
-      </c>
-      <c r="AN28" s="3">
-        <v>5</v>
-      </c>
-      <c r="AO28" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AP28" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ28" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="AK28" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="AL28" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="AM28" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="AN28" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="AP28" s="13">
+        <v>0</v>
+      </c>
+      <c r="AQ28" s="13">
+        <v>5</v>
+      </c>
+      <c r="AR28" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AS28" s="25">
+        <f>(IF(AND(O10&lt;&gt;".",O10&lt;&gt;""),O10*(1-O11),L28))*((SUM(AS13:AS19)/(AP20-AP13)*(AQ10)))</f>
+        <v>53617.680170061285</v>
+      </c>
+      <c r="AT28" s="25">
+        <f>(IF(AND(O10&lt;&gt;".",O10&lt;&gt;""),O10*(1-O11),L28))*((SUM(AT13:AT19)/(AP20-AP13)*(AQ10)))</f>
+        <v>57010.423297007241</v>
+      </c>
+      <c r="AU28" s="25">
+        <f>(IF(AND(O10&lt;&gt;".",O10&lt;&gt;""),O10*(1-O11),L28))*((SUM(AU13:AU19)/(AP20-AP13)*(AQ10)))</f>
+        <v>60014.753507066685</v>
+      </c>
+      <c r="AW28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AX28" s="3">
+        <v>5</v>
+      </c>
+      <c r="AY28" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AZ28" t="s">
         <v>12</v>
       </c>
-      <c r="AQ28" s="24">
-        <f>IF(AND(O10&lt;&gt;".",O10&lt;&gt;""),O10*(1-O11),L28)</f>
+      <c r="BA28" s="24">
+        <f>(AS28)/((SUM(AS13:AS19)/(AP20-AP13)*(AQ10)))</f>
         <v>0.8520808201244201</v>
       </c>
-      <c r="AR28" s="25">
-        <f>AQ28</f>
+      <c r="BB28" s="24">
+        <f>(AT28)/((SUM(AT13:AT19)/(AP20-AP13)*(AQ10)))</f>
         <v>0.8520808201244201</v>
       </c>
-      <c r="AS28" s="25"/>
-      <c r="AT28" s="13">
-        <v>0</v>
-      </c>
-      <c r="AU28" s="13">
-        <v>5</v>
-      </c>
-      <c r="AV28" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AW28" s="26">
-        <f>AR28*(SUM(AW13:AW19)/(AT20-AT13))*AU10</f>
-        <v>53626.210423780765</v>
+      <c r="BC28" s="24">
+        <f>(AU28)/((SUM(AU13:AU19)/(AP20-AP13)*(AQ10)))</f>
+        <v>0.8520808201244201</v>
       </c>
     </row>
-    <row r="29" spans="2:49" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:55" x14ac:dyDescent="0.3">
       <c r="B29" s="3">
         <v>5</v>
       </c>
@@ -6776,76 +7591,98 @@
         <v>0.16028000000000001</v>
       </c>
       <c r="AA29" s="7">
+        <f t="shared" si="6"/>
+        <v>-0.82807310858408889</v>
+      </c>
+      <c r="AB29" s="7">
         <f t="shared" si="7"/>
-        <v>-0.82807310858408889</v>
-      </c>
-      <c r="AB29" s="7">
-        <f t="shared" si="1"/>
         <v>0.16852092356037157</v>
       </c>
       <c r="AC29" s="7">
+        <f t="shared" si="8"/>
+        <v>0.18151062597449763</v>
+      </c>
+      <c r="AD29" s="7">
+        <f t="shared" si="9"/>
+        <v>0.19526644615639271</v>
+      </c>
+      <c r="AE29" s="7">
         <f t="shared" si="2"/>
-        <v>0.17709619992616432</v>
-      </c>
-      <c r="AD29" s="7">
+        <v>0.10603116867110993</v>
+      </c>
+      <c r="AF29" s="7">
         <f t="shared" si="3"/>
-        <v>0.10603116867110993</v>
-      </c>
-      <c r="AE29" s="7">
-        <f t="shared" ref="AE29:AE31" si="10">0.5*(AC29+AC30)</f>
-        <v>0.11160295811594309</v>
-      </c>
-      <c r="AG29" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="AH29" s="16" t="s">
-        <v>24</v>
+        <v>0.11447898213999026</v>
+      </c>
+      <c r="AG29" s="7">
+        <f t="shared" si="4"/>
+        <v>0.12347557988378841</v>
       </c>
       <c r="AI29" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="AJ29" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="AK29" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="AM29" s="3">
-        <v>5</v>
-      </c>
-      <c r="AN29" s="3">
-        <v>5</v>
-      </c>
-      <c r="AO29" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AP29" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ29" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="AK29" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="AL29" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="AM29" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="AN29" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="AP29" s="13">
+        <v>5</v>
+      </c>
+      <c r="AQ29" s="13">
+        <v>5</v>
+      </c>
+      <c r="AR29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AS29" s="25">
+        <f>(F28)*((L29-AL34)*O$13+AL34)+(U29)</f>
+        <v>50604.047690193031</v>
+      </c>
+      <c r="AT29" s="25">
+        <f>(AS28)*((L29-AL34)*O$13+AM34)+(U29)</f>
+        <v>54057.545549651339</v>
+      </c>
+      <c r="AU29" s="25">
+        <f>(AT28)*((L29-AL34)*O$13+AN34)+(U29)</f>
+        <v>57491.434687022622</v>
+      </c>
+      <c r="AW29" s="3">
+        <v>5</v>
+      </c>
+      <c r="AX29" s="3">
+        <v>5</v>
+      </c>
+      <c r="AY29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AZ29" t="s">
         <v>1</v>
       </c>
-      <c r="AQ29" s="7">
-        <f t="shared" ref="AQ29:AQ45" si="11">(L29-AJ34)*O$13+AK34</f>
-        <v>1.0081211387336828</v>
-      </c>
-      <c r="AR29" s="25">
-        <f t="shared" ref="AR29:AR44" si="12">AW29/F28</f>
-        <v>1.0081211387336828</v>
-      </c>
-      <c r="AS29" s="25"/>
-      <c r="AT29" s="13">
-        <v>5</v>
-      </c>
-      <c r="AU29" s="13">
-        <v>5</v>
-      </c>
-      <c r="AV29" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AW29" s="26">
-        <f t="shared" ref="AW29:AW44" si="13">F28*AQ29+U29</f>
-        <v>50612.721770124546</v>
+      <c r="BA29" s="24">
+        <f>AS29/F28</f>
+        <v>1.007948365505289</v>
+      </c>
+      <c r="BB29" s="24">
+        <f>AT29/AS28</f>
+        <v>1.0082037376140653</v>
+      </c>
+      <c r="BC29" s="24">
+        <f>AU29/AT28</f>
+        <v>1.0084372534388923</v>
       </c>
     </row>
-    <row r="30" spans="2:49" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:55" x14ac:dyDescent="0.3">
       <c r="B30" s="3">
         <v>10</v>
       </c>
@@ -6907,77 +7744,99 @@
         <v>4.1110000000000001E-2</v>
       </c>
       <c r="AA30" s="7">
+        <f t="shared" si="6"/>
+        <v>-1.5747624822896737</v>
+      </c>
+      <c r="AB30" s="7">
         <f t="shared" si="7"/>
-        <v>-1.5747624822896737</v>
-      </c>
-      <c r="AB30" s="7">
-        <f t="shared" si="1"/>
         <v>4.3541413781848282E-2</v>
       </c>
       <c r="AC30" s="7">
+        <f t="shared" si="8"/>
+        <v>4.7447338305482901E-2</v>
+      </c>
+      <c r="AD30" s="7">
+        <f t="shared" si="9"/>
+        <v>5.1684713611184083E-2</v>
+      </c>
+      <c r="AE30" s="7">
         <f t="shared" si="2"/>
-        <v>4.6109716305721846E-2</v>
-      </c>
-      <c r="AD30" s="7">
-        <f t="shared" ref="AD30" si="14">0.5*(AB30+AB31)</f>
         <v>2.4339582497647151E-2</v>
       </c>
-      <c r="AE30" s="7">
-        <f t="shared" si="10"/>
-        <v>2.5781717830129031E-2</v>
-      </c>
-      <c r="AF30" s="7"/>
-      <c r="AG30" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="AH30" s="16" t="s">
-        <v>24</v>
-      </c>
+      <c r="AF30" s="7">
+        <f t="shared" si="3"/>
+        <v>2.65331074496786E-2</v>
+      </c>
+      <c r="AG30" s="7">
+        <f t="shared" si="4"/>
+        <v>2.891474617562043E-2</v>
+      </c>
+      <c r="AH30" s="7"/>
       <c r="AI30" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="AJ30" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="AK30" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="AM30" s="3">
+        <v>20</v>
+      </c>
+      <c r="AJ30" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="AK30" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="AL30" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="AM30" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="AN30" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="AP30" s="13">
         <v>10</v>
       </c>
-      <c r="AN30" s="3">
-        <v>5</v>
-      </c>
-      <c r="AO30" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AP30" t="s">
+      <c r="AQ30" s="13">
+        <v>5</v>
+      </c>
+      <c r="AR30" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AS30" s="25">
+        <f>(F29)*((L30-AL35)*O$13+AL35)+(U30)</f>
+        <v>50471.906921687121</v>
+      </c>
+      <c r="AT30" s="25">
+        <f>(AS29)*((L30-AL35)*O$13+AM35)+(U30)</f>
+        <v>50480.299633142684</v>
+      </c>
+      <c r="AU30" s="25">
+        <f>(AT29)*((L30-AL35)*O$13+AN35)+(U30)</f>
+        <v>53927.658815024341</v>
+      </c>
+      <c r="AW30" s="3">
+        <v>10</v>
+      </c>
+      <c r="AX30" s="3">
+        <v>5</v>
+      </c>
+      <c r="AY30" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AZ30" t="s">
         <v>1</v>
       </c>
-      <c r="AQ30" s="7">
-        <f t="shared" si="11"/>
-        <v>0.99753949412947251</v>
-      </c>
-      <c r="AR30" s="25">
-        <f t="shared" si="12"/>
-        <v>0.99753949412947251</v>
-      </c>
-      <c r="AS30" s="25"/>
-      <c r="AT30" s="13">
-        <v>10</v>
-      </c>
-      <c r="AU30" s="13">
-        <v>5</v>
-      </c>
-      <c r="AV30" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AW30" s="26">
-        <f t="shared" si="13"/>
-        <v>50473.50332396305</v>
+      <c r="BA30" s="24">
+        <f>AS30/F29</f>
+        <v>0.9975079434303159</v>
+      </c>
+      <c r="BB30" s="24">
+        <f t="shared" ref="BB30:BB44" si="18">AT30/AS29</f>
+        <v>0.99755458184278156</v>
+      </c>
+      <c r="BC30" s="24">
+        <f t="shared" ref="BC30:BC44" si="19">AU30/AT29</f>
+        <v>0.99759725060939552</v>
       </c>
     </row>
-    <row r="31" spans="2:49" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:55" x14ac:dyDescent="0.3">
       <c r="B31" s="3">
         <v>15</v>
       </c>
@@ -7006,7 +7865,7 @@
         <v>1</v>
       </c>
       <c r="L31" s="7">
-        <f t="shared" ref="L31:L43" si="15">F31/E30</f>
+        <f t="shared" ref="L31:L43" si="20">F31/E30</f>
         <v>1.0217470957173955</v>
       </c>
       <c r="M31" s="6"/>
@@ -7042,77 +7901,99 @@
         <v>4.8399999999999997E-3</v>
       </c>
       <c r="AA31" s="7">
+        <f t="shared" si="6"/>
+        <v>-2.662994403761286</v>
+      </c>
+      <c r="AB31" s="7">
         <f t="shared" si="7"/>
-        <v>-2.662994403761286</v>
-      </c>
-      <c r="AB31" s="7">
-        <f t="shared" si="1"/>
         <v>5.1377512134460242E-3</v>
       </c>
       <c r="AC31" s="7">
-        <f t="shared" si="2"/>
-        <v>5.4537193545362121E-3</v>
+        <f t="shared" si="8"/>
+        <v>5.6188765938742962E-3</v>
       </c>
       <c r="AD31" s="7">
+        <f t="shared" si="9"/>
+        <v>6.1447787400567789E-3</v>
+      </c>
+      <c r="AE31" s="7">
         <f>0.5*(AB31+AB32)</f>
         <v>2.6909850728853604E-3</v>
       </c>
-      <c r="AE31" s="7">
-        <f t="shared" si="10"/>
-        <v>2.8565180130629272E-3</v>
-      </c>
-      <c r="AF31" s="7"/>
-      <c r="AG31" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="AH31" s="16" t="s">
-        <v>24</v>
-      </c>
+      <c r="AF31" s="7">
+        <f t="shared" si="3"/>
+        <v>2.9430442617862673E-3</v>
+      </c>
+      <c r="AG31" s="7">
+        <f t="shared" si="4"/>
+        <v>3.2185739022564152E-3</v>
+      </c>
+      <c r="AH31" s="7"/>
       <c r="AI31" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="AJ31" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="AK31" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="AM31" s="3">
+        <v>20</v>
+      </c>
+      <c r="AJ31" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="AK31" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="AL31" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="AM31" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="AN31" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="AP31" s="13">
         <v>15</v>
       </c>
-      <c r="AN31" s="3">
-        <v>5</v>
-      </c>
-      <c r="AO31" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AP31" t="s">
+      <c r="AQ31" s="13">
+        <v>5</v>
+      </c>
+      <c r="AR31" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AS31" s="25">
+        <f>(F30)*((L31-AL36)*O$13+AL36)+(U31)</f>
+        <v>49077.578248593658</v>
+      </c>
+      <c r="AT31" s="25">
+        <f>(AS30)*((L31-AL36)*O$13+AM36)+(U31)</f>
+        <v>51576.493197537588</v>
+      </c>
+      <c r="AU31" s="25">
+        <f>(AT30)*((L31-AL36)*O$13+AN36)+(U31)</f>
+        <v>51591.449013182784</v>
+      </c>
+      <c r="AW31" s="3">
+        <v>15</v>
+      </c>
+      <c r="AX31" s="3">
+        <v>5</v>
+      </c>
+      <c r="AY31" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AZ31" t="s">
         <v>1</v>
       </c>
-      <c r="AQ31" s="7">
-        <f t="shared" si="11"/>
-        <v>1.0218404960488769</v>
-      </c>
-      <c r="AR31" s="25">
-        <f t="shared" si="12"/>
-        <v>1.0218404960488769</v>
-      </c>
-      <c r="AS31" s="25"/>
-      <c r="AT31" s="13">
-        <v>15</v>
-      </c>
-      <c r="AU31" s="13">
-        <v>5</v>
-      </c>
-      <c r="AV31" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AW31" s="26">
-        <f t="shared" si="13"/>
-        <v>49082.064546715708</v>
+      <c r="BA31" s="24">
+        <f>AS31/F30</f>
+        <v>1.0217470957173955</v>
+      </c>
+      <c r="BB31" s="24">
+        <f t="shared" si="18"/>
+        <v>1.0218851702505387</v>
+      </c>
+      <c r="BC31" s="24">
+        <f t="shared" si="19"/>
+        <v>1.0220115448623561</v>
       </c>
     </row>
-    <row r="32" spans="2:49" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:55" x14ac:dyDescent="0.3">
       <c r="B32" s="3">
         <v>20</v>
       </c>
@@ -7141,7 +8022,7 @@
         <v>1</v>
       </c>
       <c r="L32" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>1.0432619807681009</v>
       </c>
       <c r="M32" s="6"/>
@@ -7177,75 +8058,96 @@
         <v>2.3000000000000001E-4</v>
       </c>
       <c r="AA32" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>-4.188600611293511</v>
       </c>
       <c r="AB32" s="7">
-        <f t="shared" si="1"/>
+        <f>1/(1+EXP(-2*(O$14*1+O$15*0)-2*1*AA32))</f>
         <v>2.4421893232469643E-4</v>
       </c>
       <c r="AC32" s="7">
-        <f t="shared" si="2"/>
-        <v>2.5931667158964267E-4</v>
-      </c>
-      <c r="AD32" s="7" t="s">
-        <v>24</v>
+        <f>1/(1+EXP(-2*(O$14*0.5+O$15*0.5)-2*1*AA32))</f>
+        <v>2.6721192969823842E-4</v>
+      </c>
+      <c r="AD32" s="7">
+        <f t="shared" si="9"/>
+        <v>2.9236906445605102E-4</v>
       </c>
       <c r="AE32" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="AF32" s="8"/>
-      <c r="AG32" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="AH32" s="16" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="AF32" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG32" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH32" s="8"/>
       <c r="AI32" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="AJ32" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="AK32" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="AM32" s="3">
         <v>20</v>
       </c>
-      <c r="AN32" s="3">
-        <v>5</v>
-      </c>
-      <c r="AO32" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AP32" t="s">
+      <c r="AJ32" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="AK32" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="AL32" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="AM32" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="AN32" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="AP32" s="13">
+        <v>20</v>
+      </c>
+      <c r="AQ32" s="13">
+        <v>5</v>
+      </c>
+      <c r="AR32" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AS32" s="25">
+        <f>(F31)*((L32-AL37)*O$13+AL37)+(U32)</f>
+        <v>49456.877460292591</v>
+      </c>
+      <c r="AT32" s="25">
+        <f>(AS31)*((L32-AL37)*O$13+AM37)+(U32)</f>
+        <v>51216.267488810496</v>
+      </c>
+      <c r="AU32" s="25">
+        <f>(AT31)*((L32-AL37)*O$13+AN37)+(U32)</f>
+        <v>53838.993861357405</v>
+      </c>
+      <c r="AW32" s="3">
+        <v>20</v>
+      </c>
+      <c r="AX32" s="3">
+        <v>5</v>
+      </c>
+      <c r="AY32" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AZ32" t="s">
         <v>1</v>
       </c>
-      <c r="AQ32" s="7">
-        <f t="shared" si="11"/>
-        <v>1.0434755434352139</v>
-      </c>
-      <c r="AR32" s="25">
-        <f t="shared" si="12"/>
-        <v>1.0434755434352139</v>
-      </c>
-      <c r="AS32" s="25"/>
-      <c r="AT32" s="13">
-        <v>20</v>
-      </c>
-      <c r="AU32" s="13">
-        <v>5</v>
-      </c>
-      <c r="AV32" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AW32" s="26">
-        <f t="shared" si="13"/>
-        <v>49467.001612089749</v>
+      <c r="BA32" s="24">
+        <f>AS32/F31</f>
+        <v>1.0432619807681009</v>
+      </c>
+      <c r="BB32" s="24">
+        <f t="shared" si="18"/>
+        <v>1.043577725644564</v>
+      </c>
+      <c r="BC32" s="24">
+        <f t="shared" si="19"/>
+        <v>1.0438668960131596</v>
       </c>
     </row>
-    <row r="33" spans="2:49" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:55" x14ac:dyDescent="0.3">
       <c r="B33" s="3">
         <v>25</v>
       </c>
@@ -7306,7 +8208,7 @@
         <v>1</v>
       </c>
       <c r="AA33" s="15" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AB33" s="7">
         <v>1</v>
@@ -7315,64 +8217,85 @@
         <v>1</v>
       </c>
       <c r="AD33" s="7">
+        <v>1</v>
+      </c>
+      <c r="AE33" s="7">
         <f>0.5*(AB33+AB34)</f>
         <v>0.99726324805522681</v>
       </c>
-      <c r="AE33" s="7">
-        <f>0.5*(AC33+AC34)</f>
-        <v>0.99742180227537991</v>
-      </c>
-      <c r="AG33" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH33" s="3">
-        <v>5</v>
-      </c>
-      <c r="AI33" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AJ33" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="AK33" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="AM33" s="3">
+      <c r="AF33" s="7">
+        <f t="shared" ref="AF33:AG33" si="21">0.5*(AC33+AC34)</f>
+        <v>0.99749761818427107</v>
+      </c>
+      <c r="AG33" s="7">
+        <f t="shared" si="21"/>
+        <v>0.99771200965999007</v>
+      </c>
+      <c r="AI33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ33" s="3">
+        <v>5</v>
+      </c>
+      <c r="AK33" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AL33" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="AM33" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="AN33" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="AP33" s="13">
         <v>25</v>
       </c>
-      <c r="AN33" s="3">
-        <v>5</v>
-      </c>
-      <c r="AO33" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AP33" t="s">
+      <c r="AQ33" s="13">
+        <v>5</v>
+      </c>
+      <c r="AR33" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AS33" s="25">
+        <f>(F32)*((L33-AL38)*O$13+AL38)+(U33)</f>
+        <v>65557.972448157103</v>
+      </c>
+      <c r="AT33" s="25">
+        <f>(AS32)*((L33-AL38)*O$13+AM38)+(U33)</f>
+        <v>60885.533415050311</v>
+      </c>
+      <c r="AU33" s="25">
+        <f>(AT32)*((L33-AL38)*O$13+AN38)+(U33)</f>
+        <v>63070.724630050332</v>
+      </c>
+      <c r="AW33" s="3">
+        <v>25</v>
+      </c>
+      <c r="AX33" s="3">
+        <v>5</v>
+      </c>
+      <c r="AY33" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AZ33" t="s">
         <v>1</v>
       </c>
-      <c r="AQ33" s="7">
-        <f t="shared" si="11"/>
-        <v>1.2309505869671391</v>
-      </c>
-      <c r="AR33" s="25">
-        <f t="shared" si="12"/>
-        <v>1.2309505869671391</v>
-      </c>
-      <c r="AS33" s="25"/>
-      <c r="AT33" s="13">
-        <v>25</v>
-      </c>
-      <c r="AU33" s="13">
-        <v>5</v>
-      </c>
-      <c r="AV33" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AW33" s="26">
-        <f t="shared" si="13"/>
-        <v>65572.737767739498</v>
+      <c r="BA33" s="24">
+        <f>AS33/F32</f>
+        <v>1.2306734080750348</v>
+      </c>
+      <c r="BB33" s="24">
+        <f t="shared" si="18"/>
+        <v>1.2310832495224437</v>
+      </c>
+      <c r="BC33" s="24">
+        <f t="shared" si="19"/>
+        <v>1.2314588259253711</v>
       </c>
     </row>
-    <row r="34" spans="2:49" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:55" x14ac:dyDescent="0.3">
       <c r="B34" s="3">
         <v>30</v>
       </c>
@@ -7401,7 +8324,7 @@
         <v>1</v>
       </c>
       <c r="L34" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>1.1807854361855321</v>
       </c>
       <c r="Q34" s="3">
@@ -7433,78 +8356,101 @@
         <v>0.99419000000000002</v>
       </c>
       <c r="AA34" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>2.5711738822039036</v>
       </c>
       <c r="AB34" s="7">
-        <f t="shared" ref="AB34:AB55" si="16">1/(1+EXP(-2*O$14-2*1*AA34))</f>
+        <f>1/(1+EXP(-2*(O$14*1+O$15*0)-2*1*AA34))</f>
         <v>0.99452649611045363</v>
       </c>
       <c r="AC34" s="7">
-        <f t="shared" ref="AC34:AC55" si="17">1/(1+EXP(-2*O$15-2*1*AA34))</f>
-        <v>0.99484360455075982</v>
+        <f>1/(1+EXP(-2*(O$14*0.5+O$15*0.5)-2*1*AA34))</f>
+        <v>0.99499523636854215</v>
       </c>
       <c r="AD34" s="7">
-        <f t="shared" ref="AD34:AD53" si="18">0.5*(AB34+AB35)</f>
+        <f>1/(1+EXP(-2*(O$14*0+O$15*1)-2*1*AA34))</f>
+        <v>0.99542401931998015</v>
+      </c>
+      <c r="AE34" s="7">
+        <f t="shared" ref="AE34:AE53" si="22">0.5*(AB34+AB35)</f>
         <v>0.99429560099387859</v>
       </c>
-      <c r="AE34" s="7">
-        <f t="shared" ref="AE34:AE37" si="19">0.5*(AC34+AC35)</f>
-        <v>0.99462601117464966</v>
-      </c>
-      <c r="AG34" s="3">
-        <v>5</v>
-      </c>
-      <c r="AH34" s="3">
-        <v>5</v>
-      </c>
-      <c r="AI34" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AJ34" s="7">
-        <f>AD34/AD33</f>
+      <c r="AF34" s="7">
+        <f t="shared" ref="AF34:AF54" si="23">0.5*(AC34+AC35)</f>
+        <v>0.99478400675664236</v>
+      </c>
+      <c r="AG34" s="7">
+        <f t="shared" ref="AG34:AG54" si="24">0.5*(AD34+AD35)</f>
+        <v>0.99523079654060265</v>
+      </c>
+      <c r="AI34" s="3">
+        <v>5</v>
+      </c>
+      <c r="AJ34" s="3">
+        <v>5</v>
+      </c>
+      <c r="AK34" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AL34" s="7">
+        <f>AE34/AE33</f>
         <v>0.99702420893667199</v>
       </c>
-      <c r="AK34" s="7">
-        <f>AE34/AE33</f>
-        <v>0.99719698216506569</v>
-      </c>
-      <c r="AM34" s="3">
+      <c r="AM34" s="7">
+        <f t="shared" ref="AM34:AN34" si="25">AF34/AF33</f>
+        <v>0.99727958104544823</v>
+      </c>
+      <c r="AN34" s="7">
+        <f t="shared" si="25"/>
+        <v>0.99751309687027523</v>
+      </c>
+      <c r="AP34" s="13">
         <v>30</v>
       </c>
-      <c r="AN34" s="3">
-        <v>5</v>
-      </c>
-      <c r="AO34" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AP34" t="s">
+      <c r="AQ34" s="13">
+        <v>5</v>
+      </c>
+      <c r="AR34" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AS34" s="25">
+        <f>(F33)*((L34-AL39)*O$13+AL39)+(U34)</f>
+        <v>79325.165602944049</v>
+      </c>
+      <c r="AT34" s="25">
+        <f>(AS33)*((L34-AL39)*O$13+AM39)+(U34)</f>
+        <v>77438.372800703248</v>
+      </c>
+      <c r="AU34" s="25">
+        <f>(AT33)*((L34-AL39)*O$13+AN39)+(U34)</f>
+        <v>71943.450286371182</v>
+      </c>
+      <c r="AW34" s="3">
+        <v>30</v>
+      </c>
+      <c r="AX34" s="3">
+        <v>5</v>
+      </c>
+      <c r="AY34" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AZ34" t="s">
         <v>1</v>
       </c>
-      <c r="AQ34" s="7">
-        <f t="shared" si="11"/>
-        <v>1.1810791322320759</v>
-      </c>
-      <c r="AR34" s="25">
-        <f t="shared" si="12"/>
-        <v>1.1810791322320759</v>
-      </c>
-      <c r="AS34" s="25"/>
-      <c r="AT34" s="13">
-        <v>30</v>
-      </c>
-      <c r="AU34" s="13">
-        <v>5</v>
-      </c>
-      <c r="AV34" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AW34" s="26">
-        <f t="shared" si="13"/>
-        <v>79344.896103350868</v>
+      <c r="BA34" s="24">
+        <f>AS34/F33</f>
+        <v>1.1807854361855321</v>
+      </c>
+      <c r="BB34" s="24">
+        <f t="shared" si="18"/>
+        <v>1.1812197648720923</v>
+      </c>
+      <c r="BC34" s="24">
+        <f t="shared" si="19"/>
+        <v>1.1816181324378028</v>
       </c>
     </row>
-    <row r="35" spans="2:49" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:55" x14ac:dyDescent="0.3">
       <c r="B35" s="3">
         <v>35</v>
       </c>
@@ -7533,7 +8479,7 @@
         <v>1</v>
       </c>
       <c r="L35" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>1.0982375805335178</v>
       </c>
       <c r="Q35" s="3">
@@ -7565,78 +8511,101 @@
         <v>0.99370000000000003</v>
       </c>
       <c r="AA35" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>2.5304428584199177</v>
       </c>
       <c r="AB35" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="AB35:AB54" si="26">1/(1+EXP(-2*(O$14*1+O$15*0)-2*1*AA35))</f>
         <v>0.99406470587730345</v>
       </c>
       <c r="AC35" s="7">
-        <f t="shared" si="17"/>
-        <v>0.9944084177985395</v>
+        <f t="shared" ref="AC35:AC54" si="27">1/(1+EXP(-2*(O$14*0.5+O$15*0.5)-2*1*AA35))</f>
+        <v>0.99457277714474257</v>
       </c>
       <c r="AD35" s="7">
+        <f t="shared" ref="AD35:AD55" si="28">1/(1+EXP(-2*(O$14*0+O$15*1)-2*1*AA35))</f>
+        <v>0.99503757376122515</v>
+      </c>
+      <c r="AE35" s="7">
+        <f t="shared" si="22"/>
+        <v>0.99375368345524628</v>
+      </c>
+      <c r="AF35" s="7">
+        <f t="shared" si="23"/>
+        <v>0.99428821817070512</v>
+      </c>
+      <c r="AG35" s="7">
+        <f t="shared" si="24"/>
+        <v>0.99477725055050481</v>
+      </c>
+      <c r="AI35" s="3">
+        <v>10</v>
+      </c>
+      <c r="AJ35" s="3">
+        <v>5</v>
+      </c>
+      <c r="AK35" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AL35" s="7">
+        <f t="shared" ref="AL35:AL49" si="29">AE35/AE34</f>
+        <v>0.99945497341224221</v>
+      </c>
+      <c r="AM35" s="7">
+        <f t="shared" ref="AM35:AM49" si="30">AF35/AF34</f>
+        <v>0.99950161182470787</v>
+      </c>
+      <c r="AN35" s="7">
+        <f t="shared" ref="AN35:AN49" si="31">AG35/AG34</f>
+        <v>0.99954428059132183</v>
+      </c>
+      <c r="AP35" s="13">
+        <v>35</v>
+      </c>
+      <c r="AQ35" s="13">
+        <v>5</v>
+      </c>
+      <c r="AR35" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AS35" s="25">
+        <f>(F34)*((L35-AL40)*O$13+AL40)+(U35)</f>
+        <v>72942.743623875183</v>
+      </c>
+      <c r="AT35" s="25">
+        <f>(AS34)*((L35-AL40)*O$13+AM40)+(U35)</f>
+        <v>87157.221800468338</v>
+      </c>
+      <c r="AU35" s="25">
+        <f>(AT34)*((L35-AL40)*O$13+AN40)+(U35)</f>
+        <v>85119.401849758739</v>
+      </c>
+      <c r="AW35" s="3">
+        <v>35</v>
+      </c>
+      <c r="AX35" s="3">
+        <v>5</v>
+      </c>
+      <c r="AY35" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AZ35" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA35" s="24">
+        <f>AS35/F34</f>
+        <v>1.0982375805335178</v>
+      </c>
+      <c r="BB35" s="24">
         <f t="shared" si="18"/>
-        <v>0.99375368345524628</v>
-      </c>
-      <c r="AE35" s="7">
+        <v>1.0987335625207142</v>
+      </c>
+      <c r="BC35" s="24">
         <f t="shared" si="19"/>
-        <v>0.99411529469973592</v>
-      </c>
-      <c r="AG35" s="3">
-        <v>10</v>
-      </c>
-      <c r="AH35" s="3">
-        <v>5</v>
-      </c>
-      <c r="AI35" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AJ35" s="7">
-        <f t="shared" ref="AJ35:AJ48" si="20">AD35/AD34</f>
-        <v>0.99945497341224221</v>
-      </c>
-      <c r="AK35" s="7">
-        <f t="shared" ref="AK35:AK48" si="21">AE35/AE34</f>
-        <v>0.99948652411139882</v>
-      </c>
-      <c r="AM35" s="3">
-        <v>35</v>
-      </c>
-      <c r="AN35" s="3">
-        <v>5</v>
-      </c>
-      <c r="AO35" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AP35" t="s">
-        <v>1</v>
-      </c>
-      <c r="AQ35" s="7">
-        <f t="shared" si="11"/>
-        <v>1.0985729112764508</v>
-      </c>
-      <c r="AR35" s="25">
-        <f t="shared" si="12"/>
-        <v>1.0985729112764508</v>
-      </c>
-      <c r="AS35" s="25"/>
-      <c r="AT35" s="13">
-        <v>35</v>
-      </c>
-      <c r="AU35" s="13">
-        <v>5</v>
-      </c>
-      <c r="AV35" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AW35" s="26">
-        <f t="shared" si="13"/>
-        <v>72965.015621159313</v>
+        <v>1.0991889262552497</v>
       </c>
     </row>
-    <row r="36" spans="2:49" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:55" x14ac:dyDescent="0.3">
       <c r="B36" s="3">
         <v>40</v>
       </c>
@@ -7665,7 +8634,7 @@
         <v>1</v>
       </c>
       <c r="L36" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>1.0246930950789686</v>
       </c>
       <c r="Q36" s="3">
@@ -7697,78 +8666,101 @@
         <v>0.99304000000000003</v>
       </c>
       <c r="AA36" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>2.4802957354306843</v>
       </c>
       <c r="AB36" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>0.99344266103318923</v>
       </c>
       <c r="AC36" s="7">
-        <f t="shared" si="17"/>
-        <v>0.99382217160093234</v>
+        <f t="shared" si="27"/>
+        <v>0.99400365919666755</v>
       </c>
       <c r="AD36" s="7">
+        <f t="shared" si="28"/>
+        <v>0.99451692733978436</v>
+      </c>
+      <c r="AE36" s="7">
+        <f t="shared" si="22"/>
+        <v>0.99214647678006673</v>
+      </c>
+      <c r="AF36" s="7">
+        <f t="shared" si="23"/>
+        <v>0.99281743286930735</v>
+      </c>
+      <c r="AG36" s="7">
+        <f t="shared" si="24"/>
+        <v>0.99343145644448816</v>
+      </c>
+      <c r="AI36" s="3">
+        <v>15</v>
+      </c>
+      <c r="AJ36" s="3">
+        <v>5</v>
+      </c>
+      <c r="AK36" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AL36" s="7">
+        <f t="shared" si="29"/>
+        <v>0.99838269110148969</v>
+      </c>
+      <c r="AM36" s="7">
+        <f t="shared" si="30"/>
+        <v>0.99852076563463288</v>
+      </c>
+      <c r="AN36" s="7">
+        <f t="shared" si="31"/>
+        <v>0.99864714024645029</v>
+      </c>
+      <c r="AP36" s="13">
+        <v>40</v>
+      </c>
+      <c r="AQ36" s="13">
+        <v>5</v>
+      </c>
+      <c r="AR36" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AS36" s="25">
+        <f>(F35)*((L36-AL41)*O$13+AL41)+(U36)</f>
+        <v>63405.959337296415</v>
+      </c>
+      <c r="AT36" s="25">
+        <f>(AS35)*((L36-AL41)*O$13+AM41)+(U36)</f>
+        <v>74791.122258204705</v>
+      </c>
+      <c r="AU36" s="25">
+        <f>(AT35)*((L36-AL41)*O$13+AN41)+(U36)</f>
+        <v>89417.645140126435</v>
+      </c>
+      <c r="AW36" s="3">
+        <v>40</v>
+      </c>
+      <c r="AX36" s="3">
+        <v>5</v>
+      </c>
+      <c r="AY36" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AZ36" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA36" s="24">
+        <f>AS36/F35</f>
+        <v>1.0246930950789686</v>
+      </c>
+      <c r="BB36" s="24">
         <f t="shared" si="18"/>
-        <v>0.99214647678006673</v>
-      </c>
-      <c r="AE36" s="7">
+        <v>1.0253401303885767</v>
+      </c>
+      <c r="BC36" s="24">
         <f t="shared" si="19"/>
-        <v>0.99260035388552859</v>
-      </c>
-      <c r="AG36" s="3">
-        <v>15</v>
-      </c>
-      <c r="AH36" s="3">
-        <v>5</v>
-      </c>
-      <c r="AI36" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AJ36" s="7">
-        <f t="shared" si="20"/>
-        <v>0.99838269110148969</v>
-      </c>
-      <c r="AK36" s="7">
-        <f t="shared" si="21"/>
-        <v>0.99847609143297111</v>
-      </c>
-      <c r="AM36" s="3">
-        <v>40</v>
-      </c>
-      <c r="AN36" s="3">
-        <v>5</v>
-      </c>
-      <c r="AO36" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AP36" t="s">
-        <v>1</v>
-      </c>
-      <c r="AQ36" s="7">
-        <f t="shared" si="11"/>
-        <v>1.0251304487909021</v>
-      </c>
-      <c r="AR36" s="25">
-        <f t="shared" si="12"/>
-        <v>1.0251304487909021</v>
-      </c>
-      <c r="AS36" s="25"/>
-      <c r="AT36" s="13">
-        <v>40</v>
-      </c>
-      <c r="AU36" s="13">
-        <v>5</v>
-      </c>
-      <c r="AV36" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AW36" s="26">
-        <f t="shared" si="13"/>
-        <v>63433.021910283438</v>
+        <v>1.0259350090900436</v>
       </c>
     </row>
-    <row r="37" spans="2:49" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:55" x14ac:dyDescent="0.3">
       <c r="B37" s="3">
         <v>45</v>
       </c>
@@ -7797,7 +8789,7 @@
         <v>1</v>
       </c>
       <c r="L37" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>1.0012289607266898</v>
       </c>
       <c r="Q37" s="3">
@@ -7829,78 +8821,101 @@
         <v>0.99029</v>
       </c>
       <c r="AA37" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>2.3124207736114615</v>
       </c>
       <c r="AB37" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>0.99085029252694423</v>
       </c>
       <c r="AC37" s="7">
-        <f t="shared" si="17"/>
-        <v>0.99137853617012484</v>
+        <f t="shared" si="27"/>
+        <v>0.99163120654194714</v>
       </c>
       <c r="AD37" s="7">
+        <f t="shared" si="28"/>
+        <v>0.99234598554919196</v>
+      </c>
+      <c r="AE37" s="7">
+        <f t="shared" si="22"/>
+        <v>0.98846422783361709</v>
+      </c>
+      <c r="AF37" s="7">
+        <f t="shared" si="23"/>
+        <v>0.98944617075647812</v>
+      </c>
+      <c r="AG37" s="7">
+        <f t="shared" si="24"/>
+        <v>0.99034538026195285</v>
+      </c>
+      <c r="AI37" s="3">
+        <v>20</v>
+      </c>
+      <c r="AJ37" s="3">
+        <v>5</v>
+      </c>
+      <c r="AK37" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AL37" s="7">
+        <f t="shared" si="29"/>
+        <v>0.99628860351507764</v>
+      </c>
+      <c r="AM37" s="7">
+        <f t="shared" si="30"/>
+        <v>0.99660434839154055</v>
+      </c>
+      <c r="AN37" s="7">
+        <f t="shared" si="31"/>
+        <v>0.99689351876013621</v>
+      </c>
+      <c r="AP37" s="13">
+        <v>45</v>
+      </c>
+      <c r="AQ37" s="13">
+        <v>5</v>
+      </c>
+      <c r="AR37" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AS37" s="25">
+        <f>(F36)*((L37-AL42)*O$13+AL42)+(U37)</f>
+        <v>58333.601709858398</v>
+      </c>
+      <c r="AT37" s="25">
+        <f>(AS36)*((L37-AL42)*O$13+AM42)+(U37)</f>
+        <v>63546.443200137866</v>
+      </c>
+      <c r="AU37" s="25">
+        <f>(AT36)*((L37-AL42)*O$13+AN42)+(U37)</f>
+        <v>75024.822295525344</v>
+      </c>
+      <c r="AW37" s="3">
+        <v>45</v>
+      </c>
+      <c r="AX37" s="3">
+        <v>5</v>
+      </c>
+      <c r="AY37" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AZ37" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA37" s="24">
+        <f>AS37/F36</f>
+        <v>1.0012289607266898</v>
+      </c>
+      <c r="BB37" s="24">
         <f t="shared" si="18"/>
-        <v>0.98846422783361709</v>
-      </c>
-      <c r="AE37" s="7">
+        <v>1.002215625539141</v>
+      </c>
+      <c r="BC37" s="24">
         <f t="shared" si="19"/>
-        <v>0.98912840280013814</v>
-      </c>
-      <c r="AG37" s="3">
-        <v>20</v>
-      </c>
-      <c r="AH37" s="3">
-        <v>5</v>
-      </c>
-      <c r="AI37" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AJ37" s="7">
-        <f t="shared" si="20"/>
-        <v>0.99628860351507764</v>
-      </c>
-      <c r="AK37" s="7">
-        <f t="shared" si="21"/>
-        <v>0.99650216618219056</v>
-      </c>
-      <c r="AM37" s="3">
-        <v>45</v>
-      </c>
-      <c r="AN37" s="3">
-        <v>5</v>
-      </c>
-      <c r="AO37" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AP37" t="s">
-        <v>1</v>
-      </c>
-      <c r="AQ37" s="7">
-        <f t="shared" si="11"/>
-        <v>1.0018956406792254</v>
-      </c>
-      <c r="AR37" s="25">
-        <f t="shared" si="12"/>
-        <v>1.0018956406792254</v>
-      </c>
-      <c r="AS37" s="25"/>
-      <c r="AT37" s="13">
-        <v>45</v>
-      </c>
-      <c r="AU37" s="13">
-        <v>5</v>
-      </c>
-      <c r="AV37" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AW37" s="26">
-        <f t="shared" si="13"/>
-        <v>58372.443817253035</v>
+        <v>1.0031247029094419</v>
       </c>
     </row>
-    <row r="38" spans="2:49" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:55" x14ac:dyDescent="0.3">
       <c r="B38" s="3">
         <v>50</v>
       </c>
@@ -7929,7 +8944,7 @@
         <v>1</v>
       </c>
       <c r="L38" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0.99130279807520938</v>
       </c>
       <c r="Q38" s="3">
@@ -7961,78 +8976,101 @@
         <v>0.98523000000000005</v>
       </c>
       <c r="AA38" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>2.1001385099547001</v>
       </c>
       <c r="AB38" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>0.98607816314028984</v>
       </c>
       <c r="AC38" s="7">
-        <f t="shared" si="17"/>
-        <v>0.98687826943015156</v>
+        <f t="shared" si="27"/>
+        <v>0.9872611349710092</v>
       </c>
       <c r="AD38" s="7">
+        <f t="shared" si="28"/>
+        <v>0.98834477497471362</v>
+      </c>
+      <c r="AE38" s="7">
+        <f t="shared" si="22"/>
+        <v>0.98368597089097443</v>
+      </c>
+      <c r="AF38" s="7">
+        <f t="shared" si="23"/>
+        <v>0.98506868313177476</v>
+      </c>
+      <c r="AG38" s="7">
+        <f t="shared" si="24"/>
+        <v>0.98633586472841872</v>
+      </c>
+      <c r="AI38" s="3">
+        <v>25</v>
+      </c>
+      <c r="AJ38" s="3">
+        <v>5</v>
+      </c>
+      <c r="AK38" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AL38" s="7">
+        <f t="shared" si="29"/>
+        <v>0.99516597889119873</v>
+      </c>
+      <c r="AM38" s="7">
+        <f t="shared" si="30"/>
+        <v>0.9955758203386077</v>
+      </c>
+      <c r="AN38" s="7">
+        <f t="shared" si="31"/>
+        <v>0.99595139674153521</v>
+      </c>
+      <c r="AP38" s="13">
+        <v>50</v>
+      </c>
+      <c r="AQ38" s="13">
+        <v>5</v>
+      </c>
+      <c r="AR38" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AS38" s="25">
+        <f>(F37)*((L38-AL43)*O$13+AL43)+(U38)</f>
+        <v>55725.095490999818</v>
+      </c>
+      <c r="AT38" s="25">
+        <f>(AS37)*((L38-AL43)*O$13+AM43)+(U38)</f>
+        <v>57915.865860210426</v>
+      </c>
+      <c r="AU38" s="25">
+        <f>(AT37)*((L38-AL43)*O$13+AN43)+(U38)</f>
+        <v>63181.601629050041</v>
+      </c>
+      <c r="AW38" s="3">
+        <v>50</v>
+      </c>
+      <c r="AX38" s="3">
+        <v>5</v>
+      </c>
+      <c r="AY38" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AZ38" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA38" s="24">
+        <f>AS38/F37</f>
+        <v>0.99130279807520938</v>
+      </c>
+      <c r="BB38" s="24">
         <f t="shared" si="18"/>
-        <v>0.98368597089097443</v>
-      </c>
-      <c r="AE38" s="7">
-        <f>0.5*(AC38+AC39)</f>
-        <v>0.98462110073652442</v>
-      </c>
-      <c r="AG38" s="3">
-        <v>25</v>
-      </c>
-      <c r="AH38" s="3">
-        <v>5</v>
-      </c>
-      <c r="AI38" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AJ38" s="7">
-        <f t="shared" si="20"/>
-        <v>0.99516597889119873</v>
-      </c>
-      <c r="AK38" s="7">
-        <f t="shared" si="21"/>
-        <v>0.99544315778330306</v>
-      </c>
-      <c r="AM38" s="3">
-        <v>50</v>
-      </c>
-      <c r="AN38" s="3">
-        <v>5</v>
-      </c>
-      <c r="AO38" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AP38" t="s">
-        <v>1</v>
-      </c>
-      <c r="AQ38" s="7">
-        <f t="shared" si="11"/>
-        <v>0.99234012913030278</v>
-      </c>
-      <c r="AR38" s="25">
-        <f t="shared" si="12"/>
-        <v>0.99234012913030289</v>
-      </c>
-      <c r="AS38" s="25"/>
-      <c r="AT38" s="13">
-        <v>50</v>
-      </c>
-      <c r="AU38" s="13">
-        <v>5</v>
-      </c>
-      <c r="AV38" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AW38" s="26">
-        <f t="shared" si="13"/>
-        <v>55783.408018930844</v>
+        <v>0.99283884695264113</v>
+      </c>
+      <c r="BC38" s="24">
+        <f t="shared" si="19"/>
+        <v>0.99425866259833351</v>
       </c>
     </row>
-    <row r="39" spans="2:49" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:55" x14ac:dyDescent="0.3">
       <c r="B39" s="3">
         <v>55</v>
       </c>
@@ -8061,7 +9099,7 @@
         <v>1</v>
       </c>
       <c r="L39" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0.9723507462686567</v>
       </c>
       <c r="Q39" s="3">
@@ -8093,78 +9131,101 @@
         <v>0.98016000000000003</v>
       </c>
       <c r="AA39" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.9500078608938427</v>
       </c>
       <c r="AB39" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>0.98129377864165901</v>
       </c>
       <c r="AC39" s="7">
-        <f t="shared" si="17"/>
-        <v>0.9823639320428974</v>
+        <f t="shared" si="27"/>
+        <v>0.9828762312925402</v>
       </c>
       <c r="AD39" s="7">
+        <f t="shared" si="28"/>
+        <v>0.98432695448212382</v>
+      </c>
+      <c r="AE39" s="7">
+        <f t="shared" si="22"/>
+        <v>0.9786215338118649</v>
+      </c>
+      <c r="AF39" s="7">
+        <f t="shared" si="23"/>
+        <v>0.98042497084460423</v>
+      </c>
+      <c r="AG39" s="7">
+        <f t="shared" si="24"/>
+        <v>0.98207910303787815</v>
+      </c>
+      <c r="AI39" s="3">
+        <v>30</v>
+      </c>
+      <c r="AJ39" s="3">
+        <v>5</v>
+      </c>
+      <c r="AK39" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AL39" s="7">
+        <f t="shared" si="29"/>
+        <v>0.99485157130529933</v>
+      </c>
+      <c r="AM39" s="7">
+        <f t="shared" si="30"/>
+        <v>0.99528589999185946</v>
+      </c>
+      <c r="AN39" s="7">
+        <f t="shared" si="31"/>
+        <v>0.99568426755757011</v>
+      </c>
+      <c r="AP39" s="13">
+        <v>55</v>
+      </c>
+      <c r="AQ39" s="13">
+        <v>5</v>
+      </c>
+      <c r="AR39" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AS39" s="25">
+        <f>(F38)*((L39-AL44)*O$13+AL44)+(U39)</f>
+        <v>54084.093208955223</v>
+      </c>
+      <c r="AT39" s="25">
+        <f>(AS38)*((L39-AL44)*O$13+AM44)+(U39)</f>
+        <v>54313.208663959551</v>
+      </c>
+      <c r="AU39" s="25">
+        <f>(AT38)*((L39-AL44)*O$13+AN44)+(U39)</f>
+        <v>56572.879591187542</v>
+      </c>
+      <c r="AW39" s="3">
+        <v>55</v>
+      </c>
+      <c r="AX39" s="3">
+        <v>5</v>
+      </c>
+      <c r="AY39" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AZ39" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA39" s="24">
+        <f>AS39/F38</f>
+        <v>0.9723507462686567</v>
+      </c>
+      <c r="BB39" s="24">
         <f t="shared" si="18"/>
-        <v>0.9786215338118649</v>
-      </c>
-      <c r="AE39" s="7">
-        <f t="shared" ref="AE39:AE48" si="22">0.5*(AC39+AC40)</f>
-        <v>0.9798410285327146</v>
-      </c>
-      <c r="AG39" s="3">
-        <v>30</v>
-      </c>
-      <c r="AH39" s="3">
-        <v>5</v>
-      </c>
-      <c r="AI39" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AJ39" s="7">
-        <f t="shared" si="20"/>
-        <v>0.99485157130529933</v>
-      </c>
-      <c r="AK39" s="7">
-        <f t="shared" si="21"/>
-        <v>0.99514526735184305</v>
-      </c>
-      <c r="AM39" s="3">
-        <v>55</v>
-      </c>
-      <c r="AN39" s="3">
-        <v>5</v>
-      </c>
-      <c r="AO39" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AP39" t="s">
-        <v>1</v>
-      </c>
-      <c r="AQ39" s="7">
-        <f t="shared" si="11"/>
-        <v>0.97391122502158156</v>
-      </c>
-      <c r="AR39" s="25">
-        <f t="shared" si="12"/>
-        <v>0.97391122502158156</v>
-      </c>
-      <c r="AS39" s="25"/>
-      <c r="AT39" s="13">
-        <v>55</v>
-      </c>
-      <c r="AU39" s="13">
-        <v>5</v>
-      </c>
-      <c r="AV39" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AW39" s="26">
-        <f t="shared" si="13"/>
-        <v>54170.890158150411</v>
+        <v>0.97466335742271981</v>
+      </c>
+      <c r="BC39" s="24">
+        <f t="shared" si="19"/>
+        <v>0.97681142724751102</v>
       </c>
     </row>
-    <row r="40" spans="2:49" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:55" x14ac:dyDescent="0.3">
       <c r="B40" s="3">
         <v>60</v>
       </c>
@@ -8193,7 +9254,7 @@
         <v>1</v>
       </c>
       <c r="L40" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0.94466446165897811</v>
       </c>
       <c r="Q40" s="3">
@@ -8225,78 +9286,101 @@
         <v>0.97450000000000003</v>
       </c>
       <c r="AA40" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.8216230333916181</v>
       </c>
       <c r="AB40" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>0.97594928898207067</v>
       </c>
       <c r="AC40" s="7">
-        <f t="shared" si="17"/>
-        <v>0.9773181250225319</v>
+        <f t="shared" si="27"/>
+        <v>0.97797371039666836</v>
       </c>
       <c r="AD40" s="7">
-        <f t="shared" si="18"/>
-        <v>0.97283574132900508</v>
+        <f t="shared" si="28"/>
+        <v>0.97983125159363238</v>
       </c>
       <c r="AE40" s="7">
         <f t="shared" si="22"/>
-        <v>0.97437659699035384</v>
-      </c>
-      <c r="AG40" s="3">
+        <v>0.97283574132900508</v>
+      </c>
+      <c r="AF40" s="7">
+        <f t="shared" si="23"/>
+        <v>0.97511478923199379</v>
+      </c>
+      <c r="AG40" s="7">
+        <f t="shared" si="24"/>
+        <v>0.97720716551589548</v>
+      </c>
+      <c r="AI40" s="3">
         <v>35</v>
       </c>
-      <c r="AH40" s="3">
-        <v>5</v>
-      </c>
-      <c r="AI40" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AJ40" s="7">
-        <f t="shared" si="20"/>
+      <c r="AJ40" s="3">
+        <v>5</v>
+      </c>
+      <c r="AK40" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AL40" s="7">
+        <f t="shared" si="29"/>
         <v>0.99408781404970381</v>
       </c>
-      <c r="AK40" s="7">
-        <f t="shared" si="21"/>
-        <v>0.99442314479263683</v>
-      </c>
-      <c r="AM40" s="3">
+      <c r="AM40" s="7">
+        <f t="shared" si="30"/>
+        <v>0.99458379603690028</v>
+      </c>
+      <c r="AN40" s="7">
+        <f t="shared" si="31"/>
+        <v>0.99503915977143564</v>
+      </c>
+      <c r="AP40" s="13">
         <v>60</v>
       </c>
-      <c r="AN40" s="3">
-        <v>5</v>
-      </c>
-      <c r="AO40" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AP40" t="s">
+      <c r="AQ40" s="13">
+        <v>5</v>
+      </c>
+      <c r="AR40" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AS40" s="25">
+        <f>(F39)*((L40-AL45)*O$13+AL45)+(U40)</f>
+        <v>49234.022412742619</v>
+      </c>
+      <c r="AT40" s="25">
+        <f>(AS39)*((L40-AL45)*O$13+AM45)+(U40)</f>
+        <v>51267.914525818916</v>
+      </c>
+      <c r="AU40" s="25">
+        <f>(AT39)*((L40-AL45)*O$13+AN45)+(U40)</f>
+        <v>51650.934865843803</v>
+      </c>
+      <c r="AW40" s="3">
+        <v>60</v>
+      </c>
+      <c r="AX40" s="3">
+        <v>5</v>
+      </c>
+      <c r="AY40" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AZ40" t="s">
         <v>1</v>
       </c>
-      <c r="AQ40" s="7">
-        <f t="shared" si="11"/>
-        <v>0.9468652055595117</v>
-      </c>
-      <c r="AR40" s="25">
-        <f t="shared" si="12"/>
-        <v>0.9468652055595117</v>
-      </c>
-      <c r="AS40" s="25"/>
-      <c r="AT40" s="13">
-        <v>60</v>
-      </c>
-      <c r="AU40" s="13">
-        <v>5</v>
-      </c>
-      <c r="AV40" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AW40" s="26">
-        <f t="shared" si="13"/>
-        <v>49348.720783350633</v>
+      <c r="BA40" s="24">
+        <f>AS40/F39</f>
+        <v>0.94466446165897811</v>
+      </c>
+      <c r="BB40" s="24">
+        <f t="shared" si="18"/>
+        <v>0.94792963113468631</v>
+      </c>
+      <c r="BC40" s="24">
+        <f t="shared" si="19"/>
+        <v>0.95098294017966301</v>
       </c>
     </row>
-    <row r="41" spans="2:49" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:55" x14ac:dyDescent="0.3">
       <c r="B41" s="3">
         <v>65</v>
       </c>
@@ -8325,7 +9409,7 @@
         <v>1</v>
       </c>
       <c r="L41" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0.90578695755526795</v>
       </c>
       <c r="Q41" s="3">
@@ -8357,78 +9441,101 @@
         <v>0.96791000000000005</v>
       </c>
       <c r="AA41" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.7032973263128695</v>
       </c>
       <c r="AB41" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>0.96972219367593948</v>
       </c>
       <c r="AC41" s="7">
-        <f t="shared" si="17"/>
-        <v>0.97143506895817577</v>
+        <f t="shared" si="27"/>
+        <v>0.97225586806731934</v>
       </c>
       <c r="AD41" s="7">
-        <f t="shared" si="18"/>
-        <v>0.96527214072827738</v>
+        <f t="shared" si="28"/>
+        <v>0.97458307943815858</v>
       </c>
       <c r="AE41" s="7">
         <f t="shared" si="22"/>
-        <v>0.96722716377085494</v>
-      </c>
-      <c r="AG41" s="3">
+        <v>0.96527214072827738</v>
+      </c>
+      <c r="AF41" s="7">
+        <f t="shared" si="23"/>
+        <v>0.96816440319555863</v>
+      </c>
+      <c r="AG41" s="7">
+        <f t="shared" si="24"/>
+        <v>0.9708231852492033</v>
+      </c>
+      <c r="AI41" s="3">
         <v>40</v>
       </c>
-      <c r="AH41" s="3">
-        <v>5</v>
-      </c>
-      <c r="AI41" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AJ41" s="7">
-        <f t="shared" si="20"/>
+      <c r="AJ41" s="3">
+        <v>5</v>
+      </c>
+      <c r="AK41" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AL41" s="7">
+        <f t="shared" si="29"/>
         <v>0.99222520279693371</v>
       </c>
-      <c r="AK41" s="7">
-        <f t="shared" si="21"/>
-        <v>0.99266255650886726</v>
-      </c>
-      <c r="AM41" s="3">
+      <c r="AM41" s="7">
+        <f t="shared" si="30"/>
+        <v>0.99287223810654202</v>
+      </c>
+      <c r="AN41" s="7">
+        <f t="shared" si="31"/>
+        <v>0.99346711680800881</v>
+      </c>
+      <c r="AP41" s="13">
         <v>65</v>
       </c>
-      <c r="AN41" s="3">
-        <v>5</v>
-      </c>
-      <c r="AO41" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AP41" t="s">
+      <c r="AQ41" s="13">
+        <v>5</v>
+      </c>
+      <c r="AR41" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AS41" s="25">
+        <f>(F40)*((L41-AL46)*O$13+AL46)+(U41)</f>
+        <v>39322.929188346847</v>
+      </c>
+      <c r="AT41" s="25">
+        <f>(AS40)*((L41-AL46)*O$13+AM46)+(U41)</f>
+        <v>44807.425990702031</v>
+      </c>
+      <c r="AU41" s="25">
+        <f>(AT40)*((L41-AL46)*O$13+AN46)+(U41)</f>
+        <v>46866.651735950378</v>
+      </c>
+      <c r="AW41" s="3">
+        <v>65</v>
+      </c>
+      <c r="AX41" s="3">
+        <v>5</v>
+      </c>
+      <c r="AY41" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AZ41" t="s">
         <v>1</v>
       </c>
-      <c r="AQ41" s="7">
-        <f t="shared" si="11"/>
-        <v>0.90868330516300577</v>
-      </c>
-      <c r="AR41" s="25">
-        <f t="shared" si="12"/>
-        <v>0.90868330516300566</v>
-      </c>
-      <c r="AS41" s="25"/>
-      <c r="AT41" s="13">
-        <v>65</v>
-      </c>
-      <c r="AU41" s="13">
-        <v>5</v>
-      </c>
-      <c r="AV41" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AW41" s="26">
-        <f t="shared" si="13"/>
-        <v>39448.668327041567</v>
+      <c r="BA41" s="24">
+        <f>AS41/F40</f>
+        <v>0.90578695755526795</v>
+      </c>
+      <c r="BB41" s="24">
+        <f t="shared" si="18"/>
+        <v>0.91009070140702319</v>
+      </c>
+      <c r="BC41" s="24">
+        <f t="shared" si="19"/>
+        <v>0.91415171007878571</v>
       </c>
     </row>
-    <row r="42" spans="2:49" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:55" x14ac:dyDescent="0.3">
       <c r="B42" s="3">
         <v>70</v>
       </c>
@@ -8457,7 +9564,7 @@
         <v>1</v>
       </c>
       <c r="L42" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0.88346317564854226</v>
       </c>
       <c r="Q42" s="3">
@@ -8489,78 +9596,101 @@
         <v>0.95850000000000002</v>
       </c>
       <c r="AA42" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.5698380676245236</v>
       </c>
       <c r="AB42" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>0.96082208778061517</v>
       </c>
       <c r="AC42" s="7">
-        <f t="shared" si="17"/>
-        <v>0.96301925858353421</v>
+        <f t="shared" si="27"/>
+        <v>0.96407293832379792</v>
       </c>
       <c r="AD42" s="7">
-        <f t="shared" si="18"/>
-        <v>0.95368518892684573</v>
+        <f t="shared" si="28"/>
+        <v>0.96706329106024802</v>
       </c>
       <c r="AE42" s="7">
         <f t="shared" si="22"/>
-        <v>0.95626157518684318</v>
-      </c>
-      <c r="AG42" s="3">
+        <v>0.95368518892684573</v>
+      </c>
+      <c r="AF42" s="7">
+        <f t="shared" si="23"/>
+        <v>0.95749798694905408</v>
+      </c>
+      <c r="AG42" s="7">
+        <f t="shared" si="24"/>
+        <v>0.96101003017985676</v>
+      </c>
+      <c r="AI42" s="3">
         <v>45</v>
       </c>
-      <c r="AH42" s="3">
-        <v>5</v>
-      </c>
-      <c r="AI42" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AJ42" s="7">
-        <f t="shared" si="20"/>
+      <c r="AJ42" s="3">
+        <v>5</v>
+      </c>
+      <c r="AK42" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AL42" s="7">
+        <f t="shared" si="29"/>
         <v>0.98799618127102529</v>
       </c>
-      <c r="AK42" s="7">
-        <f t="shared" si="21"/>
-        <v>0.98866286122356095</v>
-      </c>
-      <c r="AM42" s="3">
+      <c r="AM42" s="7">
+        <f t="shared" si="30"/>
+        <v>0.98898284608347653</v>
+      </c>
+      <c r="AN42" s="7">
+        <f t="shared" si="31"/>
+        <v>0.98989192345377741</v>
+      </c>
+      <c r="AP42" s="13">
         <v>70</v>
       </c>
-      <c r="AN42" s="3">
-        <v>5</v>
-      </c>
-      <c r="AO42" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AP42" t="s">
+      <c r="AQ42" s="13">
+        <v>5</v>
+      </c>
+      <c r="AR42" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AS42" s="25">
+        <f>(F41)*((L42-AL47)*O$13+AL47)+(U42)</f>
+        <v>30297.486145691109</v>
+      </c>
+      <c r="AT42" s="25">
+        <f>(AS41)*((L42-AL47)*O$13+AM47)+(U42)</f>
+        <v>34963.351418404571</v>
+      </c>
+      <c r="AU42" s="25">
+        <f>(AT41)*((L42-AL47)*O$13+AN47)+(U42)</f>
+        <v>40082.697215228312</v>
+      </c>
+      <c r="AW42" s="3">
+        <v>70</v>
+      </c>
+      <c r="AX42" s="3">
+        <v>5</v>
+      </c>
+      <c r="AY42" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AZ42" t="s">
         <v>1</v>
       </c>
-      <c r="AQ42" s="7">
-        <f t="shared" si="11"/>
-        <v>0.88727121195961201</v>
-      </c>
-      <c r="AR42" s="25">
-        <f t="shared" si="12"/>
-        <v>0.88727121195961201</v>
-      </c>
-      <c r="AS42" s="25"/>
-      <c r="AT42" s="13">
-        <v>70</v>
-      </c>
-      <c r="AU42" s="13">
-        <v>5</v>
-      </c>
-      <c r="AV42" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AW42" s="26">
-        <f t="shared" si="13"/>
-        <v>30428.078942942935</v>
+      <c r="BA42" s="24">
+        <f>AS42/F41</f>
+        <v>0.88346317564854226</v>
+      </c>
+      <c r="BB42" s="24">
+        <f t="shared" si="18"/>
+        <v>0.88913395161736286</v>
+      </c>
+      <c r="BC42" s="24">
+        <f t="shared" si="19"/>
+        <v>0.8945547825832677</v>
       </c>
     </row>
-    <row r="43" spans="2:49" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:55" x14ac:dyDescent="0.3">
       <c r="B43" s="3">
         <v>75</v>
       </c>
@@ -8589,7 +9719,7 @@
         <v>1</v>
       </c>
       <c r="L43" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0.86108689334495792</v>
       </c>
       <c r="Q43" s="3">
@@ -8621,78 +9751,101 @@
         <v>0.94342999999999999</v>
       </c>
       <c r="AA43" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.4070216804311459</v>
       </c>
       <c r="AB43" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>0.94654829007307628</v>
       </c>
       <c r="AC43" s="7">
-        <f t="shared" si="17"/>
-        <v>0.94950389179015215</v>
+        <f t="shared" si="27"/>
+        <v>0.95092303557431035</v>
       </c>
       <c r="AD43" s="7">
-        <f t="shared" si="18"/>
-        <v>0.93552230014214732</v>
+        <f t="shared" si="28"/>
+        <v>0.95495676929946538</v>
       </c>
       <c r="AE43" s="7">
         <f t="shared" si="22"/>
-        <v>0.93904157907784946</v>
-      </c>
-      <c r="AG43" s="3">
+        <v>0.93552230014214732</v>
+      </c>
+      <c r="AF43" s="7">
+        <f t="shared" si="23"/>
+        <v>0.94073324731647967</v>
+      </c>
+      <c r="AG43" s="7">
+        <f t="shared" si="24"/>
+        <v>0.94554825559859867</v>
+      </c>
+      <c r="AI43" s="3">
         <v>50</v>
       </c>
-      <c r="AH43" s="3">
-        <v>5</v>
-      </c>
-      <c r="AI43" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AJ43" s="7">
-        <f t="shared" si="20"/>
+      <c r="AJ43" s="3">
+        <v>5</v>
+      </c>
+      <c r="AK43" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AL43" s="7">
+        <f t="shared" si="29"/>
         <v>0.98095504785479937</v>
       </c>
-      <c r="AK43" s="7">
-        <f t="shared" si="21"/>
-        <v>0.98199237890989277</v>
-      </c>
-      <c r="AM43" s="3">
+      <c r="AM43" s="7">
+        <f t="shared" si="30"/>
+        <v>0.98249109673223112</v>
+      </c>
+      <c r="AN43" s="7">
+        <f t="shared" si="31"/>
+        <v>0.9839109123779235</v>
+      </c>
+      <c r="AP43" s="13">
         <v>75</v>
       </c>
-      <c r="AN43" s="3">
-        <v>5</v>
-      </c>
-      <c r="AO43" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AP43" t="s">
+      <c r="AQ43" s="13">
+        <v>5</v>
+      </c>
+      <c r="AR43" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AS43" s="25">
+        <f>(F42)*((L43-AL48)*O$13+AL48)+(U43)</f>
+        <v>18943.911653589075</v>
+      </c>
+      <c r="AT43" s="25">
+        <f>(AS42)*((L43-AL48)*O$13+AM48)+(U43)</f>
+        <v>26314.925583242413</v>
+      </c>
+      <c r="AU43" s="25">
+        <f>(AT42)*((L43-AL48)*O$13+AN48)+(U43)</f>
+        <v>30621.416249403799</v>
+      </c>
+      <c r="AW43" s="3">
+        <v>75</v>
+      </c>
+      <c r="AX43" s="3">
+        <v>5</v>
+      </c>
+      <c r="AY43" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AZ43" t="s">
         <v>1</v>
       </c>
-      <c r="AQ43" s="7">
-        <f t="shared" si="11"/>
-        <v>0.86608464522389805</v>
-      </c>
-      <c r="AR43" s="25">
-        <f t="shared" si="12"/>
-        <v>0.86608464522389805</v>
-      </c>
-      <c r="AS43" s="25"/>
-      <c r="AT43" s="13">
-        <v>75</v>
-      </c>
-      <c r="AU43" s="13">
-        <v>5</v>
-      </c>
-      <c r="AV43" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AW43" s="26">
-        <f t="shared" si="13"/>
-        <v>19053.862194925758</v>
+      <c r="BA43" s="24">
+        <f>AS43/F42</f>
+        <v>0.86108689334495792</v>
+      </c>
+      <c r="BB43" s="24">
+        <f t="shared" si="18"/>
+        <v>0.86855145198192973</v>
+      </c>
+      <c r="BC43" s="24">
+        <f t="shared" si="19"/>
+        <v>0.87581467471350027</v>
       </c>
     </row>
-    <row r="44" spans="2:49" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:55" x14ac:dyDescent="0.3">
       <c r="B44" s="3">
         <v>80</v>
       </c>
@@ -8753,78 +9906,101 @@
         <v>0.92020000000000002</v>
       </c>
       <c r="AA44" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.2225337666328027</v>
       </c>
       <c r="AB44" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>0.92449631021121847</v>
       </c>
       <c r="AC44" s="7">
-        <f t="shared" si="17"/>
-        <v>0.92857926636554666</v>
+        <f t="shared" si="27"/>
+        <v>0.93054345905864899</v>
       </c>
       <c r="AD44" s="7">
-        <f t="shared" si="18"/>
-        <v>0.9078938555954158</v>
+        <f t="shared" si="28"/>
+        <v>0.93613974189773197</v>
       </c>
       <c r="AE44" s="7">
         <f t="shared" si="22"/>
-        <v>0.91277455536083207</v>
-      </c>
-      <c r="AG44" s="3">
+        <v>0.9078938555954158</v>
+      </c>
+      <c r="AF44" s="7">
+        <f t="shared" si="23"/>
+        <v>0.9151264599365988</v>
+      </c>
+      <c r="AG44" s="7">
+        <f t="shared" si="24"/>
+        <v>0.92184150722371427</v>
+      </c>
+      <c r="AI44" s="3">
         <v>55</v>
       </c>
-      <c r="AH44" s="3">
-        <v>5</v>
-      </c>
-      <c r="AI44" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AJ44" s="7">
-        <f t="shared" si="20"/>
+      <c r="AJ44" s="3">
+        <v>5</v>
+      </c>
+      <c r="AK44" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AL44" s="7">
+        <f t="shared" si="29"/>
         <v>0.97046735866955436</v>
       </c>
-      <c r="AK44" s="7">
-        <f t="shared" si="21"/>
-        <v>0.97202783742247922</v>
-      </c>
-      <c r="AM44" s="3">
+      <c r="AM44" s="7">
+        <f t="shared" si="30"/>
+        <v>0.97277996982361747</v>
+      </c>
+      <c r="AN44" s="7">
+        <f t="shared" si="31"/>
+        <v>0.97492803964840868</v>
+      </c>
+      <c r="AP44" s="13">
         <v>80</v>
       </c>
-      <c r="AN44" s="3">
-        <v>5</v>
-      </c>
-      <c r="AO44" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AP44" t="s">
+      <c r="AQ44" s="13">
+        <v>5</v>
+      </c>
+      <c r="AR44" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AS44" s="25">
+        <f>(F43)*((L44-AL49)*O$13+AL49)+(U44)</f>
+        <v>11699.750988142292</v>
+      </c>
+      <c r="AT44" s="25">
+        <f>(AS43)*((L44-AL49)*O$13+AM49)+(U44)</f>
+        <v>15133.713202652705</v>
+      </c>
+      <c r="AU44" s="25">
+        <f>(AT43)*((L44-AL49)*O$13+AN49)+(U44)</f>
+        <v>21261.969386967256</v>
+      </c>
+      <c r="AW44" s="3">
+        <v>80</v>
+      </c>
+      <c r="AX44" s="3">
+        <v>5</v>
+      </c>
+      <c r="AY44" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AZ44" t="s">
         <v>1</v>
       </c>
-      <c r="AQ44" s="7">
-        <f t="shared" si="11"/>
-        <v>0.79582297174176142</v>
-      </c>
-      <c r="AR44" s="25">
-        <f t="shared" si="12"/>
-        <v>0.79582297174176142</v>
-      </c>
-      <c r="AS44" s="25"/>
-      <c r="AT44" s="13">
-        <v>80</v>
-      </c>
-      <c r="AU44" s="13">
-        <v>5</v>
-      </c>
-      <c r="AV44" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AW44" s="26">
-        <f t="shared" si="13"/>
-        <v>11790.117326354195</v>
+      <c r="BA44" s="24">
+        <f>AS44/F43</f>
+        <v>0.78972332015810276</v>
+      </c>
+      <c r="BB44" s="24">
+        <f t="shared" si="18"/>
+        <v>0.79886949851698141</v>
+      </c>
+      <c r="BC44" s="24">
+        <f t="shared" si="19"/>
+        <v>0.80798136098500206</v>
       </c>
     </row>
-    <row r="45" spans="2:49" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:55" x14ac:dyDescent="0.3">
       <c r="B45" s="3">
         <v>85</v>
       </c>
@@ -8885,78 +10061,101 @@
         <v>0.88534000000000002</v>
       </c>
       <c r="AA45" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.0220002622700546</v>
       </c>
       <c r="AB45" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>0.89129140097961312</v>
       </c>
       <c r="AC45" s="7">
-        <f t="shared" si="17"/>
-        <v>0.89696984435611748</v>
+        <f t="shared" si="27"/>
+        <v>0.89970946081454861</v>
       </c>
       <c r="AD45" s="7">
-        <f t="shared" si="18"/>
-        <v>0.86840109994966785</v>
+        <f t="shared" si="28"/>
+        <v>0.90754327254969658</v>
       </c>
       <c r="AE45" s="7">
         <f t="shared" si="22"/>
-        <v>0.87507827568160867</v>
-      </c>
-      <c r="AG45" s="3">
+        <v>0.86840109994966785</v>
+      </c>
+      <c r="AF45" s="7">
+        <f t="shared" si="23"/>
+        <v>0.87830713398089033</v>
+      </c>
+      <c r="AG45" s="7">
+        <f t="shared" si="24"/>
+        <v>0.8875666741284991</v>
+      </c>
+      <c r="AI45" s="3">
         <v>60</v>
       </c>
-      <c r="AH45" s="3">
-        <v>5</v>
-      </c>
-      <c r="AI45" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AJ45" s="7">
-        <f t="shared" si="20"/>
+      <c r="AJ45" s="3">
+        <v>5</v>
+      </c>
+      <c r="AK45" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AL45" s="7">
+        <f t="shared" si="29"/>
         <v>0.95650069068938925</v>
       </c>
-      <c r="AK45" s="7">
-        <f t="shared" si="21"/>
-        <v>0.95870143458992285</v>
-      </c>
-      <c r="AM45" s="3">
+      <c r="AM45" s="7">
+        <f t="shared" si="30"/>
+        <v>0.95976586016509746</v>
+      </c>
+      <c r="AN45" s="7">
+        <f t="shared" si="31"/>
+        <v>0.96281916921007415</v>
+      </c>
+      <c r="AP45" s="13">
         <v>85</v>
       </c>
-      <c r="AN45" s="3" t="s">
+      <c r="AQ45" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="AO45" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AP45" t="s">
+      <c r="AR45" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AS45" s="25">
+        <f>(F44+F45)*((L45-AL50)*O$13+AL50)+(U45)</f>
+        <v>11336.431158592321</v>
+      </c>
+      <c r="AT45" s="25">
+        <f>(AS44+AS45)*((L45-AL50)*O$13+AM50)+(U45)</f>
+        <v>13219.532821489131</v>
+      </c>
+      <c r="AU45" s="25">
+        <f>(AT44+AT45)*((L45-AL50)*O$13+AN50)+(U45)</f>
+        <v>16426.190825117599</v>
+      </c>
+      <c r="AW45" s="3">
+        <v>85</v>
+      </c>
+      <c r="AX45" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AY45" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AZ45" t="s">
         <v>2</v>
       </c>
-      <c r="AQ45" s="7">
-        <f t="shared" si="11"/>
-        <v>0.57205863108967292</v>
-      </c>
-      <c r="AR45" s="25">
-        <f>AW45/(F44+F45)</f>
-        <v>0.57205863108967292</v>
-      </c>
-      <c r="AS45" s="25"/>
-      <c r="AT45" s="13">
-        <v>85</v>
-      </c>
-      <c r="AU45" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AV45" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AW45" s="26">
-        <f>(F44+F45)*AQ45+U45</f>
-        <v>11407.421162559167</v>
+      <c r="BA45" s="24">
+        <f>AS45/(F44+F45)</f>
+        <v>0.56849862888482627</v>
+      </c>
+      <c r="BB45" s="24">
+        <f>AT45/(AS44+AS45)</f>
+        <v>0.57385953702241432</v>
+      </c>
+      <c r="BC45" s="24">
+        <f>AU45/(AT44+AT45)</f>
+        <v>0.57934075030179077</v>
       </c>
     </row>
-    <row r="46" spans="2:49" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:55" x14ac:dyDescent="0.3">
       <c r="B46" s="3">
         <v>0</v>
       </c>
@@ -8964,13 +10163,13 @@
         <v>5</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E46" s="28">
+        <v>26</v>
+      </c>
+      <c r="E46" s="27">
         <f>E10+E28</f>
         <v>97655</v>
       </c>
-      <c r="F46" s="28">
+      <c r="F46" s="27">
         <f>F10+F28</f>
         <v>98179</v>
       </c>
@@ -8987,76 +10186,101 @@
         <v>0.83750999999999998</v>
       </c>
       <c r="AA46" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.81990837125587956</v>
       </c>
       <c r="AB46" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>0.84551079891972247</v>
       </c>
       <c r="AC46" s="7">
-        <f t="shared" si="17"/>
-        <v>0.85318670700709975</v>
+        <f t="shared" si="27"/>
+        <v>0.85690480714723205</v>
       </c>
       <c r="AD46" s="7">
-        <f t="shared" si="18"/>
-        <v>0.81553075118273743</v>
+        <f t="shared" si="28"/>
+        <v>0.86759007570730173</v>
       </c>
       <c r="AE46" s="7">
         <f t="shared" si="22"/>
-        <v>0.82433593525788851</v>
-      </c>
-      <c r="AG46" s="3">
+        <v>0.81553075118273743</v>
+      </c>
+      <c r="AF46" s="7">
+        <f t="shared" si="23"/>
+        <v>0.82861369095115123</v>
+      </c>
+      <c r="AG46" s="7">
+        <f t="shared" si="24"/>
+        <v>0.84095375466092981</v>
+      </c>
+      <c r="AI46" s="3">
         <v>65</v>
       </c>
-      <c r="AH46" s="3">
-        <v>5</v>
-      </c>
-      <c r="AI46" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AJ46" s="7">
-        <f t="shared" si="20"/>
+      <c r="AJ46" s="3">
+        <v>5</v>
+      </c>
+      <c r="AK46" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AL46" s="7">
+        <f t="shared" si="29"/>
         <v>0.9391175935060484</v>
       </c>
-      <c r="AK46" s="7">
-        <f t="shared" si="21"/>
-        <v>0.94201394111378622</v>
-      </c>
-      <c r="AM46" s="3">
-        <v>0</v>
-      </c>
-      <c r="AN46" s="3">
-        <v>5</v>
-      </c>
-      <c r="AO46" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AP46" t="s">
+      <c r="AM46" s="7">
+        <f t="shared" si="30"/>
+        <v>0.94342133735780365</v>
+      </c>
+      <c r="AN46" s="7">
+        <f t="shared" si="31"/>
+        <v>0.94748234602956616</v>
+      </c>
+      <c r="AP46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ46" s="3">
+        <v>5</v>
+      </c>
+      <c r="AR46" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AS46" s="28">
+        <f>AS10+AS28</f>
+        <v>104844.89669546594</v>
+      </c>
+      <c r="AT46" s="28">
+        <f>AT10+AT28</f>
+        <v>111479.12259876268</v>
+      </c>
+      <c r="AU46" s="28">
+        <f>AU10+AU28</f>
+        <v>117353.83947412335</v>
+      </c>
+      <c r="AW46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AX46" s="3">
+        <v>5</v>
+      </c>
+      <c r="AY46" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AZ46" t="s">
         <v>13</v>
       </c>
-      <c r="AQ46" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="AR46" s="25">
-        <f>AR28+AR10</f>
+      <c r="BA46" s="24">
+        <f>BA28+BA10</f>
         <v>1.6661728981705515</v>
       </c>
-      <c r="AT46" s="3">
-        <v>0</v>
-      </c>
-      <c r="AU46" s="3">
-        <v>5</v>
-      </c>
-      <c r="AV46" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AW46" s="29">
-        <f>AW10+AW28</f>
-        <v>104861.57689436989</v>
+      <c r="BB46" s="24">
+        <f t="shared" ref="BB46:BC46" si="32">BB28+BB10</f>
+        <v>1.6661728981705515</v>
+      </c>
+      <c r="BC46" s="24">
+        <f t="shared" si="32"/>
+        <v>1.6661728981705515</v>
       </c>
     </row>
-    <row r="47" spans="2:49" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:55" x14ac:dyDescent="0.3">
       <c r="B47" s="3">
         <v>5</v>
       </c>
@@ -9064,14 +10288,14 @@
         <v>5</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E47" s="28">
-        <f t="shared" ref="E47:F47" si="23">E11+E29</f>
+        <v>26</v>
+      </c>
+      <c r="E47" s="27">
+        <f t="shared" ref="E47:F47" si="33">E11+E29</f>
         <v>94489</v>
       </c>
-      <c r="F47" s="28">
-        <f t="shared" si="23"/>
+      <c r="F47" s="27">
+        <f t="shared" si="33"/>
         <v>99065</v>
       </c>
       <c r="W47" s="3">
@@ -9087,76 +10311,101 @@
         <v>0.77527000000000001</v>
       </c>
       <c r="AA47" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.6191558370747634</v>
       </c>
       <c r="AB47" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>0.7855507034457524</v>
       </c>
       <c r="AC47" s="7">
-        <f t="shared" si="17"/>
-        <v>0.79548516350867737</v>
+        <f t="shared" si="27"/>
+        <v>0.80032257475507029</v>
       </c>
       <c r="AD47" s="7">
-        <f t="shared" si="18"/>
-        <v>0.7436785976353284</v>
+        <f t="shared" si="28"/>
+        <v>0.814317433614558</v>
       </c>
       <c r="AE47" s="7">
         <f t="shared" si="22"/>
-        <v>0.75484710412043121</v>
-      </c>
-      <c r="AG47" s="3">
+        <v>0.7436785976353284</v>
+      </c>
+      <c r="AF47" s="7">
+        <f t="shared" si="23"/>
+        <v>0.7603077505418383</v>
+      </c>
+      <c r="AG47" s="7">
+        <f t="shared" si="24"/>
+        <v>0.77618924160271963</v>
+      </c>
+      <c r="AI47" s="3">
         <v>70</v>
       </c>
-      <c r="AH47" s="3">
-        <v>5</v>
-      </c>
-      <c r="AI47" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AJ47" s="7">
-        <f t="shared" si="20"/>
+      <c r="AJ47" s="3">
+        <v>5</v>
+      </c>
+      <c r="AK47" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AL47" s="7">
+        <f t="shared" si="29"/>
         <v>0.91189522474388096</v>
       </c>
-      <c r="AK47" s="7">
-        <f t="shared" si="21"/>
-        <v>0.9157032610549507</v>
-      </c>
-      <c r="AM47" s="3">
-        <v>5</v>
-      </c>
-      <c r="AN47" s="3">
-        <v>5</v>
-      </c>
-      <c r="AO47" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AP47" t="s">
+      <c r="AM47" s="7">
+        <f t="shared" si="30"/>
+        <v>0.91756600071270156</v>
+      </c>
+      <c r="AN47" s="7">
+        <f t="shared" si="31"/>
+        <v>0.92298683167860629</v>
+      </c>
+      <c r="AP47" s="3">
+        <v>5</v>
+      </c>
+      <c r="AQ47" s="3">
+        <v>5</v>
+      </c>
+      <c r="AR47" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AS47" s="28">
+        <f t="shared" ref="AS47:AT47" si="34">AS11+AS29</f>
+        <v>99600.083133551088</v>
+      </c>
+      <c r="AT47" s="28">
+        <f t="shared" si="34"/>
+        <v>106387.3375196351</v>
+      </c>
+      <c r="AU47" s="28">
+        <f t="shared" ref="AU47" si="35">AU11+AU29</f>
+        <v>113143.39801573893</v>
+      </c>
+      <c r="AW47" s="3">
+        <v>5</v>
+      </c>
+      <c r="AX47" s="3">
+        <v>5</v>
+      </c>
+      <c r="AY47" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AZ47" t="s">
         <v>1</v>
       </c>
-      <c r="AQ47" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="AR47" s="25">
-        <f t="shared" ref="AR47:AR62" si="24">AW47/F46</f>
-        <v>1.0146352563498375</v>
-      </c>
-      <c r="AT47" s="3">
-        <v>5</v>
-      </c>
-      <c r="AU47" s="3">
-        <v>5</v>
-      </c>
-      <c r="AV47" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AW47" s="29">
-        <f t="shared" ref="AW47" si="25">AW11+AW29</f>
-        <v>99615.874833170703</v>
+      <c r="BA47" s="24">
+        <f>AS47/F46</f>
+        <v>1.0144744103479471</v>
+      </c>
+      <c r="BB47" s="24">
+        <f>AT47/AS46</f>
+        <v>1.0147116442743929</v>
+      </c>
+      <c r="BC47" s="24">
+        <f>AU47/AT46</f>
+        <v>1.0149290322544637</v>
       </c>
     </row>
-    <row r="48" spans="2:49" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:55" x14ac:dyDescent="0.3">
       <c r="B48" s="3">
         <v>10</v>
       </c>
@@ -9164,14 +10413,14 @@
         <v>5</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E48" s="28">
-        <f t="shared" ref="E48:F48" si="26">E12+E30</f>
+        <v>26</v>
+      </c>
+      <c r="E48" s="27">
+        <f t="shared" ref="E48:F48" si="36">E12+E30</f>
         <v>90982</v>
       </c>
-      <c r="F48" s="28">
-        <f t="shared" si="26"/>
+      <c r="F48" s="27">
+        <f t="shared" si="36"/>
         <v>94235</v>
       </c>
       <c r="W48" s="3">
@@ -9187,76 +10436,101 @@
         <v>0.68910000000000005</v>
       </c>
       <c r="AA48" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.39795754064922717</v>
       </c>
       <c r="AB48" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>0.70180649182490451</v>
       </c>
       <c r="AC48" s="7">
-        <f t="shared" si="17"/>
-        <v>0.71420904473218516</v>
+        <f t="shared" si="27"/>
+        <v>0.72029292632860631</v>
       </c>
       <c r="AD48" s="7">
-        <f t="shared" si="18"/>
-        <v>0.64379790859351749</v>
+        <f t="shared" si="28"/>
+        <v>0.73806104959088126</v>
       </c>
       <c r="AE48" s="7">
         <f t="shared" si="22"/>
-        <v>0.65723895330651705</v>
-      </c>
-      <c r="AG48" s="3">
+        <v>0.64379790859351749</v>
+      </c>
+      <c r="AF48" s="7">
+        <f t="shared" si="23"/>
+        <v>0.66386902399805847</v>
+      </c>
+      <c r="AG48" s="7">
+        <f t="shared" si="24"/>
+        <v>0.68337371509995448</v>
+      </c>
+      <c r="AI48" s="3">
         <v>75</v>
       </c>
-      <c r="AH48" s="3">
-        <v>5</v>
-      </c>
-      <c r="AI48" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AJ48" s="7">
-        <f t="shared" si="20"/>
+      <c r="AJ48" s="3">
+        <v>5</v>
+      </c>
+      <c r="AK48" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AL48" s="7">
+        <f t="shared" si="29"/>
         <v>0.86569374275473154</v>
       </c>
-      <c r="AK48" s="7">
-        <f t="shared" si="21"/>
-        <v>0.87069149463367168</v>
-      </c>
-      <c r="AM48" s="3">
+      <c r="AM48" s="7">
+        <f t="shared" si="30"/>
+        <v>0.87315830139170336</v>
+      </c>
+      <c r="AN48" s="7">
+        <f t="shared" si="31"/>
+        <v>0.8804215241232739</v>
+      </c>
+      <c r="AP48" s="3">
         <v>10</v>
       </c>
-      <c r="AN48" s="3">
-        <v>5</v>
-      </c>
-      <c r="AO48" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AP48" t="s">
+      <c r="AQ48" s="3">
+        <v>5</v>
+      </c>
+      <c r="AR48" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AS48" s="28">
+        <f t="shared" ref="AS48:AT48" si="37">AS12+AS30</f>
+        <v>98798.744240402593</v>
+      </c>
+      <c r="AT48" s="28">
+        <f t="shared" si="37"/>
+        <v>99336.450618425675</v>
+      </c>
+      <c r="AU48" s="28">
+        <f t="shared" ref="AU48" si="38">AU12+AU30</f>
+        <v>106109.81492504802</v>
+      </c>
+      <c r="AW48" s="3">
+        <v>10</v>
+      </c>
+      <c r="AX48" s="3">
+        <v>5</v>
+      </c>
+      <c r="AY48" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AZ48" t="s">
         <v>1</v>
       </c>
-      <c r="AQ48" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="AR48" s="25">
-        <f t="shared" si="24"/>
-        <v>0.99734064174805681</v>
-      </c>
-      <c r="AT48" s="3">
-        <v>10</v>
-      </c>
-      <c r="AU48" s="3">
-        <v>5</v>
-      </c>
-      <c r="AV48" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AW48" s="29">
-        <f t="shared" ref="AW48" si="27">AW12+AW30</f>
-        <v>98801.55067477125</v>
+      <c r="BA48" s="24">
+        <f>AS48/F47</f>
+        <v>0.99731231252614538</v>
+      </c>
+      <c r="BB48" s="24">
+        <f t="shared" ref="BB48:BB62" si="39">AT48/AS47</f>
+        <v>0.99735308940684397</v>
+      </c>
+      <c r="BC48" s="24">
+        <f t="shared" ref="BC48:BC62" si="40">AU48/AT47</f>
+        <v>0.99739139449245207</v>
       </c>
     </row>
-    <row r="49" spans="2:49" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:55" x14ac:dyDescent="0.3">
       <c r="B49" s="3">
         <v>15</v>
       </c>
@@ -9264,14 +10538,14 @@
         <v>5</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E49" s="28">
-        <f t="shared" ref="E49:F49" si="28">E13+E31</f>
+        <v>26</v>
+      </c>
+      <c r="E49" s="27">
+        <f t="shared" ref="E49:F49" si="41">E13+E31</f>
         <v>99688</v>
       </c>
-      <c r="F49" s="28">
-        <f t="shared" si="28"/>
+      <c r="F49" s="27">
+        <f t="shared" si="41"/>
         <v>94102</v>
       </c>
       <c r="W49" s="3">
@@ -9287,76 +10561,101 @@
         <v>0.57116</v>
       </c>
       <c r="AA49" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.14329274578702778</v>
       </c>
       <c r="AB49" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>0.58578932536213046</v>
       </c>
       <c r="AC49" s="7">
-        <f t="shared" si="17"/>
-        <v>0.60026886188084905</v>
+        <f t="shared" si="27"/>
+        <v>0.60744512166751052</v>
       </c>
       <c r="AD49" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
+        <v>0.62868638060902771</v>
+      </c>
+      <c r="AE49" s="7">
+        <f t="shared" si="22"/>
         <v>0.50856082323459795</v>
       </c>
-      <c r="AE49" s="7">
-        <f>0.5*(AC49+AC50)</f>
-        <v>0.52318735199691702</v>
-      </c>
-      <c r="AG49" s="3">
+      <c r="AF49" s="7">
+        <f t="shared" si="23"/>
+        <v>0.53048763668269361</v>
+      </c>
+      <c r="AG49" s="7">
+        <f t="shared" si="24"/>
+        <v>0.55230034589555499</v>
+      </c>
+      <c r="AI49" s="3">
         <v>80</v>
       </c>
-      <c r="AH49" s="3">
-        <v>5</v>
-      </c>
-      <c r="AI49" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AJ49" s="7">
-        <f>AD49/AD48</f>
+      <c r="AJ49" s="3">
+        <v>5</v>
+      </c>
+      <c r="AK49" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AL49" s="7">
+        <f t="shared" si="29"/>
         <v>0.78993860720304732</v>
       </c>
-      <c r="AK49" s="7">
-        <f>AE49/AE48</f>
-        <v>0.79603825878670598</v>
-      </c>
-      <c r="AM49" s="3">
+      <c r="AM49" s="7">
+        <f t="shared" si="30"/>
+        <v>0.79908478556192597</v>
+      </c>
+      <c r="AN49" s="7">
+        <f t="shared" si="31"/>
+        <v>0.80819664802994673</v>
+      </c>
+      <c r="AP49" s="3">
         <v>15</v>
       </c>
-      <c r="AN49" s="3">
-        <v>5</v>
-      </c>
-      <c r="AO49" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AP49" t="s">
+      <c r="AQ49" s="3">
+        <v>5</v>
+      </c>
+      <c r="AR49" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AS49" s="28">
+        <f t="shared" ref="AS49:AT49" si="42">AS13+AS31</f>
+        <v>97467.139580880292</v>
+      </c>
+      <c r="AT49" s="28">
+        <f t="shared" si="42"/>
+        <v>102194.43693046417</v>
+      </c>
+      <c r="AU49" s="28">
+        <f t="shared" ref="AU49" si="43">AU13+AU31</f>
+        <v>102766.51849827147</v>
+      </c>
+      <c r="AW49" s="3">
+        <v>15</v>
+      </c>
+      <c r="AX49" s="3">
+        <v>5</v>
+      </c>
+      <c r="AY49" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AZ49" t="s">
         <v>1</v>
       </c>
-      <c r="AQ49" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="AR49" s="25">
-        <f t="shared" si="24"/>
-        <v>1.0343664938543469</v>
-      </c>
-      <c r="AT49" s="3">
-        <v>15</v>
-      </c>
-      <c r="AU49" s="3">
-        <v>5</v>
-      </c>
-      <c r="AV49" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AW49" s="29">
-        <f t="shared" ref="AW49" si="29">AW13+AW31</f>
-        <v>97473.526548364374</v>
+      <c r="BA49" s="24">
+        <f>AS49/F48</f>
+        <v>1.0342987168343003</v>
+      </c>
+      <c r="BB49" s="24">
+        <f t="shared" si="39"/>
+        <v>1.0343697960552918</v>
+      </c>
+      <c r="BC49" s="24">
+        <f t="shared" si="40"/>
+        <v>1.034529801079983</v>
       </c>
     </row>
-    <row r="50" spans="2:49" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:55" x14ac:dyDescent="0.3">
       <c r="B50" s="3">
         <v>20</v>
       </c>
@@ -9364,14 +10663,14 @@
         <v>5</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E50" s="28">
-        <f t="shared" ref="E50:F50" si="30">E14+E32</f>
+        <v>26</v>
+      </c>
+      <c r="E50" s="27">
+        <f t="shared" ref="E50:F50" si="44">E14+E32</f>
         <v>107533</v>
       </c>
-      <c r="F50" s="28">
-        <f t="shared" si="30"/>
+      <c r="F50" s="27">
+        <f t="shared" si="44"/>
         <v>105887</v>
       </c>
       <c r="W50" s="3">
@@ -9387,76 +10686,101 @@
         <v>0.41667999999999999</v>
       </c>
       <c r="AA50" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>-0.16820868986455828</v>
       </c>
       <c r="AB50" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>0.43133232110706543</v>
       </c>
       <c r="AC50" s="7">
-        <f t="shared" si="17"/>
-        <v>0.44610584211298487</v>
+        <f t="shared" si="27"/>
+        <v>0.45353015169787669</v>
       </c>
       <c r="AD50" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
+        <v>0.47591431118208227</v>
+      </c>
+      <c r="AE50" s="7">
+        <f t="shared" si="22"/>
         <v>0.33986203414513838</v>
       </c>
-      <c r="AE50" s="7">
-        <f t="shared" ref="AE50" si="31">0.5*(AC50+AC51)</f>
-        <v>0.3529337101891924</v>
-      </c>
-      <c r="AG50" s="3">
+      <c r="AF50" s="7">
+        <f t="shared" si="23"/>
+        <v>0.35955086640938039</v>
+      </c>
+      <c r="AG50" s="7">
+        <f t="shared" si="24"/>
+        <v>0.37970289013980985</v>
+      </c>
+      <c r="AI50" s="3">
         <v>85</v>
       </c>
-      <c r="AH50" s="3" t="s">
+      <c r="AJ50" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="AI50" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AJ50" s="7">
-        <f>(SUM(AD50:AD54)/SUM(AD49:AD54))</f>
+      <c r="AK50" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AL50" s="7">
+        <f>(SUM(AE50:AE54)/SUM(AE49:AE54))</f>
         <v>0.53097292219120973</v>
       </c>
-      <c r="AK50" s="7">
-        <f>(SUM(AE50:AE54)/SUM(AE49:AE54))</f>
-        <v>0.53453292439605637</v>
-      </c>
-      <c r="AM50" s="3">
+      <c r="AM50" s="7">
+        <f t="shared" ref="AM50:AN50" si="45">(SUM(AF50:AF54)/SUM(AF49:AF54))</f>
+        <v>0.53633383032879778</v>
+      </c>
+      <c r="AN50" s="7">
+        <f t="shared" si="45"/>
+        <v>0.54181504360817423</v>
+      </c>
+      <c r="AP50" s="3">
         <v>20</v>
       </c>
-      <c r="AN50" s="3">
-        <v>5</v>
-      </c>
-      <c r="AO50" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AP50" t="s">
+      <c r="AQ50" s="3">
+        <v>5</v>
+      </c>
+      <c r="AR50" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AS50" s="28">
+        <f t="shared" ref="AS50:AT50" si="46">AS14+AS32</f>
+        <v>99984.43276907166</v>
+      </c>
+      <c r="AT50" s="28">
+        <f t="shared" si="46"/>
+        <v>103581.50379784041</v>
+      </c>
+      <c r="AU50" s="28">
+        <f t="shared" ref="AU50" si="47">AU14+AU32</f>
+        <v>108620.63283073243</v>
+      </c>
+      <c r="AW50" s="3">
+        <v>20</v>
+      </c>
+      <c r="AX50" s="3">
+        <v>5</v>
+      </c>
+      <c r="AY50" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AZ50" t="s">
         <v>1</v>
       </c>
-      <c r="AQ50" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="AR50" s="25">
-        <f t="shared" si="24"/>
-        <v>1.0626546063965301</v>
-      </c>
-      <c r="AT50" s="3">
-        <v>20</v>
-      </c>
-      <c r="AU50" s="3">
-        <v>5</v>
-      </c>
-      <c r="AV50" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AW50" s="29">
-        <f t="shared" ref="AW50" si="32">AW14+AW32</f>
-        <v>99997.923771126269</v>
+      <c r="BA50" s="24">
+        <f>AS50/F49</f>
+        <v>1.0625112406651469</v>
+      </c>
+      <c r="BB50" s="24">
+        <f t="shared" si="39"/>
+        <v>1.0627325706207504</v>
+      </c>
+      <c r="BC50" s="24">
+        <f t="shared" si="40"/>
+        <v>1.062882052030296</v>
       </c>
     </row>
-    <row r="51" spans="2:49" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:55" x14ac:dyDescent="0.3">
       <c r="B51" s="3">
         <v>25</v>
       </c>
@@ -9464,14 +10788,14 @@
         <v>5</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E51" s="28">
-        <f t="shared" ref="E51:F51" si="33">E15+E33</f>
+        <v>26</v>
+      </c>
+      <c r="E51" s="27">
+        <f t="shared" ref="E51:F51" si="48">E15+E33</f>
         <v>113583</v>
       </c>
-      <c r="F51" s="28">
-        <f t="shared" si="33"/>
+      <c r="F51" s="27">
+        <f t="shared" si="48"/>
         <v>134291</v>
       </c>
       <c r="W51" s="3">
@@ -9487,74 +10811,98 @@
         <v>0.23735999999999999</v>
       </c>
       <c r="AA51" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>-0.58360406110137819</v>
       </c>
       <c r="AB51" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>0.24839174718321136</v>
       </c>
       <c r="AC51" s="7">
-        <f t="shared" si="17"/>
-        <v>0.25976157826539986</v>
+        <f t="shared" si="27"/>
+        <v>0.26557158112088403</v>
       </c>
       <c r="AD51" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
+        <v>0.28349146909753736</v>
+      </c>
+      <c r="AE51" s="7">
+        <f t="shared" si="22"/>
         <v>0.17009658128322236</v>
       </c>
-      <c r="AE51" s="7">
-        <f>0.5*(AC51+AC52)</f>
-        <v>0.17834472370292723</v>
-      </c>
-      <c r="AG51" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="AH51" s="16" t="s">
-        <v>24</v>
+      <c r="AF51" s="7">
+        <f t="shared" si="23"/>
+        <v>0.18257868836102001</v>
+      </c>
+      <c r="AG51" s="7">
+        <f t="shared" si="24"/>
+        <v>0.19572163412497329</v>
       </c>
       <c r="AI51" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="AJ51" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="AK51" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="AM51" s="3">
+        <v>20</v>
+      </c>
+      <c r="AJ51" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="AK51" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="AL51" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="AM51" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="AN51" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="AP51" s="3">
         <v>25</v>
       </c>
-      <c r="AN51" s="3">
-        <v>5</v>
-      </c>
-      <c r="AO51" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AP51" t="s">
+      <c r="AQ51" s="3">
+        <v>5</v>
+      </c>
+      <c r="AR51" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AS51" s="28">
+        <f t="shared" ref="AS51:AT51" si="49">AS15+AS33</f>
+        <v>132253.21254637223</v>
+      </c>
+      <c r="AT51" s="28">
+        <f t="shared" si="49"/>
+        <v>124939.56538275332</v>
+      </c>
+      <c r="AU51" s="28">
+        <f t="shared" ref="AU51" si="50">AU15+AU33</f>
+        <v>129461.3089472604</v>
+      </c>
+      <c r="AW51" s="3">
+        <v>25</v>
+      </c>
+      <c r="AX51" s="3">
+        <v>5</v>
+      </c>
+      <c r="AY51" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AZ51" t="s">
         <v>1</v>
       </c>
-      <c r="AQ51" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="AR51" s="25">
-        <f t="shared" si="24"/>
-        <v>1.2491912408218768</v>
-      </c>
-      <c r="AT51" s="3">
-        <v>25</v>
-      </c>
-      <c r="AU51" s="3">
-        <v>5</v>
-      </c>
-      <c r="AV51" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AW51" s="29">
-        <f t="shared" ref="AW51" si="34">AW15+AW33</f>
-        <v>132273.11291690607</v>
+      <c r="BA51" s="24">
+        <f>AS51/F50</f>
+        <v>1.2490033011264106</v>
+      </c>
+      <c r="BB51" s="24">
+        <f t="shared" si="39"/>
+        <v>1.2495901804165765</v>
+      </c>
+      <c r="BC51" s="24">
+        <f t="shared" si="40"/>
+        <v>1.2498496758642306</v>
       </c>
     </row>
-    <row r="52" spans="2:49" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:55" x14ac:dyDescent="0.3">
       <c r="B52" s="3">
         <v>30</v>
       </c>
@@ -9562,14 +10910,14 @@
         <v>5</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E52" s="28">
-        <f t="shared" ref="E52:F52" si="35">E16+E34</f>
+        <v>26</v>
+      </c>
+      <c r="E52" s="27">
+        <f t="shared" ref="E52:F52" si="51">E16+E34</f>
         <v>114823</v>
       </c>
-      <c r="F52" s="28">
-        <f t="shared" si="35"/>
+      <c r="F52" s="27">
+        <f t="shared" si="51"/>
         <v>134294</v>
       </c>
       <c r="W52" s="3">
@@ -9585,74 +10933,98 @@
         <v>8.6919999999999997E-2</v>
       </c>
       <c r="AA52" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>-1.1759176722941014</v>
       </c>
       <c r="AB52" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>9.1801415383233345E-2</v>
       </c>
       <c r="AC52" s="7">
-        <f t="shared" si="17"/>
-        <v>9.6927869140454606E-2</v>
+        <f t="shared" si="27"/>
+        <v>9.9585795601155991E-2</v>
       </c>
       <c r="AD52" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
+        <v>0.10795179915240924</v>
+      </c>
+      <c r="AE52" s="7">
+        <f t="shared" si="22"/>
         <v>5.5012204011290804E-2</v>
       </c>
-      <c r="AE52" s="7">
-        <f t="shared" ref="AE52:AE54" si="36">0.5*(AC52+AC53)</f>
-        <v>5.8127964473718124E-2</v>
-      </c>
-      <c r="AG52" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="AH52" s="16" t="s">
-        <v>24</v>
+      <c r="AF52" s="7">
+        <f t="shared" si="23"/>
+        <v>5.9745382928894933E-2</v>
+      </c>
+      <c r="AG52" s="7">
+        <f t="shared" si="24"/>
+        <v>6.4845277818319377E-2</v>
       </c>
       <c r="AI52" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="AJ52" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="AK52" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="AM52" s="3">
+        <v>20</v>
+      </c>
+      <c r="AJ52" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="AK52" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="AL52" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="AM52" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="AN52" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="AP52" s="3">
         <v>30</v>
       </c>
-      <c r="AN52" s="3">
-        <v>5</v>
-      </c>
-      <c r="AO52" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AP52" t="s">
+      <c r="AQ52" s="3">
+        <v>5</v>
+      </c>
+      <c r="AR52" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AS52" s="28">
+        <f t="shared" ref="AS52:AT52" si="52">AS16+AS34</f>
+        <v>158775.86215298416</v>
+      </c>
+      <c r="AT52" s="28">
+        <f t="shared" si="52"/>
+        <v>156408.91718606339</v>
+      </c>
+      <c r="AU52" s="28">
+        <f t="shared" ref="AU52" si="53">AU16+AU34</f>
+        <v>147797.26998061538</v>
+      </c>
+      <c r="AW52" s="3">
+        <v>30</v>
+      </c>
+      <c r="AX52" s="3">
+        <v>5</v>
+      </c>
+      <c r="AY52" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AZ52" t="s">
         <v>1</v>
       </c>
-      <c r="AQ52" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="AR52" s="25">
-        <f t="shared" si="24"/>
-        <v>1.182534916557046</v>
-      </c>
-      <c r="AT52" s="3">
-        <v>30</v>
-      </c>
-      <c r="AU52" s="3">
-        <v>5</v>
-      </c>
-      <c r="AV52" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AW52" s="29">
-        <f t="shared" ref="AW52" si="37">AW16+AW34</f>
-        <v>158803.79647936227</v>
+      <c r="BA52" s="24">
+        <f>AS52/F51</f>
+        <v>1.1823269031653958</v>
+      </c>
+      <c r="BB52" s="24">
+        <f t="shared" si="39"/>
+        <v>1.1826473941509843</v>
+      </c>
+      <c r="BC52" s="24">
+        <f t="shared" si="40"/>
+        <v>1.1829500889316951</v>
       </c>
     </row>
-    <row r="53" spans="2:49" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:55" x14ac:dyDescent="0.3">
       <c r="B53" s="3">
         <v>35</v>
       </c>
@@ -9660,14 +11032,14 @@
         <v>5</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E53" s="28">
-        <f t="shared" ref="E53:F53" si="38">E17+E35</f>
+        <v>26</v>
+      </c>
+      <c r="E53" s="27">
+        <f t="shared" ref="E53:F53" si="54">E17+E35</f>
         <v>114915</v>
       </c>
-      <c r="F53" s="28">
-        <f t="shared" si="38"/>
+      <c r="F53" s="27">
+        <f t="shared" si="54"/>
         <v>124120</v>
       </c>
       <c r="W53" s="3">
@@ -9683,74 +11055,98 @@
         <v>1.7180000000000001E-2</v>
       </c>
       <c r="AA53" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>-2.0233400369521028</v>
       </c>
       <c r="AB53" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>1.8222992639348266E-2</v>
       </c>
       <c r="AC53" s="7">
-        <f t="shared" si="17"/>
-        <v>1.9328059806981646E-2</v>
+        <f t="shared" si="27"/>
+        <v>1.9904970256633871E-2</v>
       </c>
       <c r="AD53" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
+        <v>2.1738756484229523E-2</v>
+      </c>
+      <c r="AE53" s="7">
+        <f t="shared" si="22"/>
         <v>9.9184162513928937E-3</v>
       </c>
-      <c r="AE53" s="7">
-        <f t="shared" si="36"/>
-        <v>1.0520761480211555E-2</v>
-      </c>
-      <c r="AG53" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="AH53" s="16" t="s">
-        <v>24</v>
+      <c r="AF53" s="7">
+        <f t="shared" si="23"/>
+        <v>1.0835262000230054E-2</v>
+      </c>
+      <c r="AG53" s="7">
+        <f t="shared" si="24"/>
+        <v>1.1835129418396326E-2</v>
       </c>
       <c r="AI53" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="AJ53" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="AK53" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="AM53" s="3">
+        <v>20</v>
+      </c>
+      <c r="AJ53" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="AK53" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="AL53" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="AM53" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="AN53" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="AP53" s="3">
         <v>35</v>
       </c>
-      <c r="AN53" s="3">
-        <v>5</v>
-      </c>
-      <c r="AO53" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AP53" t="s">
+      <c r="AQ53" s="3">
+        <v>5</v>
+      </c>
+      <c r="AR53" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AS53" s="28">
+        <f t="shared" ref="AS53:AT53" si="55">AS17+AS35</f>
+        <v>145185.18534754141</v>
+      </c>
+      <c r="AT53" s="28">
+        <f t="shared" si="55"/>
+        <v>171738.68285218428</v>
+      </c>
+      <c r="AU53" s="28">
+        <f t="shared" ref="AU53" si="56">AU17+AU35</f>
+        <v>169207.6656956028</v>
+      </c>
+      <c r="AW53" s="3">
+        <v>35</v>
+      </c>
+      <c r="AX53" s="3">
+        <v>5</v>
+      </c>
+      <c r="AY53" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AZ53" t="s">
         <v>1</v>
       </c>
-      <c r="AQ53" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="AR53" s="25">
-        <f t="shared" si="24"/>
-        <v>1.0813502862529298</v>
-      </c>
-      <c r="AT53" s="3">
-        <v>35</v>
-      </c>
-      <c r="AU53" s="3">
-        <v>5</v>
-      </c>
-      <c r="AV53" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AW53" s="29">
-        <f t="shared" ref="AW53" si="39">AW17+AW35</f>
-        <v>145218.85534205096</v>
+      <c r="BA53" s="24">
+        <f>AS53/F52</f>
+        <v>1.0810995677211299</v>
+      </c>
+      <c r="BB53" s="24">
+        <f t="shared" si="39"/>
+        <v>1.0816422630204972</v>
+      </c>
+      <c r="BC53" s="24">
+        <f t="shared" si="40"/>
+        <v>1.0818287648799081</v>
       </c>
     </row>
-    <row r="54" spans="2:49" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:55" x14ac:dyDescent="0.3">
       <c r="B54" s="3">
         <v>40</v>
       </c>
@@ -9758,14 +11154,14 @@
         <v>5</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E54" s="28">
-        <f t="shared" ref="E54:F54" si="40">E18+E36</f>
+        <v>26</v>
+      </c>
+      <c r="E54" s="27">
+        <f t="shared" ref="E54:F54" si="57">E18+E36</f>
         <v>112615</v>
       </c>
-      <c r="F54" s="28">
-        <f t="shared" si="40"/>
+      <c r="F54" s="27">
+        <f t="shared" si="57"/>
         <v>117688</v>
       </c>
       <c r="W54" s="3">
@@ -9781,74 +11177,98 @@
         <v>1.5200000000000001E-3</v>
       </c>
       <c r="AA54" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>-3.2437618938760067</v>
       </c>
       <c r="AB54" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>1.6138398634375211E-3</v>
       </c>
       <c r="AC54" s="7">
-        <f t="shared" si="17"/>
-        <v>1.7134631534414624E-3</v>
+        <f t="shared" si="27"/>
+        <v>1.7655537438262361E-3</v>
       </c>
       <c r="AD54" s="7">
+        <f t="shared" si="28"/>
+        <v>1.9315023525631309E-3</v>
+      </c>
+      <c r="AE54" s="7">
         <f>0.5*(AB54+AB55)</f>
         <v>8.3877490992701072E-4</v>
       </c>
-      <c r="AE54" s="7">
-        <f t="shared" si="36"/>
-        <v>8.9055622351595404E-4</v>
-      </c>
-      <c r="AG54" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="AH54" s="16" t="s">
-        <v>24</v>
+      <c r="AF54" s="7">
+        <f t="shared" si="23"/>
+        <v>9.1763156075403611E-4</v>
+      </c>
+      <c r="AG54" s="7">
+        <f t="shared" si="24"/>
+        <v>1.0038880301158556E-3</v>
       </c>
       <c r="AI54" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="AJ54" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="AK54" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="AM54" s="3">
+        <v>20</v>
+      </c>
+      <c r="AJ54" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="AK54" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="AL54" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="AM54" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="AN54" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="AP54" s="3">
         <v>40</v>
       </c>
-      <c r="AN54" s="3">
-        <v>5</v>
-      </c>
-      <c r="AO54" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AP54" t="s">
+      <c r="AQ54" s="3">
+        <v>5</v>
+      </c>
+      <c r="AR54" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AS54" s="28">
+        <f t="shared" ref="AS54:AT54" si="58">AS18+AS36</f>
+        <v>127115.64278632065</v>
+      </c>
+      <c r="AT54" s="28">
+        <f t="shared" si="58"/>
+        <v>148764.27122317444</v>
+      </c>
+      <c r="AU54" s="28">
+        <f t="shared" ref="AU54" si="59">AU18+AU36</f>
+        <v>176054.62765722891</v>
+      </c>
+      <c r="AW54" s="3">
+        <v>40</v>
+      </c>
+      <c r="AX54" s="3">
+        <v>5</v>
+      </c>
+      <c r="AY54" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AZ54" t="s">
         <v>1</v>
       </c>
-      <c r="AQ54" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="AR54" s="25">
-        <f t="shared" si="24"/>
-        <v>1.0244808194757826</v>
-      </c>
-      <c r="AT54" s="3">
-        <v>40</v>
-      </c>
-      <c r="AU54" s="3">
-        <v>5</v>
-      </c>
-      <c r="AV54" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AW54" s="29">
-        <f t="shared" ref="AW54" si="41">AW18+AW36</f>
-        <v>127158.55931333415</v>
+      <c r="BA54" s="24">
+        <f>AS54/F53</f>
+        <v>1.0241350530641367</v>
+      </c>
+      <c r="BB54" s="24">
+        <f t="shared" si="39"/>
+        <v>1.0246518669729661</v>
+      </c>
+      <c r="BC54" s="24">
+        <f t="shared" si="40"/>
+        <v>1.0251308833476926</v>
       </c>
     </row>
-    <row r="55" spans="2:49" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:55" x14ac:dyDescent="0.3">
       <c r="B55" s="3">
         <v>45</v>
       </c>
@@ -9856,14 +11276,14 @@
         <v>5</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E55" s="28">
-        <f t="shared" ref="E55:F55" si="42">E19+E37</f>
+        <v>26</v>
+      </c>
+      <c r="E55" s="27">
+        <f t="shared" ref="E55:F55" si="60">E19+E37</f>
         <v>113883</v>
       </c>
-      <c r="F55" s="28">
-        <f t="shared" si="42"/>
+      <c r="F55" s="27">
+        <f t="shared" si="60"/>
         <v>112720</v>
       </c>
       <c r="W55" s="3">
@@ -9879,72 +11299,95 @@
         <v>6.0000000000000002E-5</v>
       </c>
       <c r="AA55" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>-4.8605529969710508</v>
       </c>
       <c r="AB55" s="7">
-        <f t="shared" si="16"/>
+        <f>1/(1+EXP(-2*(O$14*1+O$15*0)-2*1*AA55))</f>
         <v>6.3709956416500477E-5</v>
       </c>
       <c r="AC55" s="7">
-        <f t="shared" si="17"/>
-        <v>6.7649293590445821E-5</v>
-      </c>
-      <c r="AD55" s="15" t="s">
-        <v>24</v>
+        <f>1/(1+EXP(-2*(O$14*0.5+O$15*0.5)-2*1*AA55))</f>
+        <v>6.9709377681836102E-5</v>
+      </c>
+      <c r="AD55" s="7">
+        <f t="shared" si="28"/>
+        <v>7.6273707668580466E-5</v>
       </c>
       <c r="AE55" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="AG55" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="AH55" s="16" t="s">
-        <v>24</v>
+        <v>20</v>
+      </c>
+      <c r="AF55" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG55" s="15" t="s">
+        <v>20</v>
       </c>
       <c r="AI55" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="AJ55" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="AK55" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="AM55" s="3">
+        <v>20</v>
+      </c>
+      <c r="AJ55" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="AK55" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="AL55" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="AM55" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="AN55" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="AP55" s="3">
         <v>45</v>
       </c>
-      <c r="AN55" s="3">
-        <v>5</v>
-      </c>
-      <c r="AO55" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AP55" t="s">
+      <c r="AQ55" s="3">
+        <v>5</v>
+      </c>
+      <c r="AR55" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AS55" s="28">
+        <f t="shared" ref="AS55:AT55" si="61">AS19+AS37</f>
+        <v>117797.48617948827</v>
+      </c>
+      <c r="AT55" s="28">
+        <f t="shared" si="61"/>
+        <v>127335.14590506673</v>
+      </c>
+      <c r="AU55" s="28">
+        <f t="shared" ref="AU55" si="62">AU19+AU37</f>
+        <v>149130.65551638178</v>
+      </c>
+      <c r="AW55" s="3">
+        <v>45</v>
+      </c>
+      <c r="AX55" s="3">
+        <v>5</v>
+      </c>
+      <c r="AY55" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AZ55" t="s">
         <v>1</v>
       </c>
-      <c r="AQ55" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="AR55" s="25">
-        <f t="shared" si="24"/>
-        <v>1.0014661438358308</v>
-      </c>
-      <c r="AT55" s="3">
-        <v>45</v>
-      </c>
-      <c r="AU55" s="3">
-        <v>5</v>
-      </c>
-      <c r="AV55" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AW55" s="29">
-        <f t="shared" ref="AW55" si="43">AW19+AW37</f>
-        <v>117860.54753575125</v>
+      <c r="BA55" s="24">
+        <f>AS55/F54</f>
+        <v>1.0009303087781956</v>
+      </c>
+      <c r="BB55" s="24">
+        <f t="shared" si="39"/>
+        <v>1.0017267986373248</v>
+      </c>
+      <c r="BC55" s="24">
+        <f t="shared" si="40"/>
+        <v>1.0024628513970111</v>
       </c>
     </row>
-    <row r="56" spans="2:49" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:55" x14ac:dyDescent="0.3">
       <c r="B56" s="3">
         <v>50</v>
       </c>
@@ -9952,50 +11395,63 @@
         <v>5</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E56" s="28">
-        <f t="shared" ref="E56:F56" si="44">E20+E38</f>
+        <v>26</v>
+      </c>
+      <c r="E56" s="27">
+        <f t="shared" ref="E56:F56" si="63">E20+E38</f>
         <v>108877</v>
       </c>
-      <c r="F56" s="28">
-        <f t="shared" si="44"/>
+      <c r="F56" s="27">
+        <f t="shared" si="63"/>
         <v>113200</v>
       </c>
-      <c r="AM56" s="3">
+      <c r="AP56" s="3">
         <v>50</v>
       </c>
-      <c r="AN56" s="3">
-        <v>5</v>
-      </c>
-      <c r="AO56" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AP56" t="s">
+      <c r="AQ56" s="3">
+        <v>5</v>
+      </c>
+      <c r="AR56" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AS56" s="28">
+        <f t="shared" ref="AS56:AT56" si="64">AS20+AS38</f>
+        <v>112040.3719696317</v>
+      </c>
+      <c r="AT56" s="28">
+        <f t="shared" si="64"/>
+        <v>117236.09965066855</v>
+      </c>
+      <c r="AU56" s="28">
+        <f t="shared" ref="AU56" si="65">AU20+AU38</f>
+        <v>126872.50762622859</v>
+      </c>
+      <c r="AW56" s="3">
+        <v>50</v>
+      </c>
+      <c r="AX56" s="3">
+        <v>5</v>
+      </c>
+      <c r="AY56" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AZ56" t="s">
         <v>1</v>
       </c>
-      <c r="AQ56" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="AR56" s="25">
-        <f t="shared" si="24"/>
-        <v>0.99481307125061558</v>
-      </c>
-      <c r="AT56" s="3">
-        <v>50</v>
-      </c>
-      <c r="AU56" s="3">
-        <v>5</v>
-      </c>
-      <c r="AV56" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AW56" s="29">
-        <f t="shared" ref="AW56" si="45">AW20+AW38</f>
-        <v>112135.32939136939</v>
+      <c r="BA56" s="24">
+        <f>AS56/F55</f>
+        <v>0.99397065267593776</v>
+      </c>
+      <c r="BB56" s="24">
+        <f t="shared" si="39"/>
+        <v>0.99523430807373647</v>
+      </c>
+      <c r="BC56" s="24">
+        <f t="shared" si="40"/>
+        <v>0.99636676680621183</v>
       </c>
     </row>
-    <row r="57" spans="2:49" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:55" x14ac:dyDescent="0.3">
       <c r="B57" s="3">
         <v>55</v>
       </c>
@@ -10003,50 +11459,63 @@
         <v>5</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E57" s="28">
-        <f t="shared" ref="E57:F57" si="46">E21+E39</f>
+        <v>26</v>
+      </c>
+      <c r="E57" s="27">
+        <f t="shared" ref="E57:F57" si="66">E21+E39</f>
         <v>95306</v>
       </c>
-      <c r="F57" s="28">
-        <f t="shared" si="46"/>
+      <c r="F57" s="27">
+        <f t="shared" si="66"/>
         <v>106884</v>
       </c>
-      <c r="AM57" s="3">
+      <c r="AP57" s="3">
         <v>55</v>
       </c>
-      <c r="AN57" s="3">
-        <v>5</v>
-      </c>
-      <c r="AO57" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AP57" t="s">
+      <c r="AQ57" s="3">
+        <v>5</v>
+      </c>
+      <c r="AR57" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AS57" s="28">
+        <f t="shared" ref="AS57:AT57" si="67">AS21+AS39</f>
+        <v>111129.82195689742</v>
+      </c>
+      <c r="AT57" s="28">
+        <f t="shared" si="67"/>
+        <v>110188.63497553483</v>
+      </c>
+      <c r="AU57" s="28">
+        <f t="shared" ref="AU57" si="68">AU21+AU39</f>
+        <v>115508.26110603765</v>
+      </c>
+      <c r="AW57" s="3">
+        <v>55</v>
+      </c>
+      <c r="AX57" s="3">
+        <v>5</v>
+      </c>
+      <c r="AY57" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AZ57" t="s">
         <v>1</v>
       </c>
-      <c r="AQ57" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="AR57" s="25">
-        <f t="shared" si="24"/>
-        <v>0.98297165168933187</v>
-      </c>
-      <c r="AT57" s="3">
-        <v>55</v>
-      </c>
-      <c r="AU57" s="3">
-        <v>5</v>
-      </c>
-      <c r="AV57" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AW57" s="29">
-        <f t="shared" ref="AW57" si="47">AW21+AW39</f>
-        <v>111272.39097123237</v>
+      <c r="BA57" s="24">
+        <f>AS57/F56</f>
+        <v>0.98171220809980053</v>
+      </c>
+      <c r="BB57" s="24">
+        <f t="shared" si="39"/>
+        <v>0.98347259151729005</v>
+      </c>
+      <c r="BC57" s="24">
+        <f t="shared" si="40"/>
+        <v>0.98526188989757091</v>
       </c>
     </row>
-    <row r="58" spans="2:49" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:55" x14ac:dyDescent="0.3">
       <c r="B58" s="3">
         <v>60</v>
       </c>
@@ -10054,50 +11523,63 @@
         <v>5</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E58" s="28">
-        <f t="shared" ref="E58:F58" si="48">E22+E40</f>
+        <v>26</v>
+      </c>
+      <c r="E58" s="27">
+        <f t="shared" ref="E58:F58" si="69">E22+E40</f>
         <v>79700</v>
       </c>
-      <c r="F58" s="28">
-        <f t="shared" si="48"/>
+      <c r="F58" s="27">
+        <f t="shared" si="69"/>
         <v>91166</v>
       </c>
-      <c r="AM58" s="3">
+      <c r="AP58" s="3">
         <v>60</v>
       </c>
-      <c r="AN58" s="3">
-        <v>5</v>
-      </c>
-      <c r="AO58" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AP58" t="s">
+      <c r="AQ58" s="3">
+        <v>5</v>
+      </c>
+      <c r="AR58" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AS58" s="28">
+        <f t="shared" ref="AS58:AT58" si="70">AS22+AS40</f>
+        <v>102227.75692135456</v>
+      </c>
+      <c r="AT58" s="28">
+        <f t="shared" si="70"/>
+        <v>106585.15366426359</v>
+      </c>
+      <c r="AU58" s="28">
+        <f t="shared" ref="AU58" si="71">AU22+AU40</f>
+        <v>105940.00917700175</v>
+      </c>
+      <c r="AW58" s="3">
+        <v>60</v>
+      </c>
+      <c r="AX58" s="3">
+        <v>5</v>
+      </c>
+      <c r="AY58" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AZ58" t="s">
         <v>1</v>
       </c>
-      <c r="AQ58" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="AR58" s="25">
-        <f t="shared" si="24"/>
-        <v>0.95822233918907163</v>
-      </c>
-      <c r="AT58" s="3">
-        <v>60</v>
-      </c>
-      <c r="AU58" s="3">
-        <v>5</v>
-      </c>
-      <c r="AV58" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AW58" s="29">
-        <f t="shared" ref="AW58" si="49">AW22+AW40</f>
-        <v>102418.63650188473</v>
+      <c r="BA58" s="24">
+        <f>AS58/F57</f>
+        <v>0.95643648180601926</v>
+      </c>
+      <c r="BB58" s="24">
+        <f t="shared" si="39"/>
+        <v>0.95910487200819494</v>
+      </c>
+      <c r="BC58" s="24">
+        <f t="shared" si="40"/>
+        <v>0.96144225037839515</v>
       </c>
     </row>
-    <row r="59" spans="2:49" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:55" x14ac:dyDescent="0.3">
       <c r="B59" s="3">
         <v>65</v>
       </c>
@@ -10105,50 +11587,63 @@
         <v>5</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E59" s="28">
-        <f t="shared" ref="E59:F59" si="50">E23+E41</f>
+        <v>26</v>
+      </c>
+      <c r="E59" s="27">
+        <f t="shared" ref="E59:F59" si="72">E23+E41</f>
         <v>53354</v>
       </c>
-      <c r="F59" s="28">
-        <f t="shared" si="50"/>
+      <c r="F59" s="27">
+        <f t="shared" si="72"/>
         <v>73754</v>
       </c>
-      <c r="AM59" s="3">
+      <c r="AP59" s="3">
         <v>65</v>
       </c>
-      <c r="AN59" s="3">
-        <v>5</v>
-      </c>
-      <c r="AO59" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AP59" t="s">
+      <c r="AQ59" s="3">
+        <v>5</v>
+      </c>
+      <c r="AR59" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AS59" s="28">
+        <f t="shared" ref="AS59:AT59" si="73">AS23+AS41</f>
+        <v>84360.654277378606</v>
+      </c>
+      <c r="AT59" s="28">
+        <f t="shared" si="73"/>
+        <v>94943.489328431868</v>
+      </c>
+      <c r="AU59" s="28">
+        <f t="shared" ref="AU59" si="74">AU23+AU41</f>
+        <v>99352.346803302818</v>
+      </c>
+      <c r="AW59" s="3">
+        <v>65</v>
+      </c>
+      <c r="AX59" s="3">
+        <v>5</v>
+      </c>
+      <c r="AY59" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AZ59" t="s">
         <v>1</v>
       </c>
-      <c r="AQ59" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="AR59" s="25">
-        <f t="shared" si="24"/>
-        <v>0.92776850000651889</v>
-      </c>
-      <c r="AT59" s="3">
-        <v>65</v>
-      </c>
-      <c r="AU59" s="3">
-        <v>5</v>
-      </c>
-      <c r="AV59" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AW59" s="29">
-        <f t="shared" ref="AW59" si="51">AW23+AW41</f>
-        <v>84580.943071594302</v>
+      <c r="BA59" s="24">
+        <f>AS59/F58</f>
+        <v>0.9253521518699801</v>
+      </c>
+      <c r="BB59" s="24">
+        <f t="shared" si="39"/>
+        <v>0.92874471853543061</v>
+      </c>
+      <c r="BC59" s="24">
+        <f t="shared" si="40"/>
+        <v>0.93214057856740862</v>
       </c>
     </row>
-    <row r="60" spans="2:49" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:55" x14ac:dyDescent="0.3">
       <c r="B60" s="3">
         <v>70</v>
       </c>
@@ -10156,50 +11651,63 @@
         <v>5</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E60" s="28">
-        <f t="shared" ref="E60:F60" si="52">E24+E42</f>
+        <v>26</v>
+      </c>
+      <c r="E60" s="27">
+        <f t="shared" ref="E60:F60" si="75">E24+E42</f>
         <v>38074</v>
       </c>
-      <c r="F60" s="28">
-        <f t="shared" si="52"/>
+      <c r="F60" s="27">
+        <f t="shared" si="75"/>
         <v>48318</v>
       </c>
-      <c r="AM60" s="3">
+      <c r="AP60" s="3">
         <v>70</v>
       </c>
-      <c r="AN60" s="3">
-        <v>5</v>
-      </c>
-      <c r="AO60" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AP60" t="s">
+      <c r="AQ60" s="3">
+        <v>5</v>
+      </c>
+      <c r="AR60" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AS60" s="28">
+        <f t="shared" ref="AS60:AT60" si="76">AS24+AS42</f>
+        <v>66797.847455968062</v>
+      </c>
+      <c r="AT60" s="28">
+        <f t="shared" si="76"/>
+        <v>76813.946219831385</v>
+      </c>
+      <c r="AU60" s="28">
+        <f t="shared" ref="AU60" si="77">AU24+AU42</f>
+        <v>86870.798322320508</v>
+      </c>
+      <c r="AW60" s="3">
+        <v>70</v>
+      </c>
+      <c r="AX60" s="3">
+        <v>5</v>
+      </c>
+      <c r="AY60" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AZ60" t="s">
         <v>1</v>
       </c>
-      <c r="AQ60" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="AR60" s="25">
-        <f t="shared" si="24"/>
-        <v>0.90898156565909871</v>
-      </c>
-      <c r="AT60" s="3">
-        <v>70</v>
-      </c>
-      <c r="AU60" s="3">
-        <v>5</v>
-      </c>
-      <c r="AV60" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AW60" s="29">
-        <f t="shared" ref="AW60" si="53">AW24+AW42</f>
-        <v>67041.02639362117</v>
+      <c r="BA60" s="24">
+        <f>AS60/F59</f>
+        <v>0.90568440296076225</v>
+      </c>
+      <c r="BB60" s="24">
+        <f t="shared" si="39"/>
+        <v>0.91054232423644355</v>
+      </c>
+      <c r="BC60" s="24">
+        <f t="shared" si="40"/>
+        <v>0.91497372739076377</v>
       </c>
     </row>
-    <row r="61" spans="2:49" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:55" x14ac:dyDescent="0.3">
       <c r="B61" s="3">
         <v>75</v>
       </c>
@@ -10207,50 +11715,63 @@
         <v>5</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E61" s="28">
-        <f t="shared" ref="E61:F61" si="54">E25+E43</f>
+        <v>26</v>
+      </c>
+      <c r="E61" s="27">
+        <f t="shared" ref="E61:F61" si="78">E25+E43</f>
         <v>29245</v>
       </c>
-      <c r="F61" s="28">
-        <f t="shared" si="54"/>
+      <c r="F61" s="27">
+        <f t="shared" si="78"/>
         <v>33639</v>
       </c>
-      <c r="AM61" s="3">
+      <c r="AP61" s="3">
         <v>75</v>
       </c>
-      <c r="AN61" s="3">
-        <v>5</v>
-      </c>
-      <c r="AO61" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AP61" t="s">
+      <c r="AQ61" s="3">
+        <v>5</v>
+      </c>
+      <c r="AR61" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AS61" s="28">
+        <f t="shared" ref="AS61:AT61" si="79">AS25+AS43</f>
+        <v>42682.95195259717</v>
+      </c>
+      <c r="AT61" s="28">
+        <f t="shared" si="79"/>
+        <v>59463.981893910575</v>
+      </c>
+      <c r="AU61" s="28">
+        <f t="shared" ref="AU61" si="80">AU25+AU43</f>
+        <v>68876.283211849135</v>
+      </c>
+      <c r="AW61" s="3">
+        <v>75</v>
+      </c>
+      <c r="AX61" s="3">
+        <v>5</v>
+      </c>
+      <c r="AY61" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AZ61" t="s">
         <v>1</v>
       </c>
-      <c r="AQ61" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="AR61" s="25">
-        <f t="shared" si="24"/>
-        <v>0.8879109826533742</v>
-      </c>
-      <c r="AT61" s="3">
-        <v>75</v>
-      </c>
-      <c r="AU61" s="3">
-        <v>5</v>
-      </c>
-      <c r="AV61" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AW61" s="29">
-        <f t="shared" ref="AW61" si="55">AW25+AW43</f>
-        <v>42902.082859845737</v>
+      <c r="BA61" s="24">
+        <f>AS61/F60</f>
+        <v>0.88337580099749924</v>
+      </c>
+      <c r="BB61" s="24">
+        <f t="shared" si="39"/>
+        <v>0.89020805547825721</v>
+      </c>
+      <c r="BC61" s="24">
+        <f t="shared" si="40"/>
+        <v>0.89666377788656104</v>
       </c>
     </row>
-    <row r="62" spans="2:49" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:55" x14ac:dyDescent="0.3">
       <c r="B62" s="3">
         <v>80</v>
       </c>
@@ -10258,50 +11779,63 @@
         <v>5</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E62" s="28">
-        <f t="shared" ref="E62:F62" si="56">E26+E44</f>
+        <v>26</v>
+      </c>
+      <c r="E62" s="27">
+        <f t="shared" ref="E62:F62" si="81">E26+E44</f>
         <v>23343</v>
       </c>
-      <c r="F62" s="28">
-        <f t="shared" si="56"/>
+      <c r="F62" s="27">
+        <f t="shared" si="81"/>
         <v>24218</v>
       </c>
-      <c r="AM62" s="3">
+      <c r="AP62" s="3">
         <v>80</v>
       </c>
-      <c r="AN62" s="3">
-        <v>5</v>
-      </c>
-      <c r="AO62" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AP62" t="s">
+      <c r="AQ62" s="3">
+        <v>5</v>
+      </c>
+      <c r="AR62" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AS62" s="28">
+        <f t="shared" ref="AS62:AT62" si="82">AS26+AS44</f>
+        <v>27838.821310528554</v>
+      </c>
+      <c r="AT62" s="28">
+        <f t="shared" si="82"/>
+        <v>35689.956328983943</v>
+      </c>
+      <c r="AU62" s="28">
+        <f t="shared" ref="AU62" si="83">AU26+AU44</f>
+        <v>50243.28018912761</v>
+      </c>
+      <c r="AW62" s="3">
+        <v>80</v>
+      </c>
+      <c r="AX62" s="3">
+        <v>5</v>
+      </c>
+      <c r="AY62" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AZ62" t="s">
         <v>1</v>
       </c>
-      <c r="AQ62" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="AR62" s="25">
-        <f t="shared" si="24"/>
-        <v>0.83346764208851576</v>
-      </c>
-      <c r="AT62" s="3">
-        <v>80</v>
-      </c>
-      <c r="AU62" s="3">
-        <v>5</v>
-      </c>
-      <c r="AV62" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AW62" s="29">
-        <f t="shared" ref="AW62" si="57">AW26+AW44</f>
-        <v>28037.01801221558</v>
+      <c r="BA62" s="24">
+        <f>AS62/F61</f>
+        <v>0.82757576950945488</v>
+      </c>
+      <c r="BB62" s="24">
+        <f t="shared" si="39"/>
+        <v>0.83616419896684957</v>
+      </c>
+      <c r="BC62" s="24">
+        <f t="shared" si="40"/>
+        <v>0.84493635624278274</v>
       </c>
     </row>
-    <row r="63" spans="2:49" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:55" x14ac:dyDescent="0.3">
       <c r="B63" s="3">
         <v>85</v>
       </c>
@@ -10309,57 +11843,71 @@
         <v>6</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E63" s="28">
-        <f t="shared" ref="E63:F63" si="58">E27+E45</f>
+        <v>26</v>
+      </c>
+      <c r="E63" s="27">
+        <f t="shared" ref="E63:F63" si="84">E27+E45</f>
         <v>24978</v>
       </c>
-      <c r="F63" s="28">
-        <f t="shared" si="58"/>
+      <c r="F63" s="27">
+        <f t="shared" si="84"/>
         <v>28874</v>
       </c>
-      <c r="AM63" s="3">
+      <c r="AP63" s="3">
         <v>85</v>
       </c>
-      <c r="AN63" s="3" t="s">
+      <c r="AQ63" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="AO63" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AP63" t="s">
+      <c r="AR63" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AS63" s="28">
+        <f t="shared" ref="AS63:AT63" si="85">AS27+AS45</f>
+        <v>31692.61031295517</v>
+      </c>
+      <c r="AT63" s="28">
+        <f t="shared" si="85"/>
+        <v>35844.628592041292</v>
+      </c>
+      <c r="AU63" s="28">
+        <f t="shared" ref="AU63" si="86">AU27+AU45</f>
+        <v>43452.77889607496</v>
+      </c>
+      <c r="AW63" s="3">
+        <v>85</v>
+      </c>
+      <c r="AX63" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AY63" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AZ63" t="s">
         <v>2</v>
       </c>
-      <c r="AQ63" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="AR63" s="25">
-        <f>AW63/(F62+F63)</f>
-        <v>0.6007285500748113</v>
-      </c>
-      <c r="AT63" s="3">
-        <v>85</v>
-      </c>
-      <c r="AU63" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AV63" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AW63" s="29">
-        <f t="shared" ref="AW63" si="59">AW27+AW45</f>
-        <v>31893.880180571883</v>
+      <c r="BA63" s="24">
+        <f>AS63/(F62+F63)</f>
+        <v>0.59693758594430746</v>
+      </c>
+      <c r="BB63" s="24">
+        <f>AT63/(AS62+AS63)</f>
+        <v>0.60211265905289335</v>
+      </c>
+      <c r="BC63" s="24">
+        <f>AU63/(AT62+AT63)</f>
+        <v>0.6074373527720498</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="AM8:AW8"/>
+  <mergeCells count="7">
     <mergeCell ref="N8:O8"/>
     <mergeCell ref="B8:F8"/>
     <mergeCell ref="H8:L8"/>
     <mergeCell ref="Q8:U8"/>
-    <mergeCell ref="W8:AK8"/>
+    <mergeCell ref="W8:AN8"/>
+    <mergeCell ref="AP8:AU8"/>
+    <mergeCell ref="AW8:BC8"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Oct2020Presentation/CCRAdjustmentSheet_December2021.xlsx
+++ b/Oct2020Presentation/CCRAdjustmentSheet_December2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ehunsing\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D11965FF-DF44-4389-A4EF-5849358524B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7A5FB18-EA50-43F7-BAE9-231A191D2963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CCRAdjustmentSheet_December2021" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="48">
   <si>
     <t>Female</t>
   </si>
@@ -1519,7 +1519,7 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>49200.528014200951</c:v>
+                  <c:v>51235.366470589121</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>49003.153063046149</c:v>
@@ -1608,10 +1608,10 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>52314.987663464672</c:v>
+                  <c:v>54478.634133119733</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50262.869571373536</c:v>
+                  <c:v>52341.644415064911</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>48863.816158055328</c:v>
@@ -1697,13 +1697,13 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>55069.529969516683</c:v>
+                  <c:v>57347.098968874772</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>53451.465012228618</c:v>
+                  <c:v>55662.113981804243</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50121.065033387087</c:v>
+                  <c:v>52193.975116295776</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>51183.098479213862</c:v>
@@ -2466,7 +2466,7 @@
                   <c:v>1.0217237430327759</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.99717874169947485</c:v>
+                  <c:v>0.99717874169947496</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1.0474642077412981</c:v>
@@ -4571,8 +4571,8 @@
       <c r="N10" t="s">
         <v>46</v>
       </c>
-      <c r="O10" s="26">
-        <v>1.6</v>
+      <c r="O10" s="26" t="s">
+        <v>17</v>
       </c>
       <c r="Q10" s="3">
         <v>0</v>
@@ -4667,15 +4667,15 @@
       </c>
       <c r="AV10" s="25">
         <f>(IF(AND(O10&lt;&gt;".",O10&lt;&gt;""),O10*O11,L10))*((SUM(AV13:AV19)/(AS20-AS13))*AT10)</f>
-        <v>49200.528014200951</v>
+        <v>51235.366470589121</v>
       </c>
       <c r="AW10" s="25">
         <f>(IF(AND(O10&lt;&gt;".",O10&lt;&gt;""),O10*O11,L10))*((SUM(AW13:AW19)/(AS20-AS13))*AT10)</f>
-        <v>52314.987663464672</v>
+        <v>54478.634133119733</v>
       </c>
       <c r="AX10" s="25">
         <f>(IF(AND(O10&lt;&gt;".",O10&lt;&gt;""),O10*O11,L10))*((SUM(AX13:AX19)/(AS20-AS13))*AT10)</f>
-        <v>55069.529969516683</v>
+        <v>57347.098968874772</v>
       </c>
       <c r="AZ10" s="3">
         <v>0</v>
@@ -4691,15 +4691,15 @@
       </c>
       <c r="BD10" s="24">
         <f>(AV10)/((SUM(AV13:AV19)/(AS20-AS13))*AT10)</f>
-        <v>0.78176000000000001</v>
+        <v>0.81409207804613137</v>
       </c>
       <c r="BE10" s="24">
         <f>(AW10)/((SUM(AW13:AW19)/(AS20-AS13))*AT10)</f>
-        <v>0.78176000000000001</v>
+        <v>0.81409207804613137</v>
       </c>
       <c r="BF10" s="24">
         <f>(AX10)/((SUM(AX13:AX19)/(AS20-AS13))*AT10)</f>
-        <v>0.78176000000000001</v>
+        <v>0.81409207804613137</v>
       </c>
     </row>
     <row r="11" spans="2:58" x14ac:dyDescent="0.3">
@@ -4847,11 +4847,11 @@
       </c>
       <c r="AW11" s="25">
         <f>(AV10)*((L11-$AN11)*O$13+AP11)+(U11)</f>
-        <v>50262.869571373536</v>
+        <v>52341.644415064911</v>
       </c>
       <c r="AX11" s="25">
         <f>(AW10)*((L11-$AN11)*O$13+AQ11)+(U11)</f>
-        <v>53451.465012228618</v>
+        <v>55662.113981804243</v>
       </c>
       <c r="AZ11" s="3">
         <v>5</v>
@@ -5027,7 +5027,7 @@
       </c>
       <c r="AX12" s="25">
         <f t="shared" ref="AX12:AX26" si="15">(AW11)*((L12-$AN12)*O$13+AQ12)+(U12)</f>
-        <v>50121.065033387087</v>
+        <v>52193.975116295776</v>
       </c>
       <c r="AZ12" s="3">
         <v>10</v>
@@ -5051,7 +5051,7 @@
       </c>
       <c r="BF12" s="24">
         <f t="shared" ref="BF12:BF26" si="17">AX12/AW11</f>
-        <v>0.99717874169947485</v>
+        <v>0.99717874169947496</v>
       </c>
     </row>
     <row r="13" spans="2:58" x14ac:dyDescent="0.3">
@@ -7755,15 +7755,15 @@
       </c>
       <c r="AV28" s="25">
         <f>(IF(AND(O10&lt;&gt;".",O10&lt;&gt;""),O10*(1-O11),L28))*((SUM(AV13:AV19)/(AS20-AS13)*(AT10)))</f>
-        <v>51496.418392268461</v>
+        <v>53626.210423780765</v>
       </c>
       <c r="AW28" s="25">
         <f>(IF(AND(O10&lt;&gt;".",O10&lt;&gt;""),O10*(1-O11),L28))*((SUM(AW13:AW19)/(AS20-AS13)*(AT10)))</f>
-        <v>54756.210992828157</v>
+        <v>57020.821726724185</v>
       </c>
       <c r="AX28" s="25">
         <f>(IF(AND(O10&lt;&gt;".",O10&lt;&gt;""),O10*(1-O11),L28))*((SUM(AX13:AX19)/(AS20-AS13)*(AT10)))</f>
-        <v>57639.291089666061</v>
+        <v>60023.140427103084</v>
       </c>
       <c r="AZ28" s="3">
         <v>0</v>
@@ -7779,15 +7779,15 @@
       </c>
       <c r="BD28" s="24">
         <f>(AV28)/((SUM(AV13:AV19)/(AS20-AS13)*(AT10)))</f>
-        <v>0.81824000000000019</v>
+        <v>0.8520808201244201</v>
       </c>
       <c r="BE28" s="24">
         <f>(AW28)/((SUM(AW13:AW19)/(AS20-AS13)*(AT10)))</f>
-        <v>0.81824000000000019</v>
+        <v>0.8520808201244201</v>
       </c>
       <c r="BF28" s="24">
         <f>(AX28)/((SUM(AX13:AX19)/(AS20-AS13)*(AT10)))</f>
-        <v>0.81824000000000019</v>
+        <v>0.8520808201244201</v>
       </c>
     </row>
     <row r="29" spans="2:58" x14ac:dyDescent="0.3">
@@ -7922,11 +7922,11 @@
       </c>
       <c r="AW29" s="25">
         <f>(AV28)*((L29-$AN34)*O$13+AP34)+(U29)</f>
-        <v>51923.010057888278</v>
+        <v>54070.445093681497</v>
       </c>
       <c r="AX29" s="25">
         <f>(AW28)*((L29-$AN34)*O$13+AQ34)+(U29)</f>
-        <v>55218.203022328111</v>
+        <v>57501.920850926457</v>
       </c>
       <c r="AZ29" s="3">
         <v>5</v>
@@ -8091,7 +8091,7 @@
       </c>
       <c r="AX30" s="25">
         <f t="shared" ref="AX30:AX44" si="22">(AW29)*((L30-$AN35)*O$13+AQ35)+(U30)</f>
-        <v>51798.252077113335</v>
+        <v>53940.527364682945</v>
       </c>
       <c r="AZ30" s="3">
         <v>10</v>
@@ -8115,7 +8115,7 @@
       </c>
       <c r="BF30" s="24">
         <f t="shared" ref="BF30:BF44" si="24">AX30/AW29</f>
-        <v>0.99759725060939552</v>
+        <v>0.99759725060939564</v>
       </c>
     </row>
     <row r="31" spans="2:58" x14ac:dyDescent="0.3">
@@ -10714,15 +10714,15 @@
       </c>
       <c r="AV46" s="28">
         <f>AV10+AV28</f>
-        <v>100696.94640646942</v>
+        <v>104861.57689436988</v>
       </c>
       <c r="AW46" s="28">
         <f>AW10+AW28</f>
-        <v>107071.19865629284</v>
+        <v>111499.45585984392</v>
       </c>
       <c r="AX46" s="28">
         <f>AX10+AX28</f>
-        <v>112708.82105918275</v>
+        <v>117370.23939597786</v>
       </c>
       <c r="AZ46" s="3">
         <v>0</v>
@@ -10738,15 +10738,15 @@
       </c>
       <c r="BD46" s="24">
         <f>BD28+BD10</f>
-        <v>1.6</v>
+        <v>1.6661728981705515</v>
       </c>
       <c r="BE46" s="24">
         <f t="shared" ref="BE46:BF46" si="36">BE28+BE10</f>
-        <v>1.6</v>
+        <v>1.6661728981705515</v>
       </c>
       <c r="BF46" s="24">
         <f t="shared" si="36"/>
-        <v>1.6</v>
+        <v>1.6661728981705515</v>
       </c>
     </row>
     <row r="47" spans="2:58" x14ac:dyDescent="0.3">
@@ -10855,11 +10855,11 @@
       </c>
       <c r="AW47" s="28">
         <f t="shared" si="38"/>
-        <v>102185.87962926182</v>
+        <v>106412.0895087464</v>
       </c>
       <c r="AX47" s="28">
         <f t="shared" ref="AX47" si="39">AX11+AX29</f>
-        <v>108669.66803455673</v>
+        <v>113164.0348327307</v>
       </c>
       <c r="AZ47" s="3">
         <v>5</v>
@@ -10883,7 +10883,7 @@
       </c>
       <c r="BF47" s="24">
         <f>AX47/AW46</f>
-        <v>1.0149290322544637</v>
+        <v>1.014929032254464</v>
       </c>
     </row>
     <row r="48" spans="2:58" x14ac:dyDescent="0.3">
@@ -10996,7 +10996,7 @@
       </c>
       <c r="AX48" s="28">
         <f t="shared" ref="AX48" si="43">AX12+AX30</f>
-        <v>101919.31711050041</v>
+        <v>106134.50248097873</v>
       </c>
       <c r="AZ48" s="3">
         <v>10</v>
@@ -11020,7 +11020,7 @@
       </c>
       <c r="BF48" s="24">
         <f t="shared" ref="BF48:BF62" si="45">AX48/AW47</f>
-        <v>0.99739139576105318</v>
+        <v>0.99739139576105351</v>
       </c>
     </row>
     <row r="49" spans="2:58" x14ac:dyDescent="0.3">

--- a/Oct2020Presentation/CCRAdjustmentSheet_December2021.xlsx
+++ b/Oct2020Presentation/CCRAdjustmentSheet_December2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ehunsing\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7A5FB18-EA50-43F7-BAE9-231A191D2963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8166DCC-5FA0-4D44-9D3E-8596ADA310DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1200,58 +1200,58 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>47456</c:v>
+                  <c:v>47458</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>46336</c:v>
+                  <c:v>46337</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44585</c:v>
+                  <c:v>44587</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>48627</c:v>
+                  <c:v>48629</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>52945</c:v>
+                  <c:v>52946</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>57334</c:v>
+                  <c:v>57329</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>58480</c:v>
+                  <c:v>58479</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>58057</c:v>
+                  <c:v>58051</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>56470</c:v>
+                  <c:v>56464</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>57773</c:v>
+                  <c:v>57769</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>55277</c:v>
+                  <c:v>55272</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>49350</c:v>
+                  <c:v>49347</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>41839</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>28452</c:v>
+                  <c:v>28449</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>20869</c:v>
+                  <c:v>20868</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16595</c:v>
+                  <c:v>16597</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>14171</c:v>
+                  <c:v>14166</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>16646</c:v>
+                  <c:v>16643</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1362,55 +1362,55 @@
                   <c:v>47974</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>48467</c:v>
+                  <c:v>48520</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>46202</c:v>
+                  <c:v>46276</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>46696</c:v>
+                  <c:v>46727</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>52617</c:v>
+                  <c:v>52618</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>67111</c:v>
+                  <c:v>67091</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>67876</c:v>
+                  <c:v>67836</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>62242</c:v>
+                  <c:v>62254</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>59426</c:v>
+                  <c:v>59417</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>56506</c:v>
+                  <c:v>56432</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>57578</c:v>
+                  <c:v>57521</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>54766</c:v>
+                  <c:v>54717</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>47753</c:v>
+                  <c:v>47717</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>39460</c:v>
+                  <c:v>39461</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>26318</c:v>
+                  <c:v>26354</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>18824</c:v>
+                  <c:v>18855</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>14228</c:v>
+                  <c:v>14284</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18923</c:v>
+                  <c:v>18859</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1519,58 +1519,58 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>51235.366470589121</c:v>
+                  <c:v>51255.798557295166</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>49003.153063046149</c:v>
+                  <c:v>49054.664503248299</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>48328.0473508082</c:v>
+                  <c:v>48457.337561135988</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>48391.462001648666</c:v>
+                  <c:v>48498.969046537008</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50530.92215903652</c:v>
+                  <c:v>50563.349467479551</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>66700.375149166575</c:v>
+                  <c:v>66680.506999109188</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>79458.900376011399</c:v>
+                  <c:v>79395.336618084024</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>72253.839720891643</c:v>
+                  <c:v>72226.41451938411</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>63725.537403050716</c:v>
+                  <c:v>63734.757942542361</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>59488.10371849822</c:v>
+                  <c:v>59407.542018975131</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>56351.921372438548</c:v>
+                  <c:v>56226.336591196363</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>57101.500813081955</c:v>
+                  <c:v>56999.134080474963</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>53069.915718534103</c:v>
+                  <c:v>52985.734485351175</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>45132.274744552735</c:v>
+                  <c:v>45099.39094610139</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>36612.947450678228</c:v>
+                  <c:v>36667.659259662789</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>23848.22066491998</c:v>
+                  <c:v>23921.131034706563</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>16246.900685861385</c:v>
+                  <c:v>16335.327337236904</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>20486.459018012716</c:v>
+                  <c:v>20417.951271081307</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1608,58 +1608,58 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>54478.634133119733</c:v>
+                  <c:v>54516.125300082589</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>52341.644415064911</c:v>
+                  <c:v>52417.552900411851</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>48863.816158055328</c:v>
+                  <c:v>48992.465639889859</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>50620.134081660544</c:v>
+                  <c:v>50786.970631009775</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>52368.913173614768</c:v>
+                  <c:v>52484.095577503809</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>64060.590387305143</c:v>
+                  <c:v>64081.38962835553</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>78980.412404383867</c:v>
+                  <c:v>78917.24649330588</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>84596.396060517538</c:v>
+                  <c:v>84546.459606034987</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>73993.379511971769</c:v>
+                  <c:v>73961.737500846852</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>63816.668501827393</c:v>
+                  <c:v>63749.15031887572</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>59362.387439058017</c:v>
+                  <c:v>59227.478831030778</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>55937.305853130412</c:v>
+                  <c:v>55767.838343881915</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>55408.595147189182</c:v>
+                  <c:v>55271.033936405991</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>50257.707038034234</c:v>
+                  <c:v>50179.253041801916</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>41999.690136924859</c:v>
+                  <c:v>42030.557657464924</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>33324.42255074589</c:v>
+                  <c:v>33430.275996627657</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>20717.727662427635</c:v>
+                  <c:v>20859.308226104033</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>22845.310704710359</c:v>
+                  <c:v>22787.210725754754</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1697,58 +1697,58 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>57347.098968874772</c:v>
+                  <c:v>57402.425336271575</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>55662.113981804243</c:v>
+                  <c:v>55758.955556898334</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>52193.975116295776</c:v>
+                  <c:v>52352.252109219684</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>51183.098479213862</c:v>
+                  <c:v>51349.615530400835</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>54784.009490275559</c:v>
+                  <c:v>54963.353798245509</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>66395.245982189546</c:v>
+                  <c:v>66520.196474989352</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>75861.586280713425</c:v>
+                  <c:v>75848.122301837691</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>84098.771366005676</c:v>
+                  <c:v>84049.142237670414</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>86652.280480513655</c:v>
+                  <c:v>86596.967262310558</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>74126.100055012823</c:v>
+                  <c:v>74005.333647875726</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>63718.828918728461</c:v>
+                  <c:v>63592.912880142387</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>58977.261682943412</c:v>
+                  <c:v>58796.029982062006</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>54349.197038653474</c:v>
+                  <c:v>54147.137314796375</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>52572.374802137005</c:v>
+                  <c:v>52443.176029145485</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>46901.621742139738</c:v>
+                  <c:v>46896.799272010161</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>38391.152294858453</c:v>
+                  <c:v>38483.622054836545</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>29134.628696349198</c:v>
+                  <c:v>29336.516802959493</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>27265.48836013339</c:v>
+                  <c:v>27234.029340497338</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2137,55 +2137,55 @@
                 <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>1.0213039447066756</c:v>
+                  <c:v>1.0223776813182182</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.99710808011049723</c:v>
+                  <c:v>0.99868355741631953</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0473477627004597</c:v>
+                  <c:v>1.0479960526610896</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0820531803319144</c:v>
+                  <c:v>1.0820292418104422</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.2675606761733875</c:v>
+                  <c:v>1.2671589921807125</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.1838699550005232</c:v>
+                  <c:v>1.1832754801234977</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.064329685362517</c:v>
+                  <c:v>1.0645530874330957</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0235802745577622</c:v>
+                  <c:v>1.0235310330571394</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.0006375066406941</c:v>
+                  <c:v>0.99943326721450831</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.99662472089038134</c:v>
+                  <c:v>0.99570704010801636</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.99075564882319955</c:v>
+                  <c:v>0.98995874945722973</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.96763931104356637</c:v>
+                  <c:v>0.96696861004721668</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.94313917636654798</c:v>
+                  <c:v>0.94316307751141282</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.92499648530858991</c:v>
+                  <c:v>0.92635945024429678</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.90200776271024008</c:v>
+                  <c:v>0.90353651523864287</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.85736667670985234</c:v>
+                  <c:v>0.86063746460203649</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.6140441963851121</c:v>
+                  <c:v>0.61212632672271095</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2291,55 +2291,55 @@
                 <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>1.021452308814069</c:v>
+                  <c:v>1.0225260454256118</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.99713304621305632</c:v>
+                  <c:v>0.99870852351887851</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0473889009490642</c:v>
+                  <c:v>1.0480371909096942</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0821252818022211</c:v>
+                  <c:v>1.0821013432807489</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.2676582691747262</c:v>
+                  <c:v>1.2672565851820516</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.1839921976428811</c:v>
+                  <c:v>1.1833977227658556</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0644976091827987</c:v>
+                  <c:v>1.0647210112533774</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0238349892845782</c:v>
+                  <c:v>1.0237857477839554</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.0010450597128904</c:v>
+                  <c:v>0.99984082028670462</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.9972732342129782</c:v>
+                  <c:v>0.99635555343061322</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.99172428380773825</c:v>
+                  <c:v>0.99092738444176842</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.96903034215633976</c:v>
+                  <c:v>0.96835964115999007</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.94511914946815356</c:v>
+                  <c:v>0.94514305061301818</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.92784965663148067</c:v>
+                  <c:v>0.92921262156718754</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.90615626814043548</c:v>
+                  <c:v>0.90768502066883827</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.86309502156084705</c:v>
+                  <c:v>0.86636580945303121</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.61797408880615112</c:v>
+                  <c:v>0.61605621914374997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2377,55 +2377,55 @@
                 <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>1.0215920763465376</c:v>
+                  <c:v>1.0226658129580801</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.99715657266356816</c:v>
+                  <c:v>0.99873204996939036</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0474276710212256</c:v>
+                  <c:v>1.0480759609818557</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0821932425151899</c:v>
+                  <c:v>1.0821693039937177</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.267750273499592</c:v>
+                  <c:v>1.267348589506917</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.184107469077267</c:v>
+                  <c:v>1.1835129942002416</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.064656012859412</c:v>
+                  <c:v>1.0648794149299907</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0240753958239419</c:v>
+                  <c:v>1.0240261543233191</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.0014300561829756</c:v>
+                  <c:v>1.0002258167567897</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.99788669882578374</c:v>
+                  <c:v>0.99696901804341875</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.99264238895125012</c:v>
+                  <c:v>0.99184548958528029</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.97035269403103097</c:v>
+                  <c:v>0.96968199303468139</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.94700936222671006</c:v>
+                  <c:v>0.9470332633715749</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.9305910321303722</c:v>
+                  <c:v>0.93195399706607895</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.91018136673201877</c:v>
+                  <c:v>0.91171011926042145</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.86873263852773697</c:v>
+                  <c:v>0.87200342641992101</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.62192271245749864</c:v>
+                  <c:v>0.62000484279509749</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2463,55 +2463,55 @@
                 <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>1.0217237430327759</c:v>
+                  <c:v>1.0227974796443184</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.99717874169947496</c:v>
+                  <c:v>0.99875421900529715</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0474642077412981</c:v>
+                  <c:v>1.0481124977019278</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0822572971043072</c:v>
+                  <c:v>1.082233358582835</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.2678370040270708</c:v>
+                  <c:v>1.2674353200343957</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.1842161588280784</c:v>
+                  <c:v>1.1836216839510527</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0648054220762426</c:v>
+                  <c:v>1.0650288241468213</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0243022695497028</c:v>
+                  <c:v>1.02425302804908</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.0017936813254973</c:v>
+                  <c:v>1.0005894418993115</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.99846686476439728</c:v>
+                  <c:v>0.99754918398203229</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.99351229334382851</c:v>
+                  <c:v>0.99271539397785868</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.97160912935909549</c:v>
+                  <c:v>0.97093842836274569</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.94881262848267589</c:v>
+                  <c:v>0.94883652962754061</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.93322247484640186</c:v>
+                  <c:v>0.93458543978210873</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.9140817984537013</c:v>
+                  <c:v>0.91561055098210387</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.87427257447547535</c:v>
+                  <c:v>0.87754336236765951</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.62588582849403018</c:v>
+                  <c:v>0.62396795883162903</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4547,7 +4547,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="17">
-        <v>47456</v>
+        <v>47458</v>
       </c>
       <c r="F10" s="17">
         <v>47974</v>
@@ -4566,7 +4566,7 @@
       </c>
       <c r="L10" s="7">
         <f>((B20-B13)/C10)*((F10+F28)/SUM(F13:F19))*O11</f>
-        <v>0.81409207804613137</v>
+        <v>0.81449486705062135</v>
       </c>
       <c r="N10" t="s">
         <v>46</v>
@@ -4667,15 +4667,15 @@
       </c>
       <c r="AV10" s="25">
         <f>(IF(AND(O10&lt;&gt;".",O10&lt;&gt;""),O10*O11,L10))*((SUM(AV13:AV19)/(AS20-AS13))*AT10)</f>
-        <v>51235.366470589121</v>
+        <v>51255.798557295166</v>
       </c>
       <c r="AW10" s="25">
         <f>(IF(AND(O10&lt;&gt;".",O10&lt;&gt;""),O10*O11,L10))*((SUM(AW13:AW19)/(AS20-AS13))*AT10)</f>
-        <v>54478.634133119733</v>
+        <v>54516.125300082589</v>
       </c>
       <c r="AX10" s="25">
         <f>(IF(AND(O10&lt;&gt;".",O10&lt;&gt;""),O10*O11,L10))*((SUM(AX13:AX19)/(AS20-AS13))*AT10)</f>
-        <v>57347.098968874772</v>
+        <v>57402.425336271575</v>
       </c>
       <c r="AZ10" s="3">
         <v>0</v>
@@ -4691,15 +4691,15 @@
       </c>
       <c r="BD10" s="24">
         <f>(AV10)/((SUM(AV13:AV19)/(AS20-AS13))*AT10)</f>
-        <v>0.81409207804613137</v>
+        <v>0.81449486705062135</v>
       </c>
       <c r="BE10" s="24">
         <f>(AW10)/((SUM(AW13:AW19)/(AS20-AS13))*AT10)</f>
-        <v>0.81409207804613137</v>
+        <v>0.81449486705062135</v>
       </c>
       <c r="BF10" s="24">
         <f>(AX10)/((SUM(AX13:AX19)/(AS20-AS13))*AT10)</f>
-        <v>0.81409207804613137</v>
+        <v>0.81449486705062135</v>
       </c>
     </row>
     <row r="11" spans="2:58" x14ac:dyDescent="0.3">
@@ -4713,10 +4713,10 @@
         <v>0</v>
       </c>
       <c r="E11" s="17">
-        <v>46336</v>
+        <v>46337</v>
       </c>
       <c r="F11" s="17">
-        <v>48467</v>
+        <v>48520</v>
       </c>
       <c r="H11" s="3">
         <v>5</v>
@@ -4732,7 +4732,7 @@
       </c>
       <c r="L11" s="7">
         <f>F11/E10</f>
-        <v>1.0213039447066756</v>
+        <v>1.0223776813182182</v>
       </c>
       <c r="N11" t="s">
         <v>25</v>
@@ -4843,15 +4843,15 @@
       </c>
       <c r="AV11" s="25">
         <f>(F10)*((L11-$AN11)*O$13+AO11)+(U11)</f>
-        <v>49003.153063046149</v>
+        <v>49054.664503248299</v>
       </c>
       <c r="AW11" s="25">
         <f>(AV10)*((L11-$AN11)*O$13+AP11)+(U11)</f>
-        <v>52341.644415064911</v>
+        <v>52417.552900411851</v>
       </c>
       <c r="AX11" s="25">
         <f>(AW10)*((L11-$AN11)*O$13+AQ11)+(U11)</f>
-        <v>55662.113981804243</v>
+        <v>55758.955556898334</v>
       </c>
       <c r="AZ11" s="3">
         <v>5</v>
@@ -4867,15 +4867,15 @@
       </c>
       <c r="BD11" s="24">
         <f t="shared" ref="BD11:BD26" si="4">AV11/F10</f>
-        <v>1.021452308814069</v>
+        <v>1.0225260454256118</v>
       </c>
       <c r="BE11" s="24">
         <f>AW11/AV10</f>
-        <v>1.0215920763465376</v>
+        <v>1.0226658129580801</v>
       </c>
       <c r="BF11" s="24">
         <f>AX11/AW10</f>
-        <v>1.0217237430327759</v>
+        <v>1.0227974796443184</v>
       </c>
     </row>
     <row r="12" spans="2:58" x14ac:dyDescent="0.3">
@@ -4889,10 +4889,10 @@
         <v>0</v>
       </c>
       <c r="E12" s="17">
-        <v>44585</v>
+        <v>44587</v>
       </c>
       <c r="F12" s="17">
-        <v>46202</v>
+        <v>46276</v>
       </c>
       <c r="H12" s="3">
         <v>10</v>
@@ -4908,7 +4908,7 @@
       </c>
       <c r="L12" s="7">
         <f>F12/E11</f>
-        <v>0.99710808011049723</v>
+        <v>0.99868355741631953</v>
       </c>
       <c r="N12" s="3" t="s">
         <v>30</v>
@@ -5019,15 +5019,15 @@
       </c>
       <c r="AV12" s="25">
         <f t="shared" ref="AV12:AV26" si="13">(F11)*((L12-$AN12)*O$13+AO12)+(U12)</f>
-        <v>48328.0473508082</v>
+        <v>48457.337561135988</v>
       </c>
       <c r="AW12" s="25">
         <f t="shared" ref="AW12:AW26" si="14">(AV11)*((L12-$AN12)*O$13+AP12)+(U12)</f>
-        <v>48863.816158055328</v>
+        <v>48992.465639889859</v>
       </c>
       <c r="AX12" s="25">
         <f t="shared" ref="AX12:AX26" si="15">(AW11)*((L12-$AN12)*O$13+AQ12)+(U12)</f>
-        <v>52193.975116295776</v>
+        <v>52352.252109219684</v>
       </c>
       <c r="AZ12" s="3">
         <v>10</v>
@@ -5043,15 +5043,15 @@
       </c>
       <c r="BD12" s="24">
         <f t="shared" si="4"/>
-        <v>0.99713304621305632</v>
+        <v>0.99870852351887851</v>
       </c>
       <c r="BE12" s="24">
         <f t="shared" ref="BE12:BE26" si="16">AW12/AV11</f>
-        <v>0.99715657266356816</v>
+        <v>0.99873204996939036</v>
       </c>
       <c r="BF12" s="24">
         <f t="shared" ref="BF12:BF26" si="17">AX12/AW11</f>
-        <v>0.99717874169947496</v>
+        <v>0.99875421900529715</v>
       </c>
     </row>
     <row r="13" spans="2:58" x14ac:dyDescent="0.3">
@@ -5065,10 +5065,10 @@
         <v>0</v>
       </c>
       <c r="E13" s="17">
-        <v>48627</v>
+        <v>48629</v>
       </c>
       <c r="F13" s="17">
-        <v>46696</v>
+        <v>46727</v>
       </c>
       <c r="H13" s="3">
         <v>15</v>
@@ -5084,7 +5084,7 @@
       </c>
       <c r="L13" s="7">
         <f t="shared" ref="L13:L25" si="18">F13/E12</f>
-        <v>1.0473477627004597</v>
+        <v>1.0479960526610896</v>
       </c>
       <c r="N13" s="3" t="s">
         <v>29</v>
@@ -5195,15 +5195,15 @@
       </c>
       <c r="AV13" s="25">
         <f t="shared" si="13"/>
-        <v>48391.462001648666</v>
+        <v>48498.969046537008</v>
       </c>
       <c r="AW13" s="25">
         <f t="shared" si="14"/>
-        <v>50620.134081660544</v>
+        <v>50786.970631009775</v>
       </c>
       <c r="AX13" s="25">
         <f t="shared" si="15"/>
-        <v>51183.098479213862</v>
+        <v>51349.615530400835</v>
       </c>
       <c r="AZ13" s="3">
         <v>15</v>
@@ -5219,15 +5219,15 @@
       </c>
       <c r="BD13" s="24">
         <f t="shared" si="4"/>
-        <v>1.0473889009490642</v>
+        <v>1.0480371909096942</v>
       </c>
       <c r="BE13" s="24">
         <f t="shared" si="16"/>
-        <v>1.0474276710212256</v>
+        <v>1.0480759609818557</v>
       </c>
       <c r="BF13" s="24">
         <f t="shared" si="17"/>
-        <v>1.0474642077412981</v>
+        <v>1.0481124977019278</v>
       </c>
     </row>
     <row r="14" spans="2:58" x14ac:dyDescent="0.3">
@@ -5241,10 +5241,10 @@
         <v>0</v>
       </c>
       <c r="E14" s="17">
-        <v>52945</v>
+        <v>52946</v>
       </c>
       <c r="F14" s="17">
-        <v>52617</v>
+        <v>52618</v>
       </c>
       <c r="H14" s="3">
         <v>20</v>
@@ -5260,7 +5260,7 @@
       </c>
       <c r="L14" s="7">
         <f t="shared" si="18"/>
-        <v>1.0820531803319144</v>
+        <v>1.0820292418104422</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>27</v>
@@ -5371,15 +5371,15 @@
       </c>
       <c r="AV14" s="25">
         <f t="shared" si="13"/>
-        <v>50530.92215903652</v>
+        <v>50563.349467479551</v>
       </c>
       <c r="AW14" s="25">
         <f t="shared" si="14"/>
-        <v>52368.913173614768</v>
+        <v>52484.095577503809</v>
       </c>
       <c r="AX14" s="25">
         <f t="shared" si="15"/>
-        <v>54784.009490275559</v>
+        <v>54963.353798245509</v>
       </c>
       <c r="AZ14" s="3">
         <v>20</v>
@@ -5395,15 +5395,15 @@
       </c>
       <c r="BD14" s="24">
         <f t="shared" si="4"/>
-        <v>1.0821252818022211</v>
+        <v>1.0821013432807489</v>
       </c>
       <c r="BE14" s="24">
         <f t="shared" si="16"/>
-        <v>1.0821932425151899</v>
+        <v>1.0821693039937177</v>
       </c>
       <c r="BF14" s="24">
         <f t="shared" si="17"/>
-        <v>1.0822572971043072</v>
+        <v>1.082233358582835</v>
       </c>
     </row>
     <row r="15" spans="2:58" x14ac:dyDescent="0.3">
@@ -5417,10 +5417,10 @@
         <v>0</v>
       </c>
       <c r="E15" s="17">
-        <v>57334</v>
+        <v>57329</v>
       </c>
       <c r="F15" s="17">
-        <v>67111</v>
+        <v>67091</v>
       </c>
       <c r="H15" s="3">
         <v>25</v>
@@ -5436,7 +5436,7 @@
       </c>
       <c r="L15" s="7">
         <f t="shared" si="18"/>
-        <v>1.2675606761733875</v>
+        <v>1.2671589921807125</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>28</v>
@@ -5547,15 +5547,15 @@
       </c>
       <c r="AV15" s="25">
         <f t="shared" si="13"/>
-        <v>66700.375149166575</v>
+        <v>66680.506999109188</v>
       </c>
       <c r="AW15" s="25">
         <f t="shared" si="14"/>
-        <v>64060.590387305143</v>
+        <v>64081.38962835553</v>
       </c>
       <c r="AX15" s="25">
         <f t="shared" si="15"/>
-        <v>66395.245982189546</v>
+        <v>66520.196474989352</v>
       </c>
       <c r="AZ15" s="3">
         <v>25</v>
@@ -5571,15 +5571,15 @@
       </c>
       <c r="BD15" s="24">
         <f t="shared" si="4"/>
-        <v>1.2676582691747262</v>
+        <v>1.2672565851820516</v>
       </c>
       <c r="BE15" s="24">
         <f t="shared" si="16"/>
-        <v>1.267750273499592</v>
+        <v>1.267348589506917</v>
       </c>
       <c r="BF15" s="24">
         <f t="shared" si="17"/>
-        <v>1.2678370040270708</v>
+        <v>1.2674353200343957</v>
       </c>
     </row>
     <row r="16" spans="2:58" x14ac:dyDescent="0.3">
@@ -5593,10 +5593,10 @@
         <v>0</v>
       </c>
       <c r="E16" s="17">
-        <v>58480</v>
+        <v>58479</v>
       </c>
       <c r="F16" s="17">
-        <v>67876</v>
+        <v>67836</v>
       </c>
       <c r="H16" s="3">
         <v>30</v>
@@ -5612,7 +5612,7 @@
       </c>
       <c r="L16" s="7">
         <f t="shared" si="18"/>
-        <v>1.1838699550005232</v>
+        <v>1.1832754801234977</v>
       </c>
       <c r="N16" s="36"/>
       <c r="O16" s="38"/>
@@ -5719,15 +5719,15 @@
       </c>
       <c r="AV16" s="25">
         <f t="shared" si="13"/>
-        <v>79458.900376011399</v>
+        <v>79395.336618084024</v>
       </c>
       <c r="AW16" s="25">
         <f t="shared" si="14"/>
-        <v>78980.412404383867</v>
+        <v>78917.24649330588</v>
       </c>
       <c r="AX16" s="25">
         <f t="shared" si="15"/>
-        <v>75861.586280713425</v>
+        <v>75848.122301837691</v>
       </c>
       <c r="AZ16" s="3">
         <v>30</v>
@@ -5743,15 +5743,15 @@
       </c>
       <c r="BD16" s="24">
         <f t="shared" si="4"/>
-        <v>1.1839921976428811</v>
+        <v>1.1833977227658556</v>
       </c>
       <c r="BE16" s="24">
         <f t="shared" si="16"/>
-        <v>1.184107469077267</v>
+        <v>1.1835129942002416</v>
       </c>
       <c r="BF16" s="24">
         <f t="shared" si="17"/>
-        <v>1.1842161588280784</v>
+        <v>1.1836216839510527</v>
       </c>
     </row>
     <row r="17" spans="2:58" x14ac:dyDescent="0.3">
@@ -5765,10 +5765,10 @@
         <v>0</v>
       </c>
       <c r="E17" s="17">
-        <v>58057</v>
+        <v>58051</v>
       </c>
       <c r="F17" s="17">
-        <v>62242</v>
+        <v>62254</v>
       </c>
       <c r="H17" s="3">
         <v>35</v>
@@ -5784,7 +5784,7 @@
       </c>
       <c r="L17" s="7">
         <f t="shared" si="18"/>
-        <v>1.064329685362517</v>
+        <v>1.0645530874330957</v>
       </c>
       <c r="N17" s="37"/>
       <c r="O17" s="37"/>
@@ -5891,15 +5891,15 @@
       </c>
       <c r="AV17" s="25">
         <f t="shared" si="13"/>
-        <v>72253.839720891643</v>
+        <v>72226.41451938411</v>
       </c>
       <c r="AW17" s="25">
         <f t="shared" si="14"/>
-        <v>84596.396060517538</v>
+        <v>84546.459606034987</v>
       </c>
       <c r="AX17" s="25">
         <f t="shared" si="15"/>
-        <v>84098.771366005676</v>
+        <v>84049.142237670414</v>
       </c>
       <c r="AZ17" s="3">
         <v>35</v>
@@ -5915,15 +5915,15 @@
       </c>
       <c r="BD17" s="24">
         <f t="shared" si="4"/>
-        <v>1.0644976091827987</v>
+        <v>1.0647210112533774</v>
       </c>
       <c r="BE17" s="24">
         <f t="shared" si="16"/>
-        <v>1.064656012859412</v>
+        <v>1.0648794149299907</v>
       </c>
       <c r="BF17" s="24">
         <f t="shared" si="17"/>
-        <v>1.0648054220762426</v>
+        <v>1.0650288241468213</v>
       </c>
     </row>
     <row r="18" spans="2:58" x14ac:dyDescent="0.3">
@@ -5937,10 +5937,10 @@
         <v>0</v>
       </c>
       <c r="E18" s="17">
-        <v>56470</v>
+        <v>56464</v>
       </c>
       <c r="F18" s="17">
-        <v>59426</v>
+        <v>59417</v>
       </c>
       <c r="H18" s="3">
         <v>40</v>
@@ -5956,7 +5956,7 @@
       </c>
       <c r="L18" s="7">
         <f t="shared" si="18"/>
-        <v>1.0235802745577622</v>
+        <v>1.0235310330571394</v>
       </c>
       <c r="Q18" s="3">
         <v>40</v>
@@ -6061,15 +6061,15 @@
       </c>
       <c r="AV18" s="25">
         <f t="shared" si="13"/>
-        <v>63725.537403050716</v>
+        <v>63734.757942542361</v>
       </c>
       <c r="AW18" s="25">
         <f t="shared" si="14"/>
-        <v>73993.379511971769</v>
+        <v>73961.737500846852</v>
       </c>
       <c r="AX18" s="25">
         <f t="shared" si="15"/>
-        <v>86652.280480513655</v>
+        <v>86596.967262310558</v>
       </c>
       <c r="AZ18" s="3">
         <v>40</v>
@@ -6085,15 +6085,15 @@
       </c>
       <c r="BD18" s="24">
         <f t="shared" si="4"/>
-        <v>1.0238349892845782</v>
+        <v>1.0237857477839554</v>
       </c>
       <c r="BE18" s="24">
         <f t="shared" si="16"/>
-        <v>1.0240753958239419</v>
+        <v>1.0240261543233191</v>
       </c>
       <c r="BF18" s="24">
         <f t="shared" si="17"/>
-        <v>1.0243022695497028</v>
+        <v>1.02425302804908</v>
       </c>
     </row>
     <row r="19" spans="2:58" x14ac:dyDescent="0.3">
@@ -6107,10 +6107,10 @@
         <v>0</v>
       </c>
       <c r="E19" s="17">
-        <v>57773</v>
+        <v>57769</v>
       </c>
       <c r="F19" s="17">
-        <v>56506</v>
+        <v>56432</v>
       </c>
       <c r="H19" s="3">
         <v>45</v>
@@ -6126,7 +6126,7 @@
       </c>
       <c r="L19" s="7">
         <f t="shared" si="18"/>
-        <v>1.0006375066406941</v>
+        <v>0.99943326721450831</v>
       </c>
       <c r="Q19" s="3">
         <v>45</v>
@@ -6231,15 +6231,15 @@
       </c>
       <c r="AV19" s="25">
         <f t="shared" si="13"/>
-        <v>59488.10371849822</v>
+        <v>59407.542018975131</v>
       </c>
       <c r="AW19" s="25">
         <f t="shared" si="14"/>
-        <v>63816.668501827393</v>
+        <v>63749.15031887572</v>
       </c>
       <c r="AX19" s="25">
         <f t="shared" si="15"/>
-        <v>74126.100055012823</v>
+        <v>74005.333647875726</v>
       </c>
       <c r="AZ19" s="3">
         <v>45</v>
@@ -6255,15 +6255,15 @@
       </c>
       <c r="BD19" s="24">
         <f t="shared" si="4"/>
-        <v>1.0010450597128904</v>
+        <v>0.99984082028670462</v>
       </c>
       <c r="BE19" s="24">
         <f t="shared" si="16"/>
-        <v>1.0014300561829756</v>
+        <v>1.0002258167567897</v>
       </c>
       <c r="BF19" s="24">
         <f t="shared" si="17"/>
-        <v>1.0017936813254973</v>
+        <v>1.0005894418993115</v>
       </c>
     </row>
     <row r="20" spans="2:58" x14ac:dyDescent="0.3">
@@ -6277,10 +6277,10 @@
         <v>0</v>
       </c>
       <c r="E20" s="17">
-        <v>55277</v>
+        <v>55272</v>
       </c>
       <c r="F20" s="17">
-        <v>57578</v>
+        <v>57521</v>
       </c>
       <c r="H20" s="3">
         <v>50</v>
@@ -6296,7 +6296,7 @@
       </c>
       <c r="L20" s="7">
         <f t="shared" si="18"/>
-        <v>0.99662472089038134</v>
+        <v>0.99570704010801636</v>
       </c>
       <c r="Q20" s="3">
         <v>50</v>
@@ -6401,15 +6401,15 @@
       </c>
       <c r="AV20" s="25">
         <f t="shared" si="13"/>
-        <v>56351.921372438548</v>
+        <v>56226.336591196363</v>
       </c>
       <c r="AW20" s="25">
         <f t="shared" si="14"/>
-        <v>59362.387439058017</v>
+        <v>59227.478831030778</v>
       </c>
       <c r="AX20" s="25">
         <f t="shared" si="15"/>
-        <v>63718.828918728461</v>
+        <v>63592.912880142387</v>
       </c>
       <c r="AZ20" s="3">
         <v>50</v>
@@ -6425,15 +6425,15 @@
       </c>
       <c r="BD20" s="24">
         <f t="shared" si="4"/>
-        <v>0.9972732342129782</v>
+        <v>0.99635555343061322</v>
       </c>
       <c r="BE20" s="24">
         <f t="shared" si="16"/>
-        <v>0.99788669882578374</v>
+        <v>0.99696901804341875</v>
       </c>
       <c r="BF20" s="24">
         <f t="shared" si="17"/>
-        <v>0.99846686476439728</v>
+        <v>0.99754918398203229</v>
       </c>
     </row>
     <row r="21" spans="2:58" x14ac:dyDescent="0.3">
@@ -6447,10 +6447,10 @@
         <v>0</v>
       </c>
       <c r="E21" s="17">
-        <v>49350</v>
+        <v>49347</v>
       </c>
       <c r="F21" s="17">
-        <v>54766</v>
+        <v>54717</v>
       </c>
       <c r="H21" s="3">
         <v>55</v>
@@ -6466,7 +6466,7 @@
       </c>
       <c r="L21" s="7">
         <f t="shared" si="18"/>
-        <v>0.99075564882319955</v>
+        <v>0.98995874945722973</v>
       </c>
       <c r="Q21" s="3">
         <v>55</v>
@@ -6571,15 +6571,15 @@
       </c>
       <c r="AV21" s="25">
         <f t="shared" si="13"/>
-        <v>57101.500813081955</v>
+        <v>56999.134080474963</v>
       </c>
       <c r="AW21" s="25">
         <f t="shared" si="14"/>
-        <v>55937.305853130412</v>
+        <v>55767.838343881915</v>
       </c>
       <c r="AX21" s="25">
         <f t="shared" si="15"/>
-        <v>58977.261682943412</v>
+        <v>58796.029982062006</v>
       </c>
       <c r="AZ21" s="3">
         <v>55</v>
@@ -6595,15 +6595,15 @@
       </c>
       <c r="BD21" s="24">
         <f t="shared" si="4"/>
-        <v>0.99172428380773825</v>
+        <v>0.99092738444176842</v>
       </c>
       <c r="BE21" s="24">
         <f t="shared" si="16"/>
-        <v>0.99264238895125012</v>
+        <v>0.99184548958528029</v>
       </c>
       <c r="BF21" s="24">
         <f t="shared" si="17"/>
-        <v>0.99351229334382851</v>
+        <v>0.99271539397785868</v>
       </c>
     </row>
     <row r="22" spans="2:58" x14ac:dyDescent="0.3">
@@ -6620,7 +6620,7 @@
         <v>41839</v>
       </c>
       <c r="F22" s="17">
-        <v>47753</v>
+        <v>47717</v>
       </c>
       <c r="H22" s="3">
         <v>60</v>
@@ -6636,7 +6636,7 @@
       </c>
       <c r="L22" s="7">
         <f t="shared" si="18"/>
-        <v>0.96763931104356637</v>
+        <v>0.96696861004721668</v>
       </c>
       <c r="Q22" s="3">
         <v>60</v>
@@ -6741,15 +6741,15 @@
       </c>
       <c r="AV22" s="25">
         <f t="shared" si="13"/>
-        <v>53069.915718534103</v>
+        <v>52985.734485351175</v>
       </c>
       <c r="AW22" s="25">
         <f t="shared" si="14"/>
-        <v>55408.595147189182</v>
+        <v>55271.033936405991</v>
       </c>
       <c r="AX22" s="25">
         <f t="shared" si="15"/>
-        <v>54349.197038653474</v>
+        <v>54147.137314796375</v>
       </c>
       <c r="AZ22" s="3">
         <v>60</v>
@@ -6765,15 +6765,15 @@
       </c>
       <c r="BD22" s="24">
         <f t="shared" si="4"/>
-        <v>0.96903034215633976</v>
+        <v>0.96835964115999007</v>
       </c>
       <c r="BE22" s="24">
         <f t="shared" si="16"/>
-        <v>0.97035269403103097</v>
+        <v>0.96968199303468139</v>
       </c>
       <c r="BF22" s="24">
         <f t="shared" si="17"/>
-        <v>0.97160912935909549</v>
+        <v>0.97093842836274569</v>
       </c>
     </row>
     <row r="23" spans="2:58" x14ac:dyDescent="0.3">
@@ -6787,10 +6787,10 @@
         <v>0</v>
       </c>
       <c r="E23" s="17">
-        <v>28452</v>
+        <v>28449</v>
       </c>
       <c r="F23" s="17">
-        <v>39460</v>
+        <v>39461</v>
       </c>
       <c r="H23" s="3">
         <v>65</v>
@@ -6806,7 +6806,7 @@
       </c>
       <c r="L23" s="7">
         <f t="shared" si="18"/>
-        <v>0.94313917636654798</v>
+        <v>0.94316307751141282</v>
       </c>
       <c r="Q23" s="3">
         <v>65</v>
@@ -6911,15 +6911,15 @@
       </c>
       <c r="AV23" s="25">
         <f t="shared" si="13"/>
-        <v>45132.274744552735</v>
+        <v>45099.39094610139</v>
       </c>
       <c r="AW23" s="25">
         <f t="shared" si="14"/>
-        <v>50257.707038034234</v>
+        <v>50179.253041801916</v>
       </c>
       <c r="AX23" s="25">
         <f t="shared" si="15"/>
-        <v>52572.374802137005</v>
+        <v>52443.176029145485</v>
       </c>
       <c r="AZ23" s="3">
         <v>65</v>
@@ -6935,15 +6935,15 @@
       </c>
       <c r="BD23" s="24">
         <f t="shared" si="4"/>
-        <v>0.94511914946815356</v>
+        <v>0.94514305061301818</v>
       </c>
       <c r="BE23" s="24">
         <f t="shared" si="16"/>
-        <v>0.94700936222671006</v>
+        <v>0.9470332633715749</v>
       </c>
       <c r="BF23" s="24">
         <f t="shared" si="17"/>
-        <v>0.94881262848267589</v>
+        <v>0.94883652962754061</v>
       </c>
     </row>
     <row r="24" spans="2:58" x14ac:dyDescent="0.3">
@@ -6957,10 +6957,10 @@
         <v>0</v>
       </c>
       <c r="E24" s="17">
-        <v>20869</v>
+        <v>20868</v>
       </c>
       <c r="F24" s="17">
-        <v>26318</v>
+        <v>26354</v>
       </c>
       <c r="H24" s="3">
         <v>70</v>
@@ -6976,7 +6976,7 @@
       </c>
       <c r="L24" s="7">
         <f t="shared" si="18"/>
-        <v>0.92499648530858991</v>
+        <v>0.92635945024429678</v>
       </c>
       <c r="Q24" s="3">
         <v>70</v>
@@ -7081,15 +7081,15 @@
       </c>
       <c r="AV24" s="25">
         <f t="shared" si="13"/>
-        <v>36612.947450678228</v>
+        <v>36667.659259662789</v>
       </c>
       <c r="AW24" s="25">
         <f t="shared" si="14"/>
-        <v>41999.690136924859</v>
+        <v>42030.557657464924</v>
       </c>
       <c r="AX24" s="25">
         <f t="shared" si="15"/>
-        <v>46901.621742139738</v>
+        <v>46896.799272010161</v>
       </c>
       <c r="AZ24" s="3">
         <v>70</v>
@@ -7105,15 +7105,15 @@
       </c>
       <c r="BD24" s="24">
         <f t="shared" si="4"/>
-        <v>0.92784965663148067</v>
+        <v>0.92921262156718754</v>
       </c>
       <c r="BE24" s="24">
         <f t="shared" si="16"/>
-        <v>0.9305910321303722</v>
+        <v>0.93195399706607895</v>
       </c>
       <c r="BF24" s="24">
         <f t="shared" si="17"/>
-        <v>0.93322247484640186</v>
+        <v>0.93458543978210873</v>
       </c>
     </row>
     <row r="25" spans="2:58" x14ac:dyDescent="0.3">
@@ -7127,10 +7127,10 @@
         <v>0</v>
       </c>
       <c r="E25" s="17">
-        <v>16595</v>
+        <v>16597</v>
       </c>
       <c r="F25" s="17">
-        <v>18824</v>
+        <v>18855</v>
       </c>
       <c r="H25" s="3">
         <v>75</v>
@@ -7146,7 +7146,7 @@
       </c>
       <c r="L25" s="7">
         <f t="shared" si="18"/>
-        <v>0.90200776271024008</v>
+        <v>0.90353651523864287</v>
       </c>
       <c r="Q25" s="3">
         <v>75</v>
@@ -7251,15 +7251,15 @@
       </c>
       <c r="AV25" s="25">
         <f t="shared" si="13"/>
-        <v>23848.22066491998</v>
+        <v>23921.131034706563</v>
       </c>
       <c r="AW25" s="25">
         <f t="shared" si="14"/>
-        <v>33324.42255074589</v>
+        <v>33430.275996627657</v>
       </c>
       <c r="AX25" s="25">
         <f t="shared" si="15"/>
-        <v>38391.152294858453</v>
+        <v>38483.622054836545</v>
       </c>
       <c r="AZ25" s="3">
         <v>75</v>
@@ -7275,15 +7275,15 @@
       </c>
       <c r="BD25" s="24">
         <f t="shared" si="4"/>
-        <v>0.90615626814043548</v>
+        <v>0.90768502066883827</v>
       </c>
       <c r="BE25" s="24">
         <f t="shared" si="16"/>
-        <v>0.91018136673201877</v>
+        <v>0.91171011926042145</v>
       </c>
       <c r="BF25" s="24">
         <f t="shared" si="17"/>
-        <v>0.9140817984537013</v>
+        <v>0.91561055098210387</v>
       </c>
     </row>
     <row r="26" spans="2:58" x14ac:dyDescent="0.3">
@@ -7297,10 +7297,10 @@
         <v>0</v>
       </c>
       <c r="E26" s="17">
-        <v>14171</v>
+        <v>14166</v>
       </c>
       <c r="F26" s="17">
-        <v>14228</v>
+        <v>14284</v>
       </c>
       <c r="H26" s="3">
         <v>80</v>
@@ -7316,7 +7316,7 @@
       </c>
       <c r="L26" s="7">
         <f>F26/E25</f>
-        <v>0.85736667670985234</v>
+        <v>0.86063746460203649</v>
       </c>
       <c r="Q26" s="3">
         <v>80</v>
@@ -7421,15 +7421,15 @@
       </c>
       <c r="AV26" s="25">
         <f t="shared" si="13"/>
-        <v>16246.900685861385</v>
+        <v>16335.327337236904</v>
       </c>
       <c r="AW26" s="25">
         <f t="shared" si="14"/>
-        <v>20717.727662427635</v>
+        <v>20859.308226104033</v>
       </c>
       <c r="AX26" s="25">
         <f t="shared" si="15"/>
-        <v>29134.628696349198</v>
+        <v>29336.516802959493</v>
       </c>
       <c r="AZ26" s="3">
         <v>80</v>
@@ -7445,15 +7445,15 @@
       </c>
       <c r="BD26" s="24">
         <f t="shared" si="4"/>
-        <v>0.86309502156084705</v>
+        <v>0.86636580945303121</v>
       </c>
       <c r="BE26" s="24">
         <f t="shared" si="16"/>
-        <v>0.86873263852773697</v>
+        <v>0.87200342641992101</v>
       </c>
       <c r="BF26" s="24">
         <f t="shared" si="17"/>
-        <v>0.87427257447547535</v>
+        <v>0.87754336236765951</v>
       </c>
     </row>
     <row r="27" spans="2:58" x14ac:dyDescent="0.3">
@@ -7467,10 +7467,10 @@
         <v>0</v>
       </c>
       <c r="E27" s="17">
-        <v>16646</v>
+        <v>16643</v>
       </c>
       <c r="F27" s="17">
-        <v>18923</v>
+        <v>18859</v>
       </c>
       <c r="H27" s="3">
         <v>85</v>
@@ -7486,7 +7486,7 @@
       </c>
       <c r="L27" s="7">
         <f>F27/(E26+E27)</f>
-        <v>0.6140441963851121</v>
+        <v>0.61212632672271095</v>
       </c>
       <c r="Q27" s="3">
         <v>85</v>
@@ -7591,15 +7591,15 @@
       </c>
       <c r="AV27" s="25">
         <f>(F26+F27)*((L27-$AN27)*O$13+AO27)+(U27)</f>
-        <v>20486.459018012716</v>
+        <v>20417.951271081307</v>
       </c>
       <c r="AW27" s="25">
         <f>(AV26+AV27)*((L27-$AN27)*O$13+AP27)+(U27)</f>
-        <v>22845.310704710359</v>
+        <v>22787.210725754754</v>
       </c>
       <c r="AX27" s="25">
         <f>(AW26+AW27)*((L27-$AN27)*O$13+AQ27)+(U27)</f>
-        <v>27265.48836013339</v>
+        <v>27234.029340497338</v>
       </c>
       <c r="AZ27" s="3">
         <v>85</v>
@@ -7615,15 +7615,15 @@
       </c>
       <c r="BD27" s="24">
         <f>AV27/(F26+F27)</f>
-        <v>0.61797408880615112</v>
+        <v>0.61605621914374997</v>
       </c>
       <c r="BE27" s="24">
         <f>AW27/(AV26+AV27)</f>
-        <v>0.62192271245749864</v>
+        <v>0.62000484279509749</v>
       </c>
       <c r="BF27" s="24">
         <f>AX27/(AW26+AW27)</f>
-        <v>0.62588582849403018</v>
+        <v>0.62396795883162903</v>
       </c>
     </row>
     <row r="28" spans="2:58" x14ac:dyDescent="0.3">
@@ -7637,10 +7637,10 @@
         <v>11</v>
       </c>
       <c r="E28" s="17">
-        <v>50199</v>
+        <v>50198</v>
       </c>
       <c r="F28" s="17">
-        <v>50205</v>
+        <v>50230</v>
       </c>
       <c r="H28" s="3">
         <v>0</v>
@@ -7656,7 +7656,7 @@
       </c>
       <c r="L28" s="7">
         <f>((B20-B13)/C10)*((F10+F28)/SUM(F13:F19))*(1-O11)</f>
-        <v>0.8520808201244201</v>
+        <v>0.85250240484995465</v>
       </c>
       <c r="Q28" s="3">
         <v>0</v>
@@ -7755,15 +7755,15 @@
       </c>
       <c r="AV28" s="25">
         <f>(IF(AND(O10&lt;&gt;".",O10&lt;&gt;""),O10*(1-O11),L28))*((SUM(AV13:AV19)/(AS20-AS13)*(AT10)))</f>
-        <v>53626.210423780765</v>
+        <v>53647.595952109601</v>
       </c>
       <c r="AW28" s="25">
         <f>(IF(AND(O10&lt;&gt;".",O10&lt;&gt;""),O10*(1-O11),L28))*((SUM(AW13:AW19)/(AS20-AS13)*(AT10)))</f>
-        <v>57020.821726724185</v>
+        <v>57060.062379169554</v>
       </c>
       <c r="AX28" s="25">
         <f>(IF(AND(O10&lt;&gt;".",O10&lt;&gt;""),O10*(1-O11),L28))*((SUM(AX13:AX19)/(AS20-AS13)*(AT10)))</f>
-        <v>60023.140427103084</v>
+        <v>60081.048540665761</v>
       </c>
       <c r="AZ28" s="3">
         <v>0</v>
@@ -7779,15 +7779,15 @@
       </c>
       <c r="BD28" s="24">
         <f>(AV28)/((SUM(AV13:AV19)/(AS20-AS13)*(AT10)))</f>
-        <v>0.8520808201244201</v>
+        <v>0.85250240484995465</v>
       </c>
       <c r="BE28" s="24">
         <f>(AW28)/((SUM(AW13:AW19)/(AS20-AS13)*(AT10)))</f>
-        <v>0.8520808201244201</v>
+        <v>0.85250240484995465</v>
       </c>
       <c r="BF28" s="24">
         <f>(AX28)/((SUM(AX13:AX19)/(AS20-AS13)*(AT10)))</f>
-        <v>0.8520808201244201</v>
+        <v>0.85250240484995465</v>
       </c>
     </row>
     <row r="29" spans="2:58" x14ac:dyDescent="0.3">
@@ -7801,10 +7801,10 @@
         <v>11</v>
       </c>
       <c r="E29" s="17">
-        <v>48153</v>
+        <v>48154</v>
       </c>
       <c r="F29" s="17">
-        <v>50598</v>
+        <v>50663</v>
       </c>
       <c r="H29" s="3">
         <v>5</v>
@@ -7820,7 +7820,7 @@
       </c>
       <c r="L29" s="7">
         <f>F29/E28</f>
-        <v>1.007948365505289</v>
+        <v>1.0092633172636361</v>
       </c>
       <c r="Q29" s="3">
         <v>5</v>
@@ -7918,15 +7918,15 @@
       </c>
       <c r="AV29" s="25">
         <f>(F28)*((L29-$AN34)*O$13+AO34)+(U29)</f>
-        <v>50612.721770124546</v>
+        <v>50703.974825414662</v>
       </c>
       <c r="AW29" s="25">
         <f>(AV28)*((L29-$AN34)*O$13+AP34)+(U29)</f>
-        <v>54070.445093681497</v>
+        <v>54162.55177841831</v>
       </c>
       <c r="AX29" s="25">
         <f>(AW28)*((L29-$AN34)*O$13+AQ34)+(U29)</f>
-        <v>57501.920850926457</v>
+        <v>57616.5238160585</v>
       </c>
       <c r="AZ29" s="3">
         <v>5</v>
@@ -7942,15 +7942,15 @@
       </c>
       <c r="BD29" s="24">
         <f t="shared" ref="BD29:BD44" si="19">AV29/F28</f>
-        <v>1.0081211387336828</v>
+        <v>1.0094360904920299</v>
       </c>
       <c r="BE29" s="24">
         <f>AW29/AV28</f>
-        <v>1.0082839094239584</v>
+        <v>1.0095988611823055</v>
       </c>
       <c r="BF29" s="24">
         <f>AX29/AW28</f>
-        <v>1.0084372534388923</v>
+        <v>1.0097522051972394</v>
       </c>
     </row>
     <row r="30" spans="2:58" x14ac:dyDescent="0.3">
@@ -7964,10 +7964,10 @@
         <v>11</v>
       </c>
       <c r="E30" s="17">
-        <v>46397</v>
+        <v>46396</v>
       </c>
       <c r="F30" s="17">
-        <v>48033</v>
+        <v>48080</v>
       </c>
       <c r="H30" s="3">
         <v>10</v>
@@ -7983,7 +7983,7 @@
       </c>
       <c r="L30" s="7">
         <f>F30/E29</f>
-        <v>0.9975079434303159</v>
+        <v>0.9984632636956432</v>
       </c>
       <c r="Q30" s="3">
         <v>10</v>
@@ -8083,15 +8083,15 @@
       </c>
       <c r="AV30" s="25">
         <f t="shared" ref="AV30:AV44" si="20">(F29)*((L30-$AN35)*O$13+AO35)+(U30)</f>
-        <v>50473.50332396305</v>
+        <v>50586.742781683744</v>
       </c>
       <c r="AW30" s="25">
         <f t="shared" ref="AW30:AW43" si="21">(AV29)*((L30-$AN35)*O$13+AP35)+(U30)</f>
-        <v>50489.693820179906</v>
+        <v>50629.163594848345</v>
       </c>
       <c r="AX30" s="25">
         <f t="shared" ref="AX30:AX44" si="22">(AW29)*((L30-$AN35)*O$13+AQ35)+(U30)</f>
-        <v>53940.527364682945</v>
+        <v>54084.155323474894</v>
       </c>
       <c r="AZ30" s="3">
         <v>10</v>
@@ -8107,15 +8107,15 @@
       </c>
       <c r="BD30" s="24">
         <f t="shared" si="19"/>
-        <v>0.99753949412947251</v>
+        <v>0.99849481439479981</v>
       </c>
       <c r="BE30" s="24">
         <f t="shared" ref="BE30:BE44" si="23">AW30/AV29</f>
-        <v>0.99756922873060616</v>
+        <v>0.99852454899593357</v>
       </c>
       <c r="BF30" s="24">
         <f t="shared" ref="BF30:BF44" si="24">AX30/AW29</f>
-        <v>0.99759725060939564</v>
+        <v>0.99855257087472282</v>
       </c>
     </row>
     <row r="31" spans="2:58" x14ac:dyDescent="0.3">
@@ -8132,7 +8132,7 @@
         <v>51061</v>
       </c>
       <c r="F31" s="17">
-        <v>47406</v>
+        <v>47469</v>
       </c>
       <c r="H31" s="3">
         <v>15</v>
@@ -8148,7 +8148,7 @@
       </c>
       <c r="L31" s="7">
         <f t="shared" ref="L31:L43" si="25">F31/E30</f>
-        <v>1.0217470957173955</v>
+        <v>1.0231269937063541</v>
       </c>
       <c r="M31" s="6"/>
       <c r="N31" s="6"/>
@@ -8251,15 +8251,15 @@
       </c>
       <c r="AV31" s="25">
         <f t="shared" si="20"/>
-        <v>49082.064546715708</v>
+        <v>49196.436545339129</v>
       </c>
       <c r="AW31" s="25">
         <f t="shared" si="21"/>
-        <v>51580.313821268734</v>
+        <v>51765.841000185006</v>
       </c>
       <c r="AX31" s="25">
         <f t="shared" si="22"/>
-        <v>51601.049980789423</v>
+        <v>51813.452781687105</v>
       </c>
       <c r="AZ31" s="3">
         <v>15</v>
@@ -8275,15 +8275,15 @@
       </c>
       <c r="BD31" s="24">
         <f t="shared" si="19"/>
-        <v>1.0218404960488769</v>
+        <v>1.0232203940378355</v>
       </c>
       <c r="BE31" s="24">
         <f t="shared" si="23"/>
-        <v>1.0219285451656019</v>
+        <v>1.0233084431545607</v>
       </c>
       <c r="BF31" s="24">
         <f t="shared" si="24"/>
-        <v>1.0220115448623561</v>
+        <v>1.0233914428513147</v>
       </c>
     </row>
     <row r="32" spans="2:58" x14ac:dyDescent="0.3">
@@ -8297,10 +8297,10 @@
         <v>11</v>
       </c>
       <c r="E32" s="17">
-        <v>54588</v>
+        <v>54592</v>
       </c>
       <c r="F32" s="17">
-        <v>53270</v>
+        <v>53252</v>
       </c>
       <c r="H32" s="3">
         <v>20</v>
@@ -8316,7 +8316,7 @@
       </c>
       <c r="L32" s="7">
         <f t="shared" si="25"/>
-        <v>1.0432619807681009</v>
+        <v>1.0429094612326433</v>
       </c>
       <c r="M32" s="6"/>
       <c r="N32" s="6"/>
@@ -8415,15 +8415,15 @@
       </c>
       <c r="AV32" s="25">
         <f t="shared" si="20"/>
-        <v>49467.001612089749</v>
+        <v>49516.006821497525</v>
       </c>
       <c r="AW32" s="25">
         <f t="shared" si="21"/>
-        <v>51225.819752676405</v>
+        <v>51327.844467169612</v>
       </c>
       <c r="AX32" s="25">
         <f t="shared" si="22"/>
-        <v>53842.982083992472</v>
+        <v>54018.399294151917</v>
       </c>
       <c r="AZ32" s="3">
         <v>20</v>
@@ -8439,15 +8439,15 @@
       </c>
       <c r="BD32" s="24">
         <f t="shared" si="19"/>
-        <v>1.0434755434352139</v>
+        <v>1.0431230238997562</v>
       </c>
       <c r="BE32" s="24">
         <f t="shared" si="23"/>
-        <v>1.0436769566593984</v>
+        <v>1.0433244371239407</v>
       </c>
       <c r="BF32" s="24">
         <f t="shared" si="24"/>
-        <v>1.0438668960131596</v>
+        <v>1.043514376477702</v>
       </c>
     </row>
     <row r="33" spans="2:58" x14ac:dyDescent="0.3">
@@ -8461,10 +8461,10 @@
         <v>11</v>
       </c>
       <c r="E33" s="17">
-        <v>56249</v>
+        <v>56246</v>
       </c>
       <c r="F33" s="17">
-        <v>67180</v>
+        <v>67079</v>
       </c>
       <c r="H33" s="3">
         <v>25</v>
@@ -8480,7 +8480,7 @@
       </c>
       <c r="L33" s="7">
         <f>F33/E32</f>
-        <v>1.2306734080750348</v>
+        <v>1.2287331477139507</v>
       </c>
       <c r="Q33" s="3">
         <v>25</v>
@@ -8573,15 +8573,15 @@
       </c>
       <c r="AV33" s="25">
         <f t="shared" si="20"/>
-        <v>65572.737767739498</v>
+        <v>65447.257912425644</v>
       </c>
       <c r="AW33" s="25">
         <f t="shared" si="21"/>
-        <v>60904.371268513794</v>
+        <v>60868.633130354639</v>
       </c>
       <c r="AX33" s="25">
         <f t="shared" si="22"/>
-        <v>63082.487849695572</v>
+        <v>63108.537702781214</v>
       </c>
       <c r="AZ33" s="3">
         <v>25</v>
@@ -8597,15 +8597,15 @@
       </c>
       <c r="BD33" s="24">
         <f t="shared" si="19"/>
-        <v>1.2309505869671391</v>
+        <v>1.229010326606055</v>
       </c>
       <c r="BE33" s="24">
         <f t="shared" si="23"/>
-        <v>1.2312121067315458</v>
+        <v>1.2292718463704617</v>
       </c>
       <c r="BF33" s="24">
         <f t="shared" si="24"/>
-        <v>1.2314588259253711</v>
+        <v>1.2295185655642871</v>
       </c>
     </row>
     <row r="34" spans="2:58" x14ac:dyDescent="0.3">
@@ -8619,10 +8619,10 @@
         <v>11</v>
       </c>
       <c r="E34" s="17">
-        <v>56343</v>
+        <v>56339</v>
       </c>
       <c r="F34" s="17">
-        <v>66418</v>
+        <v>66453</v>
       </c>
       <c r="H34" s="3">
         <v>30</v>
@@ -8638,7 +8638,7 @@
       </c>
       <c r="L34" s="7">
         <f t="shared" si="25"/>
-        <v>1.1807854361855321</v>
+        <v>1.1814706823596344</v>
       </c>
       <c r="Q34" s="3">
         <v>30</v>
@@ -8740,15 +8740,15 @@
       </c>
       <c r="AV34" s="25">
         <f t="shared" si="20"/>
-        <v>79344.896103350868</v>
+        <v>79271.572739108029</v>
       </c>
       <c r="AW34" s="25">
         <f t="shared" si="21"/>
-        <v>77464.773668110371</v>
+        <v>77361.384720593705</v>
       </c>
       <c r="AX34" s="25">
         <f t="shared" si="22"/>
-        <v>71965.709435599842</v>
+        <v>71965.190601506823</v>
       </c>
       <c r="AZ34" s="3">
         <v>30</v>
@@ -8764,15 +8764,15 @@
       </c>
       <c r="BD34" s="24">
         <f t="shared" si="19"/>
-        <v>1.1810791322320759</v>
+        <v>1.1817643784061782</v>
       </c>
       <c r="BE34" s="24">
         <f t="shared" si="23"/>
-        <v>1.1813564036702693</v>
+        <v>1.1820416498443715</v>
       </c>
       <c r="BF34" s="24">
         <f t="shared" si="24"/>
-        <v>1.1816181324378028</v>
+        <v>1.182303378611905</v>
       </c>
     </row>
     <row r="35" spans="2:58" x14ac:dyDescent="0.3">
@@ -8786,10 +8786,10 @@
         <v>11</v>
       </c>
       <c r="E35" s="17">
-        <v>56858</v>
+        <v>56854</v>
       </c>
       <c r="F35" s="17">
-        <v>61878</v>
+        <v>61889</v>
       </c>
       <c r="H35" s="3">
         <v>35</v>
@@ -8805,7 +8805,7 @@
       </c>
       <c r="L35" s="7">
         <f t="shared" si="25"/>
-        <v>1.0982375805335178</v>
+        <v>1.0985108006886881</v>
       </c>
       <c r="Q35" s="3">
         <v>35</v>
@@ -8907,15 +8907,15 @@
       </c>
       <c r="AV35" s="25">
         <f t="shared" si="20"/>
-        <v>72965.015621159313</v>
+        <v>73021.621972025518</v>
       </c>
       <c r="AW35" s="25">
         <f t="shared" si="21"/>
-        <v>87191.289276530428</v>
+        <v>87132.373578013256</v>
       </c>
       <c r="AX35" s="25">
         <f t="shared" si="22"/>
-        <v>85148.42139085618</v>
+        <v>85055.914094186228</v>
       </c>
       <c r="AZ35" s="3">
         <v>35</v>
@@ -8931,15 +8931,15 @@
       </c>
       <c r="BD35" s="24">
         <f t="shared" si="19"/>
-        <v>1.0985729112764508</v>
+        <v>1.0988461314316211</v>
       </c>
       <c r="BE35" s="24">
         <f t="shared" si="23"/>
-        <v>1.0988897025330933</v>
+        <v>1.0991629226882635</v>
       </c>
       <c r="BF35" s="24">
         <f t="shared" si="24"/>
-        <v>1.0991889262552497</v>
+        <v>1.0994621464104199</v>
       </c>
     </row>
     <row r="36" spans="2:58" x14ac:dyDescent="0.3">
@@ -8953,10 +8953,10 @@
         <v>11</v>
       </c>
       <c r="E36" s="17">
-        <v>56145</v>
+        <v>56139</v>
       </c>
       <c r="F36" s="17">
-        <v>58262</v>
+        <v>58248</v>
       </c>
       <c r="H36" s="3">
         <v>40</v>
@@ -8972,7 +8972,7 @@
       </c>
       <c r="L36" s="7">
         <f t="shared" si="25"/>
-        <v>1.0246930950789686</v>
+        <v>1.0245189432581701</v>
       </c>
       <c r="Q36" s="3">
         <v>40</v>
@@ -9074,15 +9074,15 @@
       </c>
       <c r="AV36" s="25">
         <f t="shared" si="20"/>
-        <v>63433.021910283438</v>
+        <v>63433.520263182741</v>
       </c>
       <c r="AW36" s="25">
         <f t="shared" si="21"/>
-        <v>74828.835363065067</v>
+        <v>74874.170819206542</v>
       </c>
       <c r="AX36" s="25">
         <f t="shared" si="22"/>
-        <v>89452.596156489875</v>
+        <v>89376.978217287004</v>
       </c>
       <c r="AZ36" s="3">
         <v>40</v>
@@ -9098,15 +9098,15 @@
       </c>
       <c r="BD36" s="24">
         <f t="shared" si="19"/>
-        <v>1.0251304487909021</v>
+        <v>1.0249562969701036</v>
       </c>
       <c r="BE36" s="24">
         <f t="shared" si="23"/>
-        <v>1.0255440189526288</v>
+        <v>1.0253698671318303</v>
       </c>
       <c r="BF36" s="24">
         <f t="shared" si="24"/>
-        <v>1.0259350090900436</v>
+        <v>1.0257608572692452</v>
       </c>
     </row>
     <row r="37" spans="2:58" x14ac:dyDescent="0.3">
@@ -9120,10 +9120,10 @@
         <v>11</v>
       </c>
       <c r="E37" s="17">
-        <v>56110</v>
+        <v>56108</v>
       </c>
       <c r="F37" s="17">
-        <v>56214</v>
+        <v>56121</v>
       </c>
       <c r="H37" s="3">
         <v>45</v>
@@ -9139,7 +9139,7 @@
       </c>
       <c r="L37" s="7">
         <f t="shared" si="25"/>
-        <v>1.0012289607266898</v>
+        <v>0.99967936728477524</v>
       </c>
       <c r="Q37" s="3">
         <v>45</v>
@@ -9241,15 +9241,15 @@
       </c>
       <c r="AV37" s="25">
         <f t="shared" si="20"/>
-        <v>58372.443817253035</v>
+        <v>58268.156559478884</v>
       </c>
       <c r="AW37" s="25">
         <f t="shared" si="21"/>
-        <v>63593.316654776892</v>
+        <v>63495.520100012654</v>
       </c>
       <c r="AX37" s="25">
         <f t="shared" si="22"/>
-        <v>75062.653242634187</v>
+        <v>74992.105834537142</v>
       </c>
       <c r="AZ37" s="3">
         <v>45</v>
@@ -9265,15 +9265,15 @@
       </c>
       <c r="BD37" s="24">
         <f t="shared" si="19"/>
-        <v>1.0018956406792254</v>
+        <v>1.0003460472373109</v>
       </c>
       <c r="BE37" s="24">
         <f t="shared" si="23"/>
-        <v>1.0025269920881299</v>
+        <v>1.0009773986462154</v>
       </c>
       <c r="BF37" s="24">
         <f t="shared" si="24"/>
-        <v>1.0031247029094419</v>
+        <v>1.0015751094675274</v>
       </c>
     </row>
     <row r="38" spans="2:58" x14ac:dyDescent="0.3">
@@ -9287,10 +9287,10 @@
         <v>11</v>
       </c>
       <c r="E38" s="17">
-        <v>53600</v>
+        <v>53598</v>
       </c>
       <c r="F38" s="17">
-        <v>55622</v>
+        <v>55575</v>
       </c>
       <c r="H38" s="3">
         <v>50</v>
@@ -9306,7 +9306,7 @@
       </c>
       <c r="L38" s="7">
         <f t="shared" si="25"/>
-        <v>0.99130279807520938</v>
+        <v>0.99050046339202968</v>
       </c>
       <c r="Q38" s="3">
         <v>50</v>
@@ -9408,15 +9408,15 @@
       </c>
       <c r="AV38" s="25">
         <f t="shared" si="20"/>
-        <v>55783.408018930844</v>
+        <v>55646.092562166996</v>
       </c>
       <c r="AW38" s="25">
         <f t="shared" si="21"/>
-        <v>57982.787457708466</v>
+        <v>57832.445790709746</v>
       </c>
       <c r="AX38" s="25">
         <f t="shared" si="22"/>
-        <v>63228.205967370799</v>
+        <v>63080.026237621409</v>
       </c>
       <c r="AZ38" s="3">
         <v>50</v>
@@ -9432,15 +9432,15 @@
       </c>
       <c r="BD38" s="24">
         <f t="shared" si="19"/>
-        <v>0.99234012913030289</v>
+        <v>0.99153779444712309</v>
       </c>
       <c r="BE38" s="24">
         <f t="shared" si="23"/>
-        <v>0.99332465228345646</v>
+        <v>0.99252231760027665</v>
       </c>
       <c r="BF38" s="24">
         <f t="shared" si="24"/>
-        <v>0.99425866259833351</v>
+        <v>0.99345632791515381</v>
       </c>
     </row>
     <row r="39" spans="2:58" x14ac:dyDescent="0.3">
@@ -9454,10 +9454,10 @@
         <v>11</v>
       </c>
       <c r="E39" s="17">
-        <v>45956</v>
+        <v>45954</v>
       </c>
       <c r="F39" s="17">
-        <v>52118</v>
+        <v>52093</v>
       </c>
       <c r="H39" s="3">
         <v>55</v>
@@ -9473,7 +9473,7 @@
       </c>
       <c r="L39" s="7">
         <f t="shared" si="25"/>
-        <v>0.9723507462686567</v>
+        <v>0.97192059405201692</v>
       </c>
       <c r="Q39" s="3">
         <v>55</v>
@@ -9575,15 +9575,15 @@
       </c>
       <c r="AV39" s="25">
         <f t="shared" si="20"/>
-        <v>54170.890158150411</v>
+        <v>54101.21062113464</v>
       </c>
       <c r="AW39" s="25">
         <f t="shared" si="21"/>
-        <v>54410.980422093875</v>
+        <v>54253.107018918483</v>
       </c>
       <c r="AX39" s="25">
         <f t="shared" si="22"/>
-        <v>56638.24937235329</v>
+        <v>56466.517159286923</v>
       </c>
       <c r="AZ39" s="3">
         <v>55</v>
@@ -9599,15 +9599,15 @@
       </c>
       <c r="BD39" s="24">
         <f t="shared" si="19"/>
-        <v>0.97391122502158156</v>
+        <v>0.97348107280494178</v>
       </c>
       <c r="BE39" s="24">
         <f t="shared" si="23"/>
-        <v>0.97539720777957462</v>
+        <v>0.97496705556293484</v>
       </c>
       <c r="BF39" s="24">
         <f t="shared" si="24"/>
-        <v>0.97681142724751102</v>
+        <v>0.97638127503087124</v>
       </c>
     </row>
     <row r="40" spans="2:58" x14ac:dyDescent="0.3">
@@ -9621,10 +9621,10 @@
         <v>11</v>
       </c>
       <c r="E40" s="17">
-        <v>37861</v>
+        <v>37859</v>
       </c>
       <c r="F40" s="17">
-        <v>43413</v>
+        <v>43418</v>
       </c>
       <c r="H40" s="3">
         <v>60</v>
@@ -9640,7 +9640,7 @@
       </c>
       <c r="L40" s="7">
         <f t="shared" si="25"/>
-        <v>0.94466446165897811</v>
+        <v>0.94481437959698833</v>
       </c>
       <c r="Q40" s="3">
         <v>60</v>
@@ -9742,15 +9742,15 @@
       </c>
       <c r="AV40" s="25">
         <f t="shared" si="20"/>
-        <v>49348.720783350633</v>
+        <v>49332.85882835641</v>
       </c>
       <c r="AW40" s="25">
         <f t="shared" si="21"/>
-        <v>51406.577385809134</v>
+        <v>51348.564301809754</v>
       </c>
       <c r="AX40" s="25">
         <f t="shared" si="22"/>
-        <v>51743.914139860914</v>
+        <v>51601.912740667933</v>
       </c>
       <c r="AZ40" s="3">
         <v>60</v>
@@ -9766,15 +9766,15 @@
       </c>
       <c r="BD40" s="24">
         <f t="shared" si="19"/>
-        <v>0.9468652055595117</v>
+        <v>0.94701512349752193</v>
       </c>
       <c r="BE40" s="24">
         <f t="shared" si="23"/>
-        <v>0.94897051231259189</v>
+        <v>0.94912043025060211</v>
       </c>
       <c r="BF40" s="24">
         <f t="shared" si="24"/>
-        <v>0.95098294017966301</v>
+        <v>0.95113285811767323</v>
       </c>
     </row>
     <row r="41" spans="2:58" x14ac:dyDescent="0.3">
@@ -9788,10 +9788,10 @@
         <v>11</v>
       </c>
       <c r="E41" s="17">
-        <v>24902</v>
+        <v>24901</v>
       </c>
       <c r="F41" s="17">
-        <v>34294</v>
+        <v>34273</v>
       </c>
       <c r="H41" s="3">
         <v>65</v>
@@ -9807,7 +9807,7 @@
       </c>
       <c r="L41" s="7">
         <f t="shared" si="25"/>
-        <v>0.90578695755526795</v>
+        <v>0.90528011833381761</v>
       </c>
       <c r="Q41" s="3">
         <v>65</v>
@@ -9909,15 +9909,15 @@
       </c>
       <c r="AV41" s="25">
         <f t="shared" si="20"/>
-        <v>39448.668327041567</v>
+        <v>39431.205798250456</v>
       </c>
       <c r="AW41" s="25">
         <f t="shared" si="21"/>
-        <v>44979.933588848748</v>
+        <v>44940.472047273113</v>
       </c>
       <c r="AX41" s="25">
         <f t="shared" si="22"/>
-        <v>46993.410626534853</v>
+        <v>46914.352400236552</v>
       </c>
       <c r="AZ41" s="3">
         <v>65</v>
@@ -9933,15 +9933,15 @@
       </c>
       <c r="BD41" s="24">
         <f t="shared" si="19"/>
-        <v>0.90868330516300566</v>
+        <v>0.90817646594155543</v>
       </c>
       <c r="BE41" s="24">
         <f t="shared" si="23"/>
-        <v>0.91147111566110073</v>
+        <v>0.91096427643965039</v>
       </c>
       <c r="BF41" s="24">
         <f t="shared" si="24"/>
-        <v>0.91415171007878571</v>
+        <v>0.91364487085733537</v>
       </c>
     </row>
     <row r="42" spans="2:58" x14ac:dyDescent="0.3">
@@ -9955,10 +9955,10 @@
         <v>11</v>
       </c>
       <c r="E42" s="17">
-        <v>17205</v>
+        <v>17200</v>
       </c>
       <c r="F42" s="17">
-        <v>22000</v>
+        <v>22010</v>
       </c>
       <c r="H42" s="3">
         <v>70</v>
@@ -9974,7 +9974,7 @@
       </c>
       <c r="L42" s="7">
         <f t="shared" si="25"/>
-        <v>0.88346317564854226</v>
+        <v>0.88390024497008157</v>
       </c>
       <c r="Q42" s="3">
         <v>70</v>
@@ -10076,15 +10076,15 @@
       </c>
       <c r="AV42" s="25">
         <f t="shared" si="20"/>
-        <v>30428.078942942935</v>
+        <v>30424.4259243489</v>
       </c>
       <c r="AW42" s="25">
         <f t="shared" si="21"/>
-        <v>35147.536638264355</v>
+        <v>35149.21223855632</v>
       </c>
       <c r="AX42" s="25">
         <f t="shared" si="22"/>
-        <v>40237.014712182405</v>
+        <v>40221.356303065171</v>
       </c>
       <c r="AZ42" s="3">
         <v>70</v>
@@ -10100,15 +10100,15 @@
       </c>
       <c r="BD42" s="24">
         <f t="shared" si="19"/>
-        <v>0.88727121195961201</v>
+        <v>0.88770828128115131</v>
       </c>
       <c r="BE42" s="24">
         <f t="shared" si="23"/>
-        <v>0.89096890031573406</v>
+        <v>0.89140596963727325</v>
       </c>
       <c r="BF42" s="24">
         <f t="shared" si="24"/>
-        <v>0.89455478258326759</v>
+        <v>0.8949918519048069</v>
       </c>
     </row>
     <row r="43" spans="2:58" x14ac:dyDescent="0.3">
@@ -10122,10 +10122,10 @@
         <v>11</v>
       </c>
       <c r="E43" s="17">
-        <v>12650</v>
+        <v>12651</v>
       </c>
       <c r="F43" s="17">
-        <v>14815</v>
+        <v>14820</v>
       </c>
       <c r="H43" s="3">
         <v>75</v>
@@ -10141,7 +10141,7 @@
       </c>
       <c r="L43" s="7">
         <f t="shared" si="25"/>
-        <v>0.86108689334495792</v>
+        <v>0.86162790697674418</v>
       </c>
       <c r="Q43" s="3">
         <v>75</v>
@@ -10243,15 +10243,15 @@
       </c>
       <c r="AV43" s="25">
         <f t="shared" si="20"/>
-        <v>19053.862194925758</v>
+        <v>19074.430751413613</v>
       </c>
       <c r="AW43" s="25">
         <f t="shared" si="21"/>
-        <v>26502.731016852169</v>
+        <v>26516.009281917017</v>
       </c>
       <c r="AX43" s="25">
         <f t="shared" si="22"/>
-        <v>30782.728367822328</v>
+        <v>30803.212086114592</v>
       </c>
       <c r="AZ43" s="3">
         <v>75</v>
@@ -10267,15 +10267,15 @@
       </c>
       <c r="BD43" s="24">
         <f t="shared" si="19"/>
-        <v>0.86608464522389805</v>
+        <v>0.86662565885568432</v>
       </c>
       <c r="BE43" s="24">
         <f t="shared" si="23"/>
-        <v>0.87099586755209346</v>
+        <v>0.87153688118387973</v>
       </c>
       <c r="BF43" s="24">
         <f t="shared" si="24"/>
-        <v>0.87581467471350027</v>
+        <v>0.87635568834528654</v>
       </c>
     </row>
     <row r="44" spans="2:58" x14ac:dyDescent="0.3">
@@ -10289,10 +10289,10 @@
         <v>11</v>
       </c>
       <c r="E44" s="17">
-        <v>9172</v>
+        <v>9173</v>
       </c>
       <c r="F44" s="17">
-        <v>9990</v>
+        <v>10016</v>
       </c>
       <c r="H44" s="3">
         <v>80</v>
@@ -10308,7 +10308,7 @@
       </c>
       <c r="L44" s="7">
         <f>F44/E43</f>
-        <v>0.78972332015810276</v>
+        <v>0.79171606987589915</v>
       </c>
       <c r="Q44" s="3">
         <v>80</v>
@@ -10410,15 +10410,15 @@
       </c>
       <c r="AV44" s="25">
         <f t="shared" si="20"/>
-        <v>11790.117326354195</v>
+        <v>11823.628992030646</v>
       </c>
       <c r="AW44" s="25">
         <f>(AV43)*((L44-$AN49)*O$13+AP49)+(U44)</f>
-        <v>15279.5247319309</v>
+        <v>15334.029475006973</v>
       </c>
       <c r="AX44" s="25">
         <f t="shared" si="22"/>
-        <v>21413.712676815645</v>
+        <v>21477.281037507888</v>
       </c>
       <c r="AZ44" s="3">
         <v>80</v>
@@ -10434,15 +10434,15 @@
       </c>
       <c r="BD44" s="24">
         <f t="shared" si="19"/>
-        <v>0.79582297174176142</v>
+        <v>0.79781572145955781</v>
       </c>
       <c r="BE44" s="24">
         <f t="shared" si="23"/>
-        <v>0.80191220948370234</v>
+        <v>0.80390495920149874</v>
       </c>
       <c r="BF44" s="24">
         <f t="shared" si="24"/>
-        <v>0.80798136098500217</v>
+        <v>0.80997411070279857</v>
       </c>
     </row>
     <row r="45" spans="2:58" x14ac:dyDescent="0.3">
@@ -10456,10 +10456,10 @@
         <v>11</v>
       </c>
       <c r="E45" s="17">
-        <v>8332</v>
+        <v>8333</v>
       </c>
       <c r="F45" s="17">
-        <v>9951</v>
+        <v>9936</v>
       </c>
       <c r="H45" s="3">
         <v>85</v>
@@ -10475,7 +10475,7 @@
       </c>
       <c r="L45" s="7">
         <f>F45/(E44+E45)</f>
-        <v>0.56849862888482627</v>
+        <v>0.56757683080086829</v>
       </c>
       <c r="Q45" s="3">
         <v>85</v>
@@ -10577,15 +10577,15 @@
       </c>
       <c r="AV45" s="25">
         <f>(F44+F45)*((L45-$AN50)*O$13+AO50)+(U45)</f>
-        <v>11407.421162559167</v>
+        <v>11395.322092130025</v>
       </c>
       <c r="AW45" s="25">
         <f>(AV44+AV45)*((L45-$AN50)*O$13+AP50)+(U45)</f>
-        <v>13354.215524672303</v>
+        <v>13345.13901048723</v>
       </c>
       <c r="AX45" s="25">
         <f>(AW44+AW45)*((L45-$AN50)*O$13+AQ50)+(U45)</f>
-        <v>16588.692564207089</v>
+        <v>16588.574585858249</v>
       </c>
       <c r="AZ45" s="3">
         <v>85</v>
@@ -10601,15 +10601,15 @@
       </c>
       <c r="BD45" s="24">
         <f>AV45/(F44+F45)</f>
-        <v>0.57205863108967292</v>
+        <v>0.57113683300571494</v>
       </c>
       <c r="BE45" s="24">
         <f>AW45/(AV44+AV45)</f>
-        <v>0.57567381690322827</v>
+        <v>0.57475201881927029</v>
       </c>
       <c r="BF45" s="24">
         <f>AX45/(AW44+AW45)</f>
-        <v>0.57934075030179066</v>
+        <v>0.57841895221783279</v>
       </c>
     </row>
     <row r="46" spans="2:58" x14ac:dyDescent="0.3">
@@ -10624,11 +10624,11 @@
       </c>
       <c r="E46" s="27">
         <f>E10+E28</f>
-        <v>97655</v>
+        <v>97656</v>
       </c>
       <c r="F46" s="27">
         <f>F10+F28</f>
-        <v>98179</v>
+        <v>98204</v>
       </c>
       <c r="W46" s="3">
         <v>65</v>
@@ -10714,15 +10714,15 @@
       </c>
       <c r="AV46" s="28">
         <f>AV10+AV28</f>
-        <v>104861.57689436988</v>
+        <v>104903.39450940477</v>
       </c>
       <c r="AW46" s="28">
         <f>AW10+AW28</f>
-        <v>111499.45585984392</v>
+        <v>111576.18767925215</v>
       </c>
       <c r="AX46" s="28">
         <f>AX10+AX28</f>
-        <v>117370.23939597786</v>
+        <v>117483.47387693734</v>
       </c>
       <c r="AZ46" s="3">
         <v>0</v>
@@ -10738,15 +10738,15 @@
       </c>
       <c r="BD46" s="24">
         <f>BD28+BD10</f>
-        <v>1.6661728981705515</v>
+        <v>1.6669972719005761</v>
       </c>
       <c r="BE46" s="24">
         <f t="shared" ref="BE46:BF46" si="36">BE28+BE10</f>
-        <v>1.6661728981705515</v>
+        <v>1.6669972719005761</v>
       </c>
       <c r="BF46" s="24">
         <f t="shared" si="36"/>
-        <v>1.6661728981705515</v>
+        <v>1.6669972719005761</v>
       </c>
     </row>
     <row r="47" spans="2:58" x14ac:dyDescent="0.3">
@@ -10761,11 +10761,11 @@
       </c>
       <c r="E47" s="27">
         <f t="shared" ref="E47:F47" si="37">E11+E29</f>
-        <v>94489</v>
+        <v>94491</v>
       </c>
       <c r="F47" s="27">
         <f t="shared" si="37"/>
-        <v>99065</v>
+        <v>99183</v>
       </c>
       <c r="W47" s="3">
         <v>70</v>
@@ -10851,15 +10851,15 @@
       </c>
       <c r="AV47" s="28">
         <f t="shared" ref="AV47:AW47" si="38">AV11+AV29</f>
-        <v>99615.874833170703</v>
+        <v>99758.639328662961</v>
       </c>
       <c r="AW47" s="28">
         <f t="shared" si="38"/>
-        <v>106412.0895087464</v>
+        <v>106580.10467883016</v>
       </c>
       <c r="AX47" s="28">
         <f t="shared" ref="AX47" si="39">AX11+AX29</f>
-        <v>113164.0348327307</v>
+        <v>113375.47937295683</v>
       </c>
       <c r="AZ47" s="3">
         <v>5</v>
@@ -10875,15 +10875,15 @@
       </c>
       <c r="BD47" s="24">
         <f t="shared" ref="BD47:BD62" si="40">AV47/F46</f>
-        <v>1.0146352563498375</v>
+        <v>1.0158307128901365</v>
       </c>
       <c r="BE47" s="24">
         <f>AW47/AV46</f>
-        <v>1.0147862797823306</v>
+        <v>1.0159833738199489</v>
       </c>
       <c r="BF47" s="24">
         <f>AX47/AW46</f>
-        <v>1.014929032254464</v>
+        <v>1.0161261262920822</v>
       </c>
     </row>
     <row r="48" spans="2:58" x14ac:dyDescent="0.3">
@@ -10898,11 +10898,11 @@
       </c>
       <c r="E48" s="27">
         <f t="shared" ref="E48:F48" si="41">E12+E30</f>
-        <v>90982</v>
+        <v>90983</v>
       </c>
       <c r="F48" s="27">
         <f t="shared" si="41"/>
-        <v>94235</v>
+        <v>94356</v>
       </c>
       <c r="W48" s="3">
         <v>75</v>
@@ -10988,15 +10988,15 @@
       </c>
       <c r="AV48" s="28">
         <f t="shared" ref="AV48:AW48" si="42">AV12+AV30</f>
-        <v>98801.55067477125</v>
+        <v>99044.08034281974</v>
       </c>
       <c r="AW48" s="28">
         <f t="shared" si="42"/>
-        <v>99353.509978235234</v>
+        <v>99621.629234738211</v>
       </c>
       <c r="AX48" s="28">
         <f t="shared" ref="AX48" si="43">AX12+AX30</f>
-        <v>106134.50248097873</v>
+        <v>106436.40743269457</v>
       </c>
       <c r="AZ48" s="3">
         <v>10</v>
@@ -11012,15 +11012,15 @@
       </c>
       <c r="BD48" s="24">
         <f t="shared" si="40"/>
-        <v>0.99734064174805681</v>
+        <v>0.9985993602010399</v>
       </c>
       <c r="BE48" s="24">
         <f t="shared" ref="BE48:BE62" si="44">AW48/AV47</f>
-        <v>0.99736623449450346</v>
+        <v>0.99862658417509731</v>
       </c>
       <c r="BF48" s="24">
         <f t="shared" ref="BF48:BF62" si="45">AX48/AW47</f>
-        <v>0.99739139576105351</v>
+        <v>0.99865174418275704</v>
       </c>
     </row>
     <row r="49" spans="2:58" x14ac:dyDescent="0.3">
@@ -11035,11 +11035,11 @@
       </c>
       <c r="E49" s="27">
         <f t="shared" ref="E49:F49" si="46">E13+E31</f>
-        <v>99688</v>
+        <v>99690</v>
       </c>
       <c r="F49" s="27">
         <f t="shared" si="46"/>
-        <v>94102</v>
+        <v>94196</v>
       </c>
       <c r="W49" s="3">
         <v>80</v>
@@ -11125,15 +11125,15 @@
       </c>
       <c r="AV49" s="28">
         <f t="shared" ref="AV49:AW49" si="47">AV13+AV31</f>
-        <v>97473.526548364374</v>
+        <v>97695.40559187613</v>
       </c>
       <c r="AW49" s="28">
         <f t="shared" si="47"/>
-        <v>102200.44790292927</v>
+        <v>102552.81163119478</v>
       </c>
       <c r="AX49" s="28">
         <f t="shared" ref="AX49" si="48">AX13+AX31</f>
-        <v>102784.14846000329</v>
+        <v>103163.06831208794</v>
       </c>
       <c r="AZ49" s="3">
         <v>15</v>
@@ -11149,15 +11149,15 @@
       </c>
       <c r="BD49" s="24">
         <f t="shared" si="40"/>
-        <v>1.0343664938543469</v>
+        <v>1.0353915552998869</v>
       </c>
       <c r="BE49" s="24">
         <f t="shared" si="44"/>
-        <v>1.0344012538765337</v>
+        <v>1.035425956566312</v>
       </c>
       <c r="BF49" s="24">
         <f t="shared" si="45"/>
-        <v>1.0345296153353776</v>
+        <v>1.0355488974086646</v>
       </c>
     </row>
     <row r="50" spans="2:58" x14ac:dyDescent="0.3">
@@ -11172,11 +11172,11 @@
       </c>
       <c r="E50" s="27">
         <f t="shared" ref="E50:F50" si="49">E14+E32</f>
-        <v>107533</v>
+        <v>107538</v>
       </c>
       <c r="F50" s="27">
         <f t="shared" si="49"/>
-        <v>105887</v>
+        <v>105870</v>
       </c>
       <c r="W50" s="3">
         <v>85</v>
@@ -11262,15 +11262,15 @@
       </c>
       <c r="AV50" s="28">
         <f t="shared" ref="AV50:AW50" si="50">AV14+AV32</f>
-        <v>99997.923771126269</v>
+        <v>100079.35628897708</v>
       </c>
       <c r="AW50" s="28">
         <f t="shared" si="50"/>
-        <v>103594.73292629118</v>
+        <v>103811.94004467342</v>
       </c>
       <c r="AX50" s="28">
         <f t="shared" ref="AX50" si="51">AX14+AX32</f>
-        <v>108626.99157426803</v>
+        <v>108981.75309239743</v>
       </c>
       <c r="AZ50" s="3">
         <v>20</v>
@@ -11286,15 +11286,15 @@
       </c>
       <c r="BD50" s="24">
         <f t="shared" si="40"/>
-        <v>1.0626546063965301</v>
+        <v>1.0624586637328239</v>
       </c>
       <c r="BE50" s="24">
         <f t="shared" si="44"/>
-        <v>1.0627986551290887</v>
+        <v>1.062608209830759</v>
       </c>
       <c r="BF50" s="24">
         <f t="shared" si="45"/>
-        <v>1.0628817564228559</v>
+        <v>1.0626890804741922</v>
       </c>
     </row>
     <row r="51" spans="2:58" x14ac:dyDescent="0.3">
@@ -11309,11 +11309,11 @@
       </c>
       <c r="E51" s="27">
         <f t="shared" ref="E51:F51" si="52">E15+E33</f>
-        <v>113583</v>
+        <v>113575</v>
       </c>
       <c r="F51" s="27">
         <f t="shared" si="52"/>
-        <v>134291</v>
+        <v>134170</v>
       </c>
       <c r="W51" s="3">
         <v>90</v>
@@ -11395,15 +11395,15 @@
       </c>
       <c r="AV51" s="28">
         <f t="shared" ref="AV51:AW51" si="53">AV15+AV33</f>
-        <v>132273.11291690607</v>
+        <v>132127.76491153485</v>
       </c>
       <c r="AW51" s="28">
         <f t="shared" si="53"/>
-        <v>124964.96165581894</v>
+        <v>124950.02275871017</v>
       </c>
       <c r="AX51" s="28">
         <f t="shared" ref="AX51" si="54">AX15+AX33</f>
-        <v>129477.73383188513</v>
+        <v>129628.73417777056</v>
       </c>
       <c r="AZ51" s="3">
         <v>25</v>
@@ -11419,15 +11419,15 @@
       </c>
       <c r="BD51" s="24">
         <f t="shared" si="40"/>
-        <v>1.2491912408218768</v>
+        <v>1.2480189374849802</v>
       </c>
       <c r="BE51" s="24">
         <f t="shared" si="44"/>
-        <v>1.2496755626830498</v>
+        <v>1.2485094568146455</v>
       </c>
       <c r="BF51" s="24">
         <f t="shared" si="45"/>
-        <v>1.2498486185008073</v>
+        <v>1.2486881000585037</v>
       </c>
     </row>
     <row r="52" spans="2:58" x14ac:dyDescent="0.3">
@@ -11442,11 +11442,11 @@
       </c>
       <c r="E52" s="27">
         <f t="shared" ref="E52:F52" si="55">E16+E34</f>
-        <v>114823</v>
+        <v>114818</v>
       </c>
       <c r="F52" s="27">
         <f t="shared" si="55"/>
-        <v>134294</v>
+        <v>134289</v>
       </c>
       <c r="W52" s="3">
         <v>95</v>
@@ -11528,15 +11528,15 @@
       </c>
       <c r="AV52" s="28">
         <f t="shared" ref="AV52:AW52" si="56">AV16+AV34</f>
-        <v>158803.79647936227</v>
+        <v>158666.90935719205</v>
       </c>
       <c r="AW52" s="28">
         <f t="shared" si="56"/>
-        <v>156445.18607249425</v>
+        <v>156278.63121389959</v>
       </c>
       <c r="AX52" s="28">
         <f t="shared" ref="AX52" si="57">AX16+AX34</f>
-        <v>147827.29571631327</v>
+        <v>147813.31290334451</v>
       </c>
       <c r="AZ52" s="3">
         <v>30</v>
@@ -11552,15 +11552,15 @@
       </c>
       <c r="BD52" s="24">
         <f t="shared" si="40"/>
-        <v>1.182534916557046</v>
+        <v>1.1825811236281736</v>
       </c>
       <c r="BE52" s="24">
         <f t="shared" si="44"/>
-        <v>1.1827436628846337</v>
+        <v>1.1827841886111883</v>
       </c>
       <c r="BF52" s="24">
         <f t="shared" si="45"/>
-        <v>1.1829499545917697</v>
+        <v>1.1829794796339128</v>
       </c>
     </row>
     <row r="53" spans="2:58" x14ac:dyDescent="0.3">
@@ -11575,11 +11575,11 @@
       </c>
       <c r="E53" s="27">
         <f t="shared" ref="E53:F53" si="58">E17+E35</f>
-        <v>114915</v>
+        <v>114905</v>
       </c>
       <c r="F53" s="27">
         <f t="shared" si="58"/>
-        <v>124120</v>
+        <v>124143</v>
       </c>
       <c r="W53" s="3">
         <v>100</v>
@@ -11661,15 +11661,15 @@
       </c>
       <c r="AV53" s="28">
         <f t="shared" ref="AV53:AW53" si="59">AV17+AV35</f>
-        <v>145218.85534205096</v>
+        <v>145248.03649140964</v>
       </c>
       <c r="AW53" s="28">
         <f t="shared" si="59"/>
-        <v>171787.68533704797</v>
+        <v>171678.83318404824</v>
       </c>
       <c r="AX53" s="28">
         <f t="shared" ref="AX53" si="60">AX17+AX35</f>
-        <v>169247.19275686186</v>
+        <v>169105.05633185664</v>
       </c>
       <c r="AZ53" s="3">
         <v>35</v>
@@ -11685,15 +11685,15 @@
       </c>
       <c r="BD53" s="24">
         <f t="shared" si="40"/>
-        <v>1.0813502862529298</v>
+        <v>1.08160784942482</v>
       </c>
       <c r="BE53" s="24">
         <f t="shared" si="44"/>
-        <v>1.0817605696182022</v>
+        <v>1.0820077978424831</v>
       </c>
       <c r="BF53" s="24">
         <f t="shared" si="45"/>
-        <v>1.0818306207161617</v>
+        <v>1.0820740815191903</v>
       </c>
     </row>
     <row r="54" spans="2:58" x14ac:dyDescent="0.3">
@@ -11708,11 +11708,11 @@
       </c>
       <c r="E54" s="27">
         <f t="shared" ref="E54:F54" si="61">E18+E36</f>
-        <v>112615</v>
+        <v>112603</v>
       </c>
       <c r="F54" s="27">
         <f t="shared" si="61"/>
-        <v>117688</v>
+        <v>117665</v>
       </c>
       <c r="W54" s="3">
         <v>105</v>
@@ -11794,15 +11794,15 @@
       </c>
       <c r="AV54" s="28">
         <f t="shared" ref="AV54:AW54" si="62">AV18+AV36</f>
-        <v>127158.55931333415</v>
+        <v>127168.2782057251</v>
       </c>
       <c r="AW54" s="28">
         <f t="shared" si="62"/>
-        <v>148822.21487503685</v>
+        <v>148835.90832005339</v>
       </c>
       <c r="AX54" s="28">
         <f t="shared" ref="AX54" si="63">AX18+AX36</f>
-        <v>176104.87663700353</v>
+        <v>175973.94547959755</v>
       </c>
       <c r="AZ54" s="3">
         <v>40</v>
@@ -11818,15 +11818,15 @@
       </c>
       <c r="BD54" s="24">
         <f t="shared" si="40"/>
-        <v>1.0244808194757826</v>
+        <v>1.0243693015774156</v>
       </c>
       <c r="BE54" s="24">
         <f t="shared" si="44"/>
-        <v>1.0248133035100606</v>
+        <v>1.0247016890232175</v>
       </c>
       <c r="BF54" s="24">
         <f t="shared" si="45"/>
-        <v>1.025130970776428</v>
+        <v>1.0250182985047711</v>
       </c>
     </row>
     <row r="55" spans="2:58" x14ac:dyDescent="0.3">
@@ -11841,11 +11841,11 @@
       </c>
       <c r="E55" s="27">
         <f t="shared" ref="E55:F55" si="64">E19+E37</f>
-        <v>113883</v>
+        <v>113877</v>
       </c>
       <c r="F55" s="27">
         <f t="shared" si="64"/>
-        <v>112720</v>
+        <v>112553</v>
       </c>
       <c r="W55" s="3">
         <v>110</v>
@@ -11923,15 +11923,15 @@
       </c>
       <c r="AV55" s="28">
         <f t="shared" ref="AV55:AW55" si="65">AV19+AV37</f>
-        <v>117860.54753575125</v>
+        <v>117675.69857845402</v>
       </c>
       <c r="AW55" s="28">
         <f t="shared" si="65"/>
-        <v>127409.98515660429</v>
+        <v>127244.67041888837</v>
       </c>
       <c r="AX55" s="28">
         <f t="shared" ref="AX55" si="66">AX19+AX37</f>
-        <v>149188.753297647</v>
+        <v>148997.43948241288</v>
       </c>
       <c r="AZ55" s="3">
         <v>45</v>
@@ -11947,15 +11947,15 @@
       </c>
       <c r="BD55" s="24">
         <f t="shared" si="40"/>
-        <v>1.0014661438358308</v>
+        <v>1.0000909240509415</v>
       </c>
       <c r="BE55" s="24">
         <f t="shared" si="44"/>
-        <v>1.0019772624401209</v>
+        <v>1.0006007175235925</v>
       </c>
       <c r="BF55" s="24">
         <f t="shared" si="45"/>
-        <v>1.0024629281516737</v>
+        <v>1.0010852969836563</v>
       </c>
     </row>
     <row r="56" spans="2:58" x14ac:dyDescent="0.3">
@@ -11970,11 +11970,11 @@
       </c>
       <c r="E56" s="27">
         <f t="shared" ref="E56:F56" si="67">E20+E38</f>
-        <v>108877</v>
+        <v>108870</v>
       </c>
       <c r="F56" s="27">
         <f t="shared" si="67"/>
-        <v>113200</v>
+        <v>113096</v>
       </c>
       <c r="AS56" s="3">
         <v>50</v>
@@ -11987,15 +11987,15 @@
       </c>
       <c r="AV56" s="28">
         <f t="shared" ref="AV56:AW56" si="68">AV20+AV38</f>
-        <v>112135.32939136939</v>
+        <v>111872.42915336337</v>
       </c>
       <c r="AW56" s="28">
         <f t="shared" si="68"/>
-        <v>117345.17489676649</v>
+        <v>117059.92462174053</v>
       </c>
       <c r="AX56" s="28">
         <f t="shared" ref="AX56" si="69">AX20+AX38</f>
-        <v>126947.03488609925</v>
+        <v>126672.9391177638</v>
       </c>
       <c r="AZ56" s="3">
         <v>50</v>
@@ -12011,15 +12011,15 @@
       </c>
       <c r="BD56" s="24">
         <f t="shared" si="40"/>
-        <v>0.99481307125061558</v>
+        <v>0.99395333001664432</v>
       </c>
       <c r="BE56" s="24">
         <f t="shared" si="44"/>
-        <v>0.99562726756526876</v>
+        <v>0.99476719523102763</v>
       </c>
       <c r="BF56" s="24">
         <f t="shared" si="45"/>
-        <v>0.99636645220595532</v>
+        <v>0.9955068349877253</v>
       </c>
     </row>
     <row r="57" spans="2:58" x14ac:dyDescent="0.3">
@@ -12034,11 +12034,11 @@
       </c>
       <c r="E57" s="27">
         <f t="shared" ref="E57:F57" si="70">E21+E39</f>
-        <v>95306</v>
+        <v>95301</v>
       </c>
       <c r="F57" s="27">
         <f t="shared" si="70"/>
-        <v>106884</v>
+        <v>106810</v>
       </c>
       <c r="AS57" s="3">
         <v>55</v>
@@ -12051,15 +12051,15 @@
       </c>
       <c r="AV57" s="28">
         <f t="shared" ref="AV57:AW57" si="71">AV21+AV39</f>
-        <v>111272.39097123237</v>
+        <v>111100.3447016096</v>
       </c>
       <c r="AW57" s="28">
         <f t="shared" si="71"/>
-        <v>110348.28627522429</v>
+        <v>110020.9453628004</v>
       </c>
       <c r="AX57" s="28">
         <f t="shared" ref="AX57" si="72">AX21+AX39</f>
-        <v>115615.51105529669</v>
+        <v>115262.54714134893</v>
       </c>
       <c r="AZ57" s="3">
         <v>55</v>
@@ -12075,15 +12075,15 @@
       </c>
       <c r="BD57" s="24">
         <f t="shared" si="40"/>
-        <v>0.98297165168933187</v>
+        <v>0.98235432465878192</v>
       </c>
       <c r="BE57" s="24">
         <f t="shared" si="44"/>
-        <v>0.98406351391800839</v>
+        <v>0.9834500439064856</v>
       </c>
       <c r="BF57" s="24">
         <f t="shared" si="45"/>
-        <v>0.98526003439858989</v>
+        <v>0.98464566343947746</v>
       </c>
     </row>
     <row r="58" spans="2:58" x14ac:dyDescent="0.3">
@@ -12098,11 +12098,11 @@
       </c>
       <c r="E58" s="27">
         <f t="shared" ref="E58:F58" si="73">E22+E40</f>
-        <v>79700</v>
+        <v>79698</v>
       </c>
       <c r="F58" s="27">
         <f t="shared" si="73"/>
-        <v>91166</v>
+        <v>91135</v>
       </c>
       <c r="AS58" s="3">
         <v>60</v>
@@ -12115,15 +12115,15 @@
       </c>
       <c r="AV58" s="28">
         <f t="shared" ref="AV58:AW58" si="74">AV22+AV40</f>
-        <v>102418.63650188473</v>
+        <v>102318.59331370759</v>
       </c>
       <c r="AW58" s="28">
         <f t="shared" si="74"/>
-        <v>106815.17253299832</v>
+        <v>106619.59823821575</v>
       </c>
       <c r="AX58" s="28">
         <f t="shared" ref="AX58" si="75">AX22+AX40</f>
-        <v>106093.11117851439</v>
+        <v>105749.05005546431</v>
       </c>
       <c r="AZ58" s="3">
         <v>60</v>
@@ -12139,15 +12139,15 @@
       </c>
       <c r="BD58" s="24">
         <f t="shared" si="40"/>
-        <v>0.95822233918907163</v>
+        <v>0.95794956758456695</v>
       </c>
       <c r="BE58" s="24">
         <f t="shared" si="44"/>
-        <v>0.9599431772847733</v>
+        <v>0.95966937388512952</v>
       </c>
       <c r="BF58" s="24">
         <f t="shared" si="45"/>
-        <v>0.9614386843661813</v>
+        <v>0.96117198145090221</v>
       </c>
     </row>
     <row r="59" spans="2:58" x14ac:dyDescent="0.3">
@@ -12162,11 +12162,11 @@
       </c>
       <c r="E59" s="27">
         <f t="shared" ref="E59:F59" si="76">E23+E41</f>
-        <v>53354</v>
+        <v>53350</v>
       </c>
       <c r="F59" s="27">
         <f t="shared" si="76"/>
-        <v>73754</v>
+        <v>73734</v>
       </c>
       <c r="AS59" s="3">
         <v>65</v>
@@ -12179,15 +12179,15 @@
       </c>
       <c r="AV59" s="28">
         <f t="shared" ref="AV59:AW59" si="77">AV23+AV41</f>
-        <v>84580.943071594302</v>
+        <v>84530.596744351846</v>
       </c>
       <c r="AW59" s="28">
         <f t="shared" si="77"/>
-        <v>95237.640626882989</v>
+        <v>95119.725089075029</v>
       </c>
       <c r="AX59" s="28">
         <f t="shared" ref="AX59" si="78">AX23+AX41</f>
-        <v>99565.785428671865</v>
+        <v>99357.528429382044</v>
       </c>
       <c r="AZ59" s="3">
         <v>65</v>
@@ -12203,15 +12203,15 @@
       </c>
       <c r="BD59" s="24">
         <f t="shared" si="40"/>
-        <v>0.92776850000651889</v>
+        <v>0.92753164804248478</v>
       </c>
       <c r="BE59" s="24">
         <f t="shared" si="44"/>
-        <v>0.92988584772977723</v>
+        <v>0.92964261927877645</v>
       </c>
       <c r="BF59" s="24">
         <f t="shared" si="45"/>
-        <v>0.93213148532726564</v>
+        <v>0.93188804001485381</v>
       </c>
     </row>
     <row r="60" spans="2:58" x14ac:dyDescent="0.3">
@@ -12226,11 +12226,11 @@
       </c>
       <c r="E60" s="27">
         <f t="shared" ref="E60:F60" si="79">E24+E42</f>
-        <v>38074</v>
+        <v>38068</v>
       </c>
       <c r="F60" s="27">
         <f t="shared" si="79"/>
-        <v>48318</v>
+        <v>48364</v>
       </c>
       <c r="AS60" s="3">
         <v>70</v>
@@ -12243,15 +12243,15 @@
       </c>
       <c r="AV60" s="28">
         <f t="shared" ref="AV60:AW60" si="80">AV24+AV42</f>
-        <v>67041.02639362117</v>
+        <v>67092.085184011696</v>
       </c>
       <c r="AW60" s="28">
         <f t="shared" si="80"/>
-        <v>77147.226775189221</v>
+        <v>77179.769896021244</v>
       </c>
       <c r="AX60" s="28">
         <f t="shared" ref="AX60" si="81">AX24+AX42</f>
-        <v>87138.636454322143</v>
+        <v>87118.155575075332</v>
       </c>
       <c r="AZ60" s="3">
         <v>70</v>
@@ -12267,15 +12267,15 @@
       </c>
       <c r="BD60" s="24">
         <f t="shared" si="40"/>
-        <v>0.90898156565909871</v>
+        <v>0.9099205954378129</v>
       </c>
       <c r="BE60" s="24">
         <f t="shared" si="44"/>
-        <v>0.91211121528743488</v>
+        <v>0.91303945397946373</v>
       </c>
       <c r="BF60" s="24">
         <f t="shared" si="45"/>
-        <v>0.91496005025690741</v>
+        <v>0.91587896720152828</v>
       </c>
     </row>
     <row r="61" spans="2:58" x14ac:dyDescent="0.3">
@@ -12290,11 +12290,11 @@
       </c>
       <c r="E61" s="27">
         <f t="shared" ref="E61:F61" si="82">E25+E43</f>
-        <v>29245</v>
+        <v>29248</v>
       </c>
       <c r="F61" s="27">
         <f t="shared" si="82"/>
-        <v>33639</v>
+        <v>33675</v>
       </c>
       <c r="AS61" s="3">
         <v>75</v>
@@ -12307,15 +12307,15 @@
       </c>
       <c r="AV61" s="28">
         <f t="shared" ref="AV61:AW61" si="83">AV25+AV43</f>
-        <v>42902.082859845737</v>
+        <v>42995.561786120175</v>
       </c>
       <c r="AW61" s="28">
         <f t="shared" si="83"/>
-        <v>59827.153567598056</v>
+        <v>59946.285278544674</v>
       </c>
       <c r="AX61" s="28">
         <f t="shared" ref="AX61" si="84">AX25+AX43</f>
-        <v>69173.880662680778</v>
+        <v>69286.834140951134</v>
       </c>
       <c r="AZ61" s="3">
         <v>75</v>
@@ -12331,15 +12331,15 @@
       </c>
       <c r="BD61" s="24">
         <f t="shared" si="40"/>
-        <v>0.8879109826533742</v>
+        <v>0.88899929257547294</v>
       </c>
       <c r="BE61" s="24">
         <f t="shared" si="44"/>
-        <v>0.89239614585152738</v>
+        <v>0.89349265437393366</v>
       </c>
       <c r="BF61" s="24">
         <f t="shared" si="45"/>
-        <v>0.89664766387853234</v>
+        <v>0.89773310071144685</v>
       </c>
     </row>
     <row r="62" spans="2:58" x14ac:dyDescent="0.3">
@@ -12354,11 +12354,11 @@
       </c>
       <c r="E62" s="27">
         <f t="shared" ref="E62:F62" si="85">E26+E44</f>
-        <v>23343</v>
+        <v>23339</v>
       </c>
       <c r="F62" s="27">
         <f t="shared" si="85"/>
-        <v>24218</v>
+        <v>24300</v>
       </c>
       <c r="AS62" s="3">
         <v>80</v>
@@ -12371,15 +12371,15 @@
       </c>
       <c r="AV62" s="28">
         <f t="shared" ref="AV62:AW62" si="86">AV26+AV44</f>
-        <v>28037.01801221558</v>
+        <v>28158.956329267552</v>
       </c>
       <c r="AW62" s="28">
         <f t="shared" si="86"/>
-        <v>35997.252394358533</v>
+        <v>36193.337701111006</v>
       </c>
       <c r="AX62" s="28">
         <f t="shared" ref="AX62" si="87">AX26+AX44</f>
-        <v>50548.341373164847</v>
+        <v>50813.797840467378</v>
       </c>
       <c r="AZ62" s="3">
         <v>80</v>
@@ -12395,15 +12395,15 @@
       </c>
       <c r="BD62" s="24">
         <f t="shared" si="40"/>
-        <v>0.83346764208851576</v>
+        <v>0.83619766382383232</v>
       </c>
       <c r="BE62" s="24">
         <f t="shared" si="44"/>
-        <v>0.83905605496954117</v>
+        <v>0.84179241292748819</v>
       </c>
       <c r="BF62" s="24">
         <f t="shared" si="45"/>
-        <v>0.84490634033007805</v>
+        <v>0.84765549031699716</v>
       </c>
     </row>
     <row r="63" spans="2:58" x14ac:dyDescent="0.3">
@@ -12418,11 +12418,11 @@
       </c>
       <c r="E63" s="27">
         <f t="shared" ref="E63:F63" si="88">E27+E45</f>
-        <v>24978</v>
+        <v>24976</v>
       </c>
       <c r="F63" s="27">
         <f t="shared" si="88"/>
-        <v>28874</v>
+        <v>28795</v>
       </c>
       <c r="AS63" s="3">
         <v>85</v>
@@ -12435,15 +12435,15 @@
       </c>
       <c r="AV63" s="28">
         <f t="shared" ref="AV63:AW63" si="89">AV27+AV45</f>
-        <v>31893.880180571883</v>
+        <v>31813.27336321133</v>
       </c>
       <c r="AW63" s="28">
         <f t="shared" si="89"/>
-        <v>36199.52622938266</v>
+        <v>36132.349736241988</v>
       </c>
       <c r="AX63" s="28">
         <f t="shared" ref="AX63" si="90">AX27+AX45</f>
-        <v>43854.180924340479</v>
+        <v>43822.603926355587</v>
       </c>
       <c r="AZ63" s="3">
         <v>85</v>
@@ -12459,15 +12459,15 @@
       </c>
       <c r="BD63" s="24">
         <f>AV63/(F62+F63)</f>
-        <v>0.6007285500748113</v>
+        <v>0.59917644530014746</v>
       </c>
       <c r="BE63" s="24">
         <f>AW63/(AV62+AV63)</f>
-        <v>0.6040210863006753</v>
+        <v>0.60248468201897365</v>
       </c>
       <c r="BF63" s="24">
         <f>AX63/(AW62+AW63)</f>
-        <v>0.60742572951751439</v>
+        <v>0.60590649711160804</v>
       </c>
     </row>
   </sheetData>

--- a/Oct2020Presentation/CCRAdjustmentSheet_December2021.xlsx
+++ b/Oct2020Presentation/CCRAdjustmentSheet_December2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ehunsing\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF459657-E4EF-4623-B2B4-B148F1286A23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5F3A09B-D872-4639-858B-8C9158F70A73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CCRAdjustmentSheet_December2021" sheetId="2" r:id="rId1"/>
@@ -4756,35 +4756,35 @@
         <v>2.6476584387979543</v>
       </c>
       <c r="AA11" s="6">
-        <f>1/(1+EXP(-2*(O$14*1+O$15*0)-2*1*Z11))</f>
+        <f t="shared" ref="AA11:AA32" si="0">1/(1+EXP(-2*(O$14*1+O$15*0)-2*1*Z11))</f>
         <v>0.99529922895695955</v>
       </c>
       <c r="AB11" s="6">
-        <f>1/(1+EXP(-2*(O$14*2/3+O$15*1/3)-2*1*Z11))</f>
+        <f t="shared" ref="AB11:AB32" si="1">1/(1+EXP(-2*(O$14*2/3+O$15*1/3)-2*1*Z11))</f>
         <v>0.9955717683156815</v>
       </c>
       <c r="AC11" s="6">
-        <f>1/(1+EXP(-2*(O$14*1/3+O$15*2/3)-2*1*Z11))</f>
+        <f t="shared" ref="AC11:AC32" si="2">1/(1+EXP(-2*(O$14*1/3+O$15*2/3)-2*1*Z11))</f>
         <v>0.99582857272497538</v>
       </c>
       <c r="AD11" s="6">
-        <f>1/(1+EXP(-2*(O$14*0+O$15*1)-2*1*Z11))</f>
+        <f t="shared" ref="AD11:AD32" si="3">1/(1+EXP(-2*(O$14*0+O$15*1)-2*1*Z11))</f>
         <v>0.99607054317460542</v>
       </c>
       <c r="AE11" s="6">
-        <f t="shared" ref="AE11:AF30" si="0">0.5*(AA11+AA12)</f>
+        <f t="shared" ref="AE11:AF30" si="4">0.5*(AA11+AA12)</f>
         <v>0.99510133857093952</v>
       </c>
       <c r="AF11" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.9953852957915319</v>
       </c>
       <c r="AG11" s="6">
-        <f t="shared" ref="AG11:AG31" si="1">0.5*(AC11+AC12)</f>
+        <f t="shared" ref="AG11:AG31" si="5">0.5*(AC11+AC12)</f>
         <v>0.99565286508876472</v>
       </c>
       <c r="AH11" s="6">
-        <f t="shared" ref="AH11:AH31" si="2">0.5*(AD11+AD12)</f>
+        <f t="shared" ref="AH11:AH31" si="6">0.5*(AD11+AD12)</f>
         <v>0.9959049841401364</v>
       </c>
       <c r="AI11" s="6"/>
@@ -4824,7 +4824,7 @@
         <v>0</v>
       </c>
       <c r="AU11" s="24">
-        <f>(F10)*(($L11-$AM11)*$O$13+AN11)+($O$12*$T11*(AU$9-L$9)*SUM(E$46:E$63))</f>
+        <f>(F10)*(($L11-$AM11)*$O$13+AN11)+($O$12*$T11*(AU$9-L$9)*SUM(F$46:F$63))</f>
         <v>49054.664503248299</v>
       </c>
       <c r="AV11" s="24">
@@ -4848,7 +4848,7 @@
         <v>1</v>
       </c>
       <c r="BC11" s="23">
-        <f>AU11/F10</f>
+        <f t="shared" ref="BC11:BC26" si="7">AU11/F10</f>
         <v>1.0225260454256118</v>
       </c>
       <c r="BD11" s="23">
@@ -4924,39 +4924,39 @@
         <v>0.99458999999999997</v>
       </c>
       <c r="Z12" s="6">
-        <f t="shared" ref="Z12:Z55" si="3">0.5*LN(Y12/(1-Y12))</f>
+        <f t="shared" ref="Z12:Z55" si="8">0.5*LN(Y12/(1-Y12))</f>
         <v>2.6070407495392578</v>
       </c>
       <c r="AA12" s="6">
-        <f>1/(1+EXP(-2*(O$14*1+O$15*0)-2*1*Z12))</f>
+        <f t="shared" si="0"/>
         <v>0.99490344818491938</v>
       </c>
       <c r="AB12" s="6">
-        <f>1/(1+EXP(-2*(O$14*2/3+O$15*1/3)-2*1*Z12))</f>
+        <f t="shared" si="1"/>
         <v>0.99519882326738229</v>
       </c>
       <c r="AC12" s="6">
-        <f>1/(1+EXP(-2*(O$14*1/3+O$15*2/3)-2*1*Z12))</f>
+        <f t="shared" si="2"/>
         <v>0.99547715745255405</v>
       </c>
       <c r="AD12" s="6">
-        <f>1/(1+EXP(-2*(O$14*0+O$15*1)-2*1*Z12))</f>
+        <f t="shared" si="3"/>
         <v>0.99573942510566738</v>
       </c>
       <c r="AE12" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.99467256382879032</v>
       </c>
       <c r="AF12" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.99498124958771306</v>
       </c>
       <c r="AG12" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.99527213445123419</v>
       </c>
       <c r="AH12" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.99554623534741093</v>
       </c>
       <c r="AI12" s="6"/>
@@ -4970,19 +4970,19 @@
         <v>0</v>
       </c>
       <c r="AM12" s="6">
-        <f t="shared" ref="AM12:AN26" si="4">AE12/AE11</f>
+        <f t="shared" ref="AM12:AN26" si="9">AE12/AE11</f>
         <v>0.99956911449565033</v>
       </c>
       <c r="AN12" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.99959408059820942</v>
       </c>
       <c r="AO12" s="6">
-        <f t="shared" ref="AO12:AO26" si="5">AG12/AG11</f>
+        <f t="shared" ref="AO12:AO26" si="10">AG12/AG11</f>
         <v>0.99961760704872116</v>
       </c>
       <c r="AP12" s="6">
-        <f t="shared" ref="AP12:AP26" si="6">AH12/AH11</f>
+        <f t="shared" ref="AP12:AP26" si="11">AH12/AH11</f>
         <v>0.99963977608462795</v>
       </c>
       <c r="AQ12" s="3"/>
@@ -4996,15 +4996,15 @@
         <v>0</v>
       </c>
       <c r="AU12" s="24">
-        <f t="shared" ref="AU12:AU26" si="7">(F11)*(($L12-$AM12)*$O$13+AN12)+($O$12*$T12*(AU$9-L$9)*SUM(E$46:E$63))</f>
+        <f t="shared" ref="AU12:AU26" si="12">(F11)*(($L12-$AM12)*$O$13+AN12)+($O$12*$T12*(AU$9-L$9)*SUM(F$46:F$63))</f>
         <v>48457.337561135988</v>
       </c>
       <c r="AV12" s="24">
-        <f t="shared" ref="AV12:AV26" si="8">(AU11)*(($L12-$AM12)*$O$13+AO12)+($O$12*$T12*(AV$9-AU$9)*SUM(AU$46:AU$63))</f>
+        <f t="shared" ref="AV12:AV26" si="13">(AU11)*(($L12-$AM12)*$O$13+AO12)+($O$12*$T12*(AV$9-AU$9)*SUM(AU$46:AU$63))</f>
         <v>48992.465639889859</v>
       </c>
       <c r="AW12" s="24">
-        <f t="shared" ref="AW12:AW26" si="9">(AV11)*(($L12-$AM12)*$O$13+AP12)+($O$12*$T12*(AW$9-AV$9)*SUM(AV$46:AV$63))</f>
+        <f t="shared" ref="AW12:AW26" si="14">(AV11)*(($L12-$AM12)*$O$13+AP12)+($O$12*$T12*(AW$9-AV$9)*SUM(AV$46:AV$63))</f>
         <v>52352.252109219684</v>
       </c>
       <c r="AY12" s="2">
@@ -5020,15 +5020,15 @@
         <v>1</v>
       </c>
       <c r="BC12" s="23">
-        <f>AU12/F11</f>
+        <f t="shared" si="7"/>
         <v>0.99870852351887851</v>
       </c>
       <c r="BD12" s="23">
-        <f t="shared" ref="BD12:BD26" si="10">AV12/AU11</f>
+        <f t="shared" ref="BD12:BD26" si="15">AV12/AU11</f>
         <v>0.99873204996939036</v>
       </c>
       <c r="BE12" s="23">
-        <f t="shared" ref="BE12:BE26" si="11">AW12/AV11</f>
+        <f t="shared" ref="BE12:BE26" si="16">AW12/AV11</f>
         <v>0.99875421900529715</v>
       </c>
     </row>
@@ -5061,7 +5061,7 @@
         <v>1</v>
       </c>
       <c r="L13" s="6">
-        <f t="shared" ref="L13:L25" si="12">F13/E12</f>
+        <f t="shared" ref="L13:L25" si="17">F13/E12</f>
         <v>1.0479960526610896</v>
       </c>
       <c r="N13" s="2" t="s">
@@ -5096,39 +5096,39 @@
         <v>0.99409999999999998</v>
       </c>
       <c r="Z13" s="6">
+        <f t="shared" si="8"/>
+        <v>2.5634427271532116</v>
+      </c>
+      <c r="AA13" s="6">
+        <f t="shared" si="0"/>
+        <v>0.99444167947266127</v>
+      </c>
+      <c r="AB13" s="6">
+        <f t="shared" si="1"/>
+        <v>0.99476367590804382</v>
+      </c>
+      <c r="AC13" s="6">
+        <f t="shared" si="2"/>
+        <v>0.99506711144991433</v>
+      </c>
+      <c r="AD13" s="6">
         <f t="shared" si="3"/>
-        <v>2.5634427271532116</v>
-      </c>
-      <c r="AA13" s="6">
-        <f>1/(1+EXP(-2*(O$14*1+O$15*0)-2*1*Z13))</f>
-        <v>0.99444167947266127</v>
-      </c>
-      <c r="AB13" s="6">
-        <f>1/(1+EXP(-2*(O$14*2/3+O$15*1/3)-2*1*Z13))</f>
-        <v>0.99476367590804382</v>
-      </c>
-      <c r="AC13" s="6">
-        <f>1/(1+EXP(-2*(O$14*1/3+O$15*2/3)-2*1*Z13))</f>
-        <v>0.99506711144991433</v>
-      </c>
-      <c r="AD13" s="6">
-        <f>1/(1+EXP(-2*(O$14*0+O$15*1)-2*1*Z13))</f>
         <v>0.99535304558915449</v>
       </c>
       <c r="AE13" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.99396573339498207</v>
       </c>
       <c r="AF13" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.99431513158280738</v>
       </c>
       <c r="AG13" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.9946444084778</v>
       </c>
       <c r="AH13" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.99495471049050277</v>
       </c>
       <c r="AI13" s="6"/>
@@ -5142,19 +5142,19 @@
         <v>0</v>
       </c>
       <c r="AM13" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.99928938380376409</v>
       </c>
       <c r="AN13" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.99933052205236861</v>
       </c>
       <c r="AO13" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.99936929212453007</v>
       </c>
       <c r="AP13" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0.99940582884460238</v>
       </c>
       <c r="AQ13" s="3"/>
@@ -5168,7 +5168,7 @@
         <v>0</v>
       </c>
       <c r="AU13" s="24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>48498.969046537008</v>
       </c>
       <c r="AV13" s="24">
@@ -5176,7 +5176,7 @@
         <v>50786.970631009775</v>
       </c>
       <c r="AW13" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>51349.615530400835</v>
       </c>
       <c r="AY13" s="2">
@@ -5192,15 +5192,15 @@
         <v>1</v>
       </c>
       <c r="BC13" s="23">
-        <f>AU13/F12</f>
+        <f t="shared" si="7"/>
         <v>1.0480371909096942</v>
       </c>
       <c r="BD13" s="23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>1.0480759609818557</v>
       </c>
       <c r="BE13" s="23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>1.0481124977019278</v>
       </c>
     </row>
@@ -5233,7 +5233,7 @@
         <v>1</v>
       </c>
       <c r="L14" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>1.0820292418104422</v>
       </c>
       <c r="N14" s="2" t="s">
@@ -5268,39 +5268,39 @@
         <v>0.99309000000000003</v>
       </c>
       <c r="Z14" s="6">
+        <f t="shared" si="8"/>
+        <v>2.4839258282998165</v>
+      </c>
+      <c r="AA14" s="6">
+        <f t="shared" si="0"/>
+        <v>0.99348978731730297</v>
+      </c>
+      <c r="AB14" s="6">
+        <f t="shared" si="1"/>
+        <v>0.99386658725757104</v>
+      </c>
+      <c r="AC14" s="6">
+        <f t="shared" si="2"/>
+        <v>0.99422170550568567</v>
+      </c>
+      <c r="AD14" s="6">
         <f t="shared" si="3"/>
-        <v>2.4839258282998165</v>
-      </c>
-      <c r="AA14" s="6">
-        <f>1/(1+EXP(-2*(O$14*1+O$15*0)-2*1*Z14))</f>
-        <v>0.99348978731730297</v>
-      </c>
-      <c r="AB14" s="6">
-        <f>1/(1+EXP(-2*(O$14*2/3+O$15*1/3)-2*1*Z14))</f>
-        <v>0.99386658725757104</v>
-      </c>
-      <c r="AC14" s="6">
-        <f>1/(1+EXP(-2*(O$14*1/3+O$15*2/3)-2*1*Z14))</f>
-        <v>0.99422170550568567</v>
-      </c>
-      <c r="AD14" s="6">
-        <f>1/(1+EXP(-2*(O$14*0+O$15*1)-2*1*Z14))</f>
         <v>0.99455637539185116</v>
       </c>
       <c r="AE14" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.99272627167835925</v>
       </c>
       <c r="AF14" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.99314692575434382</v>
       </c>
       <c r="AG14" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.99354341253003708</v>
       </c>
       <c r="AH14" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.99391710247710907</v>
       </c>
       <c r="AI14" s="6"/>
@@ -5314,19 +5314,19 @@
         <v>0</v>
       </c>
       <c r="AM14" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.99875301363519919</v>
       </c>
       <c r="AN14" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.99882511510550587</v>
       </c>
       <c r="AO14" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.99889307581847475</v>
       </c>
       <c r="AP14" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0.99895713040759193</v>
       </c>
       <c r="AQ14" s="3"/>
@@ -5340,15 +5340,15 @@
         <v>0</v>
       </c>
       <c r="AU14" s="24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>50563.349467479551</v>
       </c>
       <c r="AV14" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>52484.095577503809</v>
       </c>
       <c r="AW14" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>54963.353798245509</v>
       </c>
       <c r="AY14" s="2">
@@ -5364,15 +5364,15 @@
         <v>1</v>
       </c>
       <c r="BC14" s="23">
-        <f>AU14/F13</f>
+        <f t="shared" si="7"/>
         <v>1.0821013432807489</v>
       </c>
       <c r="BD14" s="23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>1.0821693039937177</v>
       </c>
       <c r="BE14" s="23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>1.082233358582835</v>
       </c>
     </row>
@@ -5405,7 +5405,7 @@
         <v>1</v>
       </c>
       <c r="L15" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>1.2671589921807125</v>
       </c>
       <c r="N15" s="2" t="s">
@@ -5440,39 +5440,39 @@
         <v>0.99146999999999996</v>
       </c>
       <c r="Z15" s="6">
+        <f t="shared" si="8"/>
+        <v>2.3777996644062096</v>
+      </c>
+      <c r="AA15" s="6">
+        <f t="shared" si="0"/>
+        <v>0.99196275603941553</v>
+      </c>
+      <c r="AB15" s="6">
+        <f t="shared" si="1"/>
+        <v>0.9924272642511166</v>
+      </c>
+      <c r="AC15" s="6">
+        <f t="shared" si="2"/>
+        <v>0.99286511955438839</v>
+      </c>
+      <c r="AD15" s="6">
         <f t="shared" si="3"/>
-        <v>2.3777996644062096</v>
-      </c>
-      <c r="AA15" s="6">
-        <f>1/(1+EXP(-2*(O$14*1+O$15*0)-2*1*Z15))</f>
-        <v>0.99196275603941553</v>
-      </c>
-      <c r="AB15" s="6">
-        <f>1/(1+EXP(-2*(O$14*2/3+O$15*1/3)-2*1*Z15))</f>
-        <v>0.9924272642511166</v>
-      </c>
-      <c r="AC15" s="6">
-        <f>1/(1+EXP(-2*(O$14*1/3+O$15*2/3)-2*1*Z15))</f>
-        <v>0.99286511955438839</v>
-      </c>
-      <c r="AD15" s="6">
-        <f>1/(1+EXP(-2*(O$14*0+O$15*1)-2*1*Z15))</f>
         <v>0.99327782956236699</v>
       </c>
       <c r="AE15" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.99104823282279453</v>
       </c>
       <c r="AF15" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.99156510004219545</v>
       </c>
       <c r="AG15" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.99205236560808574</v>
       </c>
       <c r="AH15" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.99251169769956049</v>
       </c>
       <c r="AI15" s="6"/>
@@ -5486,19 +5486,19 @@
         <v>0</v>
       </c>
       <c r="AM15" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.99830966611498284</v>
       </c>
       <c r="AN15" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.99840725911632167</v>
       </c>
       <c r="AO15" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.99849926344118733</v>
       </c>
       <c r="AP15" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0.9985859939686661</v>
       </c>
       <c r="AQ15" s="3"/>
@@ -5512,15 +5512,15 @@
         <v>0</v>
       </c>
       <c r="AU15" s="24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>66680.506999109188</v>
       </c>
       <c r="AV15" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>64081.38962835553</v>
       </c>
       <c r="AW15" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>66520.196474989352</v>
       </c>
       <c r="AY15" s="2">
@@ -5536,15 +5536,15 @@
         <v>1</v>
       </c>
       <c r="BC15" s="23">
-        <f>AU15/F14</f>
+        <f t="shared" si="7"/>
         <v>1.2672565851820516</v>
       </c>
       <c r="BD15" s="23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>1.267348589506917</v>
       </c>
       <c r="BE15" s="23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>1.2674353200343957</v>
       </c>
     </row>
@@ -5577,7 +5577,7 @@
         <v>1</v>
       </c>
       <c r="L16" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>1.1832754801234977</v>
       </c>
       <c r="N16" s="34"/>
@@ -5608,39 +5608,39 @@
         <v>0.98953000000000002</v>
       </c>
       <c r="Z16" s="6">
+        <f t="shared" si="8"/>
+        <v>2.2743580290215912</v>
+      </c>
+      <c r="AA16" s="6">
+        <f t="shared" si="0"/>
+        <v>0.99013370960617342</v>
+      </c>
+      <c r="AB16" s="6">
+        <f t="shared" si="1"/>
+        <v>0.99070293583327429</v>
+      </c>
+      <c r="AC16" s="6">
+        <f t="shared" si="2"/>
+        <v>0.99123961166178309</v>
+      </c>
+      <c r="AD16" s="6">
         <f t="shared" si="3"/>
-        <v>2.2743580290215912</v>
-      </c>
-      <c r="AA16" s="6">
-        <f>1/(1+EXP(-2*(O$14*1+O$15*0)-2*1*Z16))</f>
-        <v>0.99013370960617342</v>
-      </c>
-      <c r="AB16" s="6">
-        <f>1/(1+EXP(-2*(O$14*2/3+O$15*1/3)-2*1*Z16))</f>
-        <v>0.99070293583327429</v>
-      </c>
-      <c r="AC16" s="6">
-        <f>1/(1+EXP(-2*(O$14*1/3+O$15*2/3)-2*1*Z16))</f>
-        <v>0.99123961166178309</v>
-      </c>
-      <c r="AD16" s="6">
-        <f>1/(1+EXP(-2*(O$14*0+O$15*1)-2*1*Z16))</f>
         <v>0.99174556583675388</v>
       </c>
       <c r="AE16" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.9889454634552346</v>
       </c>
       <c r="AF16" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.9895824455428468</v>
       </c>
       <c r="AG16" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.99018309211053934</v>
       </c>
       <c r="AH16" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.99074943455516373</v>
       </c>
       <c r="AI16" s="6"/>
@@ -5654,19 +5654,19 @@
         <v>0</v>
       </c>
       <c r="AM16" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.99787823710499879</v>
       </c>
       <c r="AN16" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.99800047974735673</v>
       </c>
       <c r="AO16" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.99811575118174267</v>
       </c>
       <c r="AP16" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0.99822444093255391</v>
       </c>
       <c r="AQ16" s="3"/>
@@ -5680,15 +5680,15 @@
         <v>0</v>
       </c>
       <c r="AU16" s="24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>79395.336618084024</v>
       </c>
       <c r="AV16" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>78917.24649330588</v>
       </c>
       <c r="AW16" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>75848.122301837691</v>
       </c>
       <c r="AY16" s="2">
@@ -5704,15 +5704,15 @@
         <v>1</v>
       </c>
       <c r="BC16" s="23">
-        <f>AU16/F15</f>
+        <f t="shared" si="7"/>
         <v>1.1833977227658556</v>
       </c>
       <c r="BD16" s="23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>1.1835129942002416</v>
       </c>
       <c r="BE16" s="23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>1.1836216839510527</v>
       </c>
     </row>
@@ -5745,7 +5745,7 @@
         <v>1</v>
       </c>
       <c r="L17" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>1.0645530874330957</v>
       </c>
       <c r="N17" s="35"/>
@@ -5776,39 +5776,39 @@
         <v>0.98701000000000005</v>
       </c>
       <c r="Z17" s="6">
+        <f t="shared" si="8"/>
+        <v>2.1652501702059559</v>
+      </c>
+      <c r="AA17" s="6">
+        <f t="shared" si="0"/>
+        <v>0.98775721730429566</v>
+      </c>
+      <c r="AB17" s="6">
+        <f t="shared" si="1"/>
+        <v>0.98846195525241931</v>
+      </c>
+      <c r="AC17" s="6">
+        <f t="shared" si="2"/>
+        <v>0.98912657255929559</v>
+      </c>
+      <c r="AD17" s="6">
         <f t="shared" si="3"/>
-        <v>2.1652501702059559</v>
-      </c>
-      <c r="AA17" s="6">
-        <f>1/(1+EXP(-2*(O$14*1+O$15*0)-2*1*Z17))</f>
-        <v>0.98775721730429566</v>
-      </c>
-      <c r="AB17" s="6">
-        <f>1/(1+EXP(-2*(O$14*2/3+O$15*1/3)-2*1*Z17))</f>
-        <v>0.98846195525241931</v>
-      </c>
-      <c r="AC17" s="6">
-        <f>1/(1+EXP(-2*(O$14*1/3+O$15*2/3)-2*1*Z17))</f>
-        <v>0.98912657255929559</v>
-      </c>
-      <c r="AD17" s="6">
-        <f>1/(1+EXP(-2*(O$14*0+O$15*1)-2*1*Z17))</f>
         <v>0.98975330327357369</v>
       </c>
       <c r="AE17" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.98605439929180683</v>
       </c>
       <c r="AF17" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.98685569370296411</v>
       </c>
       <c r="AG17" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.98761153385720024</v>
       </c>
       <c r="AH17" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.98832443257740987</v>
       </c>
       <c r="AI17" s="6"/>
@@ -5822,19 +5822,19 @@
         <v>0</v>
       </c>
       <c r="AM17" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.99707661921687085</v>
       </c>
       <c r="AN17" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.99724454303715249</v>
       </c>
       <c r="AO17" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.99740294671376595</v>
       </c>
       <c r="AP17" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0.99755235593059643</v>
       </c>
       <c r="AQ17" s="3"/>
@@ -5848,15 +5848,15 @@
         <v>0</v>
       </c>
       <c r="AU17" s="24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>72226.41451938411</v>
       </c>
       <c r="AV17" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>84546.459606034987</v>
       </c>
       <c r="AW17" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>84049.142237670414</v>
       </c>
       <c r="AY17" s="2">
@@ -5872,15 +5872,15 @@
         <v>1</v>
       </c>
       <c r="BC17" s="23">
-        <f>AU17/F16</f>
+        <f t="shared" si="7"/>
         <v>1.0647210112533774</v>
       </c>
       <c r="BD17" s="23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>1.0648794149299907</v>
       </c>
       <c r="BE17" s="23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>1.0650288241468213</v>
       </c>
     </row>
@@ -5913,7 +5913,7 @@
         <v>1</v>
       </c>
       <c r="L18" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>1.0235310330571394</v>
       </c>
       <c r="Q18" s="2">
@@ -5942,39 +5942,39 @@
         <v>0.98340000000000005</v>
       </c>
       <c r="Z18" s="6">
+        <f t="shared" si="8"/>
+        <v>2.0408066298076721</v>
+      </c>
+      <c r="AA18" s="6">
+        <f t="shared" si="0"/>
+        <v>0.98435158127931799</v>
+      </c>
+      <c r="AB18" s="6">
+        <f t="shared" si="1"/>
+        <v>0.98524943215350891</v>
+      </c>
+      <c r="AC18" s="6">
+        <f t="shared" si="2"/>
+        <v>0.98609649515510478</v>
+      </c>
+      <c r="AD18" s="6">
         <f t="shared" si="3"/>
-        <v>2.0408066298076721</v>
-      </c>
-      <c r="AA18" s="6">
-        <f>1/(1+EXP(-2*(O$14*1+O$15*0)-2*1*Z18))</f>
-        <v>0.98435158127931799</v>
-      </c>
-      <c r="AB18" s="6">
-        <f>1/(1+EXP(-2*(O$14*2/3+O$15*1/3)-2*1*Z18))</f>
-        <v>0.98524943215350891</v>
-      </c>
-      <c r="AC18" s="6">
-        <f>1/(1+EXP(-2*(O$14*1/3+O$15*2/3)-2*1*Z18))</f>
-        <v>0.98609649515510478</v>
-      </c>
-      <c r="AD18" s="6">
-        <f>1/(1+EXP(-2*(O$14*0+O$15*1)-2*1*Z18))</f>
         <v>0.98689556188124605</v>
       </c>
       <c r="AE18" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.98166146164737467</v>
       </c>
       <c r="AF18" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.98271055291729748</v>
       </c>
       <c r="AG18" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.98370064654830447</v>
       </c>
       <c r="AH18" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.98463494707510435</v>
       </c>
       <c r="AI18" s="6"/>
@@ -5988,19 +5988,19 @@
         <v>0</v>
       </c>
       <c r="AM18" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.99554493378094844</v>
       </c>
       <c r="AN18" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.99579964850776426</v>
       </c>
       <c r="AO18" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.99604005504712823</v>
       </c>
       <c r="AP18" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0.99626692877288903</v>
       </c>
       <c r="AQ18" s="3"/>
@@ -6014,15 +6014,15 @@
         <v>0</v>
       </c>
       <c r="AU18" s="24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>63734.757942542361</v>
       </c>
       <c r="AV18" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>73961.737500846852</v>
       </c>
       <c r="AW18" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>86596.967262310558</v>
       </c>
       <c r="AY18" s="2">
@@ -6038,15 +6038,15 @@
         <v>1</v>
       </c>
       <c r="BC18" s="23">
-        <f>AU18/F17</f>
+        <f t="shared" si="7"/>
         <v>1.0237857477839554</v>
       </c>
       <c r="BD18" s="23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>1.0240261543233191</v>
       </c>
       <c r="BE18" s="23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>1.02425302804908</v>
       </c>
     </row>
@@ -6079,7 +6079,7 @@
         <v>1</v>
       </c>
       <c r="L19" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0.99943326721450831</v>
       </c>
       <c r="Q19" s="2">
@@ -6108,39 +6108,39 @@
         <v>0.97770000000000001</v>
       </c>
       <c r="Z19" s="6">
+        <f t="shared" si="8"/>
+        <v>1.8903080980227764</v>
+      </c>
+      <c r="AA19" s="6">
+        <f t="shared" si="0"/>
+        <v>0.97897134201543135</v>
+      </c>
+      <c r="AB19" s="6">
+        <f t="shared" si="1"/>
+        <v>0.98017167368108615</v>
+      </c>
+      <c r="AC19" s="6">
+        <f t="shared" si="2"/>
+        <v>0.98130479794150405</v>
+      </c>
+      <c r="AD19" s="6">
         <f t="shared" si="3"/>
-        <v>1.8903080980227764</v>
-      </c>
-      <c r="AA19" s="6">
-        <f>1/(1+EXP(-2*(O$14*1+O$15*0)-2*1*Z19))</f>
-        <v>0.97897134201543135</v>
-      </c>
-      <c r="AB19" s="6">
-        <f>1/(1+EXP(-2*(O$14*2/3+O$15*1/3)-2*1*Z19))</f>
-        <v>0.98017167368108615</v>
-      </c>
-      <c r="AC19" s="6">
-        <f>1/(1+EXP(-2*(O$14*1/3+O$15*2/3)-2*1*Z19))</f>
-        <v>0.98130479794150405</v>
-      </c>
-      <c r="AD19" s="6">
-        <f>1/(1+EXP(-2*(O$14*0+O$15*1)-2*1*Z19))</f>
         <v>0.98237433226896276</v>
       </c>
       <c r="AE19" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.97461144160739832</v>
       </c>
       <c r="AF19" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.97605350530004253</v>
       </c>
       <c r="AG19" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.9774156131457532</v>
       </c>
       <c r="AH19" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.97870198228801342</v>
       </c>
       <c r="AI19" s="6"/>
@@ -6154,19 +6154,19 @@
         <v>0</v>
       </c>
       <c r="AM19" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.99281827766963027</v>
       </c>
       <c r="AN19" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.99322583074182658</v>
       </c>
       <c r="AO19" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.99361082721191174</v>
       </c>
       <c r="AP19" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0.99397445235443349</v>
       </c>
       <c r="AQ19" s="3"/>
@@ -6180,15 +6180,15 @@
         <v>0</v>
       </c>
       <c r="AU19" s="24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>59407.542018975131</v>
       </c>
       <c r="AV19" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>63749.15031887572</v>
       </c>
       <c r="AW19" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>74005.333647875726</v>
       </c>
       <c r="AY19" s="2">
@@ -6204,15 +6204,15 @@
         <v>1</v>
       </c>
       <c r="BC19" s="23">
-        <f>AU19/F18</f>
+        <f t="shared" si="7"/>
         <v>0.99984082028670462</v>
       </c>
       <c r="BD19" s="23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>1.0002258167567897</v>
       </c>
       <c r="BE19" s="23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>1.0005894418993115</v>
       </c>
     </row>
@@ -6245,7 +6245,7 @@
         <v>1</v>
       </c>
       <c r="L20" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0.99570704010801636</v>
       </c>
       <c r="Q20" s="2">
@@ -6274,39 +6274,39 @@
         <v>0.96847000000000005</v>
       </c>
       <c r="Z20" s="6">
+        <f t="shared" si="8"/>
+        <v>1.7123890165373254</v>
+      </c>
+      <c r="AA20" s="6">
+        <f t="shared" si="0"/>
+        <v>0.97025154119936519</v>
+      </c>
+      <c r="AB20" s="6">
+        <f t="shared" si="1"/>
+        <v>0.97193533691899903</v>
+      </c>
+      <c r="AC20" s="6">
+        <f t="shared" si="2"/>
+        <v>0.97352642835000236</v>
+      </c>
+      <c r="AD20" s="6">
         <f t="shared" si="3"/>
-        <v>1.7123890165373254</v>
-      </c>
-      <c r="AA20" s="6">
-        <f>1/(1+EXP(-2*(O$14*1+O$15*0)-2*1*Z20))</f>
-        <v>0.97025154119936519</v>
-      </c>
-      <c r="AB20" s="6">
-        <f>1/(1+EXP(-2*(O$14*2/3+O$15*1/3)-2*1*Z20))</f>
-        <v>0.97193533691899903</v>
-      </c>
-      <c r="AC20" s="6">
-        <f>1/(1+EXP(-2*(O$14*1/3+O$15*2/3)-2*1*Z20))</f>
-        <v>0.97352642835000236</v>
-      </c>
-      <c r="AD20" s="6">
-        <f>1/(1+EXP(-2*(O$14*0+O$15*1)-2*1*Z20))</f>
         <v>0.97502963230706396</v>
       </c>
       <c r="AE20" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.96334072673643534</v>
       </c>
       <c r="AF20" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.96539909765032927</v>
       </c>
       <c r="AG20" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.96734594688598363</v>
       </c>
       <c r="AH20" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.96918687297239992</v>
       </c>
       <c r="AI20" s="6"/>
@@ -6320,19 +6320,19 @@
         <v>0</v>
       </c>
       <c r="AM20" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.98843568381223335</v>
       </c>
       <c r="AN20" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.9890841971348302</v>
       </c>
       <c r="AO20" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.98969766174763574</v>
       </c>
       <c r="AP20" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0.99027782768624928</v>
       </c>
       <c r="AQ20" s="3"/>
@@ -6346,15 +6346,15 @@
         <v>0</v>
       </c>
       <c r="AU20" s="24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>56226.336591196363</v>
       </c>
       <c r="AV20" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>59227.478831030778</v>
       </c>
       <c r="AW20" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>63592.912880142387</v>
       </c>
       <c r="AY20" s="2">
@@ -6370,15 +6370,15 @@
         <v>1</v>
       </c>
       <c r="BC20" s="23">
-        <f>AU20/F19</f>
+        <f t="shared" si="7"/>
         <v>0.99635555343061322</v>
       </c>
       <c r="BD20" s="23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0.99696901804341875</v>
       </c>
       <c r="BE20" s="23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0.99754918398203229</v>
       </c>
     </row>
@@ -6411,7 +6411,7 @@
         <v>1</v>
       </c>
       <c r="L21" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0.98995874945722973</v>
       </c>
       <c r="Q21" s="2">
@@ -6440,39 +6440,39 @@
         <v>0.95386000000000004</v>
       </c>
       <c r="Z21" s="6">
+        <f t="shared" si="8"/>
+        <v>1.5144183287048296</v>
+      </c>
+      <c r="AA21" s="6">
+        <f t="shared" si="0"/>
+        <v>0.95642991227350538</v>
+      </c>
+      <c r="AB21" s="6">
+        <f t="shared" si="1"/>
+        <v>0.95886285838165952</v>
+      </c>
+      <c r="AC21" s="6">
+        <f t="shared" si="2"/>
+        <v>0.9611654654219649</v>
+      </c>
+      <c r="AD21" s="6">
         <f t="shared" si="3"/>
-        <v>1.5144183287048296</v>
-      </c>
-      <c r="AA21" s="6">
-        <f>1/(1+EXP(-2*(O$14*1+O$15*0)-2*1*Z21))</f>
-        <v>0.95642991227350538</v>
-      </c>
-      <c r="AB21" s="6">
-        <f>1/(1+EXP(-2*(O$14*2/3+O$15*1/3)-2*1*Z21))</f>
-        <v>0.95886285838165952</v>
-      </c>
-      <c r="AC21" s="6">
-        <f>1/(1+EXP(-2*(O$14*1/3+O$15*2/3)-2*1*Z21))</f>
-        <v>0.9611654654219649</v>
-      </c>
-      <c r="AD21" s="6">
-        <f>1/(1+EXP(-2*(O$14*0+O$15*1)-2*1*Z21))</f>
         <v>0.96334411363773587</v>
       </c>
       <c r="AE21" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.94640938036731737</v>
       </c>
       <c r="AF21" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.94936669339968749</v>
       </c>
       <c r="AG21" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.95216933655624847</v>
       </c>
       <c r="AH21" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.95482448042400803</v>
       </c>
       <c r="AI21" s="6"/>
@@ -6486,19 +6486,19 @@
         <v>0</v>
       </c>
       <c r="AM21" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.98242434281121149</v>
       </c>
       <c r="AN21" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.98339297779575019</v>
       </c>
       <c r="AO21" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.98431108293926206</v>
       </c>
       <c r="AP21" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0.98518098733184045</v>
       </c>
       <c r="AQ21" s="3"/>
@@ -6512,15 +6512,15 @@
         <v>0</v>
       </c>
       <c r="AU21" s="24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>56999.134080474963</v>
       </c>
       <c r="AV21" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>55767.838343881915</v>
       </c>
       <c r="AW21" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>58796.029982062006</v>
       </c>
       <c r="AY21" s="2">
@@ -6536,15 +6536,15 @@
         <v>1</v>
       </c>
       <c r="BC21" s="23">
-        <f>AU21/F20</f>
+        <f t="shared" si="7"/>
         <v>0.99092738444176842</v>
       </c>
       <c r="BD21" s="23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0.99184548958528029</v>
       </c>
       <c r="BE21" s="23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0.99271539397785868</v>
       </c>
     </row>
@@ -6577,7 +6577,7 @@
         <v>1</v>
       </c>
       <c r="L22" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0.96696861004721668</v>
       </c>
       <c r="Q22" s="2">
@@ -6606,39 +6606,39 @@
         <v>0.93271999999999999</v>
       </c>
       <c r="Z22" s="6">
+        <f t="shared" si="8"/>
+        <v>1.3146210164801717</v>
+      </c>
+      <c r="AA22" s="6">
+        <f t="shared" si="0"/>
+        <v>0.93638884846112935</v>
+      </c>
+      <c r="AB22" s="6">
+        <f t="shared" si="1"/>
+        <v>0.93987052841771546</v>
+      </c>
+      <c r="AC22" s="6">
+        <f t="shared" si="2"/>
+        <v>0.94317320769053214</v>
+      </c>
+      <c r="AD22" s="6">
         <f t="shared" si="3"/>
-        <v>1.3146210164801717</v>
-      </c>
-      <c r="AA22" s="6">
-        <f>1/(1+EXP(-2*(O$14*1+O$15*0)-2*1*Z22))</f>
-        <v>0.93638884846112935</v>
-      </c>
-      <c r="AB22" s="6">
-        <f>1/(1+EXP(-2*(O$14*2/3+O$15*1/3)-2*1*Z22))</f>
-        <v>0.93987052841771546</v>
-      </c>
-      <c r="AC22" s="6">
-        <f>1/(1+EXP(-2*(O$14*1/3+O$15*2/3)-2*1*Z22))</f>
-        <v>0.94317320769053214</v>
-      </c>
-      <c r="AD22" s="6">
-        <f>1/(1+EXP(-2*(O$14*0+O$15*1)-2*1*Z22))</f>
         <v>0.9463048472102803</v>
       </c>
       <c r="AE22" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.92188311155514058</v>
       </c>
       <c r="AF22" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.92608438421036765</v>
       </c>
       <c r="AG22" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.93007739813410906</v>
       </c>
       <c r="AH22" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.93387061338444244</v>
       </c>
       <c r="AI22" s="6"/>
@@ -6652,19 +6652,19 @@
         <v>0</v>
       </c>
       <c r="AM22" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.97408492633213573</v>
       </c>
       <c r="AN22" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.97547595744490911</v>
       </c>
       <c r="AO22" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.97679830931960032</v>
       </c>
       <c r="AP22" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0.97805474464766484</v>
       </c>
       <c r="AQ22" s="3"/>
@@ -6678,15 +6678,15 @@
         <v>0</v>
       </c>
       <c r="AU22" s="24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>52985.734485351175</v>
       </c>
       <c r="AV22" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>55271.033936405991</v>
       </c>
       <c r="AW22" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>54147.137314796375</v>
       </c>
       <c r="AY22" s="2">
@@ -6702,15 +6702,15 @@
         <v>1</v>
       </c>
       <c r="BC22" s="23">
-        <f>AU22/F21</f>
+        <f t="shared" si="7"/>
         <v>0.96835964115999007</v>
       </c>
       <c r="BD22" s="23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0.96968199303468139</v>
       </c>
       <c r="BE22" s="23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0.97093842836274569</v>
       </c>
     </row>
@@ -6743,7 +6743,7 @@
         <v>1</v>
       </c>
       <c r="L23" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0.94316307751141282</v>
       </c>
       <c r="Q23" s="2">
@@ -6772,39 +6772,39 @@
         <v>0.90220999999999996</v>
       </c>
       <c r="Z23" s="6">
+        <f t="shared" si="8"/>
+        <v>1.1110124933027659</v>
+      </c>
+      <c r="AA23" s="6">
+        <f t="shared" si="0"/>
+        <v>0.9073773746491518</v>
+      </c>
+      <c r="AB23" s="6">
+        <f t="shared" si="1"/>
+        <v>0.91229824000301996</v>
+      </c>
+      <c r="AC23" s="6">
+        <f t="shared" si="2"/>
+        <v>0.91698158857768586</v>
+      </c>
+      <c r="AD23" s="6">
         <f t="shared" si="3"/>
-        <v>1.1110124933027659</v>
-      </c>
-      <c r="AA23" s="6">
-        <f>1/(1+EXP(-2*(O$14*1+O$15*0)-2*1*Z23))</f>
-        <v>0.9073773746491518</v>
-      </c>
-      <c r="AB23" s="6">
-        <f>1/(1+EXP(-2*(O$14*2/3+O$15*1/3)-2*1*Z23))</f>
-        <v>0.91229824000301996</v>
-      </c>
-      <c r="AC23" s="6">
-        <f>1/(1+EXP(-2*(O$14*1/3+O$15*2/3)-2*1*Z23))</f>
-        <v>0.91698158857768586</v>
-      </c>
-      <c r="AD23" s="6">
-        <f>1/(1+EXP(-2*(O$14*0+O$15*1)-2*1*Z23))</f>
         <v>0.92143637955860458</v>
       </c>
       <c r="AE23" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.88651002091045616</v>
       </c>
       <c r="AF23" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.8923837109190601</v>
       </c>
       <c r="AG23" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.89798946123613055</v>
       </c>
       <c r="AH23" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.90333582683732938</v>
       </c>
       <c r="AI23" s="6"/>
@@ -6818,19 +6818,19 @@
         <v>0</v>
       </c>
       <c r="AM23" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.96162952742998742</v>
       </c>
       <c r="AN23" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.96360950053159289</v>
       </c>
       <c r="AO23" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.9654997132901495</v>
       </c>
       <c r="AP23" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0.96730297954611522</v>
       </c>
       <c r="AQ23" s="3"/>
@@ -6844,15 +6844,15 @@
         <v>0</v>
       </c>
       <c r="AU23" s="24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>45099.39094610139</v>
       </c>
       <c r="AV23" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>50179.253041801916</v>
       </c>
       <c r="AW23" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>52443.176029145485</v>
       </c>
       <c r="AY23" s="2">
@@ -6868,15 +6868,15 @@
         <v>1</v>
       </c>
       <c r="BC23" s="23">
-        <f>AU23/F22</f>
+        <f t="shared" si="7"/>
         <v>0.94514305061301818</v>
       </c>
       <c r="BD23" s="23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0.9470332633715749</v>
       </c>
       <c r="BE23" s="23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0.94883652962754061</v>
       </c>
     </row>
@@ -6909,7 +6909,7 @@
         <v>1</v>
       </c>
       <c r="L24" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0.92635945024429678</v>
       </c>
       <c r="Q24" s="2">
@@ -6938,39 +6938,39 @@
         <v>0.85851</v>
       </c>
       <c r="Z24" s="6">
+        <f t="shared" si="8"/>
+        <v>0.90148464264273753</v>
+      </c>
+      <c r="AA24" s="6">
+        <f t="shared" si="0"/>
+        <v>0.86564266717176064</v>
+      </c>
+      <c r="AB24" s="6">
+        <f t="shared" si="1"/>
+        <v>0.87246918183510025</v>
+      </c>
+      <c r="AC24" s="6">
+        <f t="shared" si="2"/>
+        <v>0.87899733389457513</v>
+      </c>
+      <c r="AD24" s="6">
         <f t="shared" si="3"/>
-        <v>0.90148464264273753</v>
-      </c>
-      <c r="AA24" s="6">
-        <f>1/(1+EXP(-2*(O$14*1+O$15*0)-2*1*Z24))</f>
-        <v>0.86564266717176064</v>
-      </c>
-      <c r="AB24" s="6">
-        <f>1/(1+EXP(-2*(O$14*2/3+O$15*1/3)-2*1*Z24))</f>
-        <v>0.87246918183510025</v>
-      </c>
-      <c r="AC24" s="6">
-        <f>1/(1+EXP(-2*(O$14*1/3+O$15*2/3)-2*1*Z24))</f>
-        <v>0.87899733389457513</v>
-      </c>
-      <c r="AD24" s="6">
-        <f>1/(1+EXP(-2*(O$14*0+O$15*1)-2*1*Z24))</f>
         <v>0.88523527411605418</v>
       </c>
       <c r="AE24" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.83429444175066525</v>
       </c>
       <c r="AF24" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.84236829411028447</v>
       </c>
       <c r="AG24" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.85012158532852578</v>
       </c>
       <c r="AH24" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.8575600361323078</v>
       </c>
       <c r="AI24" s="6"/>
@@ -6984,19 +6984,19 @@
         <v>0</v>
       </c>
       <c r="AM24" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.94109984328641327</v>
       </c>
       <c r="AN24" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.94395301460930403</v>
       </c>
       <c r="AO24" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.94669439010819556</v>
       </c>
       <c r="AP24" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0.94932583282422522</v>
       </c>
       <c r="AQ24" s="3"/>
@@ -7010,15 +7010,15 @@
         <v>0</v>
       </c>
       <c r="AU24" s="24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>36667.659259662789</v>
       </c>
       <c r="AV24" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>42030.557657464924</v>
       </c>
       <c r="AW24" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>46896.799272010161</v>
       </c>
       <c r="AY24" s="2">
@@ -7034,15 +7034,15 @@
         <v>1</v>
       </c>
       <c r="BC24" s="23">
-        <f>AU24/F23</f>
+        <f t="shared" si="7"/>
         <v>0.92921262156718754</v>
       </c>
       <c r="BD24" s="23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0.93195399706607895</v>
       </c>
       <c r="BE24" s="23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0.93458543978210873</v>
       </c>
     </row>
@@ -7075,7 +7075,7 @@
         <v>1</v>
       </c>
       <c r="L25" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0.90353651523864287</v>
       </c>
       <c r="Q25" s="2">
@@ -7104,39 +7104,39 @@
         <v>0.79327999999999999</v>
       </c>
       <c r="Z25" s="6">
+        <f t="shared" si="8"/>
+        <v>0.67240551412629423</v>
+      </c>
+      <c r="AA25" s="6">
+        <f t="shared" si="0"/>
+        <v>0.80294621632956986</v>
+      </c>
+      <c r="AB25" s="6">
+        <f t="shared" si="1"/>
+        <v>0.81226740638546868</v>
+      </c>
+      <c r="AC25" s="6">
+        <f t="shared" si="2"/>
+        <v>0.82124583676247653</v>
+      </c>
+      <c r="AD25" s="6">
         <f t="shared" si="3"/>
-        <v>0.67240551412629423</v>
-      </c>
-      <c r="AA25" s="6">
-        <f>1/(1+EXP(-2*(O$14*1+O$15*0)-2*1*Z25))</f>
-        <v>0.80294621632956986</v>
-      </c>
-      <c r="AB25" s="6">
-        <f>1/(1+EXP(-2*(O$14*2/3+O$15*1/3)-2*1*Z25))</f>
-        <v>0.81226740638546868</v>
-      </c>
-      <c r="AC25" s="6">
-        <f>1/(1+EXP(-2*(O$14*1/3+O$15*2/3)-2*1*Z25))</f>
-        <v>0.82124583676247653</v>
-      </c>
-      <c r="AD25" s="6">
-        <f>1/(1+EXP(-2*(O$14*0+O$15*1)-2*1*Z25))</f>
         <v>0.82988479814856142</v>
       </c>
       <c r="AE25" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.75486648068963891</v>
       </c>
       <c r="AF25" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.76566624145451168</v>
       </c>
       <c r="AG25" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.77613537802554577</v>
       </c>
       <c r="AH25" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.78627131372391545</v>
       </c>
       <c r="AI25" s="6"/>
@@ -7150,19 +7150,19 @@
         <v>0</v>
       </c>
       <c r="AM25" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.90479624807956716</v>
       </c>
       <c r="AN25" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.90894475350976256</v>
       </c>
       <c r="AO25" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.91296985210134574</v>
       </c>
       <c r="AP25" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0.91687028382302826</v>
       </c>
       <c r="AQ25" s="3"/>
@@ -7176,15 +7176,15 @@
         <v>0</v>
       </c>
       <c r="AU25" s="24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>23921.131034706563</v>
       </c>
       <c r="AV25" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>33430.275996627657</v>
       </c>
       <c r="AW25" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>38483.622054836545</v>
       </c>
       <c r="AY25" s="2">
@@ -7200,15 +7200,15 @@
         <v>1</v>
       </c>
       <c r="BC25" s="23">
-        <f>AU25/F24</f>
+        <f t="shared" si="7"/>
         <v>0.90768502066883827</v>
       </c>
       <c r="BD25" s="23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0.91171011926042145</v>
       </c>
       <c r="BE25" s="23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0.91561055098210387</v>
       </c>
     </row>
@@ -7270,39 +7270,39 @@
         <v>0.69420000000000004</v>
       </c>
       <c r="Z26" s="6">
+        <f t="shared" si="8"/>
+        <v>0.40991440496636206</v>
+      </c>
+      <c r="AA26" s="6">
+        <f t="shared" si="0"/>
+        <v>0.70678674504970795</v>
+      </c>
+      <c r="AB26" s="6">
+        <f t="shared" si="1"/>
+        <v>0.71906507652355456</v>
+      </c>
+      <c r="AC26" s="6">
+        <f t="shared" si="2"/>
+        <v>0.73102491928861513</v>
+      </c>
+      <c r="AD26" s="6">
         <f t="shared" si="3"/>
-        <v>0.40991440496636206</v>
-      </c>
-      <c r="AA26" s="6">
-        <f>1/(1+EXP(-2*(O$14*1+O$15*0)-2*1*Z26))</f>
-        <v>0.70678674504970795</v>
-      </c>
-      <c r="AB26" s="6">
-        <f>1/(1+EXP(-2*(O$14*2/3+O$15*1/3)-2*1*Z26))</f>
-        <v>0.71906507652355456</v>
-      </c>
-      <c r="AC26" s="6">
-        <f>1/(1+EXP(-2*(O$14*1/3+O$15*2/3)-2*1*Z26))</f>
-        <v>0.73102491928861513</v>
-      </c>
-      <c r="AD26" s="6">
-        <f>1/(1+EXP(-2*(O$14*0+O$15*1)-2*1*Z26))</f>
         <v>0.7426578292992696</v>
       </c>
       <c r="AE26" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.63580388208389538</v>
       </c>
       <c r="AF26" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.64928623249913087</v>
       </c>
       <c r="AG26" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.66253963151193063</v>
       </c>
       <c r="AH26" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.67554795689938052</v>
       </c>
       <c r="AI26" s="6"/>
@@ -7316,19 +7316,19 @@
         <v>0</v>
       </c>
       <c r="AM26" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.84227330044252458</v>
       </c>
       <c r="AN26" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.84800164529351929</v>
       </c>
       <c r="AO26" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.85363926226040909</v>
       </c>
       <c r="AP26" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0.85917919820814759</v>
       </c>
       <c r="AQ26" s="3"/>
@@ -7342,15 +7342,15 @@
         <v>0</v>
       </c>
       <c r="AU26" s="24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>16335.327337236904</v>
       </c>
       <c r="AV26" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>20859.308226104033</v>
       </c>
       <c r="AW26" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>29336.516802959493</v>
       </c>
       <c r="AY26" s="2">
@@ -7366,15 +7366,15 @@
         <v>1</v>
       </c>
       <c r="BC26" s="23">
-        <f>AU26/F25</f>
+        <f t="shared" si="7"/>
         <v>0.86636580945303121</v>
       </c>
       <c r="BD26" s="23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0.87200342641992101</v>
       </c>
       <c r="BE26" s="23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0.87754336236765951</v>
       </c>
     </row>
@@ -7436,39 +7436,39 @@
         <v>0.55001999999999995</v>
       </c>
       <c r="Z27" s="6">
+        <f t="shared" si="8"/>
+        <v>0.10037575193475086</v>
+      </c>
+      <c r="AA27" s="6">
+        <f t="shared" si="0"/>
+        <v>0.56482101911808291</v>
+      </c>
+      <c r="AB27" s="6">
+        <f t="shared" si="1"/>
+        <v>0.57950738847470706</v>
+      </c>
+      <c r="AC27" s="6">
+        <f t="shared" si="2"/>
+        <v>0.59405434373524613</v>
+      </c>
+      <c r="AD27" s="6">
         <f t="shared" si="3"/>
-        <v>0.10037575193475086</v>
-      </c>
-      <c r="AA27" s="6">
-        <f>1/(1+EXP(-2*(O$14*1+O$15*0)-2*1*Z27))</f>
-        <v>0.56482101911808291</v>
-      </c>
-      <c r="AB27" s="6">
-        <f>1/(1+EXP(-2*(O$14*2/3+O$15*1/3)-2*1*Z27))</f>
-        <v>0.57950738847470706</v>
-      </c>
-      <c r="AC27" s="6">
-        <f>1/(1+EXP(-2*(O$14*1/3+O$15*2/3)-2*1*Z27))</f>
-        <v>0.59405434373524613</v>
-      </c>
-      <c r="AD27" s="6">
-        <f>1/(1+EXP(-2*(O$14*0+O$15*1)-2*1*Z27))</f>
         <v>0.60843808449949155</v>
       </c>
       <c r="AE27" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.46775288869176207</v>
       </c>
       <c r="AF27" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.48214699274945971</v>
       </c>
       <c r="AG27" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.49656952193967158</v>
       </c>
       <c r="AH27" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.51099751883433797</v>
       </c>
       <c r="AI27" s="6"/>
@@ -7508,7 +7508,7 @@
         <v>0</v>
       </c>
       <c r="AU27" s="24">
-        <f>(F26+F27)*(($L27-$AM27)*$O$13+AN27)+($O$12*$T27*(AU$9-L$9)*SUM(E$46:E$63))</f>
+        <f>(F26+F27)*(($L27-$AM27)*$O$13+AN27)+($O$12*$T27*(AU$9-L$9)*SUM(F$46:F$63))</f>
         <v>20417.951271081307</v>
       </c>
       <c r="AV27" s="24">
@@ -7601,39 +7601,39 @@
         <v>0.35680000000000001</v>
       </c>
       <c r="Z28" s="6">
+        <f t="shared" si="8"/>
+        <v>-0.29464015857945119</v>
+      </c>
+      <c r="AA28" s="6">
+        <f t="shared" si="0"/>
+        <v>0.37068475826544123</v>
+      </c>
+      <c r="AB28" s="6">
+        <f t="shared" si="1"/>
+        <v>0.38478659702421242</v>
+      </c>
+      <c r="AC28" s="6">
+        <f t="shared" si="2"/>
+        <v>0.39908470014409703</v>
+      </c>
+      <c r="AD28" s="6">
         <f t="shared" si="3"/>
-        <v>-0.29464015857945119</v>
-      </c>
-      <c r="AA28" s="6">
-        <f>1/(1+EXP(-2*(O$14*1+O$15*0)-2*1*Z28))</f>
-        <v>0.37068475826544123</v>
-      </c>
-      <c r="AB28" s="6">
-        <f>1/(1+EXP(-2*(O$14*2/3+O$15*1/3)-2*1*Z28))</f>
-        <v>0.38478659702421242</v>
-      </c>
-      <c r="AC28" s="6">
-        <f>1/(1+EXP(-2*(O$14*1/3+O$15*2/3)-2*1*Z28))</f>
-        <v>0.39908470014409703</v>
-      </c>
-      <c r="AD28" s="6">
-        <f>1/(1+EXP(-2*(O$14*0+O$15*1)-2*1*Z28))</f>
         <v>0.41355695316918434</v>
       </c>
       <c r="AE28" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.26960284091290643</v>
       </c>
       <c r="AF28" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.2809413984751884</v>
       </c>
       <c r="AG28" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.2925474581818952</v>
       </c>
       <c r="AH28" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.30441169966278853</v>
       </c>
       <c r="AI28" s="6"/>
@@ -7761,39 +7761,39 @@
         <v>0.16028000000000001</v>
       </c>
       <c r="Z29" s="6">
+        <f t="shared" si="8"/>
+        <v>-0.82807310858408889</v>
+      </c>
+      <c r="AA29" s="6">
+        <f t="shared" si="0"/>
+        <v>0.16852092356037157</v>
+      </c>
+      <c r="AB29" s="6">
+        <f t="shared" si="1"/>
+        <v>0.17709619992616432</v>
+      </c>
+      <c r="AC29" s="6">
+        <f t="shared" si="2"/>
+        <v>0.18601021621969338</v>
+      </c>
+      <c r="AD29" s="6">
         <f t="shared" si="3"/>
-        <v>-0.82807310858408889</v>
-      </c>
-      <c r="AA29" s="6">
-        <f>1/(1+EXP(-2*(O$14*1+O$15*0)-2*1*Z29))</f>
-        <v>0.16852092356037157</v>
-      </c>
-      <c r="AB29" s="6">
-        <f>1/(1+EXP(-2*(O$14*2/3+O$15*1/3)-2*1*Z29))</f>
-        <v>0.17709619992616432</v>
-      </c>
-      <c r="AC29" s="6">
-        <f>1/(1+EXP(-2*(O$14*1/3+O$15*2/3)-2*1*Z29))</f>
-        <v>0.18601021621969338</v>
-      </c>
-      <c r="AD29" s="6">
-        <f>1/(1+EXP(-2*(O$14*0+O$15*1)-2*1*Z29))</f>
         <v>0.19526644615639271</v>
       </c>
       <c r="AE29" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.10603116867110993</v>
       </c>
       <c r="AF29" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.11160295811594309</v>
       </c>
       <c r="AG29" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.11741599714335461</v>
       </c>
       <c r="AH29" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.12347557988378841</v>
       </c>
       <c r="AJ29" s="15" t="s">
@@ -7827,7 +7827,7 @@
         <v>11</v>
       </c>
       <c r="AU29" s="24">
-        <f>(F28)*(($L29-$AM34)*$O$13+AN34)+($O$12*T29*(AU$9-L$9)*SUM(E$46:E$63))</f>
+        <f>(F28)*(($L29-$AM34)*$O$13+AN34)+($O$12*T29*(AU$9-L$9)*SUM(F$46:F$63))</f>
         <v>50703.974825414662</v>
       </c>
       <c r="AV29" s="24">
@@ -7851,7 +7851,7 @@
         <v>1</v>
       </c>
       <c r="BC29" s="23">
-        <f>AU29/F28</f>
+        <f t="shared" ref="BC29:BC44" si="18">AU29/F28</f>
         <v>1.0094360904920299</v>
       </c>
       <c r="BD29" s="23">
@@ -7921,39 +7921,39 @@
         <v>4.1110000000000001E-2</v>
       </c>
       <c r="Z30" s="6">
+        <f t="shared" si="8"/>
+        <v>-1.5747624822896737</v>
+      </c>
+      <c r="AA30" s="6">
+        <f t="shared" si="0"/>
+        <v>4.3541413781848282E-2</v>
+      </c>
+      <c r="AB30" s="6">
+        <f t="shared" si="1"/>
+        <v>4.6109716305721846E-2</v>
+      </c>
+      <c r="AC30" s="6">
+        <f t="shared" si="2"/>
+        <v>4.8821778067015854E-2</v>
+      </c>
+      <c r="AD30" s="6">
         <f t="shared" si="3"/>
-        <v>-1.5747624822896737</v>
-      </c>
-      <c r="AA30" s="6">
-        <f>1/(1+EXP(-2*(O$14*1+O$15*0)-2*1*Z30))</f>
-        <v>4.3541413781848282E-2</v>
-      </c>
-      <c r="AB30" s="6">
-        <f>1/(1+EXP(-2*(O$14*2/3+O$15*1/3)-2*1*Z30))</f>
-        <v>4.6109716305721846E-2</v>
-      </c>
-      <c r="AC30" s="6">
-        <f>1/(1+EXP(-2*(O$14*1/3+O$15*2/3)-2*1*Z30))</f>
-        <v>4.8821778067015854E-2</v>
-      </c>
-      <c r="AD30" s="6">
-        <f>1/(1+EXP(-2*(O$14*0+O$15*1)-2*1*Z30))</f>
         <v>5.1684713611184083E-2</v>
       </c>
       <c r="AE30" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>2.4339582497647151E-2</v>
       </c>
       <c r="AF30" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>2.5781717830129031E-2</v>
       </c>
       <c r="AG30" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2.7305392156299332E-2</v>
       </c>
       <c r="AH30" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2.891474617562043E-2</v>
       </c>
       <c r="AI30" s="6"/>
@@ -7988,15 +7988,15 @@
         <v>11</v>
       </c>
       <c r="AU30" s="24">
-        <f t="shared" ref="AU30:AU44" si="13">(F29)*(($L30-$AM35)*$O$13+AN35)+($O$12*T30*(AU$9-L$9)*SUM(E$46:E$63))</f>
+        <f t="shared" ref="AU30:AU44" si="19">(F29)*(($L30-$AM35)*$O$13+AN35)+($O$12*T30*(AU$9-L$9)*SUM(F$46:F$63))</f>
         <v>50586.742781683744</v>
       </c>
       <c r="AV30" s="24">
-        <f t="shared" ref="AV30:AV44" si="14">(AU29)*(($L30-$AM35)*$O$13+AO35)+($O$12*$T30*(AV$9-AU$9)*SUM(AU$46:AU$63))</f>
+        <f t="shared" ref="AV30:AV44" si="20">(AU29)*(($L30-$AM35)*$O$13+AO35)+($O$12*$T30*(AV$9-AU$9)*SUM(AU$46:AU$63))</f>
         <v>50629.163594848345</v>
       </c>
       <c r="AW30" s="24">
-        <f t="shared" ref="AW30:AW44" si="15">(AV29)*(($L30-$AM35)*$O$13+AP35)+($O$12*$T30*(AW$9-AV$9)*SUM(AV$46:AV$63))</f>
+        <f t="shared" ref="AW30:AW44" si="21">(AV29)*(($L30-$AM35)*$O$13+AP35)+($O$12*$T30*(AW$9-AV$9)*SUM(AV$46:AV$63))</f>
         <v>54084.155323474894</v>
       </c>
       <c r="AY30" s="2">
@@ -8012,15 +8012,15 @@
         <v>1</v>
       </c>
       <c r="BC30" s="23">
-        <f>AU30/F29</f>
+        <f t="shared" si="18"/>
         <v>0.99849481439479981</v>
       </c>
       <c r="BD30" s="23">
-        <f t="shared" ref="BD30:BD44" si="16">AV30/AU29</f>
+        <f t="shared" ref="BD30:BD44" si="22">AV30/AU29</f>
         <v>0.99852454899593357</v>
       </c>
       <c r="BE30" s="23">
-        <f t="shared" ref="BE30:BE44" si="17">AW30/AV29</f>
+        <f t="shared" ref="BE30:BE44" si="23">AW30/AV29</f>
         <v>0.99855257087472282</v>
       </c>
     </row>
@@ -8053,7 +8053,7 @@
         <v>1</v>
       </c>
       <c r="L31" s="6">
-        <f t="shared" ref="L31:L43" si="18">F31/E30</f>
+        <f t="shared" ref="L31:L43" si="24">F31/E30</f>
         <v>1.0231269937063541</v>
       </c>
       <c r="M31" s="5"/>
@@ -8085,23 +8085,23 @@
         <v>4.8399999999999997E-3</v>
       </c>
       <c r="Z31" s="6">
+        <f t="shared" si="8"/>
+        <v>-2.662994403761286</v>
+      </c>
+      <c r="AA31" s="6">
+        <f t="shared" si="0"/>
+        <v>5.1377512134460242E-3</v>
+      </c>
+      <c r="AB31" s="6">
+        <f t="shared" si="1"/>
+        <v>5.4537193545362121E-3</v>
+      </c>
+      <c r="AC31" s="6">
+        <f t="shared" si="2"/>
+        <v>5.7890062455828086E-3</v>
+      </c>
+      <c r="AD31" s="6">
         <f t="shared" si="3"/>
-        <v>-2.662994403761286</v>
-      </c>
-      <c r="AA31" s="6">
-        <f>1/(1+EXP(-2*(O$14*1+O$15*0)-2*1*Z31))</f>
-        <v>5.1377512134460242E-3</v>
-      </c>
-      <c r="AB31" s="6">
-        <f>1/(1+EXP(-2*(O$14*2/3+O$15*1/3)-2*1*Z31))</f>
-        <v>5.4537193545362121E-3</v>
-      </c>
-      <c r="AC31" s="6">
-        <f>1/(1+EXP(-2*(O$14*1/3+O$15*2/3)-2*1*Z31))</f>
-        <v>5.7890062455828086E-3</v>
-      </c>
-      <c r="AD31" s="6">
-        <f>1/(1+EXP(-2*(O$14*0+O$15*1)-2*1*Z31))</f>
         <v>6.1447787400567789E-3</v>
       </c>
       <c r="AE31" s="6">
@@ -8113,11 +8113,11 @@
         <v>2.8565180130629272E-3</v>
       </c>
       <c r="AG31" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>3.0321768746699195E-3</v>
       </c>
       <c r="AH31" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>3.2185739022564152E-3</v>
       </c>
       <c r="AI31" s="6"/>
@@ -8152,15 +8152,15 @@
         <v>11</v>
       </c>
       <c r="AU31" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>49196.436545339129</v>
       </c>
       <c r="AV31" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>51765.841000185006</v>
       </c>
       <c r="AW31" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>51813.452781687105</v>
       </c>
       <c r="AY31" s="2">
@@ -8176,15 +8176,15 @@
         <v>1</v>
       </c>
       <c r="BC31" s="23">
-        <f>AU31/F30</f>
+        <f t="shared" si="18"/>
         <v>1.0232203940378355</v>
       </c>
       <c r="BD31" s="23">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>1.0233084431545607</v>
       </c>
       <c r="BE31" s="23">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>1.0233914428513147</v>
       </c>
     </row>
@@ -8217,7 +8217,7 @@
         <v>1</v>
       </c>
       <c r="L32" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>1.0429094612326433</v>
       </c>
       <c r="M32" s="5"/>
@@ -8249,23 +8249,23 @@
         <v>2.3000000000000001E-4</v>
       </c>
       <c r="Z32" s="6">
+        <f t="shared" si="8"/>
+        <v>-4.188600611293511</v>
+      </c>
+      <c r="AA32" s="6">
+        <f t="shared" si="0"/>
+        <v>2.4421893232469643E-4</v>
+      </c>
+      <c r="AB32" s="6">
+        <f t="shared" si="1"/>
+        <v>2.5931667158964267E-4</v>
+      </c>
+      <c r="AC32" s="6">
+        <f t="shared" si="2"/>
+        <v>2.7534750375703072E-4</v>
+      </c>
+      <c r="AD32" s="6">
         <f t="shared" si="3"/>
-        <v>-4.188600611293511</v>
-      </c>
-      <c r="AA32" s="6">
-        <f>1/(1+EXP(-2*(O$14*1+O$15*0)-2*1*Z32))</f>
-        <v>2.4421893232469643E-4</v>
-      </c>
-      <c r="AB32" s="6">
-        <f>1/(1+EXP(-2*(O$14*2/3+O$15*1/3)-2*1*Z32))</f>
-        <v>2.5931667158964267E-4</v>
-      </c>
-      <c r="AC32" s="6">
-        <f>1/(1+EXP(-2*(O$14*1/3+O$15*2/3)-2*1*Z32))</f>
-        <v>2.7534750375703072E-4</v>
-      </c>
-      <c r="AD32" s="6">
-        <f>1/(1+EXP(-2*(O$14*0+O$15*1)-2*1*Z32))</f>
         <v>2.9236906445605102E-4</v>
       </c>
       <c r="AE32" s="6" t="s">
@@ -8312,15 +8312,15 @@
         <v>11</v>
       </c>
       <c r="AU32" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>49516.006821497525</v>
       </c>
       <c r="AV32" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>51327.844467169612</v>
       </c>
       <c r="AW32" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>54018.399294151917</v>
       </c>
       <c r="AY32" s="2">
@@ -8336,15 +8336,15 @@
         <v>1</v>
       </c>
       <c r="BC32" s="23">
-        <f>AU32/F31</f>
+        <f t="shared" si="18"/>
         <v>1.0431230238997562</v>
       </c>
       <c r="BD32" s="23">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>1.0433244371239407</v>
       </c>
       <c r="BE32" s="23">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>1.043514376477702</v>
       </c>
     </row>
@@ -8466,15 +8466,15 @@
         <v>11</v>
       </c>
       <c r="AU33" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>65447.257912425644</v>
       </c>
       <c r="AV33" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>60868.633130354639</v>
       </c>
       <c r="AW33" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>63108.537702781214</v>
       </c>
       <c r="AY33" s="2">
@@ -8490,15 +8490,15 @@
         <v>1</v>
       </c>
       <c r="BC33" s="23">
-        <f>AU33/F32</f>
+        <f t="shared" si="18"/>
         <v>1.229010326606055</v>
       </c>
       <c r="BD33" s="23">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>1.2292718463704617</v>
       </c>
       <c r="BE33" s="23">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>1.2295185655642871</v>
       </c>
     </row>
@@ -8531,7 +8531,7 @@
         <v>1</v>
       </c>
       <c r="L34" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>1.1814706823596344</v>
       </c>
       <c r="Q34" s="2">
@@ -8559,39 +8559,39 @@
         <v>0.99419000000000002</v>
       </c>
       <c r="Z34" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>2.5711738822039036</v>
       </c>
       <c r="AA34" s="6">
-        <f>1/(1+EXP(-2*(O$14*1+O$15*0)-2*1*Z34))</f>
+        <f t="shared" ref="AA34:AA55" si="25">1/(1+EXP(-2*(O$14*1+O$15*0)-2*1*Z34))</f>
         <v>0.99452649611045363</v>
       </c>
       <c r="AB34" s="6">
-        <f>1/(1+EXP(-2*(O$14*2/3+O$15*1/3)-2*1*Z34))</f>
+        <f t="shared" ref="AB34:AB55" si="26">1/(1+EXP(-2*(O$14*2/3+O$15*1/3)-2*1*Z34))</f>
         <v>0.99484360455075982</v>
       </c>
       <c r="AC34" s="6">
-        <f>1/(1+EXP(-2*(O$14*1/3+O$15*2/3)-2*1*Z34))</f>
+        <f t="shared" ref="AC34:AC55" si="27">1/(1+EXP(-2*(O$14*1/3+O$15*2/3)-2*1*Z34))</f>
         <v>0.99514243098920341</v>
       </c>
       <c r="AD34" s="6">
-        <f>1/(1+EXP(-2*(O$14*0+O$15*1)-2*1*Z34))</f>
+        <f t="shared" ref="AD34:AD55" si="28">1/(1+EXP(-2*(O$14*0+O$15*1)-2*1*Z34))</f>
         <v>0.99542401931998015</v>
       </c>
       <c r="AE34" s="6">
-        <f t="shared" ref="AE34:AF53" si="19">0.5*(AA34+AA35)</f>
+        <f t="shared" ref="AE34:AF53" si="29">0.5*(AA34+AA35)</f>
         <v>0.99429560099387859</v>
       </c>
       <c r="AF34" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>0.99462601117464966</v>
       </c>
       <c r="AG34" s="6">
-        <f t="shared" ref="AG34:AG54" si="20">0.5*(AC34+AC35)</f>
+        <f t="shared" ref="AG34:AG54" si="30">0.5*(AC34+AC35)</f>
         <v>0.99493738094129858</v>
       </c>
       <c r="AH34" s="6">
-        <f t="shared" ref="AH34:AH54" si="21">0.5*(AD34+AD35)</f>
+        <f t="shared" ref="AH34:AH54" si="31">0.5*(AD34+AD35)</f>
         <v>0.99523079654060265</v>
       </c>
       <c r="AJ34" s="2">
@@ -8629,15 +8629,15 @@
         <v>11</v>
       </c>
       <c r="AU34" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>79271.572739108029</v>
       </c>
       <c r="AV34" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>77361.384720593705</v>
       </c>
       <c r="AW34" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>71965.190601506823</v>
       </c>
       <c r="AY34" s="2">
@@ -8653,15 +8653,15 @@
         <v>1</v>
       </c>
       <c r="BC34" s="23">
-        <f>AU34/F33</f>
+        <f t="shared" si="18"/>
         <v>1.1817643784061782</v>
       </c>
       <c r="BD34" s="23">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>1.1820416498443715</v>
       </c>
       <c r="BE34" s="23">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>1.182303378611905</v>
       </c>
     </row>
@@ -8694,7 +8694,7 @@
         <v>1</v>
       </c>
       <c r="L35" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>1.0985108006886881</v>
       </c>
       <c r="Q35" s="2">
@@ -8722,39 +8722,39 @@
         <v>0.99370000000000003</v>
       </c>
       <c r="Z35" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>2.5304428584199177</v>
       </c>
       <c r="AA35" s="6">
-        <f>1/(1+EXP(-2*(O$14*1+O$15*0)-2*1*Z35))</f>
+        <f t="shared" si="25"/>
         <v>0.99406470587730345</v>
       </c>
       <c r="AB35" s="6">
-        <f>1/(1+EXP(-2*(O$14*2/3+O$15*1/3)-2*1*Z35))</f>
+        <f t="shared" si="26"/>
         <v>0.9944084177985395</v>
       </c>
       <c r="AC35" s="6">
-        <f>1/(1+EXP(-2*(O$14*1/3+O$15*2/3)-2*1*Z35))</f>
+        <f t="shared" si="27"/>
         <v>0.99473233089339375</v>
       </c>
       <c r="AD35" s="6">
-        <f>1/(1+EXP(-2*(O$14*0+O$15*1)-2*1*Z35))</f>
+        <f t="shared" si="28"/>
         <v>0.99503757376122515</v>
       </c>
       <c r="AE35" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>0.99375368345524628</v>
       </c>
       <c r="AF35" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>0.99411529469973592</v>
       </c>
       <c r="AG35" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>0.99445608865169255</v>
       </c>
       <c r="AH35" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="31"/>
         <v>0.99477725055050481</v>
       </c>
       <c r="AJ35" s="2">
@@ -8767,19 +8767,19 @@
         <v>11</v>
       </c>
       <c r="AM35" s="6">
-        <f t="shared" ref="AM35:AN49" si="22">AE35/AE34</f>
+        <f t="shared" ref="AM35:AN49" si="32">AE35/AE34</f>
         <v>0.99945497341224221</v>
       </c>
       <c r="AN35" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v>0.99948652411139882</v>
       </c>
       <c r="AO35" s="6">
-        <f t="shared" ref="AO35:AO49" si="23">AG35/AG34</f>
+        <f t="shared" ref="AO35:AO49" si="33">AG35/AG34</f>
         <v>0.99951625871253258</v>
       </c>
       <c r="AP35" s="6">
-        <f t="shared" ref="AP35:AP49" si="24">AH35/AH34</f>
+        <f t="shared" ref="AP35:AP49" si="34">AH35/AH34</f>
         <v>0.99954428059132183</v>
       </c>
       <c r="AR35" s="12">
@@ -8792,15 +8792,15 @@
         <v>11</v>
       </c>
       <c r="AU35" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>73021.621972025518</v>
       </c>
       <c r="AV35" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>87132.373578013256</v>
       </c>
       <c r="AW35" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>85055.914094186228</v>
       </c>
       <c r="AY35" s="2">
@@ -8816,15 +8816,15 @@
         <v>1</v>
       </c>
       <c r="BC35" s="23">
-        <f>AU35/F34</f>
+        <f t="shared" si="18"/>
         <v>1.0988461314316211</v>
       </c>
       <c r="BD35" s="23">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>1.0991629226882635</v>
       </c>
       <c r="BE35" s="23">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>1.0994621464104199</v>
       </c>
     </row>
@@ -8857,7 +8857,7 @@
         <v>1</v>
       </c>
       <c r="L36" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>1.0245189432581701</v>
       </c>
       <c r="Q36" s="2">
@@ -8885,39 +8885,39 @@
         <v>0.99304000000000003</v>
       </c>
       <c r="Z36" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>2.4802957354306843</v>
       </c>
       <c r="AA36" s="6">
-        <f>1/(1+EXP(-2*(O$14*1+O$15*0)-2*1*Z36))</f>
+        <f t="shared" si="25"/>
         <v>0.99344266103318923</v>
       </c>
       <c r="AB36" s="6">
-        <f>1/(1+EXP(-2*(O$14*2/3+O$15*1/3)-2*1*Z36))</f>
+        <f t="shared" si="26"/>
         <v>0.99382217160093234</v>
       </c>
       <c r="AC36" s="6">
-        <f>1/(1+EXP(-2*(O$14*1/3+O$15*2/3)-2*1*Z36))</f>
+        <f t="shared" si="27"/>
         <v>0.99417984640999135</v>
       </c>
       <c r="AD36" s="6">
-        <f>1/(1+EXP(-2*(O$14*0+O$15*1)-2*1*Z36))</f>
+        <f t="shared" si="28"/>
         <v>0.99451692733978436</v>
       </c>
       <c r="AE36" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>0.99214647678006673</v>
       </c>
       <c r="AF36" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>0.99260035388552859</v>
       </c>
       <c r="AG36" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>0.99302818947888993</v>
       </c>
       <c r="AH36" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="31"/>
         <v>0.99343145644448816</v>
       </c>
       <c r="AJ36" s="2">
@@ -8930,19 +8930,19 @@
         <v>11</v>
       </c>
       <c r="AM36" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v>0.99838269110148969</v>
       </c>
       <c r="AN36" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v>0.99847609143297111</v>
       </c>
       <c r="AO36" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="33"/>
         <v>0.99856414054969622</v>
       </c>
       <c r="AP36" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>0.99864714024645029</v>
       </c>
       <c r="AR36" s="12">
@@ -8955,15 +8955,15 @@
         <v>11</v>
       </c>
       <c r="AU36" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>63433.520263182741</v>
       </c>
       <c r="AV36" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>74874.170819206542</v>
       </c>
       <c r="AW36" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>89376.978217287004</v>
       </c>
       <c r="AY36" s="2">
@@ -8979,15 +8979,15 @@
         <v>1</v>
       </c>
       <c r="BC36" s="23">
-        <f>AU36/F35</f>
+        <f t="shared" si="18"/>
         <v>1.0249562969701036</v>
       </c>
       <c r="BD36" s="23">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>1.0253698671318303</v>
       </c>
       <c r="BE36" s="23">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>1.0257608572692452</v>
       </c>
     </row>
@@ -9020,7 +9020,7 @@
         <v>1</v>
       </c>
       <c r="L37" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>0.99967936728477524</v>
       </c>
       <c r="Q37" s="2">
@@ -9048,39 +9048,39 @@
         <v>0.99029</v>
       </c>
       <c r="Z37" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>2.3124207736114615</v>
       </c>
       <c r="AA37" s="6">
-        <f>1/(1+EXP(-2*(O$14*1+O$15*0)-2*1*Z37))</f>
+        <f t="shared" si="25"/>
         <v>0.99085029252694423</v>
       </c>
       <c r="AB37" s="6">
-        <f>1/(1+EXP(-2*(O$14*2/3+O$15*1/3)-2*1*Z37))</f>
+        <f t="shared" si="26"/>
         <v>0.99137853617012484</v>
       </c>
       <c r="AC37" s="6">
-        <f>1/(1+EXP(-2*(O$14*1/3+O$15*2/3)-2*1*Z37))</f>
+        <f t="shared" si="27"/>
         <v>0.99187653254778851</v>
       </c>
       <c r="AD37" s="6">
-        <f>1/(1+EXP(-2*(O$14*0+O$15*1)-2*1*Z37))</f>
+        <f t="shared" si="28"/>
         <v>0.99234598554919196</v>
       </c>
       <c r="AE37" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>0.98846422783361709</v>
       </c>
       <c r="AF37" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>0.98912840280013814</v>
       </c>
       <c r="AG37" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>0.98975475090504161</v>
       </c>
       <c r="AH37" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="31"/>
         <v>0.99034538026195285</v>
       </c>
       <c r="AJ37" s="2">
@@ -9093,19 +9093,19 @@
         <v>11</v>
       </c>
       <c r="AM37" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v>0.99628860351507764</v>
       </c>
       <c r="AN37" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v>0.99650216618219056</v>
       </c>
       <c r="AO37" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="33"/>
         <v>0.996703579406375</v>
       </c>
       <c r="AP37" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>0.99689351876013621</v>
       </c>
       <c r="AR37" s="12">
@@ -9118,15 +9118,15 @@
         <v>11</v>
       </c>
       <c r="AU37" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>58268.156559478884</v>
       </c>
       <c r="AV37" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>63495.520100012654</v>
       </c>
       <c r="AW37" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>74992.105834537142</v>
       </c>
       <c r="AY37" s="2">
@@ -9142,15 +9142,15 @@
         <v>1</v>
       </c>
       <c r="BC37" s="23">
-        <f>AU37/F36</f>
+        <f t="shared" si="18"/>
         <v>1.0003460472373109</v>
       </c>
       <c r="BD37" s="23">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>1.0009773986462154</v>
       </c>
       <c r="BE37" s="23">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>1.0015751094675274</v>
       </c>
     </row>
@@ -9183,7 +9183,7 @@
         <v>1</v>
       </c>
       <c r="L38" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>0.99050046339202968</v>
       </c>
       <c r="Q38" s="2">
@@ -9211,39 +9211,39 @@
         <v>0.98523000000000005</v>
       </c>
       <c r="Z38" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>2.1001385099547001</v>
       </c>
       <c r="AA38" s="6">
-        <f>1/(1+EXP(-2*(O$14*1+O$15*0)-2*1*Z38))</f>
+        <f t="shared" si="25"/>
         <v>0.98607816314028984</v>
       </c>
       <c r="AB38" s="6">
-        <f>1/(1+EXP(-2*(O$14*2/3+O$15*1/3)-2*1*Z38))</f>
+        <f t="shared" si="26"/>
         <v>0.98687826943015156</v>
       </c>
       <c r="AC38" s="6">
-        <f>1/(1+EXP(-2*(O$14*1/3+O$15*2/3)-2*1*Z38))</f>
+        <f t="shared" si="27"/>
         <v>0.98763296926229471</v>
       </c>
       <c r="AD38" s="6">
-        <f>1/(1+EXP(-2*(O$14*0+O$15*1)-2*1*Z38))</f>
+        <f t="shared" si="28"/>
         <v>0.98834477497471362</v>
       </c>
       <c r="AE38" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>0.98368597089097443</v>
       </c>
       <c r="AF38" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>0.98462110073652442</v>
       </c>
       <c r="AG38" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>0.98550343510121829</v>
       </c>
       <c r="AH38" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="31"/>
         <v>0.98633586472841872</v>
       </c>
       <c r="AJ38" s="2">
@@ -9256,19 +9256,19 @@
         <v>11</v>
       </c>
       <c r="AM38" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v>0.99516597889119873</v>
       </c>
       <c r="AN38" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v>0.99544315778330306</v>
       </c>
       <c r="AO38" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="33"/>
         <v>0.99570467754770975</v>
       </c>
       <c r="AP38" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>0.99595139674153521</v>
       </c>
       <c r="AR38" s="12">
@@ -9281,15 +9281,15 @@
         <v>11</v>
       </c>
       <c r="AU38" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>55646.092562166996</v>
       </c>
       <c r="AV38" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>57832.445790709746</v>
       </c>
       <c r="AW38" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>63080.026237621409</v>
       </c>
       <c r="AY38" s="2">
@@ -9305,15 +9305,15 @@
         <v>1</v>
       </c>
       <c r="BC38" s="23">
-        <f>AU38/F37</f>
+        <f t="shared" si="18"/>
         <v>0.99153779444712309</v>
       </c>
       <c r="BD38" s="23">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>0.99252231760027665</v>
       </c>
       <c r="BE38" s="23">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0.99345632791515381</v>
       </c>
     </row>
@@ -9346,7 +9346,7 @@
         <v>1</v>
       </c>
       <c r="L39" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>0.97192059405201692</v>
       </c>
       <c r="Q39" s="2">
@@ -9374,39 +9374,39 @@
         <v>0.98016000000000003</v>
       </c>
       <c r="Z39" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1.9500078608938427</v>
       </c>
       <c r="AA39" s="6">
-        <f>1/(1+EXP(-2*(O$14*1+O$15*0)-2*1*Z39))</f>
+        <f t="shared" si="25"/>
         <v>0.98129377864165901</v>
       </c>
       <c r="AB39" s="6">
-        <f>1/(1+EXP(-2*(O$14*2/3+O$15*1/3)-2*1*Z39))</f>
+        <f t="shared" si="26"/>
         <v>0.9823639320428974</v>
       </c>
       <c r="AC39" s="6">
-        <f>1/(1+EXP(-2*(O$14*1/3+O$15*2/3)-2*1*Z39))</f>
+        <f t="shared" si="27"/>
         <v>0.98337390094014188</v>
       </c>
       <c r="AD39" s="6">
-        <f>1/(1+EXP(-2*(O$14*0+O$15*1)-2*1*Z39))</f>
+        <f t="shared" si="28"/>
         <v>0.98432695448212382</v>
       </c>
       <c r="AE39" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>0.9786215338118649</v>
       </c>
       <c r="AF39" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>0.9798410285327146</v>
       </c>
       <c r="AG39" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>0.98099233135475661</v>
       </c>
       <c r="AH39" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="31"/>
         <v>0.98207910303787815</v>
       </c>
       <c r="AJ39" s="2">
@@ -9423,15 +9423,15 @@
         <v>0.99485157130529933</v>
       </c>
       <c r="AN39" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v>0.99514526735184305</v>
       </c>
       <c r="AO39" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="33"/>
         <v>0.99542253879003639</v>
       </c>
       <c r="AP39" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>0.99568426755757011</v>
       </c>
       <c r="AR39" s="12">
@@ -9444,15 +9444,15 @@
         <v>11</v>
       </c>
       <c r="AU39" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>54101.21062113464</v>
       </c>
       <c r="AV39" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>54253.107018918483</v>
       </c>
       <c r="AW39" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>56466.517159286923</v>
       </c>
       <c r="AY39" s="2">
@@ -9468,15 +9468,15 @@
         <v>1</v>
       </c>
       <c r="BC39" s="23">
-        <f>AU39/F38</f>
+        <f t="shared" si="18"/>
         <v>0.97348107280494178</v>
       </c>
       <c r="BD39" s="23">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>0.97496705556293484</v>
       </c>
       <c r="BE39" s="23">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0.97638127503087124</v>
       </c>
     </row>
@@ -9509,7 +9509,7 @@
         <v>1</v>
       </c>
       <c r="L40" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>0.94481437959698833</v>
       </c>
       <c r="Q40" s="2">
@@ -9537,39 +9537,39 @@
         <v>0.97450000000000003</v>
       </c>
       <c r="Z40" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1.8216230333916181</v>
       </c>
       <c r="AA40" s="6">
-        <f>1/(1+EXP(-2*(O$14*1+O$15*0)-2*1*Z40))</f>
+        <f t="shared" si="25"/>
         <v>0.97594928898207067</v>
       </c>
       <c r="AB40" s="6">
-        <f>1/(1+EXP(-2*(O$14*2/3+O$15*1/3)-2*1*Z40))</f>
+        <f t="shared" si="26"/>
         <v>0.9773181250225319</v>
       </c>
       <c r="AC40" s="6">
-        <f>1/(1+EXP(-2*(O$14*1/3+O$15*2/3)-2*1*Z40))</f>
+        <f t="shared" si="27"/>
         <v>0.97861076176937145</v>
       </c>
       <c r="AD40" s="6">
-        <f>1/(1+EXP(-2*(O$14*0+O$15*1)-2*1*Z40))</f>
+        <f t="shared" si="28"/>
         <v>0.97983125159363238</v>
       </c>
       <c r="AE40" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>0.97283574132900508</v>
       </c>
       <c r="AF40" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>0.97437659699035384</v>
       </c>
       <c r="AG40" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>0.97583224895666398</v>
       </c>
       <c r="AH40" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="31"/>
         <v>0.97720716551589548</v>
       </c>
       <c r="AJ40" s="2">
@@ -9582,19 +9582,19 @@
         <v>11</v>
       </c>
       <c r="AM40" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v>0.99408781404970381</v>
       </c>
       <c r="AN40" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v>0.99442314479263683</v>
       </c>
       <c r="AO40" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="33"/>
         <v>0.99473993604927924</v>
       </c>
       <c r="AP40" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>0.99503915977143564</v>
       </c>
       <c r="AR40" s="12">
@@ -9607,15 +9607,15 @@
         <v>11</v>
       </c>
       <c r="AU40" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>49332.85882835641</v>
       </c>
       <c r="AV40" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>51348.564301809754</v>
       </c>
       <c r="AW40" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>51601.912740667933</v>
       </c>
       <c r="AY40" s="2">
@@ -9631,15 +9631,15 @@
         <v>1</v>
       </c>
       <c r="BC40" s="23">
-        <f>AU40/F39</f>
+        <f t="shared" si="18"/>
         <v>0.94701512349752193</v>
       </c>
       <c r="BD40" s="23">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>0.94912043025060211</v>
       </c>
       <c r="BE40" s="23">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0.95113285811767323</v>
       </c>
     </row>
@@ -9672,7 +9672,7 @@
         <v>1</v>
       </c>
       <c r="L41" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>0.90528011833381761</v>
       </c>
       <c r="Q41" s="2">
@@ -9700,39 +9700,39 @@
         <v>0.96791000000000005</v>
       </c>
       <c r="Z41" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1.7032973263128695</v>
       </c>
       <c r="AA41" s="6">
-        <f>1/(1+EXP(-2*(O$14*1+O$15*0)-2*1*Z41))</f>
+        <f t="shared" si="25"/>
         <v>0.96972219367593948</v>
       </c>
       <c r="AB41" s="6">
-        <f>1/(1+EXP(-2*(O$14*2/3+O$15*1/3)-2*1*Z41))</f>
+        <f t="shared" si="26"/>
         <v>0.97143506895817577</v>
       </c>
       <c r="AC41" s="6">
-        <f>1/(1+EXP(-2*(O$14*1/3+O$15*2/3)-2*1*Z41))</f>
+        <f t="shared" si="27"/>
         <v>0.97305373614395663</v>
       </c>
       <c r="AD41" s="6">
-        <f>1/(1+EXP(-2*(O$14*0+O$15*1)-2*1*Z41))</f>
+        <f t="shared" si="28"/>
         <v>0.97458307943815858</v>
       </c>
       <c r="AE41" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>0.96527214072827738</v>
       </c>
       <c r="AF41" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>0.96722716377085494</v>
       </c>
       <c r="AG41" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>0.96907571007413851</v>
       </c>
       <c r="AH41" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="31"/>
         <v>0.9708231852492033</v>
       </c>
       <c r="AJ41" s="2">
@@ -9745,19 +9745,19 @@
         <v>11</v>
       </c>
       <c r="AM41" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v>0.99222520279693371</v>
       </c>
       <c r="AN41" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v>0.99266255650886726</v>
       </c>
       <c r="AO41" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="33"/>
         <v>0.99307612667059386</v>
       </c>
       <c r="AP41" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>0.99346711680800881</v>
       </c>
       <c r="AR41" s="12">
@@ -9770,15 +9770,15 @@
         <v>11</v>
       </c>
       <c r="AU41" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>39431.205798250456</v>
       </c>
       <c r="AV41" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>44940.472047273113</v>
       </c>
       <c r="AW41" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>46914.352400236552</v>
       </c>
       <c r="AY41" s="2">
@@ -9794,15 +9794,15 @@
         <v>1</v>
       </c>
       <c r="BC41" s="23">
-        <f>AU41/F40</f>
+        <f t="shared" si="18"/>
         <v>0.90817646594155543</v>
       </c>
       <c r="BD41" s="23">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>0.91096427643965039</v>
       </c>
       <c r="BE41" s="23">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0.91364487085733537</v>
       </c>
     </row>
@@ -9835,7 +9835,7 @@
         <v>1</v>
       </c>
       <c r="L42" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>0.88390024497008157</v>
       </c>
       <c r="Q42" s="2">
@@ -9863,39 +9863,39 @@
         <v>0.95850000000000002</v>
       </c>
       <c r="Z42" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1.5698380676245236</v>
       </c>
       <c r="AA42" s="6">
-        <f>1/(1+EXP(-2*(O$14*1+O$15*0)-2*1*Z42))</f>
+        <f t="shared" si="25"/>
         <v>0.96082208778061517</v>
       </c>
       <c r="AB42" s="6">
-        <f>1/(1+EXP(-2*(O$14*2/3+O$15*1/3)-2*1*Z42))</f>
+        <f t="shared" si="26"/>
         <v>0.96301925858353421</v>
       </c>
       <c r="AC42" s="6">
-        <f>1/(1+EXP(-2*(O$14*1/3+O$15*2/3)-2*1*Z42))</f>
+        <f t="shared" si="27"/>
         <v>0.96509768400432028</v>
       </c>
       <c r="AD42" s="6">
-        <f>1/(1+EXP(-2*(O$14*0+O$15*1)-2*1*Z42))</f>
+        <f t="shared" si="28"/>
         <v>0.96706329106024802</v>
       </c>
       <c r="AE42" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>0.95368518892684573</v>
       </c>
       <c r="AF42" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>0.95626157518684318</v>
       </c>
       <c r="AG42" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>0.95870099157904209</v>
       </c>
       <c r="AH42" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="31"/>
         <v>0.96101003017985676</v>
       </c>
       <c r="AJ42" s="2">
@@ -9908,19 +9908,19 @@
         <v>11</v>
       </c>
       <c r="AM42" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v>0.98799618127102529</v>
       </c>
       <c r="AN42" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v>0.98866286122356095</v>
       </c>
       <c r="AO42" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="33"/>
         <v>0.98929421263246531</v>
       </c>
       <c r="AP42" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>0.98989192345377741</v>
       </c>
       <c r="AR42" s="12">
@@ -9933,15 +9933,15 @@
         <v>11</v>
       </c>
       <c r="AU42" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>30424.4259243489</v>
       </c>
       <c r="AV42" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>35149.21223855632</v>
       </c>
       <c r="AW42" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>40221.356303065171</v>
       </c>
       <c r="AY42" s="2">
@@ -9957,15 +9957,15 @@
         <v>1</v>
       </c>
       <c r="BC42" s="23">
-        <f>AU42/F41</f>
+        <f t="shared" si="18"/>
         <v>0.88770828128115131</v>
       </c>
       <c r="BD42" s="23">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>0.89140596963727325</v>
       </c>
       <c r="BE42" s="23">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0.8949918519048069</v>
       </c>
     </row>
@@ -9998,7 +9998,7 @@
         <v>1</v>
       </c>
       <c r="L43" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>0.86162790697674418</v>
       </c>
       <c r="Q43" s="2">
@@ -10026,39 +10026,39 @@
         <v>0.94342999999999999</v>
       </c>
       <c r="Z43" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1.4070216804311459</v>
       </c>
       <c r="AA43" s="6">
-        <f>1/(1+EXP(-2*(O$14*1+O$15*0)-2*1*Z43))</f>
+        <f t="shared" si="25"/>
         <v>0.94654829007307628</v>
       </c>
       <c r="AB43" s="6">
-        <f>1/(1+EXP(-2*(O$14*2/3+O$15*1/3)-2*1*Z43))</f>
+        <f t="shared" si="26"/>
         <v>0.94950389179015215</v>
       </c>
       <c r="AC43" s="6">
-        <f>1/(1+EXP(-2*(O$14*1/3+O$15*2/3)-2*1*Z43))</f>
+        <f t="shared" si="27"/>
         <v>0.95230429915376402</v>
       </c>
       <c r="AD43" s="6">
-        <f>1/(1+EXP(-2*(O$14*0+O$15*1)-2*1*Z43))</f>
+        <f t="shared" si="28"/>
         <v>0.95495676929946538</v>
       </c>
       <c r="AE43" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>0.93552230014214732</v>
       </c>
       <c r="AF43" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>0.93904157907784946</v>
       </c>
       <c r="AG43" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>0.94238093070713747</v>
       </c>
       <c r="AH43" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="31"/>
         <v>0.94554825559859867</v>
       </c>
       <c r="AJ43" s="2">
@@ -10071,19 +10071,19 @@
         <v>11</v>
       </c>
       <c r="AM43" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v>0.98095504785479937</v>
       </c>
       <c r="AN43" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v>0.98199237890989277</v>
       </c>
       <c r="AO43" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="33"/>
         <v>0.98297690206304633</v>
       </c>
       <c r="AP43" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>0.9839109123779235</v>
       </c>
       <c r="AR43" s="12">
@@ -10096,15 +10096,15 @@
         <v>11</v>
       </c>
       <c r="AU43" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>19074.430751413613</v>
       </c>
       <c r="AV43" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>26516.009281917017</v>
       </c>
       <c r="AW43" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>30803.212086114592</v>
       </c>
       <c r="AY43" s="2">
@@ -10120,15 +10120,15 @@
         <v>1</v>
       </c>
       <c r="BC43" s="23">
-        <f>AU43/F42</f>
+        <f t="shared" si="18"/>
         <v>0.86662565885568432</v>
       </c>
       <c r="BD43" s="23">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>0.87153688118387973</v>
       </c>
       <c r="BE43" s="23">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0.87635568834528654</v>
       </c>
     </row>
@@ -10189,39 +10189,39 @@
         <v>0.92020000000000002</v>
       </c>
       <c r="Z44" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1.2225337666328027</v>
       </c>
       <c r="AA44" s="6">
-        <f>1/(1+EXP(-2*(O$14*1+O$15*0)-2*1*Z44))</f>
+        <f t="shared" si="25"/>
         <v>0.92449631021121847</v>
       </c>
       <c r="AB44" s="6">
-        <f>1/(1+EXP(-2*(O$14*2/3+O$15*1/3)-2*1*Z44))</f>
+        <f t="shared" si="26"/>
         <v>0.92857926636554666</v>
       </c>
       <c r="AC44" s="6">
-        <f>1/(1+EXP(-2*(O$14*1/3+O$15*2/3)-2*1*Z44))</f>
+        <f t="shared" si="27"/>
         <v>0.93245756226051091</v>
       </c>
       <c r="AD44" s="6">
-        <f>1/(1+EXP(-2*(O$14*0+O$15*1)-2*1*Z44))</f>
+        <f t="shared" si="28"/>
         <v>0.93613974189773197</v>
       </c>
       <c r="AE44" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>0.9078938555954158</v>
       </c>
       <c r="AF44" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>0.91277455536083207</v>
       </c>
       <c r="AG44" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>0.91742085991793432</v>
       </c>
       <c r="AH44" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="31"/>
         <v>0.92184150722371427</v>
       </c>
       <c r="AJ44" s="2">
@@ -10234,19 +10234,19 @@
         <v>11</v>
       </c>
       <c r="AM44" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v>0.97046735866955436</v>
       </c>
       <c r="AN44" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v>0.97202783742247922</v>
       </c>
       <c r="AO44" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="33"/>
         <v>0.97351382018047228</v>
       </c>
       <c r="AP44" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>0.97492803964840868</v>
       </c>
       <c r="AR44" s="12">
@@ -10259,15 +10259,15 @@
         <v>11</v>
       </c>
       <c r="AU44" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>11823.628992030646</v>
       </c>
       <c r="AV44" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>15334.029475006973</v>
       </c>
       <c r="AW44" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>21477.281037507888</v>
       </c>
       <c r="AY44" s="2">
@@ -10283,15 +10283,15 @@
         <v>1</v>
       </c>
       <c r="BC44" s="23">
-        <f>AU44/F43</f>
+        <f t="shared" si="18"/>
         <v>0.79781572145955781</v>
       </c>
       <c r="BD44" s="23">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>0.80390495920149874</v>
       </c>
       <c r="BE44" s="23">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0.80997411070279857</v>
       </c>
     </row>
@@ -10352,39 +10352,39 @@
         <v>0.88534000000000002</v>
       </c>
       <c r="Z45" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1.0220002622700546</v>
       </c>
       <c r="AA45" s="6">
-        <f>1/(1+EXP(-2*(O$14*1+O$15*0)-2*1*Z45))</f>
+        <f t="shared" si="25"/>
         <v>0.89129140097961312</v>
       </c>
       <c r="AB45" s="6">
-        <f>1/(1+EXP(-2*(O$14*2/3+O$15*1/3)-2*1*Z45))</f>
+        <f t="shared" si="26"/>
         <v>0.89696984435611748</v>
       </c>
       <c r="AC45" s="6">
-        <f>1/(1+EXP(-2*(O$14*1/3+O$15*2/3)-2*1*Z45))</f>
+        <f t="shared" si="27"/>
         <v>0.90238415757535773</v>
       </c>
       <c r="AD45" s="6">
-        <f>1/(1+EXP(-2*(O$14*0+O$15*1)-2*1*Z45))</f>
+        <f t="shared" si="28"/>
         <v>0.90754327254969658</v>
       </c>
       <c r="AE45" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>0.86840109994966785</v>
       </c>
       <c r="AF45" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>0.87507827568160867</v>
       </c>
       <c r="AG45" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>0.88146414685784613</v>
       </c>
       <c r="AH45" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="31"/>
         <v>0.8875666741284991</v>
       </c>
       <c r="AJ45" s="2">
@@ -10397,19 +10397,19 @@
         <v>11</v>
       </c>
       <c r="AM45" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v>0.95650069068938925</v>
       </c>
       <c r="AN45" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v>0.95870143458992285</v>
       </c>
       <c r="AO45" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="33"/>
         <v>0.96080674134300303</v>
       </c>
       <c r="AP45" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>0.96281916921007415</v>
       </c>
       <c r="AR45" s="12">
@@ -10422,7 +10422,7 @@
         <v>11</v>
       </c>
       <c r="AU45" s="24">
-        <f>(F44+F45)*(($L45-$AM50)*$O$13+AN50)+($O$12*$T45*(AU$9-L$9)*SUM(E$46:E$63))</f>
+        <f>(F44+F45)*(($L45-$AM50)*$O$13+AN50)+($O$12*$T45*(AU$9-L$9)*SUM(F$46:F$63))</f>
         <v>11395.322092130025</v>
       </c>
       <c r="AV45" s="24">
@@ -10489,39 +10489,39 @@
         <v>0.83750999999999998</v>
       </c>
       <c r="Z46" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.81990837125587956</v>
       </c>
       <c r="AA46" s="6">
-        <f>1/(1+EXP(-2*(O$14*1+O$15*0)-2*1*Z46))</f>
+        <f t="shared" si="25"/>
         <v>0.84551079891972247</v>
       </c>
       <c r="AB46" s="6">
-        <f>1/(1+EXP(-2*(O$14*2/3+O$15*1/3)-2*1*Z46))</f>
+        <f t="shared" si="26"/>
         <v>0.85318670700709975</v>
       </c>
       <c r="AC46" s="6">
-        <f>1/(1+EXP(-2*(O$14*1/3+O$15*2/3)-2*1*Z46))</f>
+        <f t="shared" si="27"/>
         <v>0.86054413614033465</v>
       </c>
       <c r="AD46" s="6">
-        <f>1/(1+EXP(-2*(O$14*0+O$15*1)-2*1*Z46))</f>
+        <f t="shared" si="28"/>
         <v>0.86759007570730173</v>
       </c>
       <c r="AE46" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>0.81553075118273743</v>
       </c>
       <c r="AF46" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>0.82433593525788851</v>
       </c>
       <c r="AG46" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>0.83280886993436554</v>
       </c>
       <c r="AH46" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="31"/>
         <v>0.84095375466092981</v>
       </c>
       <c r="AJ46" s="2">
@@ -10534,19 +10534,19 @@
         <v>11</v>
       </c>
       <c r="AM46" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v>0.9391175935060484</v>
       </c>
       <c r="AN46" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v>0.94201394111378622</v>
       </c>
       <c r="AO46" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="33"/>
         <v>0.94480175161188118</v>
       </c>
       <c r="AP46" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>0.94748234602956616</v>
       </c>
       <c r="AR46" s="2">
@@ -10587,11 +10587,11 @@
         <v>1.6669972719005761</v>
       </c>
       <c r="BD46" s="23">
-        <f t="shared" ref="BD46:BE46" si="25">BD28+BD10</f>
+        <f t="shared" ref="BD46:BE46" si="35">BD28+BD10</f>
         <v>1.6669972719005761</v>
       </c>
       <c r="BE46" s="23">
-        <f t="shared" si="25"/>
+        <f t="shared" si="35"/>
         <v>1.6669972719005761</v>
       </c>
     </row>
@@ -10606,11 +10606,11 @@
         <v>22</v>
       </c>
       <c r="E47" s="26">
-        <f t="shared" ref="E47:F47" si="26">E11+E29</f>
+        <f t="shared" ref="E47:F47" si="36">E11+E29</f>
         <v>94491</v>
       </c>
       <c r="F47" s="26">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v>99183</v>
       </c>
       <c r="V47" s="2">
@@ -10626,39 +10626,39 @@
         <v>0.77527000000000001</v>
       </c>
       <c r="Z47" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.6191558370747634</v>
       </c>
       <c r="AA47" s="6">
-        <f>1/(1+EXP(-2*(O$14*1+O$15*0)-2*1*Z47))</f>
+        <f t="shared" si="25"/>
         <v>0.7855507034457524</v>
       </c>
       <c r="AB47" s="6">
-        <f>1/(1+EXP(-2*(O$14*2/3+O$15*1/3)-2*1*Z47))</f>
+        <f t="shared" si="26"/>
         <v>0.79548516350867737</v>
       </c>
       <c r="AC47" s="6">
-        <f>1/(1+EXP(-2*(O$14*1/3+O$15*2/3)-2*1*Z47))</f>
+        <f t="shared" si="27"/>
         <v>0.80507360372839643</v>
       </c>
       <c r="AD47" s="6">
-        <f>1/(1+EXP(-2*(O$14*0+O$15*1)-2*1*Z47))</f>
+        <f t="shared" si="28"/>
         <v>0.814317433614558</v>
       </c>
       <c r="AE47" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>0.7436785976353284</v>
       </c>
       <c r="AF47" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>0.75484710412043121</v>
       </c>
       <c r="AG47" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>0.76568526569561823</v>
       </c>
       <c r="AH47" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="31"/>
         <v>0.77618924160271963</v>
       </c>
       <c r="AJ47" s="2">
@@ -10671,19 +10671,19 @@
         <v>11</v>
       </c>
       <c r="AM47" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v>0.91189522474388096</v>
       </c>
       <c r="AN47" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v>0.9157032610549507</v>
       </c>
       <c r="AO47" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="33"/>
         <v>0.91940094941107275</v>
       </c>
       <c r="AP47" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>0.92298683167860629</v>
       </c>
       <c r="AR47" s="2">
@@ -10696,15 +10696,15 @@
         <v>22</v>
       </c>
       <c r="AU47" s="24">
-        <f t="shared" ref="AU47:AV47" si="27">AU11+AU29</f>
+        <f t="shared" ref="AU47:AV47" si="37">AU11+AU29</f>
         <v>99758.639328662961</v>
       </c>
       <c r="AV47" s="24">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v>106580.10467883016</v>
       </c>
       <c r="AW47" s="24">
-        <f t="shared" ref="AW47" si="28">AW11+AW29</f>
+        <f t="shared" ref="AW47" si="38">AW11+AW29</f>
         <v>113375.47937295683</v>
       </c>
       <c r="AY47" s="2">
@@ -10720,7 +10720,7 @@
         <v>1</v>
       </c>
       <c r="BC47" s="23">
-        <f>AU47/F46</f>
+        <f t="shared" ref="BC47:BC62" si="39">AU47/F46</f>
         <v>1.0158307128901365</v>
       </c>
       <c r="BD47" s="23">
@@ -10743,11 +10743,11 @@
         <v>22</v>
       </c>
       <c r="E48" s="26">
-        <f t="shared" ref="E48:F48" si="29">E12+E30</f>
+        <f t="shared" ref="E48:F48" si="40">E12+E30</f>
         <v>90983</v>
       </c>
       <c r="F48" s="26">
-        <f t="shared" si="29"/>
+        <f t="shared" si="40"/>
         <v>94356</v>
       </c>
       <c r="V48" s="2">
@@ -10763,39 +10763,39 @@
         <v>0.68910000000000005</v>
       </c>
       <c r="Z48" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.39795754064922717</v>
       </c>
       <c r="AA48" s="6">
-        <f>1/(1+EXP(-2*(O$14*1+O$15*0)-2*1*Z48))</f>
+        <f t="shared" si="25"/>
         <v>0.70180649182490451</v>
       </c>
       <c r="AB48" s="6">
-        <f>1/(1+EXP(-2*(O$14*2/3+O$15*1/3)-2*1*Z48))</f>
+        <f t="shared" si="26"/>
         <v>0.71420904473218516</v>
       </c>
       <c r="AC48" s="6">
-        <f>1/(1+EXP(-2*(O$14*1/3+O$15*2/3)-2*1*Z48))</f>
+        <f t="shared" si="27"/>
         <v>0.72629692766284004</v>
       </c>
       <c r="AD48" s="6">
-        <f>1/(1+EXP(-2*(O$14*0+O$15*1)-2*1*Z48))</f>
+        <f t="shared" si="28"/>
         <v>0.73806104959088126</v>
       </c>
       <c r="AE48" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>0.64379790859351749</v>
       </c>
       <c r="AF48" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>0.65723895330651705</v>
       </c>
       <c r="AG48" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>0.6704360989807524</v>
       </c>
       <c r="AH48" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="31"/>
         <v>0.68337371509995448</v>
       </c>
       <c r="AJ48" s="2">
@@ -10808,19 +10808,19 @@
         <v>11</v>
       </c>
       <c r="AM48" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v>0.86569374275473154</v>
       </c>
       <c r="AN48" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v>0.87069149463367168</v>
       </c>
       <c r="AO48" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="33"/>
         <v>0.87560271696186709</v>
       </c>
       <c r="AP48" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>0.8804215241232739</v>
       </c>
       <c r="AR48" s="2">
@@ -10833,15 +10833,15 @@
         <v>22</v>
       </c>
       <c r="AU48" s="24">
-        <f t="shared" ref="AU48:AV48" si="30">AU12+AU30</f>
+        <f t="shared" ref="AU48:AV48" si="41">AU12+AU30</f>
         <v>99044.08034281974</v>
       </c>
       <c r="AV48" s="24">
-        <f t="shared" si="30"/>
+        <f t="shared" si="41"/>
         <v>99621.629234738211</v>
       </c>
       <c r="AW48" s="24">
-        <f t="shared" ref="AW48" si="31">AW12+AW30</f>
+        <f t="shared" ref="AW48" si="42">AW12+AW30</f>
         <v>106436.40743269457</v>
       </c>
       <c r="AY48" s="2">
@@ -10857,15 +10857,15 @@
         <v>1</v>
       </c>
       <c r="BC48" s="23">
-        <f>AU48/F47</f>
+        <f t="shared" si="39"/>
         <v>0.9985993602010399</v>
       </c>
       <c r="BD48" s="23">
-        <f t="shared" ref="BD48:BD62" si="32">AV48/AU47</f>
+        <f t="shared" ref="BD48:BD62" si="43">AV48/AU47</f>
         <v>0.99862658417509731</v>
       </c>
       <c r="BE48" s="23">
-        <f t="shared" ref="BE48:BE62" si="33">AW48/AV47</f>
+        <f t="shared" ref="BE48:BE62" si="44">AW48/AV47</f>
         <v>0.99865174418275704</v>
       </c>
     </row>
@@ -10880,11 +10880,11 @@
         <v>22</v>
       </c>
       <c r="E49" s="26">
-        <f t="shared" ref="E49:F49" si="34">E13+E31</f>
+        <f t="shared" ref="E49:F49" si="45">E13+E31</f>
         <v>99690</v>
       </c>
       <c r="F49" s="26">
-        <f t="shared" si="34"/>
+        <f t="shared" si="45"/>
         <v>94196</v>
       </c>
       <c r="V49" s="2">
@@ -10900,39 +10900,39 @@
         <v>0.57116</v>
       </c>
       <c r="Z49" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.14329274578702778</v>
       </c>
       <c r="AA49" s="6">
-        <f>1/(1+EXP(-2*(O$14*1+O$15*0)-2*1*Z49))</f>
+        <f t="shared" si="25"/>
         <v>0.58578932536213046</v>
       </c>
       <c r="AB49" s="6">
-        <f>1/(1+EXP(-2*(O$14*2/3+O$15*1/3)-2*1*Z49))</f>
+        <f t="shared" si="26"/>
         <v>0.60026886188084905</v>
       </c>
       <c r="AC49" s="6">
-        <f>1/(1+EXP(-2*(O$14*1/3+O$15*2/3)-2*1*Z49))</f>
+        <f t="shared" si="27"/>
         <v>0.61457527029866477</v>
       </c>
       <c r="AD49" s="6">
-        <f>1/(1+EXP(-2*(O$14*0+O$15*1)-2*1*Z49))</f>
+        <f t="shared" si="28"/>
         <v>0.62868638060902771</v>
       </c>
       <c r="AE49" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>0.50856082323459795</v>
       </c>
       <c r="AF49" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>0.52318735199691702</v>
       </c>
       <c r="AG49" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>0.53777522965786306</v>
       </c>
       <c r="AH49" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="31"/>
         <v>0.55230034589555499</v>
       </c>
       <c r="AJ49" s="2">
@@ -10945,19 +10945,19 @@
         <v>11</v>
       </c>
       <c r="AM49" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v>0.78993860720304732</v>
       </c>
       <c r="AN49" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v>0.79603825878670598</v>
       </c>
       <c r="AO49" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="33"/>
         <v>0.8021274965286469</v>
       </c>
       <c r="AP49" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>0.80819664802994673</v>
       </c>
       <c r="AR49" s="2">
@@ -10970,15 +10970,15 @@
         <v>22</v>
       </c>
       <c r="AU49" s="24">
-        <f t="shared" ref="AU49:AV49" si="35">AU13+AU31</f>
+        <f t="shared" ref="AU49:AV49" si="46">AU13+AU31</f>
         <v>97695.40559187613</v>
       </c>
       <c r="AV49" s="24">
-        <f t="shared" si="35"/>
+        <f t="shared" si="46"/>
         <v>102552.81163119478</v>
       </c>
       <c r="AW49" s="24">
-        <f t="shared" ref="AW49" si="36">AW13+AW31</f>
+        <f t="shared" ref="AW49" si="47">AW13+AW31</f>
         <v>103163.06831208794</v>
       </c>
       <c r="AY49" s="2">
@@ -10994,15 +10994,15 @@
         <v>1</v>
       </c>
       <c r="BC49" s="23">
-        <f>AU49/F48</f>
+        <f t="shared" si="39"/>
         <v>1.0353915552998869</v>
       </c>
       <c r="BD49" s="23">
-        <f t="shared" si="32"/>
+        <f t="shared" si="43"/>
         <v>1.035425956566312</v>
       </c>
       <c r="BE49" s="23">
-        <f t="shared" si="33"/>
+        <f t="shared" si="44"/>
         <v>1.0355488974086646</v>
       </c>
     </row>
@@ -11017,11 +11017,11 @@
         <v>22</v>
       </c>
       <c r="E50" s="26">
-        <f t="shared" ref="E50:F50" si="37">E14+E32</f>
+        <f t="shared" ref="E50:F50" si="48">E14+E32</f>
         <v>107538</v>
       </c>
       <c r="F50" s="26">
-        <f t="shared" si="37"/>
+        <f t="shared" si="48"/>
         <v>105870</v>
       </c>
       <c r="V50" s="2">
@@ -11037,39 +11037,39 @@
         <v>0.41667999999999999</v>
       </c>
       <c r="Z50" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>-0.16820868986455828</v>
       </c>
       <c r="AA50" s="6">
-        <f>1/(1+EXP(-2*(O$14*1+O$15*0)-2*1*Z50))</f>
+        <f t="shared" si="25"/>
         <v>0.43133232110706543</v>
       </c>
       <c r="AB50" s="6">
-        <f>1/(1+EXP(-2*(O$14*2/3+O$15*1/3)-2*1*Z50))</f>
+        <f t="shared" si="26"/>
         <v>0.44610584211298487</v>
       </c>
       <c r="AC50" s="6">
-        <f>1/(1+EXP(-2*(O$14*1/3+O$15*2/3)-2*1*Z50))</f>
+        <f t="shared" si="27"/>
         <v>0.4609751890170613</v>
       </c>
       <c r="AD50" s="6">
-        <f>1/(1+EXP(-2*(O$14*0+O$15*1)-2*1*Z50))</f>
+        <f t="shared" si="28"/>
         <v>0.47591431118208227</v>
       </c>
       <c r="AE50" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>0.33986203414513838</v>
       </c>
       <c r="AF50" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>0.3529337101891924</v>
       </c>
       <c r="AG50" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>0.36621953368633281</v>
       </c>
       <c r="AH50" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="31"/>
         <v>0.37970289013980985</v>
       </c>
       <c r="AJ50" s="2">
@@ -11107,15 +11107,15 @@
         <v>22</v>
       </c>
       <c r="AU50" s="24">
-        <f t="shared" ref="AU50:AV50" si="38">AU14+AU32</f>
+        <f t="shared" ref="AU50:AV50" si="49">AU14+AU32</f>
         <v>100079.35628897708</v>
       </c>
       <c r="AV50" s="24">
-        <f t="shared" si="38"/>
+        <f t="shared" si="49"/>
         <v>103811.94004467342</v>
       </c>
       <c r="AW50" s="24">
-        <f t="shared" ref="AW50" si="39">AW14+AW32</f>
+        <f t="shared" ref="AW50" si="50">AW14+AW32</f>
         <v>108981.75309239743</v>
       </c>
       <c r="AY50" s="2">
@@ -11131,15 +11131,15 @@
         <v>1</v>
       </c>
       <c r="BC50" s="23">
-        <f>AU50/F49</f>
+        <f t="shared" si="39"/>
         <v>1.0624586637328239</v>
       </c>
       <c r="BD50" s="23">
-        <f t="shared" si="32"/>
+        <f t="shared" si="43"/>
         <v>1.062608209830759</v>
       </c>
       <c r="BE50" s="23">
-        <f t="shared" si="33"/>
+        <f t="shared" si="44"/>
         <v>1.0626890804741922</v>
       </c>
     </row>
@@ -11154,11 +11154,11 @@
         <v>22</v>
       </c>
       <c r="E51" s="26">
-        <f t="shared" ref="E51:F51" si="40">E15+E33</f>
+        <f t="shared" ref="E51:F51" si="51">E15+E33</f>
         <v>113575</v>
       </c>
       <c r="F51" s="26">
-        <f t="shared" si="40"/>
+        <f t="shared" si="51"/>
         <v>134170</v>
       </c>
       <c r="V51" s="2">
@@ -11174,39 +11174,39 @@
         <v>0.23735999999999999</v>
       </c>
       <c r="Z51" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>-0.58360406110137819</v>
       </c>
       <c r="AA51" s="6">
-        <f>1/(1+EXP(-2*(O$14*1+O$15*0)-2*1*Z51))</f>
+        <f t="shared" si="25"/>
         <v>0.24839174718321136</v>
       </c>
       <c r="AB51" s="6">
-        <f>1/(1+EXP(-2*(O$14*2/3+O$15*1/3)-2*1*Z51))</f>
+        <f t="shared" si="26"/>
         <v>0.25976157826539986</v>
       </c>
       <c r="AC51" s="6">
-        <f>1/(1+EXP(-2*(O$14*1/3+O$15*2/3)-2*1*Z51))</f>
+        <f t="shared" si="27"/>
         <v>0.27146387835560432</v>
       </c>
       <c r="AD51" s="6">
-        <f>1/(1+EXP(-2*(O$14*0+O$15*1)-2*1*Z51))</f>
+        <f t="shared" si="28"/>
         <v>0.28349146909753736</v>
       </c>
       <c r="AE51" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>0.17009658128322236</v>
       </c>
       <c r="AF51" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>0.17834472370292723</v>
       </c>
       <c r="AG51" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>0.18688611409871531</v>
       </c>
       <c r="AH51" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="31"/>
         <v>0.19572163412497329</v>
       </c>
       <c r="AJ51" s="15" t="s">
@@ -11240,15 +11240,15 @@
         <v>22</v>
       </c>
       <c r="AU51" s="24">
-        <f t="shared" ref="AU51:AV51" si="41">AU15+AU33</f>
+        <f t="shared" ref="AU51:AV51" si="52">AU15+AU33</f>
         <v>132127.76491153485</v>
       </c>
       <c r="AV51" s="24">
-        <f t="shared" si="41"/>
+        <f t="shared" si="52"/>
         <v>124950.02275871017</v>
       </c>
       <c r="AW51" s="24">
-        <f t="shared" ref="AW51" si="42">AW15+AW33</f>
+        <f t="shared" ref="AW51" si="53">AW15+AW33</f>
         <v>129628.73417777056</v>
       </c>
       <c r="AY51" s="2">
@@ -11264,15 +11264,15 @@
         <v>1</v>
       </c>
       <c r="BC51" s="23">
-        <f>AU51/F50</f>
+        <f t="shared" si="39"/>
         <v>1.2480189374849802</v>
       </c>
       <c r="BD51" s="23">
-        <f t="shared" si="32"/>
+        <f t="shared" si="43"/>
         <v>1.2485094568146455</v>
       </c>
       <c r="BE51" s="23">
-        <f t="shared" si="33"/>
+        <f t="shared" si="44"/>
         <v>1.2486881000585037</v>
       </c>
     </row>
@@ -11287,11 +11287,11 @@
         <v>22</v>
       </c>
       <c r="E52" s="26">
-        <f t="shared" ref="E52:F52" si="43">E16+E34</f>
+        <f t="shared" ref="E52:F52" si="54">E16+E34</f>
         <v>114818</v>
       </c>
       <c r="F52" s="26">
-        <f t="shared" si="43"/>
+        <f t="shared" si="54"/>
         <v>134289</v>
       </c>
       <c r="V52" s="2">
@@ -11307,39 +11307,39 @@
         <v>8.6919999999999997E-2</v>
       </c>
       <c r="Z52" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>-1.1759176722941014</v>
       </c>
       <c r="AA52" s="6">
-        <f>1/(1+EXP(-2*(O$14*1+O$15*0)-2*1*Z52))</f>
+        <f t="shared" si="25"/>
         <v>9.1801415383233345E-2</v>
       </c>
       <c r="AB52" s="6">
-        <f>1/(1+EXP(-2*(O$14*2/3+O$15*1/3)-2*1*Z52))</f>
+        <f t="shared" si="26"/>
         <v>9.6927869140454606E-2</v>
       </c>
       <c r="AC52" s="6">
-        <f>1/(1+EXP(-2*(O$14*1/3+O$15*2/3)-2*1*Z52))</f>
+        <f t="shared" si="27"/>
         <v>0.10230834984182632</v>
       </c>
       <c r="AD52" s="6">
-        <f>1/(1+EXP(-2*(O$14*0+O$15*1)-2*1*Z52))</f>
+        <f t="shared" si="28"/>
         <v>0.10795179915240924</v>
       </c>
       <c r="AE52" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>5.5012204011290804E-2</v>
       </c>
       <c r="AF52" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>5.8127964473718124E-2</v>
       </c>
       <c r="AG52" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>6.1403545212146235E-2</v>
       </c>
       <c r="AH52" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="31"/>
         <v>6.4845277818319377E-2</v>
       </c>
       <c r="AJ52" s="15" t="s">
@@ -11373,15 +11373,15 @@
         <v>22</v>
       </c>
       <c r="AU52" s="24">
-        <f t="shared" ref="AU52:AV52" si="44">AU16+AU34</f>
+        <f t="shared" ref="AU52:AV52" si="55">AU16+AU34</f>
         <v>158666.90935719205</v>
       </c>
       <c r="AV52" s="24">
-        <f t="shared" si="44"/>
+        <f t="shared" si="55"/>
         <v>156278.63121389959</v>
       </c>
       <c r="AW52" s="24">
-        <f t="shared" ref="AW52" si="45">AW16+AW34</f>
+        <f t="shared" ref="AW52" si="56">AW16+AW34</f>
         <v>147813.31290334451</v>
       </c>
       <c r="AY52" s="2">
@@ -11397,15 +11397,15 @@
         <v>1</v>
       </c>
       <c r="BC52" s="23">
-        <f>AU52/F51</f>
+        <f t="shared" si="39"/>
         <v>1.1825811236281736</v>
       </c>
       <c r="BD52" s="23">
-        <f t="shared" si="32"/>
+        <f t="shared" si="43"/>
         <v>1.1827841886111883</v>
       </c>
       <c r="BE52" s="23">
-        <f t="shared" si="33"/>
+        <f t="shared" si="44"/>
         <v>1.1829794796339128</v>
       </c>
     </row>
@@ -11420,11 +11420,11 @@
         <v>22</v>
       </c>
       <c r="E53" s="26">
-        <f t="shared" ref="E53:F53" si="46">E17+E35</f>
+        <f t="shared" ref="E53:F53" si="57">E17+E35</f>
         <v>114905</v>
       </c>
       <c r="F53" s="26">
-        <f t="shared" si="46"/>
+        <f t="shared" si="57"/>
         <v>124143</v>
       </c>
       <c r="V53" s="2">
@@ -11440,39 +11440,39 @@
         <v>1.7180000000000001E-2</v>
       </c>
       <c r="Z53" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>-2.0233400369521028</v>
       </c>
       <c r="AA53" s="6">
-        <f>1/(1+EXP(-2*(O$14*1+O$15*0)-2*1*Z53))</f>
+        <f t="shared" si="25"/>
         <v>1.8222992639348266E-2</v>
       </c>
       <c r="AB53" s="6">
-        <f>1/(1+EXP(-2*(O$14*2/3+O$15*1/3)-2*1*Z53))</f>
+        <f t="shared" si="26"/>
         <v>1.9328059806981646E-2</v>
       </c>
       <c r="AC53" s="6">
-        <f>1/(1+EXP(-2*(O$14*1/3+O$15*2/3)-2*1*Z53))</f>
+        <f t="shared" si="27"/>
         <v>2.0498740582466143E-2</v>
       </c>
       <c r="AD53" s="6">
-        <f>1/(1+EXP(-2*(O$14*0+O$15*1)-2*1*Z53))</f>
+        <f t="shared" si="28"/>
         <v>2.1738756484229523E-2</v>
       </c>
       <c r="AE53" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>9.9184162513928937E-3</v>
       </c>
       <c r="AF53" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>1.0520761480211555E-2</v>
       </c>
       <c r="AG53" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>1.1158982812303687E-2</v>
       </c>
       <c r="AH53" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="31"/>
         <v>1.1835129418396326E-2</v>
       </c>
       <c r="AJ53" s="15" t="s">
@@ -11506,15 +11506,15 @@
         <v>22</v>
       </c>
       <c r="AU53" s="24">
-        <f t="shared" ref="AU53:AV53" si="47">AU17+AU35</f>
+        <f t="shared" ref="AU53:AV53" si="58">AU17+AU35</f>
         <v>145248.03649140964</v>
       </c>
       <c r="AV53" s="24">
-        <f t="shared" si="47"/>
+        <f t="shared" si="58"/>
         <v>171678.83318404824</v>
       </c>
       <c r="AW53" s="24">
-        <f t="shared" ref="AW53" si="48">AW17+AW35</f>
+        <f t="shared" ref="AW53" si="59">AW17+AW35</f>
         <v>169105.05633185664</v>
       </c>
       <c r="AY53" s="2">
@@ -11530,15 +11530,15 @@
         <v>1</v>
       </c>
       <c r="BC53" s="23">
-        <f>AU53/F52</f>
+        <f t="shared" si="39"/>
         <v>1.08160784942482</v>
       </c>
       <c r="BD53" s="23">
-        <f t="shared" si="32"/>
+        <f t="shared" si="43"/>
         <v>1.0820077978424831</v>
       </c>
       <c r="BE53" s="23">
-        <f t="shared" si="33"/>
+        <f t="shared" si="44"/>
         <v>1.0820740815191903</v>
       </c>
     </row>
@@ -11553,11 +11553,11 @@
         <v>22</v>
       </c>
       <c r="E54" s="26">
-        <f t="shared" ref="E54:F54" si="49">E18+E36</f>
+        <f t="shared" ref="E54:F54" si="60">E18+E36</f>
         <v>112603</v>
       </c>
       <c r="F54" s="26">
-        <f t="shared" si="49"/>
+        <f t="shared" si="60"/>
         <v>117665</v>
       </c>
       <c r="V54" s="2">
@@ -11573,23 +11573,23 @@
         <v>1.5200000000000001E-3</v>
       </c>
       <c r="Z54" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>-3.2437618938760067</v>
       </c>
       <c r="AA54" s="6">
-        <f>1/(1+EXP(-2*(O$14*1+O$15*0)-2*1*Z54))</f>
+        <f t="shared" si="25"/>
         <v>1.6138398634375211E-3</v>
       </c>
       <c r="AB54" s="6">
-        <f>1/(1+EXP(-2*(O$14*2/3+O$15*1/3)-2*1*Z54))</f>
+        <f t="shared" si="26"/>
         <v>1.7134631534414624E-3</v>
       </c>
       <c r="AC54" s="6">
-        <f>1/(1+EXP(-2*(O$14*1/3+O$15*2/3)-2*1*Z54))</f>
+        <f t="shared" si="27"/>
         <v>1.8192250421412317E-3</v>
       </c>
       <c r="AD54" s="6">
-        <f>1/(1+EXP(-2*(O$14*0+O$15*1)-2*1*Z54))</f>
+        <f t="shared" si="28"/>
         <v>1.9315023525631309E-3</v>
       </c>
       <c r="AE54" s="6">
@@ -11601,11 +11601,11 @@
         <v>8.9055622351595404E-4</v>
       </c>
       <c r="AG54" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>9.4552861696760662E-4</v>
       </c>
       <c r="AH54" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="31"/>
         <v>1.0038880301158556E-3</v>
       </c>
       <c r="AJ54" s="15" t="s">
@@ -11639,15 +11639,15 @@
         <v>22</v>
       </c>
       <c r="AU54" s="24">
-        <f t="shared" ref="AU54:AV54" si="50">AU18+AU36</f>
+        <f t="shared" ref="AU54:AV54" si="61">AU18+AU36</f>
         <v>127168.2782057251</v>
       </c>
       <c r="AV54" s="24">
-        <f t="shared" si="50"/>
+        <f t="shared" si="61"/>
         <v>148835.90832005339</v>
       </c>
       <c r="AW54" s="24">
-        <f t="shared" ref="AW54" si="51">AW18+AW36</f>
+        <f t="shared" ref="AW54" si="62">AW18+AW36</f>
         <v>175973.94547959755</v>
       </c>
       <c r="AY54" s="2">
@@ -11663,15 +11663,15 @@
         <v>1</v>
       </c>
       <c r="BC54" s="23">
-        <f>AU54/F53</f>
+        <f t="shared" si="39"/>
         <v>1.0243693015774156</v>
       </c>
       <c r="BD54" s="23">
-        <f t="shared" si="32"/>
+        <f t="shared" si="43"/>
         <v>1.0247016890232175</v>
       </c>
       <c r="BE54" s="23">
-        <f t="shared" si="33"/>
+        <f t="shared" si="44"/>
         <v>1.0250182985047711</v>
       </c>
     </row>
@@ -11686,11 +11686,11 @@
         <v>22</v>
       </c>
       <c r="E55" s="26">
-        <f t="shared" ref="E55:F55" si="52">E19+E37</f>
+        <f t="shared" ref="E55:F55" si="63">E19+E37</f>
         <v>113877</v>
       </c>
       <c r="F55" s="26">
-        <f t="shared" si="52"/>
+        <f t="shared" si="63"/>
         <v>112553</v>
       </c>
       <c r="V55" s="2">
@@ -11706,23 +11706,23 @@
         <v>6.0000000000000002E-5</v>
       </c>
       <c r="Z55" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>-4.8605529969710508</v>
       </c>
       <c r="AA55" s="6">
-        <f>1/(1+EXP(-2*(O$14*1+O$15*0)-2*1*Z55))</f>
+        <f t="shared" si="25"/>
         <v>6.3709956416500477E-5</v>
       </c>
       <c r="AB55" s="6">
-        <f>1/(1+EXP(-2*(O$14*2/3+O$15*1/3)-2*1*Z55))</f>
+        <f t="shared" si="26"/>
         <v>6.7649293590445821E-5</v>
       </c>
       <c r="AC55" s="6">
-        <f>1/(1+EXP(-2*(O$14*1/3+O$15*2/3)-2*1*Z55))</f>
+        <f t="shared" si="27"/>
         <v>7.1832191793981399E-5</v>
       </c>
       <c r="AD55" s="6">
-        <f>1/(1+EXP(-2*(O$14*0+O$15*1)-2*1*Z55))</f>
+        <f t="shared" si="28"/>
         <v>7.6273707668580466E-5</v>
       </c>
       <c r="AE55" s="14" t="s">
@@ -11768,15 +11768,15 @@
         <v>22</v>
       </c>
       <c r="AU55" s="24">
-        <f t="shared" ref="AU55:AV55" si="53">AU19+AU37</f>
+        <f t="shared" ref="AU55:AV55" si="64">AU19+AU37</f>
         <v>117675.69857845402</v>
       </c>
       <c r="AV55" s="24">
-        <f t="shared" si="53"/>
+        <f t="shared" si="64"/>
         <v>127244.67041888837</v>
       </c>
       <c r="AW55" s="24">
-        <f t="shared" ref="AW55" si="54">AW19+AW37</f>
+        <f t="shared" ref="AW55" si="65">AW19+AW37</f>
         <v>148997.43948241288</v>
       </c>
       <c r="AY55" s="2">
@@ -11792,15 +11792,15 @@
         <v>1</v>
       </c>
       <c r="BC55" s="23">
-        <f>AU55/F54</f>
+        <f t="shared" si="39"/>
         <v>1.0000909240509415</v>
       </c>
       <c r="BD55" s="23">
-        <f t="shared" si="32"/>
+        <f t="shared" si="43"/>
         <v>1.0006007175235925</v>
       </c>
       <c r="BE55" s="23">
-        <f t="shared" si="33"/>
+        <f t="shared" si="44"/>
         <v>1.0010852969836563</v>
       </c>
     </row>
@@ -11815,11 +11815,11 @@
         <v>22</v>
       </c>
       <c r="E56" s="26">
-        <f t="shared" ref="E56:F56" si="55">E20+E38</f>
+        <f t="shared" ref="E56:F56" si="66">E20+E38</f>
         <v>108870</v>
       </c>
       <c r="F56" s="26">
-        <f t="shared" si="55"/>
+        <f t="shared" si="66"/>
         <v>113096</v>
       </c>
       <c r="AR56" s="2">
@@ -11832,15 +11832,15 @@
         <v>22</v>
       </c>
       <c r="AU56" s="24">
-        <f t="shared" ref="AU56:AV56" si="56">AU20+AU38</f>
+        <f t="shared" ref="AU56:AV56" si="67">AU20+AU38</f>
         <v>111872.42915336337</v>
       </c>
       <c r="AV56" s="24">
-        <f t="shared" si="56"/>
+        <f t="shared" si="67"/>
         <v>117059.92462174053</v>
       </c>
       <c r="AW56" s="24">
-        <f t="shared" ref="AW56" si="57">AW20+AW38</f>
+        <f t="shared" ref="AW56" si="68">AW20+AW38</f>
         <v>126672.9391177638</v>
       </c>
       <c r="AY56" s="2">
@@ -11856,15 +11856,15 @@
         <v>1</v>
       </c>
       <c r="BC56" s="23">
-        <f>AU56/F55</f>
+        <f t="shared" si="39"/>
         <v>0.99395333001664432</v>
       </c>
       <c r="BD56" s="23">
-        <f t="shared" si="32"/>
+        <f t="shared" si="43"/>
         <v>0.99476719523102763</v>
       </c>
       <c r="BE56" s="23">
-        <f t="shared" si="33"/>
+        <f t="shared" si="44"/>
         <v>0.9955068349877253</v>
       </c>
     </row>
@@ -11879,11 +11879,11 @@
         <v>22</v>
       </c>
       <c r="E57" s="26">
-        <f t="shared" ref="E57:F57" si="58">E21+E39</f>
+        <f t="shared" ref="E57:F57" si="69">E21+E39</f>
         <v>95301</v>
       </c>
       <c r="F57" s="26">
-        <f t="shared" si="58"/>
+        <f t="shared" si="69"/>
         <v>106810</v>
       </c>
       <c r="AR57" s="2">
@@ -11896,15 +11896,15 @@
         <v>22</v>
       </c>
       <c r="AU57" s="24">
-        <f t="shared" ref="AU57:AV57" si="59">AU21+AU39</f>
+        <f t="shared" ref="AU57:AV57" si="70">AU21+AU39</f>
         <v>111100.3447016096</v>
       </c>
       <c r="AV57" s="24">
-        <f t="shared" si="59"/>
+        <f t="shared" si="70"/>
         <v>110020.9453628004</v>
       </c>
       <c r="AW57" s="24">
-        <f t="shared" ref="AW57" si="60">AW21+AW39</f>
+        <f t="shared" ref="AW57" si="71">AW21+AW39</f>
         <v>115262.54714134893</v>
       </c>
       <c r="AY57" s="2">
@@ -11920,15 +11920,15 @@
         <v>1</v>
       </c>
       <c r="BC57" s="23">
-        <f>AU57/F56</f>
+        <f t="shared" si="39"/>
         <v>0.98235432465878192</v>
       </c>
       <c r="BD57" s="23">
-        <f t="shared" si="32"/>
+        <f t="shared" si="43"/>
         <v>0.9834500439064856</v>
       </c>
       <c r="BE57" s="23">
-        <f t="shared" si="33"/>
+        <f t="shared" si="44"/>
         <v>0.98464566343947746</v>
       </c>
     </row>
@@ -11943,11 +11943,11 @@
         <v>22</v>
       </c>
       <c r="E58" s="26">
-        <f t="shared" ref="E58:F58" si="61">E22+E40</f>
+        <f t="shared" ref="E58:F58" si="72">E22+E40</f>
         <v>79698</v>
       </c>
       <c r="F58" s="26">
-        <f t="shared" si="61"/>
+        <f t="shared" si="72"/>
         <v>91135</v>
       </c>
       <c r="AR58" s="2">
@@ -11960,15 +11960,15 @@
         <v>22</v>
       </c>
       <c r="AU58" s="24">
-        <f t="shared" ref="AU58:AV58" si="62">AU22+AU40</f>
+        <f t="shared" ref="AU58:AV58" si="73">AU22+AU40</f>
         <v>102318.59331370759</v>
       </c>
       <c r="AV58" s="24">
-        <f t="shared" si="62"/>
+        <f t="shared" si="73"/>
         <v>106619.59823821575</v>
       </c>
       <c r="AW58" s="24">
-        <f t="shared" ref="AW58" si="63">AW22+AW40</f>
+        <f t="shared" ref="AW58" si="74">AW22+AW40</f>
         <v>105749.05005546431</v>
       </c>
       <c r="AY58" s="2">
@@ -11984,15 +11984,15 @@
         <v>1</v>
       </c>
       <c r="BC58" s="23">
-        <f>AU58/F57</f>
+        <f t="shared" si="39"/>
         <v>0.95794956758456695</v>
       </c>
       <c r="BD58" s="23">
-        <f t="shared" si="32"/>
+        <f t="shared" si="43"/>
         <v>0.95966937388512952</v>
       </c>
       <c r="BE58" s="23">
-        <f t="shared" si="33"/>
+        <f t="shared" si="44"/>
         <v>0.96117198145090221</v>
       </c>
     </row>
@@ -12007,11 +12007,11 @@
         <v>22</v>
       </c>
       <c r="E59" s="26">
-        <f t="shared" ref="E59:F59" si="64">E23+E41</f>
+        <f t="shared" ref="E59:F59" si="75">E23+E41</f>
         <v>53350</v>
       </c>
       <c r="F59" s="26">
-        <f t="shared" si="64"/>
+        <f t="shared" si="75"/>
         <v>73734</v>
       </c>
       <c r="AR59" s="2">
@@ -12024,15 +12024,15 @@
         <v>22</v>
       </c>
       <c r="AU59" s="24">
-        <f t="shared" ref="AU59:AV59" si="65">AU23+AU41</f>
+        <f t="shared" ref="AU59:AV59" si="76">AU23+AU41</f>
         <v>84530.596744351846</v>
       </c>
       <c r="AV59" s="24">
-        <f t="shared" si="65"/>
+        <f t="shared" si="76"/>
         <v>95119.725089075029</v>
       </c>
       <c r="AW59" s="24">
-        <f t="shared" ref="AW59" si="66">AW23+AW41</f>
+        <f t="shared" ref="AW59" si="77">AW23+AW41</f>
         <v>99357.528429382044</v>
       </c>
       <c r="AY59" s="2">
@@ -12048,15 +12048,15 @@
         <v>1</v>
       </c>
       <c r="BC59" s="23">
-        <f>AU59/F58</f>
+        <f t="shared" si="39"/>
         <v>0.92753164804248478</v>
       </c>
       <c r="BD59" s="23">
-        <f t="shared" si="32"/>
+        <f t="shared" si="43"/>
         <v>0.92964261927877645</v>
       </c>
       <c r="BE59" s="23">
-        <f t="shared" si="33"/>
+        <f t="shared" si="44"/>
         <v>0.93188804001485381</v>
       </c>
     </row>
@@ -12071,11 +12071,11 @@
         <v>22</v>
       </c>
       <c r="E60" s="26">
-        <f t="shared" ref="E60:F60" si="67">E24+E42</f>
+        <f t="shared" ref="E60:F60" si="78">E24+E42</f>
         <v>38068</v>
       </c>
       <c r="F60" s="26">
-        <f t="shared" si="67"/>
+        <f t="shared" si="78"/>
         <v>48364</v>
       </c>
       <c r="AR60" s="2">
@@ -12088,15 +12088,15 @@
         <v>22</v>
       </c>
       <c r="AU60" s="24">
-        <f t="shared" ref="AU60:AV60" si="68">AU24+AU42</f>
+        <f t="shared" ref="AU60:AV60" si="79">AU24+AU42</f>
         <v>67092.085184011696</v>
       </c>
       <c r="AV60" s="24">
-        <f t="shared" si="68"/>
+        <f t="shared" si="79"/>
         <v>77179.769896021244</v>
       </c>
       <c r="AW60" s="24">
-        <f t="shared" ref="AW60" si="69">AW24+AW42</f>
+        <f t="shared" ref="AW60" si="80">AW24+AW42</f>
         <v>87118.155575075332</v>
       </c>
       <c r="AY60" s="2">
@@ -12112,15 +12112,15 @@
         <v>1</v>
       </c>
       <c r="BC60" s="23">
-        <f>AU60/F59</f>
+        <f t="shared" si="39"/>
         <v>0.9099205954378129</v>
       </c>
       <c r="BD60" s="23">
-        <f t="shared" si="32"/>
+        <f t="shared" si="43"/>
         <v>0.91303945397946373</v>
       </c>
       <c r="BE60" s="23">
-        <f t="shared" si="33"/>
+        <f t="shared" si="44"/>
         <v>0.91587896720152828</v>
       </c>
     </row>
@@ -12135,11 +12135,11 @@
         <v>22</v>
       </c>
       <c r="E61" s="26">
-        <f t="shared" ref="E61:F61" si="70">E25+E43</f>
+        <f t="shared" ref="E61:F61" si="81">E25+E43</f>
         <v>29248</v>
       </c>
       <c r="F61" s="26">
-        <f t="shared" si="70"/>
+        <f t="shared" si="81"/>
         <v>33675</v>
       </c>
       <c r="AR61" s="2">
@@ -12152,15 +12152,15 @@
         <v>22</v>
       </c>
       <c r="AU61" s="24">
-        <f t="shared" ref="AU61:AV61" si="71">AU25+AU43</f>
+        <f t="shared" ref="AU61:AV61" si="82">AU25+AU43</f>
         <v>42995.561786120175</v>
       </c>
       <c r="AV61" s="24">
-        <f t="shared" si="71"/>
+        <f t="shared" si="82"/>
         <v>59946.285278544674</v>
       </c>
       <c r="AW61" s="24">
-        <f t="shared" ref="AW61" si="72">AW25+AW43</f>
+        <f t="shared" ref="AW61" si="83">AW25+AW43</f>
         <v>69286.834140951134</v>
       </c>
       <c r="AY61" s="2">
@@ -12176,15 +12176,15 @@
         <v>1</v>
       </c>
       <c r="BC61" s="23">
-        <f>AU61/F60</f>
+        <f t="shared" si="39"/>
         <v>0.88899929257547294</v>
       </c>
       <c r="BD61" s="23">
-        <f t="shared" si="32"/>
+        <f t="shared" si="43"/>
         <v>0.89349265437393366</v>
       </c>
       <c r="BE61" s="23">
-        <f t="shared" si="33"/>
+        <f t="shared" si="44"/>
         <v>0.89773310071144685</v>
       </c>
     </row>
@@ -12199,11 +12199,11 @@
         <v>22</v>
       </c>
       <c r="E62" s="26">
-        <f t="shared" ref="E62:F62" si="73">E26+E44</f>
+        <f t="shared" ref="E62:F62" si="84">E26+E44</f>
         <v>23339</v>
       </c>
       <c r="F62" s="26">
-        <f t="shared" si="73"/>
+        <f t="shared" si="84"/>
         <v>24300</v>
       </c>
       <c r="AR62" s="2">
@@ -12216,15 +12216,15 @@
         <v>22</v>
       </c>
       <c r="AU62" s="24">
-        <f t="shared" ref="AU62:AV62" si="74">AU26+AU44</f>
+        <f t="shared" ref="AU62:AV62" si="85">AU26+AU44</f>
         <v>28158.956329267552</v>
       </c>
       <c r="AV62" s="24">
-        <f t="shared" si="74"/>
+        <f t="shared" si="85"/>
         <v>36193.337701111006</v>
       </c>
       <c r="AW62" s="24">
-        <f t="shared" ref="AW62" si="75">AW26+AW44</f>
+        <f t="shared" ref="AW62" si="86">AW26+AW44</f>
         <v>50813.797840467378</v>
       </c>
       <c r="AY62" s="2">
@@ -12240,15 +12240,15 @@
         <v>1</v>
       </c>
       <c r="BC62" s="23">
-        <f>AU62/F61</f>
+        <f t="shared" si="39"/>
         <v>0.83619766382383232</v>
       </c>
       <c r="BD62" s="23">
-        <f t="shared" si="32"/>
+        <f t="shared" si="43"/>
         <v>0.84179241292748819</v>
       </c>
       <c r="BE62" s="23">
-        <f t="shared" si="33"/>
+        <f t="shared" si="44"/>
         <v>0.84765549031699716</v>
       </c>
     </row>
@@ -12263,11 +12263,11 @@
         <v>22</v>
       </c>
       <c r="E63" s="26">
-        <f t="shared" ref="E63:F63" si="76">E27+E45</f>
+        <f t="shared" ref="E63:F63" si="87">E27+E45</f>
         <v>24976</v>
       </c>
       <c r="F63" s="26">
-        <f t="shared" si="76"/>
+        <f t="shared" si="87"/>
         <v>28795</v>
       </c>
       <c r="AR63" s="2">
@@ -12280,15 +12280,15 @@
         <v>22</v>
       </c>
       <c r="AU63" s="24">
-        <f t="shared" ref="AU63:AV63" si="77">AU27+AU45</f>
+        <f t="shared" ref="AU63:AV63" si="88">AU27+AU45</f>
         <v>31813.27336321133</v>
       </c>
       <c r="AV63" s="24">
-        <f t="shared" si="77"/>
+        <f t="shared" si="88"/>
         <v>36132.349736241988</v>
       </c>
       <c r="AW63" s="24">
-        <f t="shared" ref="AW63" si="78">AW27+AW45</f>
+        <f t="shared" ref="AW63" si="89">AW27+AW45</f>
         <v>43822.603926355587</v>
       </c>
       <c r="AY63" s="2">
